--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -551,7 +551,11 @@
           <t>et</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -670,7 +674,11 @@
           <t>gen</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/generic/</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -789,7 +797,11 @@
           <t>pav</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://purl.org/pav/</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -908,7 +920,11 @@
           <t>dct</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -1027,7 +1043,11 @@
           <t>owl</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2002/07/owl#</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1146,7 +1166,11 @@
           <t>xsd</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1265,7 +1289,11 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1384,7 +1412,11 @@
           <t>puv</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1503,7 +1535,11 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1622,7 +1658,11 @@
           <t>vaof</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://purl.org/vocommons/voaf#</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1741,7 +1781,11 @@
           <t>qudt</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1860,7 +1904,11 @@
           <t>doap</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>usefulinc.com/ns/doap#</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1979,7 +2027,11 @@
           <t>drf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/elter_drf/</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -2098,7 +2150,11 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -2217,7 +2273,11 @@
           <t>rdf</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2336,7 +2396,11 @@
           <t>rdfs</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2455,7 +2519,11 @@
           <t>omv</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>http://omv.ontoware.org/2005/05/ontology</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -2574,7 +2642,11 @@
           <t>schema</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>http://schema.org/</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -2693,7 +2765,11 @@
           <t>dwc</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>http://rs.tdwg.org/dwc/terms/</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2812,7 +2888,11 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -6335,14 +6335,10 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Station Core Fields</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>StationCoreFields</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
@@ -6474,14 +6470,10 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Station Extended Fields</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>StationExtendedFields</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
@@ -6613,14 +6605,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Method Core Fields</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>MethodCoreFields</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -6752,14 +6740,10 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mpthod Extended fileds</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>MpthodExtendedfileds</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
@@ -6891,14 +6875,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Data Measurements</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>DataMeasurements</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -7030,14 +7010,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Data Mapping</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>DataMapping</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
@@ -7169,14 +7145,10 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Data Extended Fields</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>DataExtendedFields</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -7308,14 +7280,10 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Reference Core Fields</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>ReferenceCoreFields</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -7447,14 +7415,10 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Event Core Fields</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>EventCoreFields</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
@@ -7586,14 +7550,10 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Event Extended Fields</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>EventExtendedFields</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
@@ -7725,14 +7685,10 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sample Event</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
+          <t>SampleEvent</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE165"/>
+  <dimension ref="A1:CR165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,19 +526,6 @@
       <c r="CP1" t="inlineStr"/>
       <c r="CQ1" t="inlineStr"/>
       <c r="CR1" t="inlineStr"/>
-      <c r="CS1" t="inlineStr"/>
-      <c r="CT1" t="inlineStr"/>
-      <c r="CU1" t="inlineStr"/>
-      <c r="CV1" t="inlineStr"/>
-      <c r="CW1" t="inlineStr"/>
-      <c r="CX1" t="inlineStr"/>
-      <c r="CY1" t="inlineStr"/>
-      <c r="CZ1" t="inlineStr"/>
-      <c r="DA1" t="inlineStr"/>
-      <c r="DB1" t="inlineStr"/>
-      <c r="DC1" t="inlineStr"/>
-      <c r="DD1" t="inlineStr"/>
-      <c r="DE1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -649,19 +636,6 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -772,19 +746,6 @@
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="inlineStr"/>
-      <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="inlineStr"/>
-      <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="inlineStr"/>
-      <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr"/>
-      <c r="DD3" t="inlineStr"/>
-      <c r="DE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -895,19 +856,6 @@
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="inlineStr"/>
-      <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="inlineStr"/>
-      <c r="CX4" t="inlineStr"/>
-      <c r="CY4" t="inlineStr"/>
-      <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="inlineStr"/>
-      <c r="DB4" t="inlineStr"/>
-      <c r="DC4" t="inlineStr"/>
-      <c r="DD4" t="inlineStr"/>
-      <c r="DE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1018,19 +966,6 @@
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="inlineStr"/>
-      <c r="CT5" t="inlineStr"/>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="inlineStr"/>
-      <c r="CW5" t="inlineStr"/>
-      <c r="CX5" t="inlineStr"/>
-      <c r="CY5" t="inlineStr"/>
-      <c r="CZ5" t="inlineStr"/>
-      <c r="DA5" t="inlineStr"/>
-      <c r="DB5" t="inlineStr"/>
-      <c r="DC5" t="inlineStr"/>
-      <c r="DD5" t="inlineStr"/>
-      <c r="DE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1141,19 +1076,6 @@
       <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
       <c r="CR6" t="inlineStr"/>
-      <c r="CS6" t="inlineStr"/>
-      <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="inlineStr"/>
-      <c r="CX6" t="inlineStr"/>
-      <c r="CY6" t="inlineStr"/>
-      <c r="CZ6" t="inlineStr"/>
-      <c r="DA6" t="inlineStr"/>
-      <c r="DB6" t="inlineStr"/>
-      <c r="DC6" t="inlineStr"/>
-      <c r="DD6" t="inlineStr"/>
-      <c r="DE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1264,19 +1186,6 @@
       <c r="CP7" t="inlineStr"/>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="inlineStr"/>
-      <c r="CX7" t="inlineStr"/>
-      <c r="CY7" t="inlineStr"/>
-      <c r="CZ7" t="inlineStr"/>
-      <c r="DA7" t="inlineStr"/>
-      <c r="DB7" t="inlineStr"/>
-      <c r="DC7" t="inlineStr"/>
-      <c r="DD7" t="inlineStr"/>
-      <c r="DE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1387,19 +1296,6 @@
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
-      <c r="CV8" t="inlineStr"/>
-      <c r="CW8" t="inlineStr"/>
-      <c r="CX8" t="inlineStr"/>
-      <c r="CY8" t="inlineStr"/>
-      <c r="CZ8" t="inlineStr"/>
-      <c r="DA8" t="inlineStr"/>
-      <c r="DB8" t="inlineStr"/>
-      <c r="DC8" t="inlineStr"/>
-      <c r="DD8" t="inlineStr"/>
-      <c r="DE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,19 +1406,6 @@
       <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
-      <c r="CV9" t="inlineStr"/>
-      <c r="CW9" t="inlineStr"/>
-      <c r="CX9" t="inlineStr"/>
-      <c r="CY9" t="inlineStr"/>
-      <c r="CZ9" t="inlineStr"/>
-      <c r="DA9" t="inlineStr"/>
-      <c r="DB9" t="inlineStr"/>
-      <c r="DC9" t="inlineStr"/>
-      <c r="DD9" t="inlineStr"/>
-      <c r="DE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1633,19 +1516,6 @@
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
-      <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="inlineStr"/>
-      <c r="CX10" t="inlineStr"/>
-      <c r="CY10" t="inlineStr"/>
-      <c r="CZ10" t="inlineStr"/>
-      <c r="DA10" t="inlineStr"/>
-      <c r="DB10" t="inlineStr"/>
-      <c r="DC10" t="inlineStr"/>
-      <c r="DD10" t="inlineStr"/>
-      <c r="DE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1756,19 +1626,6 @@
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
-      <c r="CV11" t="inlineStr"/>
-      <c r="CW11" t="inlineStr"/>
-      <c r="CX11" t="inlineStr"/>
-      <c r="CY11" t="inlineStr"/>
-      <c r="CZ11" t="inlineStr"/>
-      <c r="DA11" t="inlineStr"/>
-      <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr"/>
-      <c r="DD11" t="inlineStr"/>
-      <c r="DE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1879,19 +1736,6 @@
       <c r="CP12" t="inlineStr"/>
       <c r="CQ12" t="inlineStr"/>
       <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
-      <c r="CV12" t="inlineStr"/>
-      <c r="CW12" t="inlineStr"/>
-      <c r="CX12" t="inlineStr"/>
-      <c r="CY12" t="inlineStr"/>
-      <c r="CZ12" t="inlineStr"/>
-      <c r="DA12" t="inlineStr"/>
-      <c r="DB12" t="inlineStr"/>
-      <c r="DC12" t="inlineStr"/>
-      <c r="DD12" t="inlineStr"/>
-      <c r="DE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2002,19 +1846,6 @@
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="inlineStr"/>
-      <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="inlineStr"/>
-      <c r="CZ13" t="inlineStr"/>
-      <c r="DA13" t="inlineStr"/>
-      <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr"/>
-      <c r="DD13" t="inlineStr"/>
-      <c r="DE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2125,19 +1956,6 @@
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
-      <c r="CV14" t="inlineStr"/>
-      <c r="CW14" t="inlineStr"/>
-      <c r="CX14" t="inlineStr"/>
-      <c r="CY14" t="inlineStr"/>
-      <c r="CZ14" t="inlineStr"/>
-      <c r="DA14" t="inlineStr"/>
-      <c r="DB14" t="inlineStr"/>
-      <c r="DC14" t="inlineStr"/>
-      <c r="DD14" t="inlineStr"/>
-      <c r="DE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2248,19 +2066,6 @@
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
-      <c r="CV15" t="inlineStr"/>
-      <c r="CW15" t="inlineStr"/>
-      <c r="CX15" t="inlineStr"/>
-      <c r="CY15" t="inlineStr"/>
-      <c r="CZ15" t="inlineStr"/>
-      <c r="DA15" t="inlineStr"/>
-      <c r="DB15" t="inlineStr"/>
-      <c r="DC15" t="inlineStr"/>
-      <c r="DD15" t="inlineStr"/>
-      <c r="DE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2371,19 +2176,6 @@
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
-      <c r="CV16" t="inlineStr"/>
-      <c r="CW16" t="inlineStr"/>
-      <c r="CX16" t="inlineStr"/>
-      <c r="CY16" t="inlineStr"/>
-      <c r="CZ16" t="inlineStr"/>
-      <c r="DA16" t="inlineStr"/>
-      <c r="DB16" t="inlineStr"/>
-      <c r="DC16" t="inlineStr"/>
-      <c r="DD16" t="inlineStr"/>
-      <c r="DE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2494,19 +2286,6 @@
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr"/>
-      <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="inlineStr"/>
-      <c r="CZ17" t="inlineStr"/>
-      <c r="DA17" t="inlineStr"/>
-      <c r="DB17" t="inlineStr"/>
-      <c r="DC17" t="inlineStr"/>
-      <c r="DD17" t="inlineStr"/>
-      <c r="DE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2617,19 +2396,6 @@
       <c r="CP18" t="inlineStr"/>
       <c r="CQ18" t="inlineStr"/>
       <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
-      <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
-      <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="inlineStr"/>
-      <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="inlineStr"/>
-      <c r="CZ18" t="inlineStr"/>
-      <c r="DA18" t="inlineStr"/>
-      <c r="DB18" t="inlineStr"/>
-      <c r="DC18" t="inlineStr"/>
-      <c r="DD18" t="inlineStr"/>
-      <c r="DE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2740,19 +2506,6 @@
       <c r="CP19" t="inlineStr"/>
       <c r="CQ19" t="inlineStr"/>
       <c r="CR19" t="inlineStr"/>
-      <c r="CS19" t="inlineStr"/>
-      <c r="CT19" t="inlineStr"/>
-      <c r="CU19" t="inlineStr"/>
-      <c r="CV19" t="inlineStr"/>
-      <c r="CW19" t="inlineStr"/>
-      <c r="CX19" t="inlineStr"/>
-      <c r="CY19" t="inlineStr"/>
-      <c r="CZ19" t="inlineStr"/>
-      <c r="DA19" t="inlineStr"/>
-      <c r="DB19" t="inlineStr"/>
-      <c r="DC19" t="inlineStr"/>
-      <c r="DD19" t="inlineStr"/>
-      <c r="DE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2863,19 +2616,6 @@
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr"/>
-      <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr"/>
-      <c r="CV20" t="inlineStr"/>
-      <c r="CW20" t="inlineStr"/>
-      <c r="CX20" t="inlineStr"/>
-      <c r="CY20" t="inlineStr"/>
-      <c r="CZ20" t="inlineStr"/>
-      <c r="DA20" t="inlineStr"/>
-      <c r="DB20" t="inlineStr"/>
-      <c r="DC20" t="inlineStr"/>
-      <c r="DD20" t="inlineStr"/>
-      <c r="DE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2986,19 +2726,6 @@
       <c r="CP21" t="inlineStr"/>
       <c r="CQ21" t="inlineStr"/>
       <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="inlineStr"/>
-      <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
-      <c r="CV21" t="inlineStr"/>
-      <c r="CW21" t="inlineStr"/>
-      <c r="CX21" t="inlineStr"/>
-      <c r="CY21" t="inlineStr"/>
-      <c r="CZ21" t="inlineStr"/>
-      <c r="DA21" t="inlineStr"/>
-      <c r="DB21" t="inlineStr"/>
-      <c r="DC21" t="inlineStr"/>
-      <c r="DD21" t="inlineStr"/>
-      <c r="DE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3105,19 +2832,6 @@
       <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
-      <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr"/>
-      <c r="CW22" t="inlineStr"/>
-      <c r="CX22" t="inlineStr"/>
-      <c r="CY22" t="inlineStr"/>
-      <c r="CZ22" t="inlineStr"/>
-      <c r="DA22" t="inlineStr"/>
-      <c r="DB22" t="inlineStr"/>
-      <c r="DC22" t="inlineStr"/>
-      <c r="DD22" t="inlineStr"/>
-      <c r="DE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3220,19 +2934,6 @@
       <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr"/>
       <c r="CR23" t="inlineStr"/>
-      <c r="CS23" t="inlineStr"/>
-      <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr"/>
-      <c r="CV23" t="inlineStr"/>
-      <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="inlineStr"/>
-      <c r="CY23" t="inlineStr"/>
-      <c r="CZ23" t="inlineStr"/>
-      <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="inlineStr"/>
-      <c r="DC23" t="inlineStr"/>
-      <c r="DD23" t="inlineStr"/>
-      <c r="DE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3339,19 +3040,6 @@
       <c r="CP24" t="inlineStr"/>
       <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr"/>
-      <c r="CS24" t="inlineStr"/>
-      <c r="CT24" t="inlineStr"/>
-      <c r="CU24" t="inlineStr"/>
-      <c r="CV24" t="inlineStr"/>
-      <c r="CW24" t="inlineStr"/>
-      <c r="CX24" t="inlineStr"/>
-      <c r="CY24" t="inlineStr"/>
-      <c r="CZ24" t="inlineStr"/>
-      <c r="DA24" t="inlineStr"/>
-      <c r="DB24" t="inlineStr"/>
-      <c r="DC24" t="inlineStr"/>
-      <c r="DD24" t="inlineStr"/>
-      <c r="DE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3458,19 +3146,6 @@
       <c r="CP25" t="inlineStr"/>
       <c r="CQ25" t="inlineStr"/>
       <c r="CR25" t="inlineStr"/>
-      <c r="CS25" t="inlineStr"/>
-      <c r="CT25" t="inlineStr"/>
-      <c r="CU25" t="inlineStr"/>
-      <c r="CV25" t="inlineStr"/>
-      <c r="CW25" t="inlineStr"/>
-      <c r="CX25" t="inlineStr"/>
-      <c r="CY25" t="inlineStr"/>
-      <c r="CZ25" t="inlineStr"/>
-      <c r="DA25" t="inlineStr"/>
-      <c r="DB25" t="inlineStr"/>
-      <c r="DC25" t="inlineStr"/>
-      <c r="DD25" t="inlineStr"/>
-      <c r="DE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3577,19 +3252,6 @@
       <c r="CP26" t="inlineStr"/>
       <c r="CQ26" t="inlineStr"/>
       <c r="CR26" t="inlineStr"/>
-      <c r="CS26" t="inlineStr"/>
-      <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr"/>
-      <c r="CV26" t="inlineStr"/>
-      <c r="CW26" t="inlineStr"/>
-      <c r="CX26" t="inlineStr"/>
-      <c r="CY26" t="inlineStr"/>
-      <c r="CZ26" t="inlineStr"/>
-      <c r="DA26" t="inlineStr"/>
-      <c r="DB26" t="inlineStr"/>
-      <c r="DC26" t="inlineStr"/>
-      <c r="DD26" t="inlineStr"/>
-      <c r="DE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3696,19 +3358,6 @@
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
-      <c r="CS27" t="inlineStr"/>
-      <c r="CT27" t="inlineStr"/>
-      <c r="CU27" t="inlineStr"/>
-      <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="inlineStr"/>
-      <c r="CX27" t="inlineStr"/>
-      <c r="CY27" t="inlineStr"/>
-      <c r="CZ27" t="inlineStr"/>
-      <c r="DA27" t="inlineStr"/>
-      <c r="DB27" t="inlineStr"/>
-      <c r="DC27" t="inlineStr"/>
-      <c r="DD27" t="inlineStr"/>
-      <c r="DE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3815,19 +3464,6 @@
       <c r="CP28" t="inlineStr"/>
       <c r="CQ28" t="inlineStr"/>
       <c r="CR28" t="inlineStr"/>
-      <c r="CS28" t="inlineStr"/>
-      <c r="CT28" t="inlineStr"/>
-      <c r="CU28" t="inlineStr"/>
-      <c r="CV28" t="inlineStr"/>
-      <c r="CW28" t="inlineStr"/>
-      <c r="CX28" t="inlineStr"/>
-      <c r="CY28" t="inlineStr"/>
-      <c r="CZ28" t="inlineStr"/>
-      <c r="DA28" t="inlineStr"/>
-      <c r="DB28" t="inlineStr"/>
-      <c r="DC28" t="inlineStr"/>
-      <c r="DD28" t="inlineStr"/>
-      <c r="DE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3930,19 +3566,6 @@
       <c r="CP29" t="inlineStr"/>
       <c r="CQ29" t="inlineStr"/>
       <c r="CR29" t="inlineStr"/>
-      <c r="CS29" t="inlineStr"/>
-      <c r="CT29" t="inlineStr"/>
-      <c r="CU29" t="inlineStr"/>
-      <c r="CV29" t="inlineStr"/>
-      <c r="CW29" t="inlineStr"/>
-      <c r="CX29" t="inlineStr"/>
-      <c r="CY29" t="inlineStr"/>
-      <c r="CZ29" t="inlineStr"/>
-      <c r="DA29" t="inlineStr"/>
-      <c r="DB29" t="inlineStr"/>
-      <c r="DC29" t="inlineStr"/>
-      <c r="DD29" t="inlineStr"/>
-      <c r="DE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4049,19 +3672,6 @@
       <c r="CP30" t="inlineStr"/>
       <c r="CQ30" t="inlineStr"/>
       <c r="CR30" t="inlineStr"/>
-      <c r="CS30" t="inlineStr"/>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr"/>
-      <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="inlineStr"/>
-      <c r="CX30" t="inlineStr"/>
-      <c r="CY30" t="inlineStr"/>
-      <c r="CZ30" t="inlineStr"/>
-      <c r="DA30" t="inlineStr"/>
-      <c r="DB30" t="inlineStr"/>
-      <c r="DC30" t="inlineStr"/>
-      <c r="DD30" t="inlineStr"/>
-      <c r="DE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4168,19 +3778,6 @@
       <c r="CP31" t="inlineStr"/>
       <c r="CQ31" t="inlineStr"/>
       <c r="CR31" t="inlineStr"/>
-      <c r="CS31" t="inlineStr"/>
-      <c r="CT31" t="inlineStr"/>
-      <c r="CU31" t="inlineStr"/>
-      <c r="CV31" t="inlineStr"/>
-      <c r="CW31" t="inlineStr"/>
-      <c r="CX31" t="inlineStr"/>
-      <c r="CY31" t="inlineStr"/>
-      <c r="CZ31" t="inlineStr"/>
-      <c r="DA31" t="inlineStr"/>
-      <c r="DB31" t="inlineStr"/>
-      <c r="DC31" t="inlineStr"/>
-      <c r="DD31" t="inlineStr"/>
-      <c r="DE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4287,19 +3884,6 @@
       <c r="CP32" t="inlineStr"/>
       <c r="CQ32" t="inlineStr"/>
       <c r="CR32" t="inlineStr"/>
-      <c r="CS32" t="inlineStr"/>
-      <c r="CT32" t="inlineStr"/>
-      <c r="CU32" t="inlineStr"/>
-      <c r="CV32" t="inlineStr"/>
-      <c r="CW32" t="inlineStr"/>
-      <c r="CX32" t="inlineStr"/>
-      <c r="CY32" t="inlineStr"/>
-      <c r="CZ32" t="inlineStr"/>
-      <c r="DA32" t="inlineStr"/>
-      <c r="DB32" t="inlineStr"/>
-      <c r="DC32" t="inlineStr"/>
-      <c r="DD32" t="inlineStr"/>
-      <c r="DE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4406,19 +3990,6 @@
       <c r="CP33" t="inlineStr"/>
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="inlineStr"/>
-      <c r="CS33" t="inlineStr"/>
-      <c r="CT33" t="inlineStr"/>
-      <c r="CU33" t="inlineStr"/>
-      <c r="CV33" t="inlineStr"/>
-      <c r="CW33" t="inlineStr"/>
-      <c r="CX33" t="inlineStr"/>
-      <c r="CY33" t="inlineStr"/>
-      <c r="CZ33" t="inlineStr"/>
-      <c r="DA33" t="inlineStr"/>
-      <c r="DB33" t="inlineStr"/>
-      <c r="DC33" t="inlineStr"/>
-      <c r="DD33" t="inlineStr"/>
-      <c r="DE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4525,19 +4096,6 @@
       <c r="CP34" t="inlineStr"/>
       <c r="CQ34" t="inlineStr"/>
       <c r="CR34" t="inlineStr"/>
-      <c r="CS34" t="inlineStr"/>
-      <c r="CT34" t="inlineStr"/>
-      <c r="CU34" t="inlineStr"/>
-      <c r="CV34" t="inlineStr"/>
-      <c r="CW34" t="inlineStr"/>
-      <c r="CX34" t="inlineStr"/>
-      <c r="CY34" t="inlineStr"/>
-      <c r="CZ34" t="inlineStr"/>
-      <c r="DA34" t="inlineStr"/>
-      <c r="DB34" t="inlineStr"/>
-      <c r="DC34" t="inlineStr"/>
-      <c r="DD34" t="inlineStr"/>
-      <c r="DE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4644,19 +4202,6 @@
       <c r="CP35" t="inlineStr"/>
       <c r="CQ35" t="inlineStr"/>
       <c r="CR35" t="inlineStr"/>
-      <c r="CS35" t="inlineStr"/>
-      <c r="CT35" t="inlineStr"/>
-      <c r="CU35" t="inlineStr"/>
-      <c r="CV35" t="inlineStr"/>
-      <c r="CW35" t="inlineStr"/>
-      <c r="CX35" t="inlineStr"/>
-      <c r="CY35" t="inlineStr"/>
-      <c r="CZ35" t="inlineStr"/>
-      <c r="DA35" t="inlineStr"/>
-      <c r="DB35" t="inlineStr"/>
-      <c r="DC35" t="inlineStr"/>
-      <c r="DD35" t="inlineStr"/>
-      <c r="DE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4763,19 +4308,6 @@
       <c r="CP36" t="inlineStr"/>
       <c r="CQ36" t="inlineStr"/>
       <c r="CR36" t="inlineStr"/>
-      <c r="CS36" t="inlineStr"/>
-      <c r="CT36" t="inlineStr"/>
-      <c r="CU36" t="inlineStr"/>
-      <c r="CV36" t="inlineStr"/>
-      <c r="CW36" t="inlineStr"/>
-      <c r="CX36" t="inlineStr"/>
-      <c r="CY36" t="inlineStr"/>
-      <c r="CZ36" t="inlineStr"/>
-      <c r="DA36" t="inlineStr"/>
-      <c r="DB36" t="inlineStr"/>
-      <c r="DC36" t="inlineStr"/>
-      <c r="DD36" t="inlineStr"/>
-      <c r="DE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4882,19 +4414,6 @@
       <c r="CP37" t="inlineStr"/>
       <c r="CQ37" t="inlineStr"/>
       <c r="CR37" t="inlineStr"/>
-      <c r="CS37" t="inlineStr"/>
-      <c r="CT37" t="inlineStr"/>
-      <c r="CU37" t="inlineStr"/>
-      <c r="CV37" t="inlineStr"/>
-      <c r="CW37" t="inlineStr"/>
-      <c r="CX37" t="inlineStr"/>
-      <c r="CY37" t="inlineStr"/>
-      <c r="CZ37" t="inlineStr"/>
-      <c r="DA37" t="inlineStr"/>
-      <c r="DB37" t="inlineStr"/>
-      <c r="DC37" t="inlineStr"/>
-      <c r="DD37" t="inlineStr"/>
-      <c r="DE37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5001,19 +4520,6 @@
       <c r="CP38" t="inlineStr"/>
       <c r="CQ38" t="inlineStr"/>
       <c r="CR38" t="inlineStr"/>
-      <c r="CS38" t="inlineStr"/>
-      <c r="CT38" t="inlineStr"/>
-      <c r="CU38" t="inlineStr"/>
-      <c r="CV38" t="inlineStr"/>
-      <c r="CW38" t="inlineStr"/>
-      <c r="CX38" t="inlineStr"/>
-      <c r="CY38" t="inlineStr"/>
-      <c r="CZ38" t="inlineStr"/>
-      <c r="DA38" t="inlineStr"/>
-      <c r="DB38" t="inlineStr"/>
-      <c r="DC38" t="inlineStr"/>
-      <c r="DD38" t="inlineStr"/>
-      <c r="DE38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5120,19 +4626,6 @@
       <c r="CP39" t="inlineStr"/>
       <c r="CQ39" t="inlineStr"/>
       <c r="CR39" t="inlineStr"/>
-      <c r="CS39" t="inlineStr"/>
-      <c r="CT39" t="inlineStr"/>
-      <c r="CU39" t="inlineStr"/>
-      <c r="CV39" t="inlineStr"/>
-      <c r="CW39" t="inlineStr"/>
-      <c r="CX39" t="inlineStr"/>
-      <c r="CY39" t="inlineStr"/>
-      <c r="CZ39" t="inlineStr"/>
-      <c r="DA39" t="inlineStr"/>
-      <c r="DB39" t="inlineStr"/>
-      <c r="DC39" t="inlineStr"/>
-      <c r="DD39" t="inlineStr"/>
-      <c r="DE39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5239,19 +4732,6 @@
       <c r="CP40" t="inlineStr"/>
       <c r="CQ40" t="inlineStr"/>
       <c r="CR40" t="inlineStr"/>
-      <c r="CS40" t="inlineStr"/>
-      <c r="CT40" t="inlineStr"/>
-      <c r="CU40" t="inlineStr"/>
-      <c r="CV40" t="inlineStr"/>
-      <c r="CW40" t="inlineStr"/>
-      <c r="CX40" t="inlineStr"/>
-      <c r="CY40" t="inlineStr"/>
-      <c r="CZ40" t="inlineStr"/>
-      <c r="DA40" t="inlineStr"/>
-      <c r="DB40" t="inlineStr"/>
-      <c r="DC40" t="inlineStr"/>
-      <c r="DD40" t="inlineStr"/>
-      <c r="DE40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5358,19 +4838,6 @@
       <c r="CP41" t="inlineStr"/>
       <c r="CQ41" t="inlineStr"/>
       <c r="CR41" t="inlineStr"/>
-      <c r="CS41" t="inlineStr"/>
-      <c r="CT41" t="inlineStr"/>
-      <c r="CU41" t="inlineStr"/>
-      <c r="CV41" t="inlineStr"/>
-      <c r="CW41" t="inlineStr"/>
-      <c r="CX41" t="inlineStr"/>
-      <c r="CY41" t="inlineStr"/>
-      <c r="CZ41" t="inlineStr"/>
-      <c r="DA41" t="inlineStr"/>
-      <c r="DB41" t="inlineStr"/>
-      <c r="DC41" t="inlineStr"/>
-      <c r="DD41" t="inlineStr"/>
-      <c r="DE41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5477,19 +4944,6 @@
       <c r="CP42" t="inlineStr"/>
       <c r="CQ42" t="inlineStr"/>
       <c r="CR42" t="inlineStr"/>
-      <c r="CS42" t="inlineStr"/>
-      <c r="CT42" t="inlineStr"/>
-      <c r="CU42" t="inlineStr"/>
-      <c r="CV42" t="inlineStr"/>
-      <c r="CW42" t="inlineStr"/>
-      <c r="CX42" t="inlineStr"/>
-      <c r="CY42" t="inlineStr"/>
-      <c r="CZ42" t="inlineStr"/>
-      <c r="DA42" t="inlineStr"/>
-      <c r="DB42" t="inlineStr"/>
-      <c r="DC42" t="inlineStr"/>
-      <c r="DD42" t="inlineStr"/>
-      <c r="DE42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5596,19 +5050,6 @@
       <c r="CP43" t="inlineStr"/>
       <c r="CQ43" t="inlineStr"/>
       <c r="CR43" t="inlineStr"/>
-      <c r="CS43" t="inlineStr"/>
-      <c r="CT43" t="inlineStr"/>
-      <c r="CU43" t="inlineStr"/>
-      <c r="CV43" t="inlineStr"/>
-      <c r="CW43" t="inlineStr"/>
-      <c r="CX43" t="inlineStr"/>
-      <c r="CY43" t="inlineStr"/>
-      <c r="CZ43" t="inlineStr"/>
-      <c r="DA43" t="inlineStr"/>
-      <c r="DB43" t="inlineStr"/>
-      <c r="DC43" t="inlineStr"/>
-      <c r="DD43" t="inlineStr"/>
-      <c r="DE43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5715,19 +5156,6 @@
       <c r="CP44" t="inlineStr"/>
       <c r="CQ44" t="inlineStr"/>
       <c r="CR44" t="inlineStr"/>
-      <c r="CS44" t="inlineStr"/>
-      <c r="CT44" t="inlineStr"/>
-      <c r="CU44" t="inlineStr"/>
-      <c r="CV44" t="inlineStr"/>
-      <c r="CW44" t="inlineStr"/>
-      <c r="CX44" t="inlineStr"/>
-      <c r="CY44" t="inlineStr"/>
-      <c r="CZ44" t="inlineStr"/>
-      <c r="DA44" t="inlineStr"/>
-      <c r="DB44" t="inlineStr"/>
-      <c r="DC44" t="inlineStr"/>
-      <c r="DD44" t="inlineStr"/>
-      <c r="DE44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5834,19 +5262,6 @@
       <c r="CP45" t="inlineStr"/>
       <c r="CQ45" t="inlineStr"/>
       <c r="CR45" t="inlineStr"/>
-      <c r="CS45" t="inlineStr"/>
-      <c r="CT45" t="inlineStr"/>
-      <c r="CU45" t="inlineStr"/>
-      <c r="CV45" t="inlineStr"/>
-      <c r="CW45" t="inlineStr"/>
-      <c r="CX45" t="inlineStr"/>
-      <c r="CY45" t="inlineStr"/>
-      <c r="CZ45" t="inlineStr"/>
-      <c r="DA45" t="inlineStr"/>
-      <c r="DB45" t="inlineStr"/>
-      <c r="DC45" t="inlineStr"/>
-      <c r="DD45" t="inlineStr"/>
-      <c r="DE45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5881,7 +5296,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>skos:example</t>
+          <t>skos:example@en</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5921,411 +5336,358 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>puv:uom</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>skos:note@en</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>skos:changeNote@en</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>skos:scopeNote@en</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>iop:constrains (separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>skos:hiddenLabel</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>skos:prefLabel@de</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>skos:prefLabel@ar</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>puv:uom</t>
+          <t>skos:prefLabel@bg</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>skos:note@en</t>
+          <t>skos:prefLabel@cs</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>skos:changeNote@en</t>
+          <t>skos:prefLabel@da</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>skos:prefLabel@el</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>skos:scopeNote@en</t>
+          <t>skos:prefLabel@es</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>skos:example@en</t>
+          <t>skos:prefLabel@et</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:prefLabel@fi</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>skos:hiddenLabel</t>
+          <t>skos:prefLabel@fr</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@de</t>
+          <t>skos:prefLabel@hr</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@ar</t>
+          <t>skos:prefLabel@hu</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@bg</t>
+          <t>skos:prefLabel@it</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@cs</t>
+          <t>skos:prefLabel@ja</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@da</t>
+          <t>skos:prefLabel@lt</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@el</t>
+          <t>skos:prefLabel@lv</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@es</t>
+          <t>skos:prefLabel@nl</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@et</t>
+          <t>skos:prefLabel@no</t>
         </is>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@fi</t>
+          <t>skos:prefLabel@pl</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@fr</t>
+          <t>skos:prefLabel@pt</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@hr</t>
+          <t>skos:prefLabel@ro</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@hu</t>
+          <t>skos:prefLabel@sk</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@it</t>
+          <t>skos:prefLabel@sl</t>
         </is>
       </c>
       <c r="AS46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@ja</t>
+          <t>skos:prefLabel@sv</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@lt</t>
+          <t>skos:prefLabel@zh</t>
         </is>
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@lv</t>
+          <t>skos:altLabel@de</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@nl</t>
+          <t>skos:altLabel@el</t>
         </is>
       </c>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@no</t>
+          <t>skos:altLabel@es</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@pl</t>
+          <t>skos:altLabel@fi</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@pt</t>
+          <t>skos:altLabel@fr</t>
         </is>
       </c>
       <c r="AZ46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@ro</t>
+          <t>skos:altLabel@hu</t>
         </is>
       </c>
       <c r="BA46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@sk</t>
+          <t>skos:altLabel@it</t>
         </is>
       </c>
       <c r="BB46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@sl</t>
+          <t>skos:altLabel@ja</t>
         </is>
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@sv</t>
+          <t>skos:altLabel@la</t>
         </is>
       </c>
       <c r="BD46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@zh</t>
+          <t>skos:altLabel@lt</t>
         </is>
       </c>
       <c r="BE46" t="inlineStr">
         <is>
-          <t>skos:altLabel@de</t>
+          <t>skos:altLabel@no</t>
         </is>
       </c>
       <c r="BF46" t="inlineStr">
         <is>
-          <t>skos:altLabel@el</t>
+          <t>skos:altLabel@pl</t>
         </is>
       </c>
       <c r="BG46" t="inlineStr">
         <is>
-          <t>skos:altLabel@es</t>
+          <t>skos:altLabel@pt</t>
         </is>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>skos:altLabel@fi</t>
+          <t>skos:altLabel@sl</t>
         </is>
       </c>
       <c r="BI46" t="inlineStr">
         <is>
-          <t>skos:altLabel@fr</t>
+          <t>skos:altLabel@sv</t>
         </is>
       </c>
       <c r="BJ46" t="inlineStr">
         <is>
-          <t>skos:altLabel@hu</t>
+          <t>skos:altLabel@zh</t>
         </is>
       </c>
       <c r="BK46" t="inlineStr">
         <is>
-          <t>skos:altLabel@it</t>
+          <t>skos:altLabel@zh-tw</t>
         </is>
       </c>
       <c r="BL46" t="inlineStr">
         <is>
-          <t>skos:altLabel@ja</t>
+          <t>skos:definition@de</t>
         </is>
       </c>
       <c r="BM46" t="inlineStr">
         <is>
-          <t>skos:altLabel@la</t>
+          <t>skos:definition@es</t>
         </is>
       </c>
       <c r="BN46" t="inlineStr">
         <is>
-          <t>skos:altLabel@lt</t>
+          <t>skos:definition@fi</t>
         </is>
       </c>
       <c r="BO46" t="inlineStr">
         <is>
-          <t>skos:altLabel@no</t>
+          <t>skos:definition@fr</t>
         </is>
       </c>
       <c r="BP46" t="inlineStr">
         <is>
-          <t>skos:altLabel@pl</t>
+          <t>skos:definition@it</t>
         </is>
       </c>
       <c r="BQ46" t="inlineStr">
         <is>
-          <t>skos:altLabel@pt</t>
+          <t>skos:definition@ja</t>
         </is>
       </c>
       <c r="BR46" t="inlineStr">
         <is>
-          <t>skos:altLabel@sl</t>
+          <t>skos:definition@no</t>
         </is>
       </c>
       <c r="BS46" t="inlineStr">
         <is>
-          <t>skos:altLabel@sv</t>
+          <t>skos:definition@pl</t>
         </is>
       </c>
       <c r="BT46" t="inlineStr">
         <is>
-          <t>skos:altLabel@zh</t>
+          <t>skos:definition@pt</t>
         </is>
       </c>
       <c r="BU46" t="inlineStr">
         <is>
-          <t>skos:altLabel@zh-tw</t>
+          <t>skos:definition@zh</t>
         </is>
       </c>
       <c r="BV46" t="inlineStr">
         <is>
-          <t>skos:definition@de</t>
+          <t>skos:definition@sv</t>
         </is>
       </c>
       <c r="BW46" t="inlineStr">
         <is>
-          <t>skos:definition@es</t>
+          <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
       <c r="BX46" t="inlineStr">
         <is>
-          <t>skos:definition@fi</t>
+          <t>owl:sameAs(separator=",")</t>
         </is>
       </c>
       <c r="BY46" t="inlineStr">
         <is>
-          <t>skos:definition@fr</t>
+          <t>rdfs:seeAlso</t>
         </is>
       </c>
       <c r="BZ46" t="inlineStr">
         <is>
-          <t>skos:definition@it</t>
+          <t>schema:unitCode</t>
         </is>
       </c>
       <c r="CA46" t="inlineStr">
         <is>
-          <t>skos:definition@ja</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="CB46" t="inlineStr">
         <is>
-          <t>skos:definition@no</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
-          <t>skos:definition@pl</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="CD46" t="inlineStr">
         <is>
-          <t>skos:definition@pt</t>
-        </is>
-      </c>
-      <c r="CE46" t="inlineStr">
-        <is>
-          <t>skos:definition@zh</t>
-        </is>
-      </c>
-      <c r="CF46" t="inlineStr">
-        <is>
-          <t>skos:definition@sv</t>
-        </is>
-      </c>
-      <c r="CG46" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="CH46" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="CI46" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="CJ46" t="inlineStr">
-        <is>
-          <t>schema:unitCode</t>
-        </is>
-      </c>
-      <c r="CK46" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="CL46" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="CM46" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="CN46" t="inlineStr">
-        <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
+      <c r="CE46" t="inlineStr"/>
+      <c r="CF46" t="inlineStr"/>
+      <c r="CG46" t="inlineStr"/>
+      <c r="CH46" t="inlineStr"/>
+      <c r="CI46" t="inlineStr"/>
+      <c r="CJ46" t="inlineStr"/>
+      <c r="CK46" t="inlineStr"/>
+      <c r="CL46" t="inlineStr"/>
+      <c r="CM46" t="inlineStr"/>
+      <c r="CN46" t="inlineStr"/>
       <c r="CO46" t="inlineStr"/>
       <c r="CP46" t="inlineStr"/>
       <c r="CQ46" t="inlineStr"/>
       <c r="CR46" t="inlineStr"/>
-      <c r="CS46" t="inlineStr"/>
-      <c r="CT46" t="inlineStr"/>
-      <c r="CU46" t="inlineStr"/>
-      <c r="CV46" t="inlineStr"/>
-      <c r="CW46" t="inlineStr"/>
-      <c r="CX46" t="inlineStr"/>
-      <c r="CY46" t="inlineStr"/>
-      <c r="CZ46" t="inlineStr"/>
-      <c r="DA46" t="inlineStr"/>
-      <c r="DB46" t="inlineStr"/>
-      <c r="DC46" t="inlineStr"/>
-      <c r="DD46" t="inlineStr"/>
-      <c r="DE46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6419,9 +5781,21 @@
       <c r="BY47" t="inlineStr"/>
       <c r="BZ47" t="inlineStr"/>
       <c r="CA47" t="inlineStr"/>
-      <c r="CB47" t="inlineStr"/>
-      <c r="CC47" t="inlineStr"/>
-      <c r="CD47" t="inlineStr"/>
+      <c r="CB47" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC47" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD47" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE47" t="inlineStr"/>
       <c r="CF47" t="inlineStr"/>
       <c r="CG47" t="inlineStr"/>
@@ -6429,38 +5803,13 @@
       <c r="CI47" t="inlineStr"/>
       <c r="CJ47" t="inlineStr"/>
       <c r="CK47" t="inlineStr"/>
-      <c r="CL47" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM47" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN47" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL47" t="inlineStr"/>
+      <c r="CM47" t="inlineStr"/>
+      <c r="CN47" t="inlineStr"/>
       <c r="CO47" t="inlineStr"/>
       <c r="CP47" t="inlineStr"/>
       <c r="CQ47" t="inlineStr"/>
       <c r="CR47" t="inlineStr"/>
-      <c r="CS47" t="inlineStr"/>
-      <c r="CT47" t="inlineStr"/>
-      <c r="CU47" t="inlineStr"/>
-      <c r="CV47" t="inlineStr"/>
-      <c r="CW47" t="inlineStr"/>
-      <c r="CX47" t="inlineStr"/>
-      <c r="CY47" t="inlineStr"/>
-      <c r="CZ47" t="inlineStr"/>
-      <c r="DA47" t="inlineStr"/>
-      <c r="DB47" t="inlineStr"/>
-      <c r="DC47" t="inlineStr"/>
-      <c r="DD47" t="inlineStr"/>
-      <c r="DE47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6554,9 +5903,21 @@
       <c r="BY48" t="inlineStr"/>
       <c r="BZ48" t="inlineStr"/>
       <c r="CA48" t="inlineStr"/>
-      <c r="CB48" t="inlineStr"/>
-      <c r="CC48" t="inlineStr"/>
-      <c r="CD48" t="inlineStr"/>
+      <c r="CB48" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC48" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD48" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE48" t="inlineStr"/>
       <c r="CF48" t="inlineStr"/>
       <c r="CG48" t="inlineStr"/>
@@ -6564,38 +5925,13 @@
       <c r="CI48" t="inlineStr"/>
       <c r="CJ48" t="inlineStr"/>
       <c r="CK48" t="inlineStr"/>
-      <c r="CL48" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM48" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN48" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL48" t="inlineStr"/>
+      <c r="CM48" t="inlineStr"/>
+      <c r="CN48" t="inlineStr"/>
       <c r="CO48" t="inlineStr"/>
       <c r="CP48" t="inlineStr"/>
       <c r="CQ48" t="inlineStr"/>
       <c r="CR48" t="inlineStr"/>
-      <c r="CS48" t="inlineStr"/>
-      <c r="CT48" t="inlineStr"/>
-      <c r="CU48" t="inlineStr"/>
-      <c r="CV48" t="inlineStr"/>
-      <c r="CW48" t="inlineStr"/>
-      <c r="CX48" t="inlineStr"/>
-      <c r="CY48" t="inlineStr"/>
-      <c r="CZ48" t="inlineStr"/>
-      <c r="DA48" t="inlineStr"/>
-      <c r="DB48" t="inlineStr"/>
-      <c r="DC48" t="inlineStr"/>
-      <c r="DD48" t="inlineStr"/>
-      <c r="DE48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6689,9 +6025,21 @@
       <c r="BY49" t="inlineStr"/>
       <c r="BZ49" t="inlineStr"/>
       <c r="CA49" t="inlineStr"/>
-      <c r="CB49" t="inlineStr"/>
-      <c r="CC49" t="inlineStr"/>
-      <c r="CD49" t="inlineStr"/>
+      <c r="CB49" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC49" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD49" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE49" t="inlineStr"/>
       <c r="CF49" t="inlineStr"/>
       <c r="CG49" t="inlineStr"/>
@@ -6699,38 +6047,13 @@
       <c r="CI49" t="inlineStr"/>
       <c r="CJ49" t="inlineStr"/>
       <c r="CK49" t="inlineStr"/>
-      <c r="CL49" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM49" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN49" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL49" t="inlineStr"/>
+      <c r="CM49" t="inlineStr"/>
+      <c r="CN49" t="inlineStr"/>
       <c r="CO49" t="inlineStr"/>
       <c r="CP49" t="inlineStr"/>
       <c r="CQ49" t="inlineStr"/>
       <c r="CR49" t="inlineStr"/>
-      <c r="CS49" t="inlineStr"/>
-      <c r="CT49" t="inlineStr"/>
-      <c r="CU49" t="inlineStr"/>
-      <c r="CV49" t="inlineStr"/>
-      <c r="CW49" t="inlineStr"/>
-      <c r="CX49" t="inlineStr"/>
-      <c r="CY49" t="inlineStr"/>
-      <c r="CZ49" t="inlineStr"/>
-      <c r="DA49" t="inlineStr"/>
-      <c r="DB49" t="inlineStr"/>
-      <c r="DC49" t="inlineStr"/>
-      <c r="DD49" t="inlineStr"/>
-      <c r="DE49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6824,9 +6147,21 @@
       <c r="BY50" t="inlineStr"/>
       <c r="BZ50" t="inlineStr"/>
       <c r="CA50" t="inlineStr"/>
-      <c r="CB50" t="inlineStr"/>
-      <c r="CC50" t="inlineStr"/>
-      <c r="CD50" t="inlineStr"/>
+      <c r="CB50" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC50" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD50" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE50" t="inlineStr"/>
       <c r="CF50" t="inlineStr"/>
       <c r="CG50" t="inlineStr"/>
@@ -6834,38 +6169,13 @@
       <c r="CI50" t="inlineStr"/>
       <c r="CJ50" t="inlineStr"/>
       <c r="CK50" t="inlineStr"/>
-      <c r="CL50" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM50" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN50" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL50" t="inlineStr"/>
+      <c r="CM50" t="inlineStr"/>
+      <c r="CN50" t="inlineStr"/>
       <c r="CO50" t="inlineStr"/>
       <c r="CP50" t="inlineStr"/>
       <c r="CQ50" t="inlineStr"/>
       <c r="CR50" t="inlineStr"/>
-      <c r="CS50" t="inlineStr"/>
-      <c r="CT50" t="inlineStr"/>
-      <c r="CU50" t="inlineStr"/>
-      <c r="CV50" t="inlineStr"/>
-      <c r="CW50" t="inlineStr"/>
-      <c r="CX50" t="inlineStr"/>
-      <c r="CY50" t="inlineStr"/>
-      <c r="CZ50" t="inlineStr"/>
-      <c r="DA50" t="inlineStr"/>
-      <c r="DB50" t="inlineStr"/>
-      <c r="DC50" t="inlineStr"/>
-      <c r="DD50" t="inlineStr"/>
-      <c r="DE50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6959,9 +6269,21 @@
       <c r="BY51" t="inlineStr"/>
       <c r="BZ51" t="inlineStr"/>
       <c r="CA51" t="inlineStr"/>
-      <c r="CB51" t="inlineStr"/>
-      <c r="CC51" t="inlineStr"/>
-      <c r="CD51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC51" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD51" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE51" t="inlineStr"/>
       <c r="CF51" t="inlineStr"/>
       <c r="CG51" t="inlineStr"/>
@@ -6969,38 +6291,13 @@
       <c r="CI51" t="inlineStr"/>
       <c r="CJ51" t="inlineStr"/>
       <c r="CK51" t="inlineStr"/>
-      <c r="CL51" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM51" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN51" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL51" t="inlineStr"/>
+      <c r="CM51" t="inlineStr"/>
+      <c r="CN51" t="inlineStr"/>
       <c r="CO51" t="inlineStr"/>
       <c r="CP51" t="inlineStr"/>
       <c r="CQ51" t="inlineStr"/>
       <c r="CR51" t="inlineStr"/>
-      <c r="CS51" t="inlineStr"/>
-      <c r="CT51" t="inlineStr"/>
-      <c r="CU51" t="inlineStr"/>
-      <c r="CV51" t="inlineStr"/>
-      <c r="CW51" t="inlineStr"/>
-      <c r="CX51" t="inlineStr"/>
-      <c r="CY51" t="inlineStr"/>
-      <c r="CZ51" t="inlineStr"/>
-      <c r="DA51" t="inlineStr"/>
-      <c r="DB51" t="inlineStr"/>
-      <c r="DC51" t="inlineStr"/>
-      <c r="DD51" t="inlineStr"/>
-      <c r="DE51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7094,9 +6391,21 @@
       <c r="BY52" t="inlineStr"/>
       <c r="BZ52" t="inlineStr"/>
       <c r="CA52" t="inlineStr"/>
-      <c r="CB52" t="inlineStr"/>
-      <c r="CC52" t="inlineStr"/>
-      <c r="CD52" t="inlineStr"/>
+      <c r="CB52" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC52" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD52" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE52" t="inlineStr"/>
       <c r="CF52" t="inlineStr"/>
       <c r="CG52" t="inlineStr"/>
@@ -7104,38 +6413,13 @@
       <c r="CI52" t="inlineStr"/>
       <c r="CJ52" t="inlineStr"/>
       <c r="CK52" t="inlineStr"/>
-      <c r="CL52" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM52" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN52" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL52" t="inlineStr"/>
+      <c r="CM52" t="inlineStr"/>
+      <c r="CN52" t="inlineStr"/>
       <c r="CO52" t="inlineStr"/>
       <c r="CP52" t="inlineStr"/>
       <c r="CQ52" t="inlineStr"/>
       <c r="CR52" t="inlineStr"/>
-      <c r="CS52" t="inlineStr"/>
-      <c r="CT52" t="inlineStr"/>
-      <c r="CU52" t="inlineStr"/>
-      <c r="CV52" t="inlineStr"/>
-      <c r="CW52" t="inlineStr"/>
-      <c r="CX52" t="inlineStr"/>
-      <c r="CY52" t="inlineStr"/>
-      <c r="CZ52" t="inlineStr"/>
-      <c r="DA52" t="inlineStr"/>
-      <c r="DB52" t="inlineStr"/>
-      <c r="DC52" t="inlineStr"/>
-      <c r="DD52" t="inlineStr"/>
-      <c r="DE52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7229,9 +6513,21 @@
       <c r="BY53" t="inlineStr"/>
       <c r="BZ53" t="inlineStr"/>
       <c r="CA53" t="inlineStr"/>
-      <c r="CB53" t="inlineStr"/>
-      <c r="CC53" t="inlineStr"/>
-      <c r="CD53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC53" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD53" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE53" t="inlineStr"/>
       <c r="CF53" t="inlineStr"/>
       <c r="CG53" t="inlineStr"/>
@@ -7239,38 +6535,13 @@
       <c r="CI53" t="inlineStr"/>
       <c r="CJ53" t="inlineStr"/>
       <c r="CK53" t="inlineStr"/>
-      <c r="CL53" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM53" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN53" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL53" t="inlineStr"/>
+      <c r="CM53" t="inlineStr"/>
+      <c r="CN53" t="inlineStr"/>
       <c r="CO53" t="inlineStr"/>
       <c r="CP53" t="inlineStr"/>
       <c r="CQ53" t="inlineStr"/>
       <c r="CR53" t="inlineStr"/>
-      <c r="CS53" t="inlineStr"/>
-      <c r="CT53" t="inlineStr"/>
-      <c r="CU53" t="inlineStr"/>
-      <c r="CV53" t="inlineStr"/>
-      <c r="CW53" t="inlineStr"/>
-      <c r="CX53" t="inlineStr"/>
-      <c r="CY53" t="inlineStr"/>
-      <c r="CZ53" t="inlineStr"/>
-      <c r="DA53" t="inlineStr"/>
-      <c r="DB53" t="inlineStr"/>
-      <c r="DC53" t="inlineStr"/>
-      <c r="DD53" t="inlineStr"/>
-      <c r="DE53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7364,9 +6635,21 @@
       <c r="BY54" t="inlineStr"/>
       <c r="BZ54" t="inlineStr"/>
       <c r="CA54" t="inlineStr"/>
-      <c r="CB54" t="inlineStr"/>
-      <c r="CC54" t="inlineStr"/>
-      <c r="CD54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC54" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD54" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE54" t="inlineStr"/>
       <c r="CF54" t="inlineStr"/>
       <c r="CG54" t="inlineStr"/>
@@ -7374,38 +6657,13 @@
       <c r="CI54" t="inlineStr"/>
       <c r="CJ54" t="inlineStr"/>
       <c r="CK54" t="inlineStr"/>
-      <c r="CL54" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM54" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN54" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL54" t="inlineStr"/>
+      <c r="CM54" t="inlineStr"/>
+      <c r="CN54" t="inlineStr"/>
       <c r="CO54" t="inlineStr"/>
       <c r="CP54" t="inlineStr"/>
       <c r="CQ54" t="inlineStr"/>
       <c r="CR54" t="inlineStr"/>
-      <c r="CS54" t="inlineStr"/>
-      <c r="CT54" t="inlineStr"/>
-      <c r="CU54" t="inlineStr"/>
-      <c r="CV54" t="inlineStr"/>
-      <c r="CW54" t="inlineStr"/>
-      <c r="CX54" t="inlineStr"/>
-      <c r="CY54" t="inlineStr"/>
-      <c r="CZ54" t="inlineStr"/>
-      <c r="DA54" t="inlineStr"/>
-      <c r="DB54" t="inlineStr"/>
-      <c r="DC54" t="inlineStr"/>
-      <c r="DD54" t="inlineStr"/>
-      <c r="DE54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7499,9 +6757,21 @@
       <c r="BY55" t="inlineStr"/>
       <c r="BZ55" t="inlineStr"/>
       <c r="CA55" t="inlineStr"/>
-      <c r="CB55" t="inlineStr"/>
-      <c r="CC55" t="inlineStr"/>
-      <c r="CD55" t="inlineStr"/>
+      <c r="CB55" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC55" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD55" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE55" t="inlineStr"/>
       <c r="CF55" t="inlineStr"/>
       <c r="CG55" t="inlineStr"/>
@@ -7509,38 +6779,13 @@
       <c r="CI55" t="inlineStr"/>
       <c r="CJ55" t="inlineStr"/>
       <c r="CK55" t="inlineStr"/>
-      <c r="CL55" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM55" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN55" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL55" t="inlineStr"/>
+      <c r="CM55" t="inlineStr"/>
+      <c r="CN55" t="inlineStr"/>
       <c r="CO55" t="inlineStr"/>
       <c r="CP55" t="inlineStr"/>
       <c r="CQ55" t="inlineStr"/>
       <c r="CR55" t="inlineStr"/>
-      <c r="CS55" t="inlineStr"/>
-      <c r="CT55" t="inlineStr"/>
-      <c r="CU55" t="inlineStr"/>
-      <c r="CV55" t="inlineStr"/>
-      <c r="CW55" t="inlineStr"/>
-      <c r="CX55" t="inlineStr"/>
-      <c r="CY55" t="inlineStr"/>
-      <c r="CZ55" t="inlineStr"/>
-      <c r="DA55" t="inlineStr"/>
-      <c r="DB55" t="inlineStr"/>
-      <c r="DC55" t="inlineStr"/>
-      <c r="DD55" t="inlineStr"/>
-      <c r="DE55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7634,9 +6879,21 @@
       <c r="BY56" t="inlineStr"/>
       <c r="BZ56" t="inlineStr"/>
       <c r="CA56" t="inlineStr"/>
-      <c r="CB56" t="inlineStr"/>
-      <c r="CC56" t="inlineStr"/>
-      <c r="CD56" t="inlineStr"/>
+      <c r="CB56" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC56" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD56" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE56" t="inlineStr"/>
       <c r="CF56" t="inlineStr"/>
       <c r="CG56" t="inlineStr"/>
@@ -7644,38 +6901,13 @@
       <c r="CI56" t="inlineStr"/>
       <c r="CJ56" t="inlineStr"/>
       <c r="CK56" t="inlineStr"/>
-      <c r="CL56" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM56" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN56" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL56" t="inlineStr"/>
+      <c r="CM56" t="inlineStr"/>
+      <c r="CN56" t="inlineStr"/>
       <c r="CO56" t="inlineStr"/>
       <c r="CP56" t="inlineStr"/>
       <c r="CQ56" t="inlineStr"/>
       <c r="CR56" t="inlineStr"/>
-      <c r="CS56" t="inlineStr"/>
-      <c r="CT56" t="inlineStr"/>
-      <c r="CU56" t="inlineStr"/>
-      <c r="CV56" t="inlineStr"/>
-      <c r="CW56" t="inlineStr"/>
-      <c r="CX56" t="inlineStr"/>
-      <c r="CY56" t="inlineStr"/>
-      <c r="CZ56" t="inlineStr"/>
-      <c r="DA56" t="inlineStr"/>
-      <c r="DB56" t="inlineStr"/>
-      <c r="DC56" t="inlineStr"/>
-      <c r="DD56" t="inlineStr"/>
-      <c r="DE56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7769,9 +7001,21 @@
       <c r="BY57" t="inlineStr"/>
       <c r="BZ57" t="inlineStr"/>
       <c r="CA57" t="inlineStr"/>
-      <c r="CB57" t="inlineStr"/>
-      <c r="CC57" t="inlineStr"/>
-      <c r="CD57" t="inlineStr"/>
+      <c r="CB57" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC57" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD57" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
       <c r="CE57" t="inlineStr"/>
       <c r="CF57" t="inlineStr"/>
       <c r="CG57" t="inlineStr"/>
@@ -7779,38 +7023,13 @@
       <c r="CI57" t="inlineStr"/>
       <c r="CJ57" t="inlineStr"/>
       <c r="CK57" t="inlineStr"/>
-      <c r="CL57" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM57" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN57" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL57" t="inlineStr"/>
+      <c r="CM57" t="inlineStr"/>
+      <c r="CN57" t="inlineStr"/>
       <c r="CO57" t="inlineStr"/>
       <c r="CP57" t="inlineStr"/>
       <c r="CQ57" t="inlineStr"/>
       <c r="CR57" t="inlineStr"/>
-      <c r="CS57" t="inlineStr"/>
-      <c r="CT57" t="inlineStr"/>
-      <c r="CU57" t="inlineStr"/>
-      <c r="CV57" t="inlineStr"/>
-      <c r="CW57" t="inlineStr"/>
-      <c r="CX57" t="inlineStr"/>
-      <c r="CY57" t="inlineStr"/>
-      <c r="CZ57" t="inlineStr"/>
-      <c r="DA57" t="inlineStr"/>
-      <c r="DB57" t="inlineStr"/>
-      <c r="DC57" t="inlineStr"/>
-      <c r="DD57" t="inlineStr"/>
-      <c r="DE57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7920,9 +7139,21 @@
       <c r="BY58" t="inlineStr"/>
       <c r="BZ58" t="inlineStr"/>
       <c r="CA58" t="inlineStr"/>
-      <c r="CB58" t="inlineStr"/>
-      <c r="CC58" t="inlineStr"/>
-      <c r="CD58" t="inlineStr"/>
+      <c r="CB58" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC58" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD58" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE58" t="inlineStr"/>
       <c r="CF58" t="inlineStr"/>
       <c r="CG58" t="inlineStr"/>
@@ -7930,38 +7161,13 @@
       <c r="CI58" t="inlineStr"/>
       <c r="CJ58" t="inlineStr"/>
       <c r="CK58" t="inlineStr"/>
-      <c r="CL58" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM58" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN58" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL58" t="inlineStr"/>
+      <c r="CM58" t="inlineStr"/>
+      <c r="CN58" t="inlineStr"/>
       <c r="CO58" t="inlineStr"/>
       <c r="CP58" t="inlineStr"/>
       <c r="CQ58" t="inlineStr"/>
       <c r="CR58" t="inlineStr"/>
-      <c r="CS58" t="inlineStr"/>
-      <c r="CT58" t="inlineStr"/>
-      <c r="CU58" t="inlineStr"/>
-      <c r="CV58" t="inlineStr"/>
-      <c r="CW58" t="inlineStr"/>
-      <c r="CX58" t="inlineStr"/>
-      <c r="CY58" t="inlineStr"/>
-      <c r="CZ58" t="inlineStr"/>
-      <c r="DA58" t="inlineStr"/>
-      <c r="DB58" t="inlineStr"/>
-      <c r="DC58" t="inlineStr"/>
-      <c r="DD58" t="inlineStr"/>
-      <c r="DE58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8072,9 +7278,21 @@
       <c r="BY59" t="inlineStr"/>
       <c r="BZ59" t="inlineStr"/>
       <c r="CA59" t="inlineStr"/>
-      <c r="CB59" t="inlineStr"/>
-      <c r="CC59" t="inlineStr"/>
-      <c r="CD59" t="inlineStr"/>
+      <c r="CB59" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC59" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD59" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE59" t="inlineStr"/>
       <c r="CF59" t="inlineStr"/>
       <c r="CG59" t="inlineStr"/>
@@ -8082,38 +7300,13 @@
       <c r="CI59" t="inlineStr"/>
       <c r="CJ59" t="inlineStr"/>
       <c r="CK59" t="inlineStr"/>
-      <c r="CL59" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM59" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN59" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL59" t="inlineStr"/>
+      <c r="CM59" t="inlineStr"/>
+      <c r="CN59" t="inlineStr"/>
       <c r="CO59" t="inlineStr"/>
       <c r="CP59" t="inlineStr"/>
       <c r="CQ59" t="inlineStr"/>
       <c r="CR59" t="inlineStr"/>
-      <c r="CS59" t="inlineStr"/>
-      <c r="CT59" t="inlineStr"/>
-      <c r="CU59" t="inlineStr"/>
-      <c r="CV59" t="inlineStr"/>
-      <c r="CW59" t="inlineStr"/>
-      <c r="CX59" t="inlineStr"/>
-      <c r="CY59" t="inlineStr"/>
-      <c r="CZ59" t="inlineStr"/>
-      <c r="DA59" t="inlineStr"/>
-      <c r="DB59" t="inlineStr"/>
-      <c r="DC59" t="inlineStr"/>
-      <c r="DD59" t="inlineStr"/>
-      <c r="DE59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8228,9 +7421,21 @@
       <c r="BY60" t="inlineStr"/>
       <c r="BZ60" t="inlineStr"/>
       <c r="CA60" t="inlineStr"/>
-      <c r="CB60" t="inlineStr"/>
-      <c r="CC60" t="inlineStr"/>
-      <c r="CD60" t="inlineStr"/>
+      <c r="CB60" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC60" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD60" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE60" t="inlineStr"/>
       <c r="CF60" t="inlineStr"/>
       <c r="CG60" t="inlineStr"/>
@@ -8238,38 +7443,13 @@
       <c r="CI60" t="inlineStr"/>
       <c r="CJ60" t="inlineStr"/>
       <c r="CK60" t="inlineStr"/>
-      <c r="CL60" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM60" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN60" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL60" t="inlineStr"/>
+      <c r="CM60" t="inlineStr"/>
+      <c r="CN60" t="inlineStr"/>
       <c r="CO60" t="inlineStr"/>
       <c r="CP60" t="inlineStr"/>
       <c r="CQ60" t="inlineStr"/>
       <c r="CR60" t="inlineStr"/>
-      <c r="CS60" t="inlineStr"/>
-      <c r="CT60" t="inlineStr"/>
-      <c r="CU60" t="inlineStr"/>
-      <c r="CV60" t="inlineStr"/>
-      <c r="CW60" t="inlineStr"/>
-      <c r="CX60" t="inlineStr"/>
-      <c r="CY60" t="inlineStr"/>
-      <c r="CZ60" t="inlineStr"/>
-      <c r="DA60" t="inlineStr"/>
-      <c r="DB60" t="inlineStr"/>
-      <c r="DC60" t="inlineStr"/>
-      <c r="DD60" t="inlineStr"/>
-      <c r="DE60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8323,7 +7503,11 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -8332,11 +7516,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -8392,9 +7572,21 @@
       <c r="BY61" t="inlineStr"/>
       <c r="BZ61" t="inlineStr"/>
       <c r="CA61" t="inlineStr"/>
-      <c r="CB61" t="inlineStr"/>
-      <c r="CC61" t="inlineStr"/>
-      <c r="CD61" t="inlineStr"/>
+      <c r="CB61" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC61" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD61" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE61" t="inlineStr"/>
       <c r="CF61" t="inlineStr"/>
       <c r="CG61" t="inlineStr"/>
@@ -8402,38 +7594,13 @@
       <c r="CI61" t="inlineStr"/>
       <c r="CJ61" t="inlineStr"/>
       <c r="CK61" t="inlineStr"/>
-      <c r="CL61" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM61" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN61" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL61" t="inlineStr"/>
+      <c r="CM61" t="inlineStr"/>
+      <c r="CN61" t="inlineStr"/>
       <c r="CO61" t="inlineStr"/>
       <c r="CP61" t="inlineStr"/>
       <c r="CQ61" t="inlineStr"/>
       <c r="CR61" t="inlineStr"/>
-      <c r="CS61" t="inlineStr"/>
-      <c r="CT61" t="inlineStr"/>
-      <c r="CU61" t="inlineStr"/>
-      <c r="CV61" t="inlineStr"/>
-      <c r="CW61" t="inlineStr"/>
-      <c r="CX61" t="inlineStr"/>
-      <c r="CY61" t="inlineStr"/>
-      <c r="CZ61" t="inlineStr"/>
-      <c r="DA61" t="inlineStr"/>
-      <c r="DB61" t="inlineStr"/>
-      <c r="DC61" t="inlineStr"/>
-      <c r="DD61" t="inlineStr"/>
-      <c r="DE61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8487,7 +7654,11 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -8496,11 +7667,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -8556,9 +7723,21 @@
       <c r="BY62" t="inlineStr"/>
       <c r="BZ62" t="inlineStr"/>
       <c r="CA62" t="inlineStr"/>
-      <c r="CB62" t="inlineStr"/>
-      <c r="CC62" t="inlineStr"/>
-      <c r="CD62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC62" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD62" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE62" t="inlineStr"/>
       <c r="CF62" t="inlineStr"/>
       <c r="CG62" t="inlineStr"/>
@@ -8566,38 +7745,13 @@
       <c r="CI62" t="inlineStr"/>
       <c r="CJ62" t="inlineStr"/>
       <c r="CK62" t="inlineStr"/>
-      <c r="CL62" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM62" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN62" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL62" t="inlineStr"/>
+      <c r="CM62" t="inlineStr"/>
+      <c r="CN62" t="inlineStr"/>
       <c r="CO62" t="inlineStr"/>
       <c r="CP62" t="inlineStr"/>
       <c r="CQ62" t="inlineStr"/>
       <c r="CR62" t="inlineStr"/>
-      <c r="CS62" t="inlineStr"/>
-      <c r="CT62" t="inlineStr"/>
-      <c r="CU62" t="inlineStr"/>
-      <c r="CV62" t="inlineStr"/>
-      <c r="CW62" t="inlineStr"/>
-      <c r="CX62" t="inlineStr"/>
-      <c r="CY62" t="inlineStr"/>
-      <c r="CZ62" t="inlineStr"/>
-      <c r="DA62" t="inlineStr"/>
-      <c r="DB62" t="inlineStr"/>
-      <c r="DC62" t="inlineStr"/>
-      <c r="DD62" t="inlineStr"/>
-      <c r="DE62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8647,7 +7801,11 @@
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -8656,11 +7814,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -8716,9 +7870,21 @@
       <c r="BY63" t="inlineStr"/>
       <c r="BZ63" t="inlineStr"/>
       <c r="CA63" t="inlineStr"/>
-      <c r="CB63" t="inlineStr"/>
-      <c r="CC63" t="inlineStr"/>
-      <c r="CD63" t="inlineStr"/>
+      <c r="CB63" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC63" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD63" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE63" t="inlineStr"/>
       <c r="CF63" t="inlineStr"/>
       <c r="CG63" t="inlineStr"/>
@@ -8726,38 +7892,13 @@
       <c r="CI63" t="inlineStr"/>
       <c r="CJ63" t="inlineStr"/>
       <c r="CK63" t="inlineStr"/>
-      <c r="CL63" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM63" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN63" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL63" t="inlineStr"/>
+      <c r="CM63" t="inlineStr"/>
+      <c r="CN63" t="inlineStr"/>
       <c r="CO63" t="inlineStr"/>
       <c r="CP63" t="inlineStr"/>
       <c r="CQ63" t="inlineStr"/>
       <c r="CR63" t="inlineStr"/>
-      <c r="CS63" t="inlineStr"/>
-      <c r="CT63" t="inlineStr"/>
-      <c r="CU63" t="inlineStr"/>
-      <c r="CV63" t="inlineStr"/>
-      <c r="CW63" t="inlineStr"/>
-      <c r="CX63" t="inlineStr"/>
-      <c r="CY63" t="inlineStr"/>
-      <c r="CZ63" t="inlineStr"/>
-      <c r="DA63" t="inlineStr"/>
-      <c r="DB63" t="inlineStr"/>
-      <c r="DC63" t="inlineStr"/>
-      <c r="DD63" t="inlineStr"/>
-      <c r="DE63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8806,7 +7947,11 @@
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -8815,11 +7960,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -8875,9 +8016,21 @@
       <c r="BY64" t="inlineStr"/>
       <c r="BZ64" t="inlineStr"/>
       <c r="CA64" t="inlineStr"/>
-      <c r="CB64" t="inlineStr"/>
-      <c r="CC64" t="inlineStr"/>
-      <c r="CD64" t="inlineStr"/>
+      <c r="CB64" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC64" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD64" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE64" t="inlineStr"/>
       <c r="CF64" t="inlineStr"/>
       <c r="CG64" t="inlineStr"/>
@@ -8885,38 +8038,13 @@
       <c r="CI64" t="inlineStr"/>
       <c r="CJ64" t="inlineStr"/>
       <c r="CK64" t="inlineStr"/>
-      <c r="CL64" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM64" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN64" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL64" t="inlineStr"/>
+      <c r="CM64" t="inlineStr"/>
+      <c r="CN64" t="inlineStr"/>
       <c r="CO64" t="inlineStr"/>
       <c r="CP64" t="inlineStr"/>
       <c r="CQ64" t="inlineStr"/>
       <c r="CR64" t="inlineStr"/>
-      <c r="CS64" t="inlineStr"/>
-      <c r="CT64" t="inlineStr"/>
-      <c r="CU64" t="inlineStr"/>
-      <c r="CV64" t="inlineStr"/>
-      <c r="CW64" t="inlineStr"/>
-      <c r="CX64" t="inlineStr"/>
-      <c r="CY64" t="inlineStr"/>
-      <c r="CZ64" t="inlineStr"/>
-      <c r="DA64" t="inlineStr"/>
-      <c r="DB64" t="inlineStr"/>
-      <c r="DC64" t="inlineStr"/>
-      <c r="DD64" t="inlineStr"/>
-      <c r="DE64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9022,9 +8150,21 @@
       <c r="BY65" t="inlineStr"/>
       <c r="BZ65" t="inlineStr"/>
       <c r="CA65" t="inlineStr"/>
-      <c r="CB65" t="inlineStr"/>
-      <c r="CC65" t="inlineStr"/>
-      <c r="CD65" t="inlineStr"/>
+      <c r="CB65" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC65" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD65" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE65" t="inlineStr"/>
       <c r="CF65" t="inlineStr"/>
       <c r="CG65" t="inlineStr"/>
@@ -9032,38 +8172,13 @@
       <c r="CI65" t="inlineStr"/>
       <c r="CJ65" t="inlineStr"/>
       <c r="CK65" t="inlineStr"/>
-      <c r="CL65" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM65" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN65" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL65" t="inlineStr"/>
+      <c r="CM65" t="inlineStr"/>
+      <c r="CN65" t="inlineStr"/>
       <c r="CO65" t="inlineStr"/>
       <c r="CP65" t="inlineStr"/>
       <c r="CQ65" t="inlineStr"/>
       <c r="CR65" t="inlineStr"/>
-      <c r="CS65" t="inlineStr"/>
-      <c r="CT65" t="inlineStr"/>
-      <c r="CU65" t="inlineStr"/>
-      <c r="CV65" t="inlineStr"/>
-      <c r="CW65" t="inlineStr"/>
-      <c r="CX65" t="inlineStr"/>
-      <c r="CY65" t="inlineStr"/>
-      <c r="CZ65" t="inlineStr"/>
-      <c r="DA65" t="inlineStr"/>
-      <c r="DB65" t="inlineStr"/>
-      <c r="DC65" t="inlineStr"/>
-      <c r="DD65" t="inlineStr"/>
-      <c r="DE65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9169,9 +8284,21 @@
       <c r="BY66" t="inlineStr"/>
       <c r="BZ66" t="inlineStr"/>
       <c r="CA66" t="inlineStr"/>
-      <c r="CB66" t="inlineStr"/>
-      <c r="CC66" t="inlineStr"/>
-      <c r="CD66" t="inlineStr"/>
+      <c r="CB66" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC66" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD66" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE66" t="inlineStr"/>
       <c r="CF66" t="inlineStr"/>
       <c r="CG66" t="inlineStr"/>
@@ -9179,38 +8306,13 @@
       <c r="CI66" t="inlineStr"/>
       <c r="CJ66" t="inlineStr"/>
       <c r="CK66" t="inlineStr"/>
-      <c r="CL66" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM66" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN66" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL66" t="inlineStr"/>
+      <c r="CM66" t="inlineStr"/>
+      <c r="CN66" t="inlineStr"/>
       <c r="CO66" t="inlineStr"/>
       <c r="CP66" t="inlineStr"/>
       <c r="CQ66" t="inlineStr"/>
       <c r="CR66" t="inlineStr"/>
-      <c r="CS66" t="inlineStr"/>
-      <c r="CT66" t="inlineStr"/>
-      <c r="CU66" t="inlineStr"/>
-      <c r="CV66" t="inlineStr"/>
-      <c r="CW66" t="inlineStr"/>
-      <c r="CX66" t="inlineStr"/>
-      <c r="CY66" t="inlineStr"/>
-      <c r="CZ66" t="inlineStr"/>
-      <c r="DA66" t="inlineStr"/>
-      <c r="DB66" t="inlineStr"/>
-      <c r="DC66" t="inlineStr"/>
-      <c r="DD66" t="inlineStr"/>
-      <c r="DE66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9320,9 +8422,21 @@
       <c r="BY67" t="inlineStr"/>
       <c r="BZ67" t="inlineStr"/>
       <c r="CA67" t="inlineStr"/>
-      <c r="CB67" t="inlineStr"/>
-      <c r="CC67" t="inlineStr"/>
-      <c r="CD67" t="inlineStr"/>
+      <c r="CB67" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC67" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD67" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE67" t="inlineStr"/>
       <c r="CF67" t="inlineStr"/>
       <c r="CG67" t="inlineStr"/>
@@ -9330,38 +8444,13 @@
       <c r="CI67" t="inlineStr"/>
       <c r="CJ67" t="inlineStr"/>
       <c r="CK67" t="inlineStr"/>
-      <c r="CL67" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM67" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN67" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL67" t="inlineStr"/>
+      <c r="CM67" t="inlineStr"/>
+      <c r="CN67" t="inlineStr"/>
       <c r="CO67" t="inlineStr"/>
       <c r="CP67" t="inlineStr"/>
       <c r="CQ67" t="inlineStr"/>
       <c r="CR67" t="inlineStr"/>
-      <c r="CS67" t="inlineStr"/>
-      <c r="CT67" t="inlineStr"/>
-      <c r="CU67" t="inlineStr"/>
-      <c r="CV67" t="inlineStr"/>
-      <c r="CW67" t="inlineStr"/>
-      <c r="CX67" t="inlineStr"/>
-      <c r="CY67" t="inlineStr"/>
-      <c r="CZ67" t="inlineStr"/>
-      <c r="DA67" t="inlineStr"/>
-      <c r="DB67" t="inlineStr"/>
-      <c r="DC67" t="inlineStr"/>
-      <c r="DD67" t="inlineStr"/>
-      <c r="DE67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9410,7 +8499,11 @@
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -9419,11 +8512,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -9479,9 +8568,21 @@
       <c r="BY68" t="inlineStr"/>
       <c r="BZ68" t="inlineStr"/>
       <c r="CA68" t="inlineStr"/>
-      <c r="CB68" t="inlineStr"/>
-      <c r="CC68" t="inlineStr"/>
-      <c r="CD68" t="inlineStr"/>
+      <c r="CB68" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC68" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD68" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE68" t="inlineStr"/>
       <c r="CF68" t="inlineStr"/>
       <c r="CG68" t="inlineStr"/>
@@ -9489,38 +8590,13 @@
       <c r="CI68" t="inlineStr"/>
       <c r="CJ68" t="inlineStr"/>
       <c r="CK68" t="inlineStr"/>
-      <c r="CL68" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM68" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN68" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL68" t="inlineStr"/>
+      <c r="CM68" t="inlineStr"/>
+      <c r="CN68" t="inlineStr"/>
       <c r="CO68" t="inlineStr"/>
       <c r="CP68" t="inlineStr"/>
       <c r="CQ68" t="inlineStr"/>
       <c r="CR68" t="inlineStr"/>
-      <c r="CS68" t="inlineStr"/>
-      <c r="CT68" t="inlineStr"/>
-      <c r="CU68" t="inlineStr"/>
-      <c r="CV68" t="inlineStr"/>
-      <c r="CW68" t="inlineStr"/>
-      <c r="CX68" t="inlineStr"/>
-      <c r="CY68" t="inlineStr"/>
-      <c r="CZ68" t="inlineStr"/>
-      <c r="DA68" t="inlineStr"/>
-      <c r="DB68" t="inlineStr"/>
-      <c r="DC68" t="inlineStr"/>
-      <c r="DD68" t="inlineStr"/>
-      <c r="DE68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9569,7 +8645,11 @@
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -9578,11 +8658,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -9638,9 +8714,21 @@
       <c r="BY69" t="inlineStr"/>
       <c r="BZ69" t="inlineStr"/>
       <c r="CA69" t="inlineStr"/>
-      <c r="CB69" t="inlineStr"/>
-      <c r="CC69" t="inlineStr"/>
-      <c r="CD69" t="inlineStr"/>
+      <c r="CB69" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC69" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD69" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE69" t="inlineStr"/>
       <c r="CF69" t="inlineStr"/>
       <c r="CG69" t="inlineStr"/>
@@ -9648,38 +8736,13 @@
       <c r="CI69" t="inlineStr"/>
       <c r="CJ69" t="inlineStr"/>
       <c r="CK69" t="inlineStr"/>
-      <c r="CL69" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM69" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN69" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL69" t="inlineStr"/>
+      <c r="CM69" t="inlineStr"/>
+      <c r="CN69" t="inlineStr"/>
       <c r="CO69" t="inlineStr"/>
       <c r="CP69" t="inlineStr"/>
       <c r="CQ69" t="inlineStr"/>
       <c r="CR69" t="inlineStr"/>
-      <c r="CS69" t="inlineStr"/>
-      <c r="CT69" t="inlineStr"/>
-      <c r="CU69" t="inlineStr"/>
-      <c r="CV69" t="inlineStr"/>
-      <c r="CW69" t="inlineStr"/>
-      <c r="CX69" t="inlineStr"/>
-      <c r="CY69" t="inlineStr"/>
-      <c r="CZ69" t="inlineStr"/>
-      <c r="DA69" t="inlineStr"/>
-      <c r="DB69" t="inlineStr"/>
-      <c r="DC69" t="inlineStr"/>
-      <c r="DD69" t="inlineStr"/>
-      <c r="DE69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9728,7 +8791,11 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -9737,11 +8804,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -9797,9 +8860,21 @@
       <c r="BY70" t="inlineStr"/>
       <c r="BZ70" t="inlineStr"/>
       <c r="CA70" t="inlineStr"/>
-      <c r="CB70" t="inlineStr"/>
-      <c r="CC70" t="inlineStr"/>
-      <c r="CD70" t="inlineStr"/>
+      <c r="CB70" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC70" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD70" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE70" t="inlineStr"/>
       <c r="CF70" t="inlineStr"/>
       <c r="CG70" t="inlineStr"/>
@@ -9807,38 +8882,13 @@
       <c r="CI70" t="inlineStr"/>
       <c r="CJ70" t="inlineStr"/>
       <c r="CK70" t="inlineStr"/>
-      <c r="CL70" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM70" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN70" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL70" t="inlineStr"/>
+      <c r="CM70" t="inlineStr"/>
+      <c r="CN70" t="inlineStr"/>
       <c r="CO70" t="inlineStr"/>
       <c r="CP70" t="inlineStr"/>
       <c r="CQ70" t="inlineStr"/>
       <c r="CR70" t="inlineStr"/>
-      <c r="CS70" t="inlineStr"/>
-      <c r="CT70" t="inlineStr"/>
-      <c r="CU70" t="inlineStr"/>
-      <c r="CV70" t="inlineStr"/>
-      <c r="CW70" t="inlineStr"/>
-      <c r="CX70" t="inlineStr"/>
-      <c r="CY70" t="inlineStr"/>
-      <c r="CZ70" t="inlineStr"/>
-      <c r="DA70" t="inlineStr"/>
-      <c r="DB70" t="inlineStr"/>
-      <c r="DC70" t="inlineStr"/>
-      <c r="DD70" t="inlineStr"/>
-      <c r="DE70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9887,7 +8937,11 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -9896,11 +8950,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -9956,9 +9006,21 @@
       <c r="BY71" t="inlineStr"/>
       <c r="BZ71" t="inlineStr"/>
       <c r="CA71" t="inlineStr"/>
-      <c r="CB71" t="inlineStr"/>
-      <c r="CC71" t="inlineStr"/>
-      <c r="CD71" t="inlineStr"/>
+      <c r="CB71" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC71" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD71" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE71" t="inlineStr"/>
       <c r="CF71" t="inlineStr"/>
       <c r="CG71" t="inlineStr"/>
@@ -9966,38 +9028,13 @@
       <c r="CI71" t="inlineStr"/>
       <c r="CJ71" t="inlineStr"/>
       <c r="CK71" t="inlineStr"/>
-      <c r="CL71" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM71" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN71" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL71" t="inlineStr"/>
+      <c r="CM71" t="inlineStr"/>
+      <c r="CN71" t="inlineStr"/>
       <c r="CO71" t="inlineStr"/>
       <c r="CP71" t="inlineStr"/>
       <c r="CQ71" t="inlineStr"/>
       <c r="CR71" t="inlineStr"/>
-      <c r="CS71" t="inlineStr"/>
-      <c r="CT71" t="inlineStr"/>
-      <c r="CU71" t="inlineStr"/>
-      <c r="CV71" t="inlineStr"/>
-      <c r="CW71" t="inlineStr"/>
-      <c r="CX71" t="inlineStr"/>
-      <c r="CY71" t="inlineStr"/>
-      <c r="CZ71" t="inlineStr"/>
-      <c r="DA71" t="inlineStr"/>
-      <c r="DB71" t="inlineStr"/>
-      <c r="DC71" t="inlineStr"/>
-      <c r="DD71" t="inlineStr"/>
-      <c r="DE71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10046,7 +9083,11 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -10055,11 +9096,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -10115,9 +9152,21 @@
       <c r="BY72" t="inlineStr"/>
       <c r="BZ72" t="inlineStr"/>
       <c r="CA72" t="inlineStr"/>
-      <c r="CB72" t="inlineStr"/>
-      <c r="CC72" t="inlineStr"/>
-      <c r="CD72" t="inlineStr"/>
+      <c r="CB72" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC72" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD72" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE72" t="inlineStr"/>
       <c r="CF72" t="inlineStr"/>
       <c r="CG72" t="inlineStr"/>
@@ -10125,38 +9174,13 @@
       <c r="CI72" t="inlineStr"/>
       <c r="CJ72" t="inlineStr"/>
       <c r="CK72" t="inlineStr"/>
-      <c r="CL72" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM72" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN72" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL72" t="inlineStr"/>
+      <c r="CM72" t="inlineStr"/>
+      <c r="CN72" t="inlineStr"/>
       <c r="CO72" t="inlineStr"/>
       <c r="CP72" t="inlineStr"/>
       <c r="CQ72" t="inlineStr"/>
       <c r="CR72" t="inlineStr"/>
-      <c r="CS72" t="inlineStr"/>
-      <c r="CT72" t="inlineStr"/>
-      <c r="CU72" t="inlineStr"/>
-      <c r="CV72" t="inlineStr"/>
-      <c r="CW72" t="inlineStr"/>
-      <c r="CX72" t="inlineStr"/>
-      <c r="CY72" t="inlineStr"/>
-      <c r="CZ72" t="inlineStr"/>
-      <c r="DA72" t="inlineStr"/>
-      <c r="DB72" t="inlineStr"/>
-      <c r="DC72" t="inlineStr"/>
-      <c r="DD72" t="inlineStr"/>
-      <c r="DE72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10205,7 +9229,11 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -10214,11 +9242,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
@@ -10274,9 +9298,21 @@
       <c r="BY73" t="inlineStr"/>
       <c r="BZ73" t="inlineStr"/>
       <c r="CA73" t="inlineStr"/>
-      <c r="CB73" t="inlineStr"/>
-      <c r="CC73" t="inlineStr"/>
-      <c r="CD73" t="inlineStr"/>
+      <c r="CB73" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC73" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD73" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE73" t="inlineStr"/>
       <c r="CF73" t="inlineStr"/>
       <c r="CG73" t="inlineStr"/>
@@ -10284,38 +9320,13 @@
       <c r="CI73" t="inlineStr"/>
       <c r="CJ73" t="inlineStr"/>
       <c r="CK73" t="inlineStr"/>
-      <c r="CL73" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM73" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN73" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL73" t="inlineStr"/>
+      <c r="CM73" t="inlineStr"/>
+      <c r="CN73" t="inlineStr"/>
       <c r="CO73" t="inlineStr"/>
       <c r="CP73" t="inlineStr"/>
       <c r="CQ73" t="inlineStr"/>
       <c r="CR73" t="inlineStr"/>
-      <c r="CS73" t="inlineStr"/>
-      <c r="CT73" t="inlineStr"/>
-      <c r="CU73" t="inlineStr"/>
-      <c r="CV73" t="inlineStr"/>
-      <c r="CW73" t="inlineStr"/>
-      <c r="CX73" t="inlineStr"/>
-      <c r="CY73" t="inlineStr"/>
-      <c r="CZ73" t="inlineStr"/>
-      <c r="DA73" t="inlineStr"/>
-      <c r="DB73" t="inlineStr"/>
-      <c r="DC73" t="inlineStr"/>
-      <c r="DD73" t="inlineStr"/>
-      <c r="DE73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10425,9 +9436,21 @@
       <c r="BY74" t="inlineStr"/>
       <c r="BZ74" t="inlineStr"/>
       <c r="CA74" t="inlineStr"/>
-      <c r="CB74" t="inlineStr"/>
-      <c r="CC74" t="inlineStr"/>
-      <c r="CD74" t="inlineStr"/>
+      <c r="CB74" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC74" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD74" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE74" t="inlineStr"/>
       <c r="CF74" t="inlineStr"/>
       <c r="CG74" t="inlineStr"/>
@@ -10435,38 +9458,13 @@
       <c r="CI74" t="inlineStr"/>
       <c r="CJ74" t="inlineStr"/>
       <c r="CK74" t="inlineStr"/>
-      <c r="CL74" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM74" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN74" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL74" t="inlineStr"/>
+      <c r="CM74" t="inlineStr"/>
+      <c r="CN74" t="inlineStr"/>
       <c r="CO74" t="inlineStr"/>
       <c r="CP74" t="inlineStr"/>
       <c r="CQ74" t="inlineStr"/>
       <c r="CR74" t="inlineStr"/>
-      <c r="CS74" t="inlineStr"/>
-      <c r="CT74" t="inlineStr"/>
-      <c r="CU74" t="inlineStr"/>
-      <c r="CV74" t="inlineStr"/>
-      <c r="CW74" t="inlineStr"/>
-      <c r="CX74" t="inlineStr"/>
-      <c r="CY74" t="inlineStr"/>
-      <c r="CZ74" t="inlineStr"/>
-      <c r="DA74" t="inlineStr"/>
-      <c r="DB74" t="inlineStr"/>
-      <c r="DC74" t="inlineStr"/>
-      <c r="DD74" t="inlineStr"/>
-      <c r="DE74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10576,9 +9574,21 @@
       <c r="BY75" t="inlineStr"/>
       <c r="BZ75" t="inlineStr"/>
       <c r="CA75" t="inlineStr"/>
-      <c r="CB75" t="inlineStr"/>
-      <c r="CC75" t="inlineStr"/>
-      <c r="CD75" t="inlineStr"/>
+      <c r="CB75" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC75" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD75" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE75" t="inlineStr"/>
       <c r="CF75" t="inlineStr"/>
       <c r="CG75" t="inlineStr"/>
@@ -10586,38 +9596,13 @@
       <c r="CI75" t="inlineStr"/>
       <c r="CJ75" t="inlineStr"/>
       <c r="CK75" t="inlineStr"/>
-      <c r="CL75" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM75" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN75" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL75" t="inlineStr"/>
+      <c r="CM75" t="inlineStr"/>
+      <c r="CN75" t="inlineStr"/>
       <c r="CO75" t="inlineStr"/>
       <c r="CP75" t="inlineStr"/>
       <c r="CQ75" t="inlineStr"/>
       <c r="CR75" t="inlineStr"/>
-      <c r="CS75" t="inlineStr"/>
-      <c r="CT75" t="inlineStr"/>
-      <c r="CU75" t="inlineStr"/>
-      <c r="CV75" t="inlineStr"/>
-      <c r="CW75" t="inlineStr"/>
-      <c r="CX75" t="inlineStr"/>
-      <c r="CY75" t="inlineStr"/>
-      <c r="CZ75" t="inlineStr"/>
-      <c r="DA75" t="inlineStr"/>
-      <c r="DB75" t="inlineStr"/>
-      <c r="DC75" t="inlineStr"/>
-      <c r="DD75" t="inlineStr"/>
-      <c r="DE75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10723,9 +9708,21 @@
       <c r="BY76" t="inlineStr"/>
       <c r="BZ76" t="inlineStr"/>
       <c r="CA76" t="inlineStr"/>
-      <c r="CB76" t="inlineStr"/>
-      <c r="CC76" t="inlineStr"/>
-      <c r="CD76" t="inlineStr"/>
+      <c r="CB76" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC76" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD76" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE76" t="inlineStr"/>
       <c r="CF76" t="inlineStr"/>
       <c r="CG76" t="inlineStr"/>
@@ -10733,38 +9730,13 @@
       <c r="CI76" t="inlineStr"/>
       <c r="CJ76" t="inlineStr"/>
       <c r="CK76" t="inlineStr"/>
-      <c r="CL76" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM76" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN76" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL76" t="inlineStr"/>
+      <c r="CM76" t="inlineStr"/>
+      <c r="CN76" t="inlineStr"/>
       <c r="CO76" t="inlineStr"/>
       <c r="CP76" t="inlineStr"/>
       <c r="CQ76" t="inlineStr"/>
       <c r="CR76" t="inlineStr"/>
-      <c r="CS76" t="inlineStr"/>
-      <c r="CT76" t="inlineStr"/>
-      <c r="CU76" t="inlineStr"/>
-      <c r="CV76" t="inlineStr"/>
-      <c r="CW76" t="inlineStr"/>
-      <c r="CX76" t="inlineStr"/>
-      <c r="CY76" t="inlineStr"/>
-      <c r="CZ76" t="inlineStr"/>
-      <c r="DA76" t="inlineStr"/>
-      <c r="DB76" t="inlineStr"/>
-      <c r="DC76" t="inlineStr"/>
-      <c r="DD76" t="inlineStr"/>
-      <c r="DE76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10866,9 +9838,21 @@
       <c r="BY77" t="inlineStr"/>
       <c r="BZ77" t="inlineStr"/>
       <c r="CA77" t="inlineStr"/>
-      <c r="CB77" t="inlineStr"/>
-      <c r="CC77" t="inlineStr"/>
-      <c r="CD77" t="inlineStr"/>
+      <c r="CB77" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC77" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD77" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE77" t="inlineStr"/>
       <c r="CF77" t="inlineStr"/>
       <c r="CG77" t="inlineStr"/>
@@ -10876,38 +9860,13 @@
       <c r="CI77" t="inlineStr"/>
       <c r="CJ77" t="inlineStr"/>
       <c r="CK77" t="inlineStr"/>
-      <c r="CL77" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM77" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN77" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL77" t="inlineStr"/>
+      <c r="CM77" t="inlineStr"/>
+      <c r="CN77" t="inlineStr"/>
       <c r="CO77" t="inlineStr"/>
       <c r="CP77" t="inlineStr"/>
       <c r="CQ77" t="inlineStr"/>
       <c r="CR77" t="inlineStr"/>
-      <c r="CS77" t="inlineStr"/>
-      <c r="CT77" t="inlineStr"/>
-      <c r="CU77" t="inlineStr"/>
-      <c r="CV77" t="inlineStr"/>
-      <c r="CW77" t="inlineStr"/>
-      <c r="CX77" t="inlineStr"/>
-      <c r="CY77" t="inlineStr"/>
-      <c r="CZ77" t="inlineStr"/>
-      <c r="DA77" t="inlineStr"/>
-      <c r="DB77" t="inlineStr"/>
-      <c r="DC77" t="inlineStr"/>
-      <c r="DD77" t="inlineStr"/>
-      <c r="DE77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11017,9 +9976,21 @@
       <c r="BY78" t="inlineStr"/>
       <c r="BZ78" t="inlineStr"/>
       <c r="CA78" t="inlineStr"/>
-      <c r="CB78" t="inlineStr"/>
-      <c r="CC78" t="inlineStr"/>
-      <c r="CD78" t="inlineStr"/>
+      <c r="CB78" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC78" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD78" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE78" t="inlineStr"/>
       <c r="CF78" t="inlineStr"/>
       <c r="CG78" t="inlineStr"/>
@@ -11027,38 +9998,13 @@
       <c r="CI78" t="inlineStr"/>
       <c r="CJ78" t="inlineStr"/>
       <c r="CK78" t="inlineStr"/>
-      <c r="CL78" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM78" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN78" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL78" t="inlineStr"/>
+      <c r="CM78" t="inlineStr"/>
+      <c r="CN78" t="inlineStr"/>
       <c r="CO78" t="inlineStr"/>
       <c r="CP78" t="inlineStr"/>
       <c r="CQ78" t="inlineStr"/>
       <c r="CR78" t="inlineStr"/>
-      <c r="CS78" t="inlineStr"/>
-      <c r="CT78" t="inlineStr"/>
-      <c r="CU78" t="inlineStr"/>
-      <c r="CV78" t="inlineStr"/>
-      <c r="CW78" t="inlineStr"/>
-      <c r="CX78" t="inlineStr"/>
-      <c r="CY78" t="inlineStr"/>
-      <c r="CZ78" t="inlineStr"/>
-      <c r="DA78" t="inlineStr"/>
-      <c r="DB78" t="inlineStr"/>
-      <c r="DC78" t="inlineStr"/>
-      <c r="DD78" t="inlineStr"/>
-      <c r="DE78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11168,9 +10114,21 @@
       <c r="BY79" t="inlineStr"/>
       <c r="BZ79" t="inlineStr"/>
       <c r="CA79" t="inlineStr"/>
-      <c r="CB79" t="inlineStr"/>
-      <c r="CC79" t="inlineStr"/>
-      <c r="CD79" t="inlineStr"/>
+      <c r="CB79" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC79" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD79" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE79" t="inlineStr"/>
       <c r="CF79" t="inlineStr"/>
       <c r="CG79" t="inlineStr"/>
@@ -11178,38 +10136,13 @@
       <c r="CI79" t="inlineStr"/>
       <c r="CJ79" t="inlineStr"/>
       <c r="CK79" t="inlineStr"/>
-      <c r="CL79" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM79" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN79" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL79" t="inlineStr"/>
+      <c r="CM79" t="inlineStr"/>
+      <c r="CN79" t="inlineStr"/>
       <c r="CO79" t="inlineStr"/>
       <c r="CP79" t="inlineStr"/>
       <c r="CQ79" t="inlineStr"/>
       <c r="CR79" t="inlineStr"/>
-      <c r="CS79" t="inlineStr"/>
-      <c r="CT79" t="inlineStr"/>
-      <c r="CU79" t="inlineStr"/>
-      <c r="CV79" t="inlineStr"/>
-      <c r="CW79" t="inlineStr"/>
-      <c r="CX79" t="inlineStr"/>
-      <c r="CY79" t="inlineStr"/>
-      <c r="CZ79" t="inlineStr"/>
-      <c r="DA79" t="inlineStr"/>
-      <c r="DB79" t="inlineStr"/>
-      <c r="DC79" t="inlineStr"/>
-      <c r="DD79" t="inlineStr"/>
-      <c r="DE79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11315,9 +10248,21 @@
       <c r="BY80" t="inlineStr"/>
       <c r="BZ80" t="inlineStr"/>
       <c r="CA80" t="inlineStr"/>
-      <c r="CB80" t="inlineStr"/>
-      <c r="CC80" t="inlineStr"/>
-      <c r="CD80" t="inlineStr"/>
+      <c r="CB80" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC80" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD80" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE80" t="inlineStr"/>
       <c r="CF80" t="inlineStr"/>
       <c r="CG80" t="inlineStr"/>
@@ -11325,38 +10270,13 @@
       <c r="CI80" t="inlineStr"/>
       <c r="CJ80" t="inlineStr"/>
       <c r="CK80" t="inlineStr"/>
-      <c r="CL80" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM80" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN80" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL80" t="inlineStr"/>
+      <c r="CM80" t="inlineStr"/>
+      <c r="CN80" t="inlineStr"/>
       <c r="CO80" t="inlineStr"/>
       <c r="CP80" t="inlineStr"/>
       <c r="CQ80" t="inlineStr"/>
       <c r="CR80" t="inlineStr"/>
-      <c r="CS80" t="inlineStr"/>
-      <c r="CT80" t="inlineStr"/>
-      <c r="CU80" t="inlineStr"/>
-      <c r="CV80" t="inlineStr"/>
-      <c r="CW80" t="inlineStr"/>
-      <c r="CX80" t="inlineStr"/>
-      <c r="CY80" t="inlineStr"/>
-      <c r="CZ80" t="inlineStr"/>
-      <c r="DA80" t="inlineStr"/>
-      <c r="DB80" t="inlineStr"/>
-      <c r="DC80" t="inlineStr"/>
-      <c r="DD80" t="inlineStr"/>
-      <c r="DE80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11462,9 +10382,21 @@
       <c r="BY81" t="inlineStr"/>
       <c r="BZ81" t="inlineStr"/>
       <c r="CA81" t="inlineStr"/>
-      <c r="CB81" t="inlineStr"/>
-      <c r="CC81" t="inlineStr"/>
-      <c r="CD81" t="inlineStr"/>
+      <c r="CB81" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC81" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD81" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE81" t="inlineStr"/>
       <c r="CF81" t="inlineStr"/>
       <c r="CG81" t="inlineStr"/>
@@ -11472,38 +10404,13 @@
       <c r="CI81" t="inlineStr"/>
       <c r="CJ81" t="inlineStr"/>
       <c r="CK81" t="inlineStr"/>
-      <c r="CL81" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM81" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN81" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL81" t="inlineStr"/>
+      <c r="CM81" t="inlineStr"/>
+      <c r="CN81" t="inlineStr"/>
       <c r="CO81" t="inlineStr"/>
       <c r="CP81" t="inlineStr"/>
       <c r="CQ81" t="inlineStr"/>
       <c r="CR81" t="inlineStr"/>
-      <c r="CS81" t="inlineStr"/>
-      <c r="CT81" t="inlineStr"/>
-      <c r="CU81" t="inlineStr"/>
-      <c r="CV81" t="inlineStr"/>
-      <c r="CW81" t="inlineStr"/>
-      <c r="CX81" t="inlineStr"/>
-      <c r="CY81" t="inlineStr"/>
-      <c r="CZ81" t="inlineStr"/>
-      <c r="DA81" t="inlineStr"/>
-      <c r="DB81" t="inlineStr"/>
-      <c r="DC81" t="inlineStr"/>
-      <c r="DD81" t="inlineStr"/>
-      <c r="DE81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11613,9 +10520,21 @@
       <c r="BY82" t="inlineStr"/>
       <c r="BZ82" t="inlineStr"/>
       <c r="CA82" t="inlineStr"/>
-      <c r="CB82" t="inlineStr"/>
-      <c r="CC82" t="inlineStr"/>
-      <c r="CD82" t="inlineStr"/>
+      <c r="CB82" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC82" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD82" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE82" t="inlineStr"/>
       <c r="CF82" t="inlineStr"/>
       <c r="CG82" t="inlineStr"/>
@@ -11623,38 +10542,13 @@
       <c r="CI82" t="inlineStr"/>
       <c r="CJ82" t="inlineStr"/>
       <c r="CK82" t="inlineStr"/>
-      <c r="CL82" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM82" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN82" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL82" t="inlineStr"/>
+      <c r="CM82" t="inlineStr"/>
+      <c r="CN82" t="inlineStr"/>
       <c r="CO82" t="inlineStr"/>
       <c r="CP82" t="inlineStr"/>
       <c r="CQ82" t="inlineStr"/>
       <c r="CR82" t="inlineStr"/>
-      <c r="CS82" t="inlineStr"/>
-      <c r="CT82" t="inlineStr"/>
-      <c r="CU82" t="inlineStr"/>
-      <c r="CV82" t="inlineStr"/>
-      <c r="CW82" t="inlineStr"/>
-      <c r="CX82" t="inlineStr"/>
-      <c r="CY82" t="inlineStr"/>
-      <c r="CZ82" t="inlineStr"/>
-      <c r="DA82" t="inlineStr"/>
-      <c r="DB82" t="inlineStr"/>
-      <c r="DC82" t="inlineStr"/>
-      <c r="DD82" t="inlineStr"/>
-      <c r="DE82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11760,9 +10654,21 @@
       <c r="BY83" t="inlineStr"/>
       <c r="BZ83" t="inlineStr"/>
       <c r="CA83" t="inlineStr"/>
-      <c r="CB83" t="inlineStr"/>
-      <c r="CC83" t="inlineStr"/>
-      <c r="CD83" t="inlineStr"/>
+      <c r="CB83" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC83" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD83" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE83" t="inlineStr"/>
       <c r="CF83" t="inlineStr"/>
       <c r="CG83" t="inlineStr"/>
@@ -11770,38 +10676,13 @@
       <c r="CI83" t="inlineStr"/>
       <c r="CJ83" t="inlineStr"/>
       <c r="CK83" t="inlineStr"/>
-      <c r="CL83" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM83" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN83" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL83" t="inlineStr"/>
+      <c r="CM83" t="inlineStr"/>
+      <c r="CN83" t="inlineStr"/>
       <c r="CO83" t="inlineStr"/>
       <c r="CP83" t="inlineStr"/>
       <c r="CQ83" t="inlineStr"/>
       <c r="CR83" t="inlineStr"/>
-      <c r="CS83" t="inlineStr"/>
-      <c r="CT83" t="inlineStr"/>
-      <c r="CU83" t="inlineStr"/>
-      <c r="CV83" t="inlineStr"/>
-      <c r="CW83" t="inlineStr"/>
-      <c r="CX83" t="inlineStr"/>
-      <c r="CY83" t="inlineStr"/>
-      <c r="CZ83" t="inlineStr"/>
-      <c r="DA83" t="inlineStr"/>
-      <c r="DB83" t="inlineStr"/>
-      <c r="DC83" t="inlineStr"/>
-      <c r="DD83" t="inlineStr"/>
-      <c r="DE83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11907,9 +10788,21 @@
       <c r="BY84" t="inlineStr"/>
       <c r="BZ84" t="inlineStr"/>
       <c r="CA84" t="inlineStr"/>
-      <c r="CB84" t="inlineStr"/>
-      <c r="CC84" t="inlineStr"/>
-      <c r="CD84" t="inlineStr"/>
+      <c r="CB84" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC84" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD84" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE84" t="inlineStr"/>
       <c r="CF84" t="inlineStr"/>
       <c r="CG84" t="inlineStr"/>
@@ -11917,38 +10810,13 @@
       <c r="CI84" t="inlineStr"/>
       <c r="CJ84" t="inlineStr"/>
       <c r="CK84" t="inlineStr"/>
-      <c r="CL84" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM84" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN84" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL84" t="inlineStr"/>
+      <c r="CM84" t="inlineStr"/>
+      <c r="CN84" t="inlineStr"/>
       <c r="CO84" t="inlineStr"/>
       <c r="CP84" t="inlineStr"/>
       <c r="CQ84" t="inlineStr"/>
       <c r="CR84" t="inlineStr"/>
-      <c r="CS84" t="inlineStr"/>
-      <c r="CT84" t="inlineStr"/>
-      <c r="CU84" t="inlineStr"/>
-      <c r="CV84" t="inlineStr"/>
-      <c r="CW84" t="inlineStr"/>
-      <c r="CX84" t="inlineStr"/>
-      <c r="CY84" t="inlineStr"/>
-      <c r="CZ84" t="inlineStr"/>
-      <c r="DA84" t="inlineStr"/>
-      <c r="DB84" t="inlineStr"/>
-      <c r="DC84" t="inlineStr"/>
-      <c r="DD84" t="inlineStr"/>
-      <c r="DE84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12054,9 +10922,21 @@
       <c r="BY85" t="inlineStr"/>
       <c r="BZ85" t="inlineStr"/>
       <c r="CA85" t="inlineStr"/>
-      <c r="CB85" t="inlineStr"/>
-      <c r="CC85" t="inlineStr"/>
-      <c r="CD85" t="inlineStr"/>
+      <c r="CB85" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC85" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD85" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE85" t="inlineStr"/>
       <c r="CF85" t="inlineStr"/>
       <c r="CG85" t="inlineStr"/>
@@ -12064,38 +10944,13 @@
       <c r="CI85" t="inlineStr"/>
       <c r="CJ85" t="inlineStr"/>
       <c r="CK85" t="inlineStr"/>
-      <c r="CL85" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM85" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN85" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL85" t="inlineStr"/>
+      <c r="CM85" t="inlineStr"/>
+      <c r="CN85" t="inlineStr"/>
       <c r="CO85" t="inlineStr"/>
       <c r="CP85" t="inlineStr"/>
       <c r="CQ85" t="inlineStr"/>
       <c r="CR85" t="inlineStr"/>
-      <c r="CS85" t="inlineStr"/>
-      <c r="CT85" t="inlineStr"/>
-      <c r="CU85" t="inlineStr"/>
-      <c r="CV85" t="inlineStr"/>
-      <c r="CW85" t="inlineStr"/>
-      <c r="CX85" t="inlineStr"/>
-      <c r="CY85" t="inlineStr"/>
-      <c r="CZ85" t="inlineStr"/>
-      <c r="DA85" t="inlineStr"/>
-      <c r="DB85" t="inlineStr"/>
-      <c r="DC85" t="inlineStr"/>
-      <c r="DD85" t="inlineStr"/>
-      <c r="DE85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12201,9 +11056,21 @@
       <c r="BY86" t="inlineStr"/>
       <c r="BZ86" t="inlineStr"/>
       <c r="CA86" t="inlineStr"/>
-      <c r="CB86" t="inlineStr"/>
-      <c r="CC86" t="inlineStr"/>
-      <c r="CD86" t="inlineStr"/>
+      <c r="CB86" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC86" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD86" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE86" t="inlineStr"/>
       <c r="CF86" t="inlineStr"/>
       <c r="CG86" t="inlineStr"/>
@@ -12211,38 +11078,13 @@
       <c r="CI86" t="inlineStr"/>
       <c r="CJ86" t="inlineStr"/>
       <c r="CK86" t="inlineStr"/>
-      <c r="CL86" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM86" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN86" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL86" t="inlineStr"/>
+      <c r="CM86" t="inlineStr"/>
+      <c r="CN86" t="inlineStr"/>
       <c r="CO86" t="inlineStr"/>
       <c r="CP86" t="inlineStr"/>
       <c r="CQ86" t="inlineStr"/>
       <c r="CR86" t="inlineStr"/>
-      <c r="CS86" t="inlineStr"/>
-      <c r="CT86" t="inlineStr"/>
-      <c r="CU86" t="inlineStr"/>
-      <c r="CV86" t="inlineStr"/>
-      <c r="CW86" t="inlineStr"/>
-      <c r="CX86" t="inlineStr"/>
-      <c r="CY86" t="inlineStr"/>
-      <c r="CZ86" t="inlineStr"/>
-      <c r="DA86" t="inlineStr"/>
-      <c r="DB86" t="inlineStr"/>
-      <c r="DC86" t="inlineStr"/>
-      <c r="DD86" t="inlineStr"/>
-      <c r="DE86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12348,9 +11190,21 @@
       <c r="BY87" t="inlineStr"/>
       <c r="BZ87" t="inlineStr"/>
       <c r="CA87" t="inlineStr"/>
-      <c r="CB87" t="inlineStr"/>
-      <c r="CC87" t="inlineStr"/>
-      <c r="CD87" t="inlineStr"/>
+      <c r="CB87" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC87" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD87" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE87" t="inlineStr"/>
       <c r="CF87" t="inlineStr"/>
       <c r="CG87" t="inlineStr"/>
@@ -12358,38 +11212,13 @@
       <c r="CI87" t="inlineStr"/>
       <c r="CJ87" t="inlineStr"/>
       <c r="CK87" t="inlineStr"/>
-      <c r="CL87" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM87" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN87" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL87" t="inlineStr"/>
+      <c r="CM87" t="inlineStr"/>
+      <c r="CN87" t="inlineStr"/>
       <c r="CO87" t="inlineStr"/>
       <c r="CP87" t="inlineStr"/>
       <c r="CQ87" t="inlineStr"/>
       <c r="CR87" t="inlineStr"/>
-      <c r="CS87" t="inlineStr"/>
-      <c r="CT87" t="inlineStr"/>
-      <c r="CU87" t="inlineStr"/>
-      <c r="CV87" t="inlineStr"/>
-      <c r="CW87" t="inlineStr"/>
-      <c r="CX87" t="inlineStr"/>
-      <c r="CY87" t="inlineStr"/>
-      <c r="CZ87" t="inlineStr"/>
-      <c r="DA87" t="inlineStr"/>
-      <c r="DB87" t="inlineStr"/>
-      <c r="DC87" t="inlineStr"/>
-      <c r="DD87" t="inlineStr"/>
-      <c r="DE87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12495,9 +11324,21 @@
       <c r="BY88" t="inlineStr"/>
       <c r="BZ88" t="inlineStr"/>
       <c r="CA88" t="inlineStr"/>
-      <c r="CB88" t="inlineStr"/>
-      <c r="CC88" t="inlineStr"/>
-      <c r="CD88" t="inlineStr"/>
+      <c r="CB88" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC88" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD88" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE88" t="inlineStr"/>
       <c r="CF88" t="inlineStr"/>
       <c r="CG88" t="inlineStr"/>
@@ -12505,38 +11346,13 @@
       <c r="CI88" t="inlineStr"/>
       <c r="CJ88" t="inlineStr"/>
       <c r="CK88" t="inlineStr"/>
-      <c r="CL88" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM88" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN88" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL88" t="inlineStr"/>
+      <c r="CM88" t="inlineStr"/>
+      <c r="CN88" t="inlineStr"/>
       <c r="CO88" t="inlineStr"/>
       <c r="CP88" t="inlineStr"/>
       <c r="CQ88" t="inlineStr"/>
       <c r="CR88" t="inlineStr"/>
-      <c r="CS88" t="inlineStr"/>
-      <c r="CT88" t="inlineStr"/>
-      <c r="CU88" t="inlineStr"/>
-      <c r="CV88" t="inlineStr"/>
-      <c r="CW88" t="inlineStr"/>
-      <c r="CX88" t="inlineStr"/>
-      <c r="CY88" t="inlineStr"/>
-      <c r="CZ88" t="inlineStr"/>
-      <c r="DA88" t="inlineStr"/>
-      <c r="DB88" t="inlineStr"/>
-      <c r="DC88" t="inlineStr"/>
-      <c r="DD88" t="inlineStr"/>
-      <c r="DE88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12642,9 +11458,21 @@
       <c r="BY89" t="inlineStr"/>
       <c r="BZ89" t="inlineStr"/>
       <c r="CA89" t="inlineStr"/>
-      <c r="CB89" t="inlineStr"/>
-      <c r="CC89" t="inlineStr"/>
-      <c r="CD89" t="inlineStr"/>
+      <c r="CB89" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC89" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD89" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE89" t="inlineStr"/>
       <c r="CF89" t="inlineStr"/>
       <c r="CG89" t="inlineStr"/>
@@ -12652,38 +11480,13 @@
       <c r="CI89" t="inlineStr"/>
       <c r="CJ89" t="inlineStr"/>
       <c r="CK89" t="inlineStr"/>
-      <c r="CL89" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM89" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN89" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL89" t="inlineStr"/>
+      <c r="CM89" t="inlineStr"/>
+      <c r="CN89" t="inlineStr"/>
       <c r="CO89" t="inlineStr"/>
       <c r="CP89" t="inlineStr"/>
       <c r="CQ89" t="inlineStr"/>
       <c r="CR89" t="inlineStr"/>
-      <c r="CS89" t="inlineStr"/>
-      <c r="CT89" t="inlineStr"/>
-      <c r="CU89" t="inlineStr"/>
-      <c r="CV89" t="inlineStr"/>
-      <c r="CW89" t="inlineStr"/>
-      <c r="CX89" t="inlineStr"/>
-      <c r="CY89" t="inlineStr"/>
-      <c r="CZ89" t="inlineStr"/>
-      <c r="DA89" t="inlineStr"/>
-      <c r="DB89" t="inlineStr"/>
-      <c r="DC89" t="inlineStr"/>
-      <c r="DD89" t="inlineStr"/>
-      <c r="DE89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12791,9 +11594,21 @@
       <c r="BY90" t="inlineStr"/>
       <c r="BZ90" t="inlineStr"/>
       <c r="CA90" t="inlineStr"/>
-      <c r="CB90" t="inlineStr"/>
-      <c r="CC90" t="inlineStr"/>
-      <c r="CD90" t="inlineStr"/>
+      <c r="CB90" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC90" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD90" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE90" t="inlineStr"/>
       <c r="CF90" t="inlineStr"/>
       <c r="CG90" t="inlineStr"/>
@@ -12801,38 +11616,13 @@
       <c r="CI90" t="inlineStr"/>
       <c r="CJ90" t="inlineStr"/>
       <c r="CK90" t="inlineStr"/>
-      <c r="CL90" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM90" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN90" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL90" t="inlineStr"/>
+      <c r="CM90" t="inlineStr"/>
+      <c r="CN90" t="inlineStr"/>
       <c r="CO90" t="inlineStr"/>
       <c r="CP90" t="inlineStr"/>
       <c r="CQ90" t="inlineStr"/>
       <c r="CR90" t="inlineStr"/>
-      <c r="CS90" t="inlineStr"/>
-      <c r="CT90" t="inlineStr"/>
-      <c r="CU90" t="inlineStr"/>
-      <c r="CV90" t="inlineStr"/>
-      <c r="CW90" t="inlineStr"/>
-      <c r="CX90" t="inlineStr"/>
-      <c r="CY90" t="inlineStr"/>
-      <c r="CZ90" t="inlineStr"/>
-      <c r="DA90" t="inlineStr"/>
-      <c r="DB90" t="inlineStr"/>
-      <c r="DC90" t="inlineStr"/>
-      <c r="DD90" t="inlineStr"/>
-      <c r="DE90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12939,9 +11729,21 @@
       <c r="BY91" t="inlineStr"/>
       <c r="BZ91" t="inlineStr"/>
       <c r="CA91" t="inlineStr"/>
-      <c r="CB91" t="inlineStr"/>
-      <c r="CC91" t="inlineStr"/>
-      <c r="CD91" t="inlineStr"/>
+      <c r="CB91" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC91" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD91" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE91" t="inlineStr"/>
       <c r="CF91" t="inlineStr"/>
       <c r="CG91" t="inlineStr"/>
@@ -12949,38 +11751,13 @@
       <c r="CI91" t="inlineStr"/>
       <c r="CJ91" t="inlineStr"/>
       <c r="CK91" t="inlineStr"/>
-      <c r="CL91" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM91" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN91" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL91" t="inlineStr"/>
+      <c r="CM91" t="inlineStr"/>
+      <c r="CN91" t="inlineStr"/>
       <c r="CO91" t="inlineStr"/>
       <c r="CP91" t="inlineStr"/>
       <c r="CQ91" t="inlineStr"/>
       <c r="CR91" t="inlineStr"/>
-      <c r="CS91" t="inlineStr"/>
-      <c r="CT91" t="inlineStr"/>
-      <c r="CU91" t="inlineStr"/>
-      <c r="CV91" t="inlineStr"/>
-      <c r="CW91" t="inlineStr"/>
-      <c r="CX91" t="inlineStr"/>
-      <c r="CY91" t="inlineStr"/>
-      <c r="CZ91" t="inlineStr"/>
-      <c r="DA91" t="inlineStr"/>
-      <c r="DB91" t="inlineStr"/>
-      <c r="DC91" t="inlineStr"/>
-      <c r="DD91" t="inlineStr"/>
-      <c r="DE91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13025,7 +11802,11 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -13034,11 +11815,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -13094,9 +11871,21 @@
       <c r="BY92" t="inlineStr"/>
       <c r="BZ92" t="inlineStr"/>
       <c r="CA92" t="inlineStr"/>
-      <c r="CB92" t="inlineStr"/>
-      <c r="CC92" t="inlineStr"/>
-      <c r="CD92" t="inlineStr"/>
+      <c r="CB92" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC92" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE92" t="inlineStr"/>
       <c r="CF92" t="inlineStr"/>
       <c r="CG92" t="inlineStr"/>
@@ -13104,38 +11893,13 @@
       <c r="CI92" t="inlineStr"/>
       <c r="CJ92" t="inlineStr"/>
       <c r="CK92" t="inlineStr"/>
-      <c r="CL92" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM92" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN92" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL92" t="inlineStr"/>
+      <c r="CM92" t="inlineStr"/>
+      <c r="CN92" t="inlineStr"/>
       <c r="CO92" t="inlineStr"/>
       <c r="CP92" t="inlineStr"/>
       <c r="CQ92" t="inlineStr"/>
       <c r="CR92" t="inlineStr"/>
-      <c r="CS92" t="inlineStr"/>
-      <c r="CT92" t="inlineStr"/>
-      <c r="CU92" t="inlineStr"/>
-      <c r="CV92" t="inlineStr"/>
-      <c r="CW92" t="inlineStr"/>
-      <c r="CX92" t="inlineStr"/>
-      <c r="CY92" t="inlineStr"/>
-      <c r="CZ92" t="inlineStr"/>
-      <c r="DA92" t="inlineStr"/>
-      <c r="DB92" t="inlineStr"/>
-      <c r="DC92" t="inlineStr"/>
-      <c r="DD92" t="inlineStr"/>
-      <c r="DE92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13180,7 +11944,11 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -13189,11 +11957,7 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -13249,9 +12013,21 @@
       <c r="BY93" t="inlineStr"/>
       <c r="BZ93" t="inlineStr"/>
       <c r="CA93" t="inlineStr"/>
-      <c r="CB93" t="inlineStr"/>
-      <c r="CC93" t="inlineStr"/>
-      <c r="CD93" t="inlineStr"/>
+      <c r="CB93" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC93" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE93" t="inlineStr"/>
       <c r="CF93" t="inlineStr"/>
       <c r="CG93" t="inlineStr"/>
@@ -13259,38 +12035,13 @@
       <c r="CI93" t="inlineStr"/>
       <c r="CJ93" t="inlineStr"/>
       <c r="CK93" t="inlineStr"/>
-      <c r="CL93" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM93" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN93" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL93" t="inlineStr"/>
+      <c r="CM93" t="inlineStr"/>
+      <c r="CN93" t="inlineStr"/>
       <c r="CO93" t="inlineStr"/>
       <c r="CP93" t="inlineStr"/>
       <c r="CQ93" t="inlineStr"/>
       <c r="CR93" t="inlineStr"/>
-      <c r="CS93" t="inlineStr"/>
-      <c r="CT93" t="inlineStr"/>
-      <c r="CU93" t="inlineStr"/>
-      <c r="CV93" t="inlineStr"/>
-      <c r="CW93" t="inlineStr"/>
-      <c r="CX93" t="inlineStr"/>
-      <c r="CY93" t="inlineStr"/>
-      <c r="CZ93" t="inlineStr"/>
-      <c r="DA93" t="inlineStr"/>
-      <c r="DB93" t="inlineStr"/>
-      <c r="DC93" t="inlineStr"/>
-      <c r="DD93" t="inlineStr"/>
-      <c r="DE93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13408,9 +12159,21 @@
       <c r="BY94" t="inlineStr"/>
       <c r="BZ94" t="inlineStr"/>
       <c r="CA94" t="inlineStr"/>
-      <c r="CB94" t="inlineStr"/>
-      <c r="CC94" t="inlineStr"/>
-      <c r="CD94" t="inlineStr"/>
+      <c r="CB94" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC94" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD94" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE94" t="inlineStr"/>
       <c r="CF94" t="inlineStr"/>
       <c r="CG94" t="inlineStr"/>
@@ -13418,38 +12181,13 @@
       <c r="CI94" t="inlineStr"/>
       <c r="CJ94" t="inlineStr"/>
       <c r="CK94" t="inlineStr"/>
-      <c r="CL94" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM94" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN94" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL94" t="inlineStr"/>
+      <c r="CM94" t="inlineStr"/>
+      <c r="CN94" t="inlineStr"/>
       <c r="CO94" t="inlineStr"/>
       <c r="CP94" t="inlineStr"/>
       <c r="CQ94" t="inlineStr"/>
       <c r="CR94" t="inlineStr"/>
-      <c r="CS94" t="inlineStr"/>
-      <c r="CT94" t="inlineStr"/>
-      <c r="CU94" t="inlineStr"/>
-      <c r="CV94" t="inlineStr"/>
-      <c r="CW94" t="inlineStr"/>
-      <c r="CX94" t="inlineStr"/>
-      <c r="CY94" t="inlineStr"/>
-      <c r="CZ94" t="inlineStr"/>
-      <c r="DA94" t="inlineStr"/>
-      <c r="DB94" t="inlineStr"/>
-      <c r="DC94" t="inlineStr"/>
-      <c r="DD94" t="inlineStr"/>
-      <c r="DE94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13560,9 +12298,21 @@
       <c r="BY95" t="inlineStr"/>
       <c r="BZ95" t="inlineStr"/>
       <c r="CA95" t="inlineStr"/>
-      <c r="CB95" t="inlineStr"/>
-      <c r="CC95" t="inlineStr"/>
-      <c r="CD95" t="inlineStr"/>
+      <c r="CB95" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC95" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD95" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE95" t="inlineStr"/>
       <c r="CF95" t="inlineStr"/>
       <c r="CG95" t="inlineStr"/>
@@ -13570,38 +12320,13 @@
       <c r="CI95" t="inlineStr"/>
       <c r="CJ95" t="inlineStr"/>
       <c r="CK95" t="inlineStr"/>
-      <c r="CL95" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM95" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN95" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL95" t="inlineStr"/>
+      <c r="CM95" t="inlineStr"/>
+      <c r="CN95" t="inlineStr"/>
       <c r="CO95" t="inlineStr"/>
       <c r="CP95" t="inlineStr"/>
       <c r="CQ95" t="inlineStr"/>
       <c r="CR95" t="inlineStr"/>
-      <c r="CS95" t="inlineStr"/>
-      <c r="CT95" t="inlineStr"/>
-      <c r="CU95" t="inlineStr"/>
-      <c r="CV95" t="inlineStr"/>
-      <c r="CW95" t="inlineStr"/>
-      <c r="CX95" t="inlineStr"/>
-      <c r="CY95" t="inlineStr"/>
-      <c r="CZ95" t="inlineStr"/>
-      <c r="DA95" t="inlineStr"/>
-      <c r="DB95" t="inlineStr"/>
-      <c r="DC95" t="inlineStr"/>
-      <c r="DD95" t="inlineStr"/>
-      <c r="DE95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13707,9 +12432,21 @@
       <c r="BY96" t="inlineStr"/>
       <c r="BZ96" t="inlineStr"/>
       <c r="CA96" t="inlineStr"/>
-      <c r="CB96" t="inlineStr"/>
-      <c r="CC96" t="inlineStr"/>
-      <c r="CD96" t="inlineStr"/>
+      <c r="CB96" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC96" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD96" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE96" t="inlineStr"/>
       <c r="CF96" t="inlineStr"/>
       <c r="CG96" t="inlineStr"/>
@@ -13717,38 +12454,13 @@
       <c r="CI96" t="inlineStr"/>
       <c r="CJ96" t="inlineStr"/>
       <c r="CK96" t="inlineStr"/>
-      <c r="CL96" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM96" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN96" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL96" t="inlineStr"/>
+      <c r="CM96" t="inlineStr"/>
+      <c r="CN96" t="inlineStr"/>
       <c r="CO96" t="inlineStr"/>
       <c r="CP96" t="inlineStr"/>
       <c r="CQ96" t="inlineStr"/>
       <c r="CR96" t="inlineStr"/>
-      <c r="CS96" t="inlineStr"/>
-      <c r="CT96" t="inlineStr"/>
-      <c r="CU96" t="inlineStr"/>
-      <c r="CV96" t="inlineStr"/>
-      <c r="CW96" t="inlineStr"/>
-      <c r="CX96" t="inlineStr"/>
-      <c r="CY96" t="inlineStr"/>
-      <c r="CZ96" t="inlineStr"/>
-      <c r="DA96" t="inlineStr"/>
-      <c r="DB96" t="inlineStr"/>
-      <c r="DC96" t="inlineStr"/>
-      <c r="DD96" t="inlineStr"/>
-      <c r="DE96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13855,9 +12567,21 @@
       <c r="BY97" t="inlineStr"/>
       <c r="BZ97" t="inlineStr"/>
       <c r="CA97" t="inlineStr"/>
-      <c r="CB97" t="inlineStr"/>
-      <c r="CC97" t="inlineStr"/>
-      <c r="CD97" t="inlineStr"/>
+      <c r="CB97" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC97" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD97" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE97" t="inlineStr"/>
       <c r="CF97" t="inlineStr"/>
       <c r="CG97" t="inlineStr"/>
@@ -13865,38 +12589,13 @@
       <c r="CI97" t="inlineStr"/>
       <c r="CJ97" t="inlineStr"/>
       <c r="CK97" t="inlineStr"/>
-      <c r="CL97" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM97" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN97" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL97" t="inlineStr"/>
+      <c r="CM97" t="inlineStr"/>
+      <c r="CN97" t="inlineStr"/>
       <c r="CO97" t="inlineStr"/>
       <c r="CP97" t="inlineStr"/>
       <c r="CQ97" t="inlineStr"/>
       <c r="CR97" t="inlineStr"/>
-      <c r="CS97" t="inlineStr"/>
-      <c r="CT97" t="inlineStr"/>
-      <c r="CU97" t="inlineStr"/>
-      <c r="CV97" t="inlineStr"/>
-      <c r="CW97" t="inlineStr"/>
-      <c r="CX97" t="inlineStr"/>
-      <c r="CY97" t="inlineStr"/>
-      <c r="CZ97" t="inlineStr"/>
-      <c r="DA97" t="inlineStr"/>
-      <c r="DB97" t="inlineStr"/>
-      <c r="DC97" t="inlineStr"/>
-      <c r="DD97" t="inlineStr"/>
-      <c r="DE97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14003,9 +12702,21 @@
       <c r="BY98" t="inlineStr"/>
       <c r="BZ98" t="inlineStr"/>
       <c r="CA98" t="inlineStr"/>
-      <c r="CB98" t="inlineStr"/>
-      <c r="CC98" t="inlineStr"/>
-      <c r="CD98" t="inlineStr"/>
+      <c r="CB98" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC98" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD98" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE98" t="inlineStr"/>
       <c r="CF98" t="inlineStr"/>
       <c r="CG98" t="inlineStr"/>
@@ -14013,38 +12724,13 @@
       <c r="CI98" t="inlineStr"/>
       <c r="CJ98" t="inlineStr"/>
       <c r="CK98" t="inlineStr"/>
-      <c r="CL98" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM98" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN98" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL98" t="inlineStr"/>
+      <c r="CM98" t="inlineStr"/>
+      <c r="CN98" t="inlineStr"/>
       <c r="CO98" t="inlineStr"/>
       <c r="CP98" t="inlineStr"/>
       <c r="CQ98" t="inlineStr"/>
       <c r="CR98" t="inlineStr"/>
-      <c r="CS98" t="inlineStr"/>
-      <c r="CT98" t="inlineStr"/>
-      <c r="CU98" t="inlineStr"/>
-      <c r="CV98" t="inlineStr"/>
-      <c r="CW98" t="inlineStr"/>
-      <c r="CX98" t="inlineStr"/>
-      <c r="CY98" t="inlineStr"/>
-      <c r="CZ98" t="inlineStr"/>
-      <c r="DA98" t="inlineStr"/>
-      <c r="DB98" t="inlineStr"/>
-      <c r="DC98" t="inlineStr"/>
-      <c r="DD98" t="inlineStr"/>
-      <c r="DE98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14160,9 +12846,21 @@
       <c r="BY99" t="inlineStr"/>
       <c r="BZ99" t="inlineStr"/>
       <c r="CA99" t="inlineStr"/>
-      <c r="CB99" t="inlineStr"/>
-      <c r="CC99" t="inlineStr"/>
-      <c r="CD99" t="inlineStr"/>
+      <c r="CB99" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC99" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD99" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE99" t="inlineStr"/>
       <c r="CF99" t="inlineStr"/>
       <c r="CG99" t="inlineStr"/>
@@ -14170,38 +12868,13 @@
       <c r="CI99" t="inlineStr"/>
       <c r="CJ99" t="inlineStr"/>
       <c r="CK99" t="inlineStr"/>
-      <c r="CL99" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM99" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN99" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL99" t="inlineStr"/>
+      <c r="CM99" t="inlineStr"/>
+      <c r="CN99" t="inlineStr"/>
       <c r="CO99" t="inlineStr"/>
       <c r="CP99" t="inlineStr"/>
       <c r="CQ99" t="inlineStr"/>
       <c r="CR99" t="inlineStr"/>
-      <c r="CS99" t="inlineStr"/>
-      <c r="CT99" t="inlineStr"/>
-      <c r="CU99" t="inlineStr"/>
-      <c r="CV99" t="inlineStr"/>
-      <c r="CW99" t="inlineStr"/>
-      <c r="CX99" t="inlineStr"/>
-      <c r="CY99" t="inlineStr"/>
-      <c r="CZ99" t="inlineStr"/>
-      <c r="DA99" t="inlineStr"/>
-      <c r="DB99" t="inlineStr"/>
-      <c r="DC99" t="inlineStr"/>
-      <c r="DD99" t="inlineStr"/>
-      <c r="DE99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14308,9 +12981,21 @@
       <c r="BY100" t="inlineStr"/>
       <c r="BZ100" t="inlineStr"/>
       <c r="CA100" t="inlineStr"/>
-      <c r="CB100" t="inlineStr"/>
-      <c r="CC100" t="inlineStr"/>
-      <c r="CD100" t="inlineStr"/>
+      <c r="CB100" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC100" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD100" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE100" t="inlineStr"/>
       <c r="CF100" t="inlineStr"/>
       <c r="CG100" t="inlineStr"/>
@@ -14318,38 +13003,13 @@
       <c r="CI100" t="inlineStr"/>
       <c r="CJ100" t="inlineStr"/>
       <c r="CK100" t="inlineStr"/>
-      <c r="CL100" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM100" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN100" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL100" t="inlineStr"/>
+      <c r="CM100" t="inlineStr"/>
+      <c r="CN100" t="inlineStr"/>
       <c r="CO100" t="inlineStr"/>
       <c r="CP100" t="inlineStr"/>
       <c r="CQ100" t="inlineStr"/>
       <c r="CR100" t="inlineStr"/>
-      <c r="CS100" t="inlineStr"/>
-      <c r="CT100" t="inlineStr"/>
-      <c r="CU100" t="inlineStr"/>
-      <c r="CV100" t="inlineStr"/>
-      <c r="CW100" t="inlineStr"/>
-      <c r="CX100" t="inlineStr"/>
-      <c r="CY100" t="inlineStr"/>
-      <c r="CZ100" t="inlineStr"/>
-      <c r="DA100" t="inlineStr"/>
-      <c r="DB100" t="inlineStr"/>
-      <c r="DC100" t="inlineStr"/>
-      <c r="DD100" t="inlineStr"/>
-      <c r="DE100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14456,9 +13116,21 @@
       <c r="BY101" t="inlineStr"/>
       <c r="BZ101" t="inlineStr"/>
       <c r="CA101" t="inlineStr"/>
-      <c r="CB101" t="inlineStr"/>
-      <c r="CC101" t="inlineStr"/>
-      <c r="CD101" t="inlineStr"/>
+      <c r="CB101" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC101" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD101" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE101" t="inlineStr"/>
       <c r="CF101" t="inlineStr"/>
       <c r="CG101" t="inlineStr"/>
@@ -14466,38 +13138,13 @@
       <c r="CI101" t="inlineStr"/>
       <c r="CJ101" t="inlineStr"/>
       <c r="CK101" t="inlineStr"/>
-      <c r="CL101" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM101" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN101" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL101" t="inlineStr"/>
+      <c r="CM101" t="inlineStr"/>
+      <c r="CN101" t="inlineStr"/>
       <c r="CO101" t="inlineStr"/>
       <c r="CP101" t="inlineStr"/>
       <c r="CQ101" t="inlineStr"/>
       <c r="CR101" t="inlineStr"/>
-      <c r="CS101" t="inlineStr"/>
-      <c r="CT101" t="inlineStr"/>
-      <c r="CU101" t="inlineStr"/>
-      <c r="CV101" t="inlineStr"/>
-      <c r="CW101" t="inlineStr"/>
-      <c r="CX101" t="inlineStr"/>
-      <c r="CY101" t="inlineStr"/>
-      <c r="CZ101" t="inlineStr"/>
-      <c r="DA101" t="inlineStr"/>
-      <c r="DB101" t="inlineStr"/>
-      <c r="DC101" t="inlineStr"/>
-      <c r="DD101" t="inlineStr"/>
-      <c r="DE101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14603,9 +13250,21 @@
       <c r="BY102" t="inlineStr"/>
       <c r="BZ102" t="inlineStr"/>
       <c r="CA102" t="inlineStr"/>
-      <c r="CB102" t="inlineStr"/>
-      <c r="CC102" t="inlineStr"/>
-      <c r="CD102" t="inlineStr"/>
+      <c r="CB102" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC102" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD102" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE102" t="inlineStr"/>
       <c r="CF102" t="inlineStr"/>
       <c r="CG102" t="inlineStr"/>
@@ -14613,38 +13272,13 @@
       <c r="CI102" t="inlineStr"/>
       <c r="CJ102" t="inlineStr"/>
       <c r="CK102" t="inlineStr"/>
-      <c r="CL102" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM102" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN102" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL102" t="inlineStr"/>
+      <c r="CM102" t="inlineStr"/>
+      <c r="CN102" t="inlineStr"/>
       <c r="CO102" t="inlineStr"/>
       <c r="CP102" t="inlineStr"/>
       <c r="CQ102" t="inlineStr"/>
       <c r="CR102" t="inlineStr"/>
-      <c r="CS102" t="inlineStr"/>
-      <c r="CT102" t="inlineStr"/>
-      <c r="CU102" t="inlineStr"/>
-      <c r="CV102" t="inlineStr"/>
-      <c r="CW102" t="inlineStr"/>
-      <c r="CX102" t="inlineStr"/>
-      <c r="CY102" t="inlineStr"/>
-      <c r="CZ102" t="inlineStr"/>
-      <c r="DA102" t="inlineStr"/>
-      <c r="DB102" t="inlineStr"/>
-      <c r="DC102" t="inlineStr"/>
-      <c r="DD102" t="inlineStr"/>
-      <c r="DE102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14752,9 +13386,21 @@
       <c r="BY103" t="inlineStr"/>
       <c r="BZ103" t="inlineStr"/>
       <c r="CA103" t="inlineStr"/>
-      <c r="CB103" t="inlineStr"/>
-      <c r="CC103" t="inlineStr"/>
-      <c r="CD103" t="inlineStr"/>
+      <c r="CB103" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC103" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD103" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE103" t="inlineStr"/>
       <c r="CF103" t="inlineStr"/>
       <c r="CG103" t="inlineStr"/>
@@ -14762,38 +13408,13 @@
       <c r="CI103" t="inlineStr"/>
       <c r="CJ103" t="inlineStr"/>
       <c r="CK103" t="inlineStr"/>
-      <c r="CL103" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM103" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN103" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL103" t="inlineStr"/>
+      <c r="CM103" t="inlineStr"/>
+      <c r="CN103" t="inlineStr"/>
       <c r="CO103" t="inlineStr"/>
       <c r="CP103" t="inlineStr"/>
       <c r="CQ103" t="inlineStr"/>
       <c r="CR103" t="inlineStr"/>
-      <c r="CS103" t="inlineStr"/>
-      <c r="CT103" t="inlineStr"/>
-      <c r="CU103" t="inlineStr"/>
-      <c r="CV103" t="inlineStr"/>
-      <c r="CW103" t="inlineStr"/>
-      <c r="CX103" t="inlineStr"/>
-      <c r="CY103" t="inlineStr"/>
-      <c r="CZ103" t="inlineStr"/>
-      <c r="DA103" t="inlineStr"/>
-      <c r="DB103" t="inlineStr"/>
-      <c r="DC103" t="inlineStr"/>
-      <c r="DD103" t="inlineStr"/>
-      <c r="DE103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14901,9 +13522,21 @@
       <c r="BY104" t="inlineStr"/>
       <c r="BZ104" t="inlineStr"/>
       <c r="CA104" t="inlineStr"/>
-      <c r="CB104" t="inlineStr"/>
-      <c r="CC104" t="inlineStr"/>
-      <c r="CD104" t="inlineStr"/>
+      <c r="CB104" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC104" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD104" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE104" t="inlineStr"/>
       <c r="CF104" t="inlineStr"/>
       <c r="CG104" t="inlineStr"/>
@@ -14911,38 +13544,13 @@
       <c r="CI104" t="inlineStr"/>
       <c r="CJ104" t="inlineStr"/>
       <c r="CK104" t="inlineStr"/>
-      <c r="CL104" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM104" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN104" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL104" t="inlineStr"/>
+      <c r="CM104" t="inlineStr"/>
+      <c r="CN104" t="inlineStr"/>
       <c r="CO104" t="inlineStr"/>
       <c r="CP104" t="inlineStr"/>
       <c r="CQ104" t="inlineStr"/>
       <c r="CR104" t="inlineStr"/>
-      <c r="CS104" t="inlineStr"/>
-      <c r="CT104" t="inlineStr"/>
-      <c r="CU104" t="inlineStr"/>
-      <c r="CV104" t="inlineStr"/>
-      <c r="CW104" t="inlineStr"/>
-      <c r="CX104" t="inlineStr"/>
-      <c r="CY104" t="inlineStr"/>
-      <c r="CZ104" t="inlineStr"/>
-      <c r="DA104" t="inlineStr"/>
-      <c r="DB104" t="inlineStr"/>
-      <c r="DC104" t="inlineStr"/>
-      <c r="DD104" t="inlineStr"/>
-      <c r="DE104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14987,7 +13595,11 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -14996,11 +13608,7 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
@@ -15056,9 +13664,21 @@
       <c r="BY105" t="inlineStr"/>
       <c r="BZ105" t="inlineStr"/>
       <c r="CA105" t="inlineStr"/>
-      <c r="CB105" t="inlineStr"/>
-      <c r="CC105" t="inlineStr"/>
-      <c r="CD105" t="inlineStr"/>
+      <c r="CB105" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC105" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD105" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE105" t="inlineStr"/>
       <c r="CF105" t="inlineStr"/>
       <c r="CG105" t="inlineStr"/>
@@ -15066,38 +13686,13 @@
       <c r="CI105" t="inlineStr"/>
       <c r="CJ105" t="inlineStr"/>
       <c r="CK105" t="inlineStr"/>
-      <c r="CL105" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM105" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN105" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL105" t="inlineStr"/>
+      <c r="CM105" t="inlineStr"/>
+      <c r="CN105" t="inlineStr"/>
       <c r="CO105" t="inlineStr"/>
       <c r="CP105" t="inlineStr"/>
       <c r="CQ105" t="inlineStr"/>
       <c r="CR105" t="inlineStr"/>
-      <c r="CS105" t="inlineStr"/>
-      <c r="CT105" t="inlineStr"/>
-      <c r="CU105" t="inlineStr"/>
-      <c r="CV105" t="inlineStr"/>
-      <c r="CW105" t="inlineStr"/>
-      <c r="CX105" t="inlineStr"/>
-      <c r="CY105" t="inlineStr"/>
-      <c r="CZ105" t="inlineStr"/>
-      <c r="DA105" t="inlineStr"/>
-      <c r="DB105" t="inlineStr"/>
-      <c r="DC105" t="inlineStr"/>
-      <c r="DD105" t="inlineStr"/>
-      <c r="DE105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15142,7 +13737,11 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
@@ -15151,11 +13750,7 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
@@ -15211,9 +13806,21 @@
       <c r="BY106" t="inlineStr"/>
       <c r="BZ106" t="inlineStr"/>
       <c r="CA106" t="inlineStr"/>
-      <c r="CB106" t="inlineStr"/>
-      <c r="CC106" t="inlineStr"/>
-      <c r="CD106" t="inlineStr"/>
+      <c r="CB106" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC106" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD106" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE106" t="inlineStr"/>
       <c r="CF106" t="inlineStr"/>
       <c r="CG106" t="inlineStr"/>
@@ -15221,38 +13828,13 @@
       <c r="CI106" t="inlineStr"/>
       <c r="CJ106" t="inlineStr"/>
       <c r="CK106" t="inlineStr"/>
-      <c r="CL106" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM106" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN106" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL106" t="inlineStr"/>
+      <c r="CM106" t="inlineStr"/>
+      <c r="CN106" t="inlineStr"/>
       <c r="CO106" t="inlineStr"/>
       <c r="CP106" t="inlineStr"/>
       <c r="CQ106" t="inlineStr"/>
       <c r="CR106" t="inlineStr"/>
-      <c r="CS106" t="inlineStr"/>
-      <c r="CT106" t="inlineStr"/>
-      <c r="CU106" t="inlineStr"/>
-      <c r="CV106" t="inlineStr"/>
-      <c r="CW106" t="inlineStr"/>
-      <c r="CX106" t="inlineStr"/>
-      <c r="CY106" t="inlineStr"/>
-      <c r="CZ106" t="inlineStr"/>
-      <c r="DA106" t="inlineStr"/>
-      <c r="DB106" t="inlineStr"/>
-      <c r="DC106" t="inlineStr"/>
-      <c r="DD106" t="inlineStr"/>
-      <c r="DE106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15359,9 +13941,21 @@
       <c r="BY107" t="inlineStr"/>
       <c r="BZ107" t="inlineStr"/>
       <c r="CA107" t="inlineStr"/>
-      <c r="CB107" t="inlineStr"/>
-      <c r="CC107" t="inlineStr"/>
-      <c r="CD107" t="inlineStr"/>
+      <c r="CB107" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC107" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD107" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE107" t="inlineStr"/>
       <c r="CF107" t="inlineStr"/>
       <c r="CG107" t="inlineStr"/>
@@ -15369,38 +13963,13 @@
       <c r="CI107" t="inlineStr"/>
       <c r="CJ107" t="inlineStr"/>
       <c r="CK107" t="inlineStr"/>
-      <c r="CL107" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM107" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN107" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL107" t="inlineStr"/>
+      <c r="CM107" t="inlineStr"/>
+      <c r="CN107" t="inlineStr"/>
       <c r="CO107" t="inlineStr"/>
       <c r="CP107" t="inlineStr"/>
       <c r="CQ107" t="inlineStr"/>
       <c r="CR107" t="inlineStr"/>
-      <c r="CS107" t="inlineStr"/>
-      <c r="CT107" t="inlineStr"/>
-      <c r="CU107" t="inlineStr"/>
-      <c r="CV107" t="inlineStr"/>
-      <c r="CW107" t="inlineStr"/>
-      <c r="CX107" t="inlineStr"/>
-      <c r="CY107" t="inlineStr"/>
-      <c r="CZ107" t="inlineStr"/>
-      <c r="DA107" t="inlineStr"/>
-      <c r="DB107" t="inlineStr"/>
-      <c r="DC107" t="inlineStr"/>
-      <c r="DD107" t="inlineStr"/>
-      <c r="DE107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15513,9 +14082,21 @@
       <c r="BY108" t="inlineStr"/>
       <c r="BZ108" t="inlineStr"/>
       <c r="CA108" t="inlineStr"/>
-      <c r="CB108" t="inlineStr"/>
-      <c r="CC108" t="inlineStr"/>
-      <c r="CD108" t="inlineStr"/>
+      <c r="CB108" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC108" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD108" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE108" t="inlineStr"/>
       <c r="CF108" t="inlineStr"/>
       <c r="CG108" t="inlineStr"/>
@@ -15523,38 +14104,13 @@
       <c r="CI108" t="inlineStr"/>
       <c r="CJ108" t="inlineStr"/>
       <c r="CK108" t="inlineStr"/>
-      <c r="CL108" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM108" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN108" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL108" t="inlineStr"/>
+      <c r="CM108" t="inlineStr"/>
+      <c r="CN108" t="inlineStr"/>
       <c r="CO108" t="inlineStr"/>
       <c r="CP108" t="inlineStr"/>
       <c r="CQ108" t="inlineStr"/>
       <c r="CR108" t="inlineStr"/>
-      <c r="CS108" t="inlineStr"/>
-      <c r="CT108" t="inlineStr"/>
-      <c r="CU108" t="inlineStr"/>
-      <c r="CV108" t="inlineStr"/>
-      <c r="CW108" t="inlineStr"/>
-      <c r="CX108" t="inlineStr"/>
-      <c r="CY108" t="inlineStr"/>
-      <c r="CZ108" t="inlineStr"/>
-      <c r="DA108" t="inlineStr"/>
-      <c r="DB108" t="inlineStr"/>
-      <c r="DC108" t="inlineStr"/>
-      <c r="DD108" t="inlineStr"/>
-      <c r="DE108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15669,9 +14225,21 @@
       <c r="BY109" t="inlineStr"/>
       <c r="BZ109" t="inlineStr"/>
       <c r="CA109" t="inlineStr"/>
-      <c r="CB109" t="inlineStr"/>
-      <c r="CC109" t="inlineStr"/>
-      <c r="CD109" t="inlineStr"/>
+      <c r="CB109" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC109" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD109" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE109" t="inlineStr"/>
       <c r="CF109" t="inlineStr"/>
       <c r="CG109" t="inlineStr"/>
@@ -15679,38 +14247,13 @@
       <c r="CI109" t="inlineStr"/>
       <c r="CJ109" t="inlineStr"/>
       <c r="CK109" t="inlineStr"/>
-      <c r="CL109" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM109" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN109" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL109" t="inlineStr"/>
+      <c r="CM109" t="inlineStr"/>
+      <c r="CN109" t="inlineStr"/>
       <c r="CO109" t="inlineStr"/>
       <c r="CP109" t="inlineStr"/>
       <c r="CQ109" t="inlineStr"/>
       <c r="CR109" t="inlineStr"/>
-      <c r="CS109" t="inlineStr"/>
-      <c r="CT109" t="inlineStr"/>
-      <c r="CU109" t="inlineStr"/>
-      <c r="CV109" t="inlineStr"/>
-      <c r="CW109" t="inlineStr"/>
-      <c r="CX109" t="inlineStr"/>
-      <c r="CY109" t="inlineStr"/>
-      <c r="CZ109" t="inlineStr"/>
-      <c r="DA109" t="inlineStr"/>
-      <c r="DB109" t="inlineStr"/>
-      <c r="DC109" t="inlineStr"/>
-      <c r="DD109" t="inlineStr"/>
-      <c r="DE109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15817,9 +14360,21 @@
       <c r="BY110" t="inlineStr"/>
       <c r="BZ110" t="inlineStr"/>
       <c r="CA110" t="inlineStr"/>
-      <c r="CB110" t="inlineStr"/>
-      <c r="CC110" t="inlineStr"/>
-      <c r="CD110" t="inlineStr"/>
+      <c r="CB110" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC110" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD110" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE110" t="inlineStr"/>
       <c r="CF110" t="inlineStr"/>
       <c r="CG110" t="inlineStr"/>
@@ -15827,38 +14382,13 @@
       <c r="CI110" t="inlineStr"/>
       <c r="CJ110" t="inlineStr"/>
       <c r="CK110" t="inlineStr"/>
-      <c r="CL110" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM110" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN110" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL110" t="inlineStr"/>
+      <c r="CM110" t="inlineStr"/>
+      <c r="CN110" t="inlineStr"/>
       <c r="CO110" t="inlineStr"/>
       <c r="CP110" t="inlineStr"/>
       <c r="CQ110" t="inlineStr"/>
       <c r="CR110" t="inlineStr"/>
-      <c r="CS110" t="inlineStr"/>
-      <c r="CT110" t="inlineStr"/>
-      <c r="CU110" t="inlineStr"/>
-      <c r="CV110" t="inlineStr"/>
-      <c r="CW110" t="inlineStr"/>
-      <c r="CX110" t="inlineStr"/>
-      <c r="CY110" t="inlineStr"/>
-      <c r="CZ110" t="inlineStr"/>
-      <c r="DA110" t="inlineStr"/>
-      <c r="DB110" t="inlineStr"/>
-      <c r="DC110" t="inlineStr"/>
-      <c r="DD110" t="inlineStr"/>
-      <c r="DE110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15964,9 +14494,21 @@
       <c r="BY111" t="inlineStr"/>
       <c r="BZ111" t="inlineStr"/>
       <c r="CA111" t="inlineStr"/>
-      <c r="CB111" t="inlineStr"/>
-      <c r="CC111" t="inlineStr"/>
-      <c r="CD111" t="inlineStr"/>
+      <c r="CB111" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC111" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD111" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE111" t="inlineStr"/>
       <c r="CF111" t="inlineStr"/>
       <c r="CG111" t="inlineStr"/>
@@ -15974,38 +14516,13 @@
       <c r="CI111" t="inlineStr"/>
       <c r="CJ111" t="inlineStr"/>
       <c r="CK111" t="inlineStr"/>
-      <c r="CL111" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM111" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN111" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL111" t="inlineStr"/>
+      <c r="CM111" t="inlineStr"/>
+      <c r="CN111" t="inlineStr"/>
       <c r="CO111" t="inlineStr"/>
       <c r="CP111" t="inlineStr"/>
       <c r="CQ111" t="inlineStr"/>
       <c r="CR111" t="inlineStr"/>
-      <c r="CS111" t="inlineStr"/>
-      <c r="CT111" t="inlineStr"/>
-      <c r="CU111" t="inlineStr"/>
-      <c r="CV111" t="inlineStr"/>
-      <c r="CW111" t="inlineStr"/>
-      <c r="CX111" t="inlineStr"/>
-      <c r="CY111" t="inlineStr"/>
-      <c r="CZ111" t="inlineStr"/>
-      <c r="DA111" t="inlineStr"/>
-      <c r="DB111" t="inlineStr"/>
-      <c r="DC111" t="inlineStr"/>
-      <c r="DD111" t="inlineStr"/>
-      <c r="DE111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16112,9 +14629,21 @@
       <c r="BY112" t="inlineStr"/>
       <c r="BZ112" t="inlineStr"/>
       <c r="CA112" t="inlineStr"/>
-      <c r="CB112" t="inlineStr"/>
-      <c r="CC112" t="inlineStr"/>
-      <c r="CD112" t="inlineStr"/>
+      <c r="CB112" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC112" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD112" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE112" t="inlineStr"/>
       <c r="CF112" t="inlineStr"/>
       <c r="CG112" t="inlineStr"/>
@@ -16122,38 +14651,13 @@
       <c r="CI112" t="inlineStr"/>
       <c r="CJ112" t="inlineStr"/>
       <c r="CK112" t="inlineStr"/>
-      <c r="CL112" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM112" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN112" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL112" t="inlineStr"/>
+      <c r="CM112" t="inlineStr"/>
+      <c r="CN112" t="inlineStr"/>
       <c r="CO112" t="inlineStr"/>
       <c r="CP112" t="inlineStr"/>
       <c r="CQ112" t="inlineStr"/>
       <c r="CR112" t="inlineStr"/>
-      <c r="CS112" t="inlineStr"/>
-      <c r="CT112" t="inlineStr"/>
-      <c r="CU112" t="inlineStr"/>
-      <c r="CV112" t="inlineStr"/>
-      <c r="CW112" t="inlineStr"/>
-      <c r="CX112" t="inlineStr"/>
-      <c r="CY112" t="inlineStr"/>
-      <c r="CZ112" t="inlineStr"/>
-      <c r="DA112" t="inlineStr"/>
-      <c r="DB112" t="inlineStr"/>
-      <c r="DC112" t="inlineStr"/>
-      <c r="DD112" t="inlineStr"/>
-      <c r="DE112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16256,9 +14760,21 @@
       <c r="BY113" t="inlineStr"/>
       <c r="BZ113" t="inlineStr"/>
       <c r="CA113" t="inlineStr"/>
-      <c r="CB113" t="inlineStr"/>
-      <c r="CC113" t="inlineStr"/>
-      <c r="CD113" t="inlineStr"/>
+      <c r="CB113" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC113" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD113" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE113" t="inlineStr"/>
       <c r="CF113" t="inlineStr"/>
       <c r="CG113" t="inlineStr"/>
@@ -16266,38 +14782,13 @@
       <c r="CI113" t="inlineStr"/>
       <c r="CJ113" t="inlineStr"/>
       <c r="CK113" t="inlineStr"/>
-      <c r="CL113" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM113" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN113" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL113" t="inlineStr"/>
+      <c r="CM113" t="inlineStr"/>
+      <c r="CN113" t="inlineStr"/>
       <c r="CO113" t="inlineStr"/>
       <c r="CP113" t="inlineStr"/>
       <c r="CQ113" t="inlineStr"/>
       <c r="CR113" t="inlineStr"/>
-      <c r="CS113" t="inlineStr"/>
-      <c r="CT113" t="inlineStr"/>
-      <c r="CU113" t="inlineStr"/>
-      <c r="CV113" t="inlineStr"/>
-      <c r="CW113" t="inlineStr"/>
-      <c r="CX113" t="inlineStr"/>
-      <c r="CY113" t="inlineStr"/>
-      <c r="CZ113" t="inlineStr"/>
-      <c r="DA113" t="inlineStr"/>
-      <c r="DB113" t="inlineStr"/>
-      <c r="DC113" t="inlineStr"/>
-      <c r="DD113" t="inlineStr"/>
-      <c r="DE113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16404,9 +14895,21 @@
       <c r="BY114" t="inlineStr"/>
       <c r="BZ114" t="inlineStr"/>
       <c r="CA114" t="inlineStr"/>
-      <c r="CB114" t="inlineStr"/>
-      <c r="CC114" t="inlineStr"/>
-      <c r="CD114" t="inlineStr"/>
+      <c r="CB114" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC114" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD114" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE114" t="inlineStr"/>
       <c r="CF114" t="inlineStr"/>
       <c r="CG114" t="inlineStr"/>
@@ -16414,38 +14917,13 @@
       <c r="CI114" t="inlineStr"/>
       <c r="CJ114" t="inlineStr"/>
       <c r="CK114" t="inlineStr"/>
-      <c r="CL114" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM114" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN114" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL114" t="inlineStr"/>
+      <c r="CM114" t="inlineStr"/>
+      <c r="CN114" t="inlineStr"/>
       <c r="CO114" t="inlineStr"/>
       <c r="CP114" t="inlineStr"/>
       <c r="CQ114" t="inlineStr"/>
       <c r="CR114" t="inlineStr"/>
-      <c r="CS114" t="inlineStr"/>
-      <c r="CT114" t="inlineStr"/>
-      <c r="CU114" t="inlineStr"/>
-      <c r="CV114" t="inlineStr"/>
-      <c r="CW114" t="inlineStr"/>
-      <c r="CX114" t="inlineStr"/>
-      <c r="CY114" t="inlineStr"/>
-      <c r="CZ114" t="inlineStr"/>
-      <c r="DA114" t="inlineStr"/>
-      <c r="DB114" t="inlineStr"/>
-      <c r="DC114" t="inlineStr"/>
-      <c r="DD114" t="inlineStr"/>
-      <c r="DE114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16552,9 +15030,21 @@
       <c r="BY115" t="inlineStr"/>
       <c r="BZ115" t="inlineStr"/>
       <c r="CA115" t="inlineStr"/>
-      <c r="CB115" t="inlineStr"/>
-      <c r="CC115" t="inlineStr"/>
-      <c r="CD115" t="inlineStr"/>
+      <c r="CB115" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC115" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD115" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE115" t="inlineStr"/>
       <c r="CF115" t="inlineStr"/>
       <c r="CG115" t="inlineStr"/>
@@ -16562,38 +15052,13 @@
       <c r="CI115" t="inlineStr"/>
       <c r="CJ115" t="inlineStr"/>
       <c r="CK115" t="inlineStr"/>
-      <c r="CL115" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM115" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN115" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL115" t="inlineStr"/>
+      <c r="CM115" t="inlineStr"/>
+      <c r="CN115" t="inlineStr"/>
       <c r="CO115" t="inlineStr"/>
       <c r="CP115" t="inlineStr"/>
       <c r="CQ115" t="inlineStr"/>
       <c r="CR115" t="inlineStr"/>
-      <c r="CS115" t="inlineStr"/>
-      <c r="CT115" t="inlineStr"/>
-      <c r="CU115" t="inlineStr"/>
-      <c r="CV115" t="inlineStr"/>
-      <c r="CW115" t="inlineStr"/>
-      <c r="CX115" t="inlineStr"/>
-      <c r="CY115" t="inlineStr"/>
-      <c r="CZ115" t="inlineStr"/>
-      <c r="DA115" t="inlineStr"/>
-      <c r="DB115" t="inlineStr"/>
-      <c r="DC115" t="inlineStr"/>
-      <c r="DD115" t="inlineStr"/>
-      <c r="DE115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16699,9 +15164,21 @@
       <c r="BY116" t="inlineStr"/>
       <c r="BZ116" t="inlineStr"/>
       <c r="CA116" t="inlineStr"/>
-      <c r="CB116" t="inlineStr"/>
-      <c r="CC116" t="inlineStr"/>
-      <c r="CD116" t="inlineStr"/>
+      <c r="CB116" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC116" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD116" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE116" t="inlineStr"/>
       <c r="CF116" t="inlineStr"/>
       <c r="CG116" t="inlineStr"/>
@@ -16709,38 +15186,13 @@
       <c r="CI116" t="inlineStr"/>
       <c r="CJ116" t="inlineStr"/>
       <c r="CK116" t="inlineStr"/>
-      <c r="CL116" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM116" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN116" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL116" t="inlineStr"/>
+      <c r="CM116" t="inlineStr"/>
+      <c r="CN116" t="inlineStr"/>
       <c r="CO116" t="inlineStr"/>
       <c r="CP116" t="inlineStr"/>
       <c r="CQ116" t="inlineStr"/>
       <c r="CR116" t="inlineStr"/>
-      <c r="CS116" t="inlineStr"/>
-      <c r="CT116" t="inlineStr"/>
-      <c r="CU116" t="inlineStr"/>
-      <c r="CV116" t="inlineStr"/>
-      <c r="CW116" t="inlineStr"/>
-      <c r="CX116" t="inlineStr"/>
-      <c r="CY116" t="inlineStr"/>
-      <c r="CZ116" t="inlineStr"/>
-      <c r="DA116" t="inlineStr"/>
-      <c r="DB116" t="inlineStr"/>
-      <c r="DC116" t="inlineStr"/>
-      <c r="DD116" t="inlineStr"/>
-      <c r="DE116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16851,9 +15303,21 @@
       <c r="BY117" t="inlineStr"/>
       <c r="BZ117" t="inlineStr"/>
       <c r="CA117" t="inlineStr"/>
-      <c r="CB117" t="inlineStr"/>
-      <c r="CC117" t="inlineStr"/>
-      <c r="CD117" t="inlineStr"/>
+      <c r="CB117" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC117" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD117" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE117" t="inlineStr"/>
       <c r="CF117" t="inlineStr"/>
       <c r="CG117" t="inlineStr"/>
@@ -16861,38 +15325,13 @@
       <c r="CI117" t="inlineStr"/>
       <c r="CJ117" t="inlineStr"/>
       <c r="CK117" t="inlineStr"/>
-      <c r="CL117" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM117" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN117" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL117" t="inlineStr"/>
+      <c r="CM117" t="inlineStr"/>
+      <c r="CN117" t="inlineStr"/>
       <c r="CO117" t="inlineStr"/>
       <c r="CP117" t="inlineStr"/>
       <c r="CQ117" t="inlineStr"/>
       <c r="CR117" t="inlineStr"/>
-      <c r="CS117" t="inlineStr"/>
-      <c r="CT117" t="inlineStr"/>
-      <c r="CU117" t="inlineStr"/>
-      <c r="CV117" t="inlineStr"/>
-      <c r="CW117" t="inlineStr"/>
-      <c r="CX117" t="inlineStr"/>
-      <c r="CY117" t="inlineStr"/>
-      <c r="CZ117" t="inlineStr"/>
-      <c r="DA117" t="inlineStr"/>
-      <c r="DB117" t="inlineStr"/>
-      <c r="DC117" t="inlineStr"/>
-      <c r="DD117" t="inlineStr"/>
-      <c r="DE117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17008,9 +15447,21 @@
       <c r="BY118" t="inlineStr"/>
       <c r="BZ118" t="inlineStr"/>
       <c r="CA118" t="inlineStr"/>
-      <c r="CB118" t="inlineStr"/>
-      <c r="CC118" t="inlineStr"/>
-      <c r="CD118" t="inlineStr"/>
+      <c r="CB118" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC118" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD118" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE118" t="inlineStr"/>
       <c r="CF118" t="inlineStr"/>
       <c r="CG118" t="inlineStr"/>
@@ -17018,38 +15469,13 @@
       <c r="CI118" t="inlineStr"/>
       <c r="CJ118" t="inlineStr"/>
       <c r="CK118" t="inlineStr"/>
-      <c r="CL118" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM118" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN118" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL118" t="inlineStr"/>
+      <c r="CM118" t="inlineStr"/>
+      <c r="CN118" t="inlineStr"/>
       <c r="CO118" t="inlineStr"/>
       <c r="CP118" t="inlineStr"/>
       <c r="CQ118" t="inlineStr"/>
       <c r="CR118" t="inlineStr"/>
-      <c r="CS118" t="inlineStr"/>
-      <c r="CT118" t="inlineStr"/>
-      <c r="CU118" t="inlineStr"/>
-      <c r="CV118" t="inlineStr"/>
-      <c r="CW118" t="inlineStr"/>
-      <c r="CX118" t="inlineStr"/>
-      <c r="CY118" t="inlineStr"/>
-      <c r="CZ118" t="inlineStr"/>
-      <c r="DA118" t="inlineStr"/>
-      <c r="DB118" t="inlineStr"/>
-      <c r="DC118" t="inlineStr"/>
-      <c r="DD118" t="inlineStr"/>
-      <c r="DE118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17155,9 +15581,21 @@
       <c r="BY119" t="inlineStr"/>
       <c r="BZ119" t="inlineStr"/>
       <c r="CA119" t="inlineStr"/>
-      <c r="CB119" t="inlineStr"/>
-      <c r="CC119" t="inlineStr"/>
-      <c r="CD119" t="inlineStr"/>
+      <c r="CB119" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC119" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD119" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE119" t="inlineStr"/>
       <c r="CF119" t="inlineStr"/>
       <c r="CG119" t="inlineStr"/>
@@ -17165,38 +15603,13 @@
       <c r="CI119" t="inlineStr"/>
       <c r="CJ119" t="inlineStr"/>
       <c r="CK119" t="inlineStr"/>
-      <c r="CL119" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM119" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN119" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL119" t="inlineStr"/>
+      <c r="CM119" t="inlineStr"/>
+      <c r="CN119" t="inlineStr"/>
       <c r="CO119" t="inlineStr"/>
       <c r="CP119" t="inlineStr"/>
       <c r="CQ119" t="inlineStr"/>
       <c r="CR119" t="inlineStr"/>
-      <c r="CS119" t="inlineStr"/>
-      <c r="CT119" t="inlineStr"/>
-      <c r="CU119" t="inlineStr"/>
-      <c r="CV119" t="inlineStr"/>
-      <c r="CW119" t="inlineStr"/>
-      <c r="CX119" t="inlineStr"/>
-      <c r="CY119" t="inlineStr"/>
-      <c r="CZ119" t="inlineStr"/>
-      <c r="DA119" t="inlineStr"/>
-      <c r="DB119" t="inlineStr"/>
-      <c r="DC119" t="inlineStr"/>
-      <c r="DD119" t="inlineStr"/>
-      <c r="DE119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17241,7 +15654,11 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
@@ -17250,11 +15667,7 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr"/>
@@ -17310,9 +15723,21 @@
       <c r="BY120" t="inlineStr"/>
       <c r="BZ120" t="inlineStr"/>
       <c r="CA120" t="inlineStr"/>
-      <c r="CB120" t="inlineStr"/>
-      <c r="CC120" t="inlineStr"/>
-      <c r="CD120" t="inlineStr"/>
+      <c r="CB120" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC120" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD120" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE120" t="inlineStr"/>
       <c r="CF120" t="inlineStr"/>
       <c r="CG120" t="inlineStr"/>
@@ -17320,38 +15745,13 @@
       <c r="CI120" t="inlineStr"/>
       <c r="CJ120" t="inlineStr"/>
       <c r="CK120" t="inlineStr"/>
-      <c r="CL120" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM120" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN120" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL120" t="inlineStr"/>
+      <c r="CM120" t="inlineStr"/>
+      <c r="CN120" t="inlineStr"/>
       <c r="CO120" t="inlineStr"/>
       <c r="CP120" t="inlineStr"/>
       <c r="CQ120" t="inlineStr"/>
       <c r="CR120" t="inlineStr"/>
-      <c r="CS120" t="inlineStr"/>
-      <c r="CT120" t="inlineStr"/>
-      <c r="CU120" t="inlineStr"/>
-      <c r="CV120" t="inlineStr"/>
-      <c r="CW120" t="inlineStr"/>
-      <c r="CX120" t="inlineStr"/>
-      <c r="CY120" t="inlineStr"/>
-      <c r="CZ120" t="inlineStr"/>
-      <c r="DA120" t="inlineStr"/>
-      <c r="DB120" t="inlineStr"/>
-      <c r="DC120" t="inlineStr"/>
-      <c r="DD120" t="inlineStr"/>
-      <c r="DE120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17396,7 +15796,11 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
@@ -17405,11 +15809,7 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="X121" t="inlineStr"/>
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr"/>
@@ -17465,9 +15865,21 @@
       <c r="BY121" t="inlineStr"/>
       <c r="BZ121" t="inlineStr"/>
       <c r="CA121" t="inlineStr"/>
-      <c r="CB121" t="inlineStr"/>
-      <c r="CC121" t="inlineStr"/>
-      <c r="CD121" t="inlineStr"/>
+      <c r="CB121" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC121" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD121" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE121" t="inlineStr"/>
       <c r="CF121" t="inlineStr"/>
       <c r="CG121" t="inlineStr"/>
@@ -17475,38 +15887,13 @@
       <c r="CI121" t="inlineStr"/>
       <c r="CJ121" t="inlineStr"/>
       <c r="CK121" t="inlineStr"/>
-      <c r="CL121" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM121" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN121" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL121" t="inlineStr"/>
+      <c r="CM121" t="inlineStr"/>
+      <c r="CN121" t="inlineStr"/>
       <c r="CO121" t="inlineStr"/>
       <c r="CP121" t="inlineStr"/>
       <c r="CQ121" t="inlineStr"/>
       <c r="CR121" t="inlineStr"/>
-      <c r="CS121" t="inlineStr"/>
-      <c r="CT121" t="inlineStr"/>
-      <c r="CU121" t="inlineStr"/>
-      <c r="CV121" t="inlineStr"/>
-      <c r="CW121" t="inlineStr"/>
-      <c r="CX121" t="inlineStr"/>
-      <c r="CY121" t="inlineStr"/>
-      <c r="CZ121" t="inlineStr"/>
-      <c r="DA121" t="inlineStr"/>
-      <c r="DB121" t="inlineStr"/>
-      <c r="DC121" t="inlineStr"/>
-      <c r="DD121" t="inlineStr"/>
-      <c r="DE121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17551,7 +15938,11 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
@@ -17560,11 +15951,7 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+      <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
@@ -17620,9 +16007,21 @@
       <c r="BY122" t="inlineStr"/>
       <c r="BZ122" t="inlineStr"/>
       <c r="CA122" t="inlineStr"/>
-      <c r="CB122" t="inlineStr"/>
-      <c r="CC122" t="inlineStr"/>
-      <c r="CD122" t="inlineStr"/>
+      <c r="CB122" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC122" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD122" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE122" t="inlineStr"/>
       <c r="CF122" t="inlineStr"/>
       <c r="CG122" t="inlineStr"/>
@@ -17630,38 +16029,13 @@
       <c r="CI122" t="inlineStr"/>
       <c r="CJ122" t="inlineStr"/>
       <c r="CK122" t="inlineStr"/>
-      <c r="CL122" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM122" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN122" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL122" t="inlineStr"/>
+      <c r="CM122" t="inlineStr"/>
+      <c r="CN122" t="inlineStr"/>
       <c r="CO122" t="inlineStr"/>
       <c r="CP122" t="inlineStr"/>
       <c r="CQ122" t="inlineStr"/>
       <c r="CR122" t="inlineStr"/>
-      <c r="CS122" t="inlineStr"/>
-      <c r="CT122" t="inlineStr"/>
-      <c r="CU122" t="inlineStr"/>
-      <c r="CV122" t="inlineStr"/>
-      <c r="CW122" t="inlineStr"/>
-      <c r="CX122" t="inlineStr"/>
-      <c r="CY122" t="inlineStr"/>
-      <c r="CZ122" t="inlineStr"/>
-      <c r="DA122" t="inlineStr"/>
-      <c r="DB122" t="inlineStr"/>
-      <c r="DC122" t="inlineStr"/>
-      <c r="DD122" t="inlineStr"/>
-      <c r="DE122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17772,9 +16146,21 @@
       <c r="BY123" t="inlineStr"/>
       <c r="BZ123" t="inlineStr"/>
       <c r="CA123" t="inlineStr"/>
-      <c r="CB123" t="inlineStr"/>
-      <c r="CC123" t="inlineStr"/>
-      <c r="CD123" t="inlineStr"/>
+      <c r="CB123" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC123" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD123" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE123" t="inlineStr"/>
       <c r="CF123" t="inlineStr"/>
       <c r="CG123" t="inlineStr"/>
@@ -17782,38 +16168,13 @@
       <c r="CI123" t="inlineStr"/>
       <c r="CJ123" t="inlineStr"/>
       <c r="CK123" t="inlineStr"/>
-      <c r="CL123" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM123" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN123" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL123" t="inlineStr"/>
+      <c r="CM123" t="inlineStr"/>
+      <c r="CN123" t="inlineStr"/>
       <c r="CO123" t="inlineStr"/>
       <c r="CP123" t="inlineStr"/>
       <c r="CQ123" t="inlineStr"/>
       <c r="CR123" t="inlineStr"/>
-      <c r="CS123" t="inlineStr"/>
-      <c r="CT123" t="inlineStr"/>
-      <c r="CU123" t="inlineStr"/>
-      <c r="CV123" t="inlineStr"/>
-      <c r="CW123" t="inlineStr"/>
-      <c r="CX123" t="inlineStr"/>
-      <c r="CY123" t="inlineStr"/>
-      <c r="CZ123" t="inlineStr"/>
-      <c r="DA123" t="inlineStr"/>
-      <c r="DB123" t="inlineStr"/>
-      <c r="DC123" t="inlineStr"/>
-      <c r="DD123" t="inlineStr"/>
-      <c r="DE123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17919,9 +16280,21 @@
       <c r="BY124" t="inlineStr"/>
       <c r="BZ124" t="inlineStr"/>
       <c r="CA124" t="inlineStr"/>
-      <c r="CB124" t="inlineStr"/>
-      <c r="CC124" t="inlineStr"/>
-      <c r="CD124" t="inlineStr"/>
+      <c r="CB124" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC124" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD124" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE124" t="inlineStr"/>
       <c r="CF124" t="inlineStr"/>
       <c r="CG124" t="inlineStr"/>
@@ -17929,38 +16302,13 @@
       <c r="CI124" t="inlineStr"/>
       <c r="CJ124" t="inlineStr"/>
       <c r="CK124" t="inlineStr"/>
-      <c r="CL124" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM124" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN124" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL124" t="inlineStr"/>
+      <c r="CM124" t="inlineStr"/>
+      <c r="CN124" t="inlineStr"/>
       <c r="CO124" t="inlineStr"/>
       <c r="CP124" t="inlineStr"/>
       <c r="CQ124" t="inlineStr"/>
       <c r="CR124" t="inlineStr"/>
-      <c r="CS124" t="inlineStr"/>
-      <c r="CT124" t="inlineStr"/>
-      <c r="CU124" t="inlineStr"/>
-      <c r="CV124" t="inlineStr"/>
-      <c r="CW124" t="inlineStr"/>
-      <c r="CX124" t="inlineStr"/>
-      <c r="CY124" t="inlineStr"/>
-      <c r="CZ124" t="inlineStr"/>
-      <c r="DA124" t="inlineStr"/>
-      <c r="DB124" t="inlineStr"/>
-      <c r="DC124" t="inlineStr"/>
-      <c r="DD124" t="inlineStr"/>
-      <c r="DE124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18066,9 +16414,21 @@
       <c r="BY125" t="inlineStr"/>
       <c r="BZ125" t="inlineStr"/>
       <c r="CA125" t="inlineStr"/>
-      <c r="CB125" t="inlineStr"/>
-      <c r="CC125" t="inlineStr"/>
-      <c r="CD125" t="inlineStr"/>
+      <c r="CB125" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC125" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD125" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE125" t="inlineStr"/>
       <c r="CF125" t="inlineStr"/>
       <c r="CG125" t="inlineStr"/>
@@ -18076,38 +16436,13 @@
       <c r="CI125" t="inlineStr"/>
       <c r="CJ125" t="inlineStr"/>
       <c r="CK125" t="inlineStr"/>
-      <c r="CL125" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM125" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN125" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL125" t="inlineStr"/>
+      <c r="CM125" t="inlineStr"/>
+      <c r="CN125" t="inlineStr"/>
       <c r="CO125" t="inlineStr"/>
       <c r="CP125" t="inlineStr"/>
       <c r="CQ125" t="inlineStr"/>
       <c r="CR125" t="inlineStr"/>
-      <c r="CS125" t="inlineStr"/>
-      <c r="CT125" t="inlineStr"/>
-      <c r="CU125" t="inlineStr"/>
-      <c r="CV125" t="inlineStr"/>
-      <c r="CW125" t="inlineStr"/>
-      <c r="CX125" t="inlineStr"/>
-      <c r="CY125" t="inlineStr"/>
-      <c r="CZ125" t="inlineStr"/>
-      <c r="DA125" t="inlineStr"/>
-      <c r="DB125" t="inlineStr"/>
-      <c r="DC125" t="inlineStr"/>
-      <c r="DD125" t="inlineStr"/>
-      <c r="DE125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18213,9 +16548,21 @@
       <c r="BY126" t="inlineStr"/>
       <c r="BZ126" t="inlineStr"/>
       <c r="CA126" t="inlineStr"/>
-      <c r="CB126" t="inlineStr"/>
-      <c r="CC126" t="inlineStr"/>
-      <c r="CD126" t="inlineStr"/>
+      <c r="CB126" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC126" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD126" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE126" t="inlineStr"/>
       <c r="CF126" t="inlineStr"/>
       <c r="CG126" t="inlineStr"/>
@@ -18223,38 +16570,13 @@
       <c r="CI126" t="inlineStr"/>
       <c r="CJ126" t="inlineStr"/>
       <c r="CK126" t="inlineStr"/>
-      <c r="CL126" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM126" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN126" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL126" t="inlineStr"/>
+      <c r="CM126" t="inlineStr"/>
+      <c r="CN126" t="inlineStr"/>
       <c r="CO126" t="inlineStr"/>
       <c r="CP126" t="inlineStr"/>
       <c r="CQ126" t="inlineStr"/>
       <c r="CR126" t="inlineStr"/>
-      <c r="CS126" t="inlineStr"/>
-      <c r="CT126" t="inlineStr"/>
-      <c r="CU126" t="inlineStr"/>
-      <c r="CV126" t="inlineStr"/>
-      <c r="CW126" t="inlineStr"/>
-      <c r="CX126" t="inlineStr"/>
-      <c r="CY126" t="inlineStr"/>
-      <c r="CZ126" t="inlineStr"/>
-      <c r="DA126" t="inlineStr"/>
-      <c r="DB126" t="inlineStr"/>
-      <c r="DC126" t="inlineStr"/>
-      <c r="DD126" t="inlineStr"/>
-      <c r="DE126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18360,9 +16682,21 @@
       <c r="BY127" t="inlineStr"/>
       <c r="BZ127" t="inlineStr"/>
       <c r="CA127" t="inlineStr"/>
-      <c r="CB127" t="inlineStr"/>
-      <c r="CC127" t="inlineStr"/>
-      <c r="CD127" t="inlineStr"/>
+      <c r="CB127" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC127" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD127" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE127" t="inlineStr"/>
       <c r="CF127" t="inlineStr"/>
       <c r="CG127" t="inlineStr"/>
@@ -18370,38 +16704,13 @@
       <c r="CI127" t="inlineStr"/>
       <c r="CJ127" t="inlineStr"/>
       <c r="CK127" t="inlineStr"/>
-      <c r="CL127" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM127" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN127" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL127" t="inlineStr"/>
+      <c r="CM127" t="inlineStr"/>
+      <c r="CN127" t="inlineStr"/>
       <c r="CO127" t="inlineStr"/>
       <c r="CP127" t="inlineStr"/>
       <c r="CQ127" t="inlineStr"/>
       <c r="CR127" t="inlineStr"/>
-      <c r="CS127" t="inlineStr"/>
-      <c r="CT127" t="inlineStr"/>
-      <c r="CU127" t="inlineStr"/>
-      <c r="CV127" t="inlineStr"/>
-      <c r="CW127" t="inlineStr"/>
-      <c r="CX127" t="inlineStr"/>
-      <c r="CY127" t="inlineStr"/>
-      <c r="CZ127" t="inlineStr"/>
-      <c r="DA127" t="inlineStr"/>
-      <c r="DB127" t="inlineStr"/>
-      <c r="DC127" t="inlineStr"/>
-      <c r="DD127" t="inlineStr"/>
-      <c r="DE127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18507,9 +16816,21 @@
       <c r="BY128" t="inlineStr"/>
       <c r="BZ128" t="inlineStr"/>
       <c r="CA128" t="inlineStr"/>
-      <c r="CB128" t="inlineStr"/>
-      <c r="CC128" t="inlineStr"/>
-      <c r="CD128" t="inlineStr"/>
+      <c r="CB128" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC128" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD128" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE128" t="inlineStr"/>
       <c r="CF128" t="inlineStr"/>
       <c r="CG128" t="inlineStr"/>
@@ -18517,38 +16838,13 @@
       <c r="CI128" t="inlineStr"/>
       <c r="CJ128" t="inlineStr"/>
       <c r="CK128" t="inlineStr"/>
-      <c r="CL128" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM128" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN128" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL128" t="inlineStr"/>
+      <c r="CM128" t="inlineStr"/>
+      <c r="CN128" t="inlineStr"/>
       <c r="CO128" t="inlineStr"/>
       <c r="CP128" t="inlineStr"/>
       <c r="CQ128" t="inlineStr"/>
       <c r="CR128" t="inlineStr"/>
-      <c r="CS128" t="inlineStr"/>
-      <c r="CT128" t="inlineStr"/>
-      <c r="CU128" t="inlineStr"/>
-      <c r="CV128" t="inlineStr"/>
-      <c r="CW128" t="inlineStr"/>
-      <c r="CX128" t="inlineStr"/>
-      <c r="CY128" t="inlineStr"/>
-      <c r="CZ128" t="inlineStr"/>
-      <c r="DA128" t="inlineStr"/>
-      <c r="DB128" t="inlineStr"/>
-      <c r="DC128" t="inlineStr"/>
-      <c r="DD128" t="inlineStr"/>
-      <c r="DE128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18655,9 +16951,21 @@
       <c r="BY129" t="inlineStr"/>
       <c r="BZ129" t="inlineStr"/>
       <c r="CA129" t="inlineStr"/>
-      <c r="CB129" t="inlineStr"/>
-      <c r="CC129" t="inlineStr"/>
-      <c r="CD129" t="inlineStr"/>
+      <c r="CB129" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC129" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD129" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE129" t="inlineStr"/>
       <c r="CF129" t="inlineStr"/>
       <c r="CG129" t="inlineStr"/>
@@ -18665,38 +16973,13 @@
       <c r="CI129" t="inlineStr"/>
       <c r="CJ129" t="inlineStr"/>
       <c r="CK129" t="inlineStr"/>
-      <c r="CL129" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM129" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN129" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL129" t="inlineStr"/>
+      <c r="CM129" t="inlineStr"/>
+      <c r="CN129" t="inlineStr"/>
       <c r="CO129" t="inlineStr"/>
       <c r="CP129" t="inlineStr"/>
       <c r="CQ129" t="inlineStr"/>
       <c r="CR129" t="inlineStr"/>
-      <c r="CS129" t="inlineStr"/>
-      <c r="CT129" t="inlineStr"/>
-      <c r="CU129" t="inlineStr"/>
-      <c r="CV129" t="inlineStr"/>
-      <c r="CW129" t="inlineStr"/>
-      <c r="CX129" t="inlineStr"/>
-      <c r="CY129" t="inlineStr"/>
-      <c r="CZ129" t="inlineStr"/>
-      <c r="DA129" t="inlineStr"/>
-      <c r="DB129" t="inlineStr"/>
-      <c r="DC129" t="inlineStr"/>
-      <c r="DD129" t="inlineStr"/>
-      <c r="DE129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18803,9 +17086,21 @@
       <c r="BY130" t="inlineStr"/>
       <c r="BZ130" t="inlineStr"/>
       <c r="CA130" t="inlineStr"/>
-      <c r="CB130" t="inlineStr"/>
-      <c r="CC130" t="inlineStr"/>
-      <c r="CD130" t="inlineStr"/>
+      <c r="CB130" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC130" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD130" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE130" t="inlineStr"/>
       <c r="CF130" t="inlineStr"/>
       <c r="CG130" t="inlineStr"/>
@@ -18813,38 +17108,13 @@
       <c r="CI130" t="inlineStr"/>
       <c r="CJ130" t="inlineStr"/>
       <c r="CK130" t="inlineStr"/>
-      <c r="CL130" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM130" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN130" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL130" t="inlineStr"/>
+      <c r="CM130" t="inlineStr"/>
+      <c r="CN130" t="inlineStr"/>
       <c r="CO130" t="inlineStr"/>
       <c r="CP130" t="inlineStr"/>
       <c r="CQ130" t="inlineStr"/>
       <c r="CR130" t="inlineStr"/>
-      <c r="CS130" t="inlineStr"/>
-      <c r="CT130" t="inlineStr"/>
-      <c r="CU130" t="inlineStr"/>
-      <c r="CV130" t="inlineStr"/>
-      <c r="CW130" t="inlineStr"/>
-      <c r="CX130" t="inlineStr"/>
-      <c r="CY130" t="inlineStr"/>
-      <c r="CZ130" t="inlineStr"/>
-      <c r="DA130" t="inlineStr"/>
-      <c r="DB130" t="inlineStr"/>
-      <c r="DC130" t="inlineStr"/>
-      <c r="DD130" t="inlineStr"/>
-      <c r="DE130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18954,9 +17224,21 @@
       <c r="BY131" t="inlineStr"/>
       <c r="BZ131" t="inlineStr"/>
       <c r="CA131" t="inlineStr"/>
-      <c r="CB131" t="inlineStr"/>
-      <c r="CC131" t="inlineStr"/>
-      <c r="CD131" t="inlineStr"/>
+      <c r="CB131" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC131" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD131" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE131" t="inlineStr"/>
       <c r="CF131" t="inlineStr"/>
       <c r="CG131" t="inlineStr"/>
@@ -18964,38 +17246,13 @@
       <c r="CI131" t="inlineStr"/>
       <c r="CJ131" t="inlineStr"/>
       <c r="CK131" t="inlineStr"/>
-      <c r="CL131" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM131" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN131" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL131" t="inlineStr"/>
+      <c r="CM131" t="inlineStr"/>
+      <c r="CN131" t="inlineStr"/>
       <c r="CO131" t="inlineStr"/>
       <c r="CP131" t="inlineStr"/>
       <c r="CQ131" t="inlineStr"/>
       <c r="CR131" t="inlineStr"/>
-      <c r="CS131" t="inlineStr"/>
-      <c r="CT131" t="inlineStr"/>
-      <c r="CU131" t="inlineStr"/>
-      <c r="CV131" t="inlineStr"/>
-      <c r="CW131" t="inlineStr"/>
-      <c r="CX131" t="inlineStr"/>
-      <c r="CY131" t="inlineStr"/>
-      <c r="CZ131" t="inlineStr"/>
-      <c r="DA131" t="inlineStr"/>
-      <c r="DB131" t="inlineStr"/>
-      <c r="DC131" t="inlineStr"/>
-      <c r="DD131" t="inlineStr"/>
-      <c r="DE131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19101,9 +17358,21 @@
       <c r="BY132" t="inlineStr"/>
       <c r="BZ132" t="inlineStr"/>
       <c r="CA132" t="inlineStr"/>
-      <c r="CB132" t="inlineStr"/>
-      <c r="CC132" t="inlineStr"/>
-      <c r="CD132" t="inlineStr"/>
+      <c r="CB132" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC132" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD132" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE132" t="inlineStr"/>
       <c r="CF132" t="inlineStr"/>
       <c r="CG132" t="inlineStr"/>
@@ -19111,38 +17380,13 @@
       <c r="CI132" t="inlineStr"/>
       <c r="CJ132" t="inlineStr"/>
       <c r="CK132" t="inlineStr"/>
-      <c r="CL132" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM132" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN132" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL132" t="inlineStr"/>
+      <c r="CM132" t="inlineStr"/>
+      <c r="CN132" t="inlineStr"/>
       <c r="CO132" t="inlineStr"/>
       <c r="CP132" t="inlineStr"/>
       <c r="CQ132" t="inlineStr"/>
       <c r="CR132" t="inlineStr"/>
-      <c r="CS132" t="inlineStr"/>
-      <c r="CT132" t="inlineStr"/>
-      <c r="CU132" t="inlineStr"/>
-      <c r="CV132" t="inlineStr"/>
-      <c r="CW132" t="inlineStr"/>
-      <c r="CX132" t="inlineStr"/>
-      <c r="CY132" t="inlineStr"/>
-      <c r="CZ132" t="inlineStr"/>
-      <c r="DA132" t="inlineStr"/>
-      <c r="DB132" t="inlineStr"/>
-      <c r="DC132" t="inlineStr"/>
-      <c r="DD132" t="inlineStr"/>
-      <c r="DE132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19248,9 +17492,21 @@
       <c r="BY133" t="inlineStr"/>
       <c r="BZ133" t="inlineStr"/>
       <c r="CA133" t="inlineStr"/>
-      <c r="CB133" t="inlineStr"/>
-      <c r="CC133" t="inlineStr"/>
-      <c r="CD133" t="inlineStr"/>
+      <c r="CB133" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC133" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD133" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE133" t="inlineStr"/>
       <c r="CF133" t="inlineStr"/>
       <c r="CG133" t="inlineStr"/>
@@ -19258,38 +17514,13 @@
       <c r="CI133" t="inlineStr"/>
       <c r="CJ133" t="inlineStr"/>
       <c r="CK133" t="inlineStr"/>
-      <c r="CL133" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM133" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN133" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL133" t="inlineStr"/>
+      <c r="CM133" t="inlineStr"/>
+      <c r="CN133" t="inlineStr"/>
       <c r="CO133" t="inlineStr"/>
       <c r="CP133" t="inlineStr"/>
       <c r="CQ133" t="inlineStr"/>
       <c r="CR133" t="inlineStr"/>
-      <c r="CS133" t="inlineStr"/>
-      <c r="CT133" t="inlineStr"/>
-      <c r="CU133" t="inlineStr"/>
-      <c r="CV133" t="inlineStr"/>
-      <c r="CW133" t="inlineStr"/>
-      <c r="CX133" t="inlineStr"/>
-      <c r="CY133" t="inlineStr"/>
-      <c r="CZ133" t="inlineStr"/>
-      <c r="DA133" t="inlineStr"/>
-      <c r="DB133" t="inlineStr"/>
-      <c r="DC133" t="inlineStr"/>
-      <c r="DD133" t="inlineStr"/>
-      <c r="DE133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19405,9 +17636,21 @@
       <c r="BY134" t="inlineStr"/>
       <c r="BZ134" t="inlineStr"/>
       <c r="CA134" t="inlineStr"/>
-      <c r="CB134" t="inlineStr"/>
-      <c r="CC134" t="inlineStr"/>
-      <c r="CD134" t="inlineStr"/>
+      <c r="CB134" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC134" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD134" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE134" t="inlineStr"/>
       <c r="CF134" t="inlineStr"/>
       <c r="CG134" t="inlineStr"/>
@@ -19415,38 +17658,13 @@
       <c r="CI134" t="inlineStr"/>
       <c r="CJ134" t="inlineStr"/>
       <c r="CK134" t="inlineStr"/>
-      <c r="CL134" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM134" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN134" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL134" t="inlineStr"/>
+      <c r="CM134" t="inlineStr"/>
+      <c r="CN134" t="inlineStr"/>
       <c r="CO134" t="inlineStr"/>
       <c r="CP134" t="inlineStr"/>
       <c r="CQ134" t="inlineStr"/>
       <c r="CR134" t="inlineStr"/>
-      <c r="CS134" t="inlineStr"/>
-      <c r="CT134" t="inlineStr"/>
-      <c r="CU134" t="inlineStr"/>
-      <c r="CV134" t="inlineStr"/>
-      <c r="CW134" t="inlineStr"/>
-      <c r="CX134" t="inlineStr"/>
-      <c r="CY134" t="inlineStr"/>
-      <c r="CZ134" t="inlineStr"/>
-      <c r="DA134" t="inlineStr"/>
-      <c r="DB134" t="inlineStr"/>
-      <c r="DC134" t="inlineStr"/>
-      <c r="DD134" t="inlineStr"/>
-      <c r="DE134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19552,9 +17770,21 @@
       <c r="BY135" t="inlineStr"/>
       <c r="BZ135" t="inlineStr"/>
       <c r="CA135" t="inlineStr"/>
-      <c r="CB135" t="inlineStr"/>
-      <c r="CC135" t="inlineStr"/>
-      <c r="CD135" t="inlineStr"/>
+      <c r="CB135" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC135" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD135" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE135" t="inlineStr"/>
       <c r="CF135" t="inlineStr"/>
       <c r="CG135" t="inlineStr"/>
@@ -19562,38 +17792,13 @@
       <c r="CI135" t="inlineStr"/>
       <c r="CJ135" t="inlineStr"/>
       <c r="CK135" t="inlineStr"/>
-      <c r="CL135" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM135" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN135" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL135" t="inlineStr"/>
+      <c r="CM135" t="inlineStr"/>
+      <c r="CN135" t="inlineStr"/>
       <c r="CO135" t="inlineStr"/>
       <c r="CP135" t="inlineStr"/>
       <c r="CQ135" t="inlineStr"/>
       <c r="CR135" t="inlineStr"/>
-      <c r="CS135" t="inlineStr"/>
-      <c r="CT135" t="inlineStr"/>
-      <c r="CU135" t="inlineStr"/>
-      <c r="CV135" t="inlineStr"/>
-      <c r="CW135" t="inlineStr"/>
-      <c r="CX135" t="inlineStr"/>
-      <c r="CY135" t="inlineStr"/>
-      <c r="CZ135" t="inlineStr"/>
-      <c r="DA135" t="inlineStr"/>
-      <c r="DB135" t="inlineStr"/>
-      <c r="DC135" t="inlineStr"/>
-      <c r="DD135" t="inlineStr"/>
-      <c r="DE135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19699,9 +17904,21 @@
       <c r="BY136" t="inlineStr"/>
       <c r="BZ136" t="inlineStr"/>
       <c r="CA136" t="inlineStr"/>
-      <c r="CB136" t="inlineStr"/>
-      <c r="CC136" t="inlineStr"/>
-      <c r="CD136" t="inlineStr"/>
+      <c r="CB136" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC136" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD136" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE136" t="inlineStr"/>
       <c r="CF136" t="inlineStr"/>
       <c r="CG136" t="inlineStr"/>
@@ -19709,38 +17926,13 @@
       <c r="CI136" t="inlineStr"/>
       <c r="CJ136" t="inlineStr"/>
       <c r="CK136" t="inlineStr"/>
-      <c r="CL136" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM136" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN136" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL136" t="inlineStr"/>
+      <c r="CM136" t="inlineStr"/>
+      <c r="CN136" t="inlineStr"/>
       <c r="CO136" t="inlineStr"/>
       <c r="CP136" t="inlineStr"/>
       <c r="CQ136" t="inlineStr"/>
       <c r="CR136" t="inlineStr"/>
-      <c r="CS136" t="inlineStr"/>
-      <c r="CT136" t="inlineStr"/>
-      <c r="CU136" t="inlineStr"/>
-      <c r="CV136" t="inlineStr"/>
-      <c r="CW136" t="inlineStr"/>
-      <c r="CX136" t="inlineStr"/>
-      <c r="CY136" t="inlineStr"/>
-      <c r="CZ136" t="inlineStr"/>
-      <c r="DA136" t="inlineStr"/>
-      <c r="DB136" t="inlineStr"/>
-      <c r="DC136" t="inlineStr"/>
-      <c r="DD136" t="inlineStr"/>
-      <c r="DE136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19846,9 +18038,21 @@
       <c r="BY137" t="inlineStr"/>
       <c r="BZ137" t="inlineStr"/>
       <c r="CA137" t="inlineStr"/>
-      <c r="CB137" t="inlineStr"/>
-      <c r="CC137" t="inlineStr"/>
-      <c r="CD137" t="inlineStr"/>
+      <c r="CB137" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC137" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD137" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE137" t="inlineStr"/>
       <c r="CF137" t="inlineStr"/>
       <c r="CG137" t="inlineStr"/>
@@ -19856,38 +18060,13 @@
       <c r="CI137" t="inlineStr"/>
       <c r="CJ137" t="inlineStr"/>
       <c r="CK137" t="inlineStr"/>
-      <c r="CL137" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM137" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN137" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL137" t="inlineStr"/>
+      <c r="CM137" t="inlineStr"/>
+      <c r="CN137" t="inlineStr"/>
       <c r="CO137" t="inlineStr"/>
       <c r="CP137" t="inlineStr"/>
       <c r="CQ137" t="inlineStr"/>
       <c r="CR137" t="inlineStr"/>
-      <c r="CS137" t="inlineStr"/>
-      <c r="CT137" t="inlineStr"/>
-      <c r="CU137" t="inlineStr"/>
-      <c r="CV137" t="inlineStr"/>
-      <c r="CW137" t="inlineStr"/>
-      <c r="CX137" t="inlineStr"/>
-      <c r="CY137" t="inlineStr"/>
-      <c r="CZ137" t="inlineStr"/>
-      <c r="DA137" t="inlineStr"/>
-      <c r="DB137" t="inlineStr"/>
-      <c r="DC137" t="inlineStr"/>
-      <c r="DD137" t="inlineStr"/>
-      <c r="DE137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19993,9 +18172,21 @@
       <c r="BY138" t="inlineStr"/>
       <c r="BZ138" t="inlineStr"/>
       <c r="CA138" t="inlineStr"/>
-      <c r="CB138" t="inlineStr"/>
-      <c r="CC138" t="inlineStr"/>
-      <c r="CD138" t="inlineStr"/>
+      <c r="CB138" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC138" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD138" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE138" t="inlineStr"/>
       <c r="CF138" t="inlineStr"/>
       <c r="CG138" t="inlineStr"/>
@@ -20003,38 +18194,13 @@
       <c r="CI138" t="inlineStr"/>
       <c r="CJ138" t="inlineStr"/>
       <c r="CK138" t="inlineStr"/>
-      <c r="CL138" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM138" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN138" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL138" t="inlineStr"/>
+      <c r="CM138" t="inlineStr"/>
+      <c r="CN138" t="inlineStr"/>
       <c r="CO138" t="inlineStr"/>
       <c r="CP138" t="inlineStr"/>
       <c r="CQ138" t="inlineStr"/>
       <c r="CR138" t="inlineStr"/>
-      <c r="CS138" t="inlineStr"/>
-      <c r="CT138" t="inlineStr"/>
-      <c r="CU138" t="inlineStr"/>
-      <c r="CV138" t="inlineStr"/>
-      <c r="CW138" t="inlineStr"/>
-      <c r="CX138" t="inlineStr"/>
-      <c r="CY138" t="inlineStr"/>
-      <c r="CZ138" t="inlineStr"/>
-      <c r="DA138" t="inlineStr"/>
-      <c r="DB138" t="inlineStr"/>
-      <c r="DC138" t="inlineStr"/>
-      <c r="DD138" t="inlineStr"/>
-      <c r="DE138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20140,9 +18306,21 @@
       <c r="BY139" t="inlineStr"/>
       <c r="BZ139" t="inlineStr"/>
       <c r="CA139" t="inlineStr"/>
-      <c r="CB139" t="inlineStr"/>
-      <c r="CC139" t="inlineStr"/>
-      <c r="CD139" t="inlineStr"/>
+      <c r="CB139" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC139" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD139" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE139" t="inlineStr"/>
       <c r="CF139" t="inlineStr"/>
       <c r="CG139" t="inlineStr"/>
@@ -20150,38 +18328,13 @@
       <c r="CI139" t="inlineStr"/>
       <c r="CJ139" t="inlineStr"/>
       <c r="CK139" t="inlineStr"/>
-      <c r="CL139" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM139" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN139" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL139" t="inlineStr"/>
+      <c r="CM139" t="inlineStr"/>
+      <c r="CN139" t="inlineStr"/>
       <c r="CO139" t="inlineStr"/>
       <c r="CP139" t="inlineStr"/>
       <c r="CQ139" t="inlineStr"/>
       <c r="CR139" t="inlineStr"/>
-      <c r="CS139" t="inlineStr"/>
-      <c r="CT139" t="inlineStr"/>
-      <c r="CU139" t="inlineStr"/>
-      <c r="CV139" t="inlineStr"/>
-      <c r="CW139" t="inlineStr"/>
-      <c r="CX139" t="inlineStr"/>
-      <c r="CY139" t="inlineStr"/>
-      <c r="CZ139" t="inlineStr"/>
-      <c r="DA139" t="inlineStr"/>
-      <c r="DB139" t="inlineStr"/>
-      <c r="DC139" t="inlineStr"/>
-      <c r="DD139" t="inlineStr"/>
-      <c r="DE139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20287,9 +18440,21 @@
       <c r="BY140" t="inlineStr"/>
       <c r="BZ140" t="inlineStr"/>
       <c r="CA140" t="inlineStr"/>
-      <c r="CB140" t="inlineStr"/>
-      <c r="CC140" t="inlineStr"/>
-      <c r="CD140" t="inlineStr"/>
+      <c r="CB140" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC140" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD140" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE140" t="inlineStr"/>
       <c r="CF140" t="inlineStr"/>
       <c r="CG140" t="inlineStr"/>
@@ -20297,38 +18462,13 @@
       <c r="CI140" t="inlineStr"/>
       <c r="CJ140" t="inlineStr"/>
       <c r="CK140" t="inlineStr"/>
-      <c r="CL140" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM140" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN140" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL140" t="inlineStr"/>
+      <c r="CM140" t="inlineStr"/>
+      <c r="CN140" t="inlineStr"/>
       <c r="CO140" t="inlineStr"/>
       <c r="CP140" t="inlineStr"/>
       <c r="CQ140" t="inlineStr"/>
       <c r="CR140" t="inlineStr"/>
-      <c r="CS140" t="inlineStr"/>
-      <c r="CT140" t="inlineStr"/>
-      <c r="CU140" t="inlineStr"/>
-      <c r="CV140" t="inlineStr"/>
-      <c r="CW140" t="inlineStr"/>
-      <c r="CX140" t="inlineStr"/>
-      <c r="CY140" t="inlineStr"/>
-      <c r="CZ140" t="inlineStr"/>
-      <c r="DA140" t="inlineStr"/>
-      <c r="DB140" t="inlineStr"/>
-      <c r="DC140" t="inlineStr"/>
-      <c r="DD140" t="inlineStr"/>
-      <c r="DE140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20434,9 +18574,21 @@
       <c r="BY141" t="inlineStr"/>
       <c r="BZ141" t="inlineStr"/>
       <c r="CA141" t="inlineStr"/>
-      <c r="CB141" t="inlineStr"/>
-      <c r="CC141" t="inlineStr"/>
-      <c r="CD141" t="inlineStr"/>
+      <c r="CB141" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC141" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD141" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE141" t="inlineStr"/>
       <c r="CF141" t="inlineStr"/>
       <c r="CG141" t="inlineStr"/>
@@ -20444,38 +18596,13 @@
       <c r="CI141" t="inlineStr"/>
       <c r="CJ141" t="inlineStr"/>
       <c r="CK141" t="inlineStr"/>
-      <c r="CL141" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM141" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN141" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL141" t="inlineStr"/>
+      <c r="CM141" t="inlineStr"/>
+      <c r="CN141" t="inlineStr"/>
       <c r="CO141" t="inlineStr"/>
       <c r="CP141" t="inlineStr"/>
       <c r="CQ141" t="inlineStr"/>
       <c r="CR141" t="inlineStr"/>
-      <c r="CS141" t="inlineStr"/>
-      <c r="CT141" t="inlineStr"/>
-      <c r="CU141" t="inlineStr"/>
-      <c r="CV141" t="inlineStr"/>
-      <c r="CW141" t="inlineStr"/>
-      <c r="CX141" t="inlineStr"/>
-      <c r="CY141" t="inlineStr"/>
-      <c r="CZ141" t="inlineStr"/>
-      <c r="DA141" t="inlineStr"/>
-      <c r="DB141" t="inlineStr"/>
-      <c r="DC141" t="inlineStr"/>
-      <c r="DD141" t="inlineStr"/>
-      <c r="DE141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20581,9 +18708,21 @@
       <c r="BY142" t="inlineStr"/>
       <c r="BZ142" t="inlineStr"/>
       <c r="CA142" t="inlineStr"/>
-      <c r="CB142" t="inlineStr"/>
-      <c r="CC142" t="inlineStr"/>
-      <c r="CD142" t="inlineStr"/>
+      <c r="CB142" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC142" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD142" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE142" t="inlineStr"/>
       <c r="CF142" t="inlineStr"/>
       <c r="CG142" t="inlineStr"/>
@@ -20591,38 +18730,13 @@
       <c r="CI142" t="inlineStr"/>
       <c r="CJ142" t="inlineStr"/>
       <c r="CK142" t="inlineStr"/>
-      <c r="CL142" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM142" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN142" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL142" t="inlineStr"/>
+      <c r="CM142" t="inlineStr"/>
+      <c r="CN142" t="inlineStr"/>
       <c r="CO142" t="inlineStr"/>
       <c r="CP142" t="inlineStr"/>
       <c r="CQ142" t="inlineStr"/>
       <c r="CR142" t="inlineStr"/>
-      <c r="CS142" t="inlineStr"/>
-      <c r="CT142" t="inlineStr"/>
-      <c r="CU142" t="inlineStr"/>
-      <c r="CV142" t="inlineStr"/>
-      <c r="CW142" t="inlineStr"/>
-      <c r="CX142" t="inlineStr"/>
-      <c r="CY142" t="inlineStr"/>
-      <c r="CZ142" t="inlineStr"/>
-      <c r="DA142" t="inlineStr"/>
-      <c r="DB142" t="inlineStr"/>
-      <c r="DC142" t="inlineStr"/>
-      <c r="DD142" t="inlineStr"/>
-      <c r="DE142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20730,9 +18844,21 @@
       <c r="BY143" t="inlineStr"/>
       <c r="BZ143" t="inlineStr"/>
       <c r="CA143" t="inlineStr"/>
-      <c r="CB143" t="inlineStr"/>
-      <c r="CC143" t="inlineStr"/>
-      <c r="CD143" t="inlineStr"/>
+      <c r="CB143" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC143" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD143" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE143" t="inlineStr"/>
       <c r="CF143" t="inlineStr"/>
       <c r="CG143" t="inlineStr"/>
@@ -20740,38 +18866,13 @@
       <c r="CI143" t="inlineStr"/>
       <c r="CJ143" t="inlineStr"/>
       <c r="CK143" t="inlineStr"/>
-      <c r="CL143" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM143" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN143" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL143" t="inlineStr"/>
+      <c r="CM143" t="inlineStr"/>
+      <c r="CN143" t="inlineStr"/>
       <c r="CO143" t="inlineStr"/>
       <c r="CP143" t="inlineStr"/>
       <c r="CQ143" t="inlineStr"/>
       <c r="CR143" t="inlineStr"/>
-      <c r="CS143" t="inlineStr"/>
-      <c r="CT143" t="inlineStr"/>
-      <c r="CU143" t="inlineStr"/>
-      <c r="CV143" t="inlineStr"/>
-      <c r="CW143" t="inlineStr"/>
-      <c r="CX143" t="inlineStr"/>
-      <c r="CY143" t="inlineStr"/>
-      <c r="CZ143" t="inlineStr"/>
-      <c r="DA143" t="inlineStr"/>
-      <c r="DB143" t="inlineStr"/>
-      <c r="DC143" t="inlineStr"/>
-      <c r="DD143" t="inlineStr"/>
-      <c r="DE143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20877,9 +18978,21 @@
       <c r="BY144" t="inlineStr"/>
       <c r="BZ144" t="inlineStr"/>
       <c r="CA144" t="inlineStr"/>
-      <c r="CB144" t="inlineStr"/>
-      <c r="CC144" t="inlineStr"/>
-      <c r="CD144" t="inlineStr"/>
+      <c r="CB144" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC144" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD144" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE144" t="inlineStr"/>
       <c r="CF144" t="inlineStr"/>
       <c r="CG144" t="inlineStr"/>
@@ -20887,38 +19000,13 @@
       <c r="CI144" t="inlineStr"/>
       <c r="CJ144" t="inlineStr"/>
       <c r="CK144" t="inlineStr"/>
-      <c r="CL144" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM144" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN144" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL144" t="inlineStr"/>
+      <c r="CM144" t="inlineStr"/>
+      <c r="CN144" t="inlineStr"/>
       <c r="CO144" t="inlineStr"/>
       <c r="CP144" t="inlineStr"/>
       <c r="CQ144" t="inlineStr"/>
       <c r="CR144" t="inlineStr"/>
-      <c r="CS144" t="inlineStr"/>
-      <c r="CT144" t="inlineStr"/>
-      <c r="CU144" t="inlineStr"/>
-      <c r="CV144" t="inlineStr"/>
-      <c r="CW144" t="inlineStr"/>
-      <c r="CX144" t="inlineStr"/>
-      <c r="CY144" t="inlineStr"/>
-      <c r="CZ144" t="inlineStr"/>
-      <c r="DA144" t="inlineStr"/>
-      <c r="DB144" t="inlineStr"/>
-      <c r="DC144" t="inlineStr"/>
-      <c r="DD144" t="inlineStr"/>
-      <c r="DE144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -21024,9 +19112,21 @@
       <c r="BY145" t="inlineStr"/>
       <c r="BZ145" t="inlineStr"/>
       <c r="CA145" t="inlineStr"/>
-      <c r="CB145" t="inlineStr"/>
-      <c r="CC145" t="inlineStr"/>
-      <c r="CD145" t="inlineStr"/>
+      <c r="CB145" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC145" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD145" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE145" t="inlineStr"/>
       <c r="CF145" t="inlineStr"/>
       <c r="CG145" t="inlineStr"/>
@@ -21034,38 +19134,13 @@
       <c r="CI145" t="inlineStr"/>
       <c r="CJ145" t="inlineStr"/>
       <c r="CK145" t="inlineStr"/>
-      <c r="CL145" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM145" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN145" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL145" t="inlineStr"/>
+      <c r="CM145" t="inlineStr"/>
+      <c r="CN145" t="inlineStr"/>
       <c r="CO145" t="inlineStr"/>
       <c r="CP145" t="inlineStr"/>
       <c r="CQ145" t="inlineStr"/>
       <c r="CR145" t="inlineStr"/>
-      <c r="CS145" t="inlineStr"/>
-      <c r="CT145" t="inlineStr"/>
-      <c r="CU145" t="inlineStr"/>
-      <c r="CV145" t="inlineStr"/>
-      <c r="CW145" t="inlineStr"/>
-      <c r="CX145" t="inlineStr"/>
-      <c r="CY145" t="inlineStr"/>
-      <c r="CZ145" t="inlineStr"/>
-      <c r="DA145" t="inlineStr"/>
-      <c r="DB145" t="inlineStr"/>
-      <c r="DC145" t="inlineStr"/>
-      <c r="DD145" t="inlineStr"/>
-      <c r="DE145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21172,9 +19247,21 @@
       <c r="BY146" t="inlineStr"/>
       <c r="BZ146" t="inlineStr"/>
       <c r="CA146" t="inlineStr"/>
-      <c r="CB146" t="inlineStr"/>
-      <c r="CC146" t="inlineStr"/>
-      <c r="CD146" t="inlineStr"/>
+      <c r="CB146" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC146" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD146" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE146" t="inlineStr"/>
       <c r="CF146" t="inlineStr"/>
       <c r="CG146" t="inlineStr"/>
@@ -21182,38 +19269,13 @@
       <c r="CI146" t="inlineStr"/>
       <c r="CJ146" t="inlineStr"/>
       <c r="CK146" t="inlineStr"/>
-      <c r="CL146" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM146" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN146" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL146" t="inlineStr"/>
+      <c r="CM146" t="inlineStr"/>
+      <c r="CN146" t="inlineStr"/>
       <c r="CO146" t="inlineStr"/>
       <c r="CP146" t="inlineStr"/>
       <c r="CQ146" t="inlineStr"/>
       <c r="CR146" t="inlineStr"/>
-      <c r="CS146" t="inlineStr"/>
-      <c r="CT146" t="inlineStr"/>
-      <c r="CU146" t="inlineStr"/>
-      <c r="CV146" t="inlineStr"/>
-      <c r="CW146" t="inlineStr"/>
-      <c r="CX146" t="inlineStr"/>
-      <c r="CY146" t="inlineStr"/>
-      <c r="CZ146" t="inlineStr"/>
-      <c r="DA146" t="inlineStr"/>
-      <c r="DB146" t="inlineStr"/>
-      <c r="DC146" t="inlineStr"/>
-      <c r="DD146" t="inlineStr"/>
-      <c r="DE146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21319,9 +19381,21 @@
       <c r="BY147" t="inlineStr"/>
       <c r="BZ147" t="inlineStr"/>
       <c r="CA147" t="inlineStr"/>
-      <c r="CB147" t="inlineStr"/>
-      <c r="CC147" t="inlineStr"/>
-      <c r="CD147" t="inlineStr"/>
+      <c r="CB147" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC147" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD147" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE147" t="inlineStr"/>
       <c r="CF147" t="inlineStr"/>
       <c r="CG147" t="inlineStr"/>
@@ -21329,38 +19403,13 @@
       <c r="CI147" t="inlineStr"/>
       <c r="CJ147" t="inlineStr"/>
       <c r="CK147" t="inlineStr"/>
-      <c r="CL147" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM147" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN147" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL147" t="inlineStr"/>
+      <c r="CM147" t="inlineStr"/>
+      <c r="CN147" t="inlineStr"/>
       <c r="CO147" t="inlineStr"/>
       <c r="CP147" t="inlineStr"/>
       <c r="CQ147" t="inlineStr"/>
       <c r="CR147" t="inlineStr"/>
-      <c r="CS147" t="inlineStr"/>
-      <c r="CT147" t="inlineStr"/>
-      <c r="CU147" t="inlineStr"/>
-      <c r="CV147" t="inlineStr"/>
-      <c r="CW147" t="inlineStr"/>
-      <c r="CX147" t="inlineStr"/>
-      <c r="CY147" t="inlineStr"/>
-      <c r="CZ147" t="inlineStr"/>
-      <c r="DA147" t="inlineStr"/>
-      <c r="DB147" t="inlineStr"/>
-      <c r="DC147" t="inlineStr"/>
-      <c r="DD147" t="inlineStr"/>
-      <c r="DE147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21466,9 +19515,21 @@
       <c r="BY148" t="inlineStr"/>
       <c r="BZ148" t="inlineStr"/>
       <c r="CA148" t="inlineStr"/>
-      <c r="CB148" t="inlineStr"/>
-      <c r="CC148" t="inlineStr"/>
-      <c r="CD148" t="inlineStr"/>
+      <c r="CB148" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC148" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD148" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE148" t="inlineStr"/>
       <c r="CF148" t="inlineStr"/>
       <c r="CG148" t="inlineStr"/>
@@ -21476,38 +19537,13 @@
       <c r="CI148" t="inlineStr"/>
       <c r="CJ148" t="inlineStr"/>
       <c r="CK148" t="inlineStr"/>
-      <c r="CL148" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM148" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN148" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL148" t="inlineStr"/>
+      <c r="CM148" t="inlineStr"/>
+      <c r="CN148" t="inlineStr"/>
       <c r="CO148" t="inlineStr"/>
       <c r="CP148" t="inlineStr"/>
       <c r="CQ148" t="inlineStr"/>
       <c r="CR148" t="inlineStr"/>
-      <c r="CS148" t="inlineStr"/>
-      <c r="CT148" t="inlineStr"/>
-      <c r="CU148" t="inlineStr"/>
-      <c r="CV148" t="inlineStr"/>
-      <c r="CW148" t="inlineStr"/>
-      <c r="CX148" t="inlineStr"/>
-      <c r="CY148" t="inlineStr"/>
-      <c r="CZ148" t="inlineStr"/>
-      <c r="DA148" t="inlineStr"/>
-      <c r="DB148" t="inlineStr"/>
-      <c r="DC148" t="inlineStr"/>
-      <c r="DD148" t="inlineStr"/>
-      <c r="DE148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21614,9 +19650,21 @@
       <c r="BY149" t="inlineStr"/>
       <c r="BZ149" t="inlineStr"/>
       <c r="CA149" t="inlineStr"/>
-      <c r="CB149" t="inlineStr"/>
-      <c r="CC149" t="inlineStr"/>
-      <c r="CD149" t="inlineStr"/>
+      <c r="CB149" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC149" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD149" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE149" t="inlineStr"/>
       <c r="CF149" t="inlineStr"/>
       <c r="CG149" t="inlineStr"/>
@@ -21624,38 +19672,13 @@
       <c r="CI149" t="inlineStr"/>
       <c r="CJ149" t="inlineStr"/>
       <c r="CK149" t="inlineStr"/>
-      <c r="CL149" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM149" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN149" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL149" t="inlineStr"/>
+      <c r="CM149" t="inlineStr"/>
+      <c r="CN149" t="inlineStr"/>
       <c r="CO149" t="inlineStr"/>
       <c r="CP149" t="inlineStr"/>
       <c r="CQ149" t="inlineStr"/>
       <c r="CR149" t="inlineStr"/>
-      <c r="CS149" t="inlineStr"/>
-      <c r="CT149" t="inlineStr"/>
-      <c r="CU149" t="inlineStr"/>
-      <c r="CV149" t="inlineStr"/>
-      <c r="CW149" t="inlineStr"/>
-      <c r="CX149" t="inlineStr"/>
-      <c r="CY149" t="inlineStr"/>
-      <c r="CZ149" t="inlineStr"/>
-      <c r="DA149" t="inlineStr"/>
-      <c r="DB149" t="inlineStr"/>
-      <c r="DC149" t="inlineStr"/>
-      <c r="DD149" t="inlineStr"/>
-      <c r="DE149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21757,9 +19780,21 @@
       <c r="BY150" t="inlineStr"/>
       <c r="BZ150" t="inlineStr"/>
       <c r="CA150" t="inlineStr"/>
-      <c r="CB150" t="inlineStr"/>
-      <c r="CC150" t="inlineStr"/>
-      <c r="CD150" t="inlineStr"/>
+      <c r="CB150" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC150" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD150" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE150" t="inlineStr"/>
       <c r="CF150" t="inlineStr"/>
       <c r="CG150" t="inlineStr"/>
@@ -21767,38 +19802,13 @@
       <c r="CI150" t="inlineStr"/>
       <c r="CJ150" t="inlineStr"/>
       <c r="CK150" t="inlineStr"/>
-      <c r="CL150" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM150" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN150" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL150" t="inlineStr"/>
+      <c r="CM150" t="inlineStr"/>
+      <c r="CN150" t="inlineStr"/>
       <c r="CO150" t="inlineStr"/>
       <c r="CP150" t="inlineStr"/>
       <c r="CQ150" t="inlineStr"/>
       <c r="CR150" t="inlineStr"/>
-      <c r="CS150" t="inlineStr"/>
-      <c r="CT150" t="inlineStr"/>
-      <c r="CU150" t="inlineStr"/>
-      <c r="CV150" t="inlineStr"/>
-      <c r="CW150" t="inlineStr"/>
-      <c r="CX150" t="inlineStr"/>
-      <c r="CY150" t="inlineStr"/>
-      <c r="CZ150" t="inlineStr"/>
-      <c r="DA150" t="inlineStr"/>
-      <c r="DB150" t="inlineStr"/>
-      <c r="DC150" t="inlineStr"/>
-      <c r="DD150" t="inlineStr"/>
-      <c r="DE150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21906,9 +19916,21 @@
       <c r="BY151" t="inlineStr"/>
       <c r="BZ151" t="inlineStr"/>
       <c r="CA151" t="inlineStr"/>
-      <c r="CB151" t="inlineStr"/>
-      <c r="CC151" t="inlineStr"/>
-      <c r="CD151" t="inlineStr"/>
+      <c r="CB151" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC151" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD151" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE151" t="inlineStr"/>
       <c r="CF151" t="inlineStr"/>
       <c r="CG151" t="inlineStr"/>
@@ -21916,38 +19938,13 @@
       <c r="CI151" t="inlineStr"/>
       <c r="CJ151" t="inlineStr"/>
       <c r="CK151" t="inlineStr"/>
-      <c r="CL151" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM151" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN151" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL151" t="inlineStr"/>
+      <c r="CM151" t="inlineStr"/>
+      <c r="CN151" t="inlineStr"/>
       <c r="CO151" t="inlineStr"/>
       <c r="CP151" t="inlineStr"/>
       <c r="CQ151" t="inlineStr"/>
       <c r="CR151" t="inlineStr"/>
-      <c r="CS151" t="inlineStr"/>
-      <c r="CT151" t="inlineStr"/>
-      <c r="CU151" t="inlineStr"/>
-      <c r="CV151" t="inlineStr"/>
-      <c r="CW151" t="inlineStr"/>
-      <c r="CX151" t="inlineStr"/>
-      <c r="CY151" t="inlineStr"/>
-      <c r="CZ151" t="inlineStr"/>
-      <c r="DA151" t="inlineStr"/>
-      <c r="DB151" t="inlineStr"/>
-      <c r="DC151" t="inlineStr"/>
-      <c r="DD151" t="inlineStr"/>
-      <c r="DE151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -22053,9 +20050,21 @@
       <c r="BY152" t="inlineStr"/>
       <c r="BZ152" t="inlineStr"/>
       <c r="CA152" t="inlineStr"/>
-      <c r="CB152" t="inlineStr"/>
-      <c r="CC152" t="inlineStr"/>
-      <c r="CD152" t="inlineStr"/>
+      <c r="CB152" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC152" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD152" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE152" t="inlineStr"/>
       <c r="CF152" t="inlineStr"/>
       <c r="CG152" t="inlineStr"/>
@@ -22063,38 +20072,13 @@
       <c r="CI152" t="inlineStr"/>
       <c r="CJ152" t="inlineStr"/>
       <c r="CK152" t="inlineStr"/>
-      <c r="CL152" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM152" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN152" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL152" t="inlineStr"/>
+      <c r="CM152" t="inlineStr"/>
+      <c r="CN152" t="inlineStr"/>
       <c r="CO152" t="inlineStr"/>
       <c r="CP152" t="inlineStr"/>
       <c r="CQ152" t="inlineStr"/>
       <c r="CR152" t="inlineStr"/>
-      <c r="CS152" t="inlineStr"/>
-      <c r="CT152" t="inlineStr"/>
-      <c r="CU152" t="inlineStr"/>
-      <c r="CV152" t="inlineStr"/>
-      <c r="CW152" t="inlineStr"/>
-      <c r="CX152" t="inlineStr"/>
-      <c r="CY152" t="inlineStr"/>
-      <c r="CZ152" t="inlineStr"/>
-      <c r="DA152" t="inlineStr"/>
-      <c r="DB152" t="inlineStr"/>
-      <c r="DC152" t="inlineStr"/>
-      <c r="DD152" t="inlineStr"/>
-      <c r="DE152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22200,9 +20184,21 @@
       <c r="BY153" t="inlineStr"/>
       <c r="BZ153" t="inlineStr"/>
       <c r="CA153" t="inlineStr"/>
-      <c r="CB153" t="inlineStr"/>
-      <c r="CC153" t="inlineStr"/>
-      <c r="CD153" t="inlineStr"/>
+      <c r="CB153" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC153" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD153" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE153" t="inlineStr"/>
       <c r="CF153" t="inlineStr"/>
       <c r="CG153" t="inlineStr"/>
@@ -22210,38 +20206,13 @@
       <c r="CI153" t="inlineStr"/>
       <c r="CJ153" t="inlineStr"/>
       <c r="CK153" t="inlineStr"/>
-      <c r="CL153" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM153" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN153" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL153" t="inlineStr"/>
+      <c r="CM153" t="inlineStr"/>
+      <c r="CN153" t="inlineStr"/>
       <c r="CO153" t="inlineStr"/>
       <c r="CP153" t="inlineStr"/>
       <c r="CQ153" t="inlineStr"/>
       <c r="CR153" t="inlineStr"/>
-      <c r="CS153" t="inlineStr"/>
-      <c r="CT153" t="inlineStr"/>
-      <c r="CU153" t="inlineStr"/>
-      <c r="CV153" t="inlineStr"/>
-      <c r="CW153" t="inlineStr"/>
-      <c r="CX153" t="inlineStr"/>
-      <c r="CY153" t="inlineStr"/>
-      <c r="CZ153" t="inlineStr"/>
-      <c r="DA153" t="inlineStr"/>
-      <c r="DB153" t="inlineStr"/>
-      <c r="DC153" t="inlineStr"/>
-      <c r="DD153" t="inlineStr"/>
-      <c r="DE153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22343,9 +20314,21 @@
       <c r="BY154" t="inlineStr"/>
       <c r="BZ154" t="inlineStr"/>
       <c r="CA154" t="inlineStr"/>
-      <c r="CB154" t="inlineStr"/>
-      <c r="CC154" t="inlineStr"/>
-      <c r="CD154" t="inlineStr"/>
+      <c r="CB154" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC154" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD154" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE154" t="inlineStr"/>
       <c r="CF154" t="inlineStr"/>
       <c r="CG154" t="inlineStr"/>
@@ -22353,38 +20336,13 @@
       <c r="CI154" t="inlineStr"/>
       <c r="CJ154" t="inlineStr"/>
       <c r="CK154" t="inlineStr"/>
-      <c r="CL154" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM154" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN154" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL154" t="inlineStr"/>
+      <c r="CM154" t="inlineStr"/>
+      <c r="CN154" t="inlineStr"/>
       <c r="CO154" t="inlineStr"/>
       <c r="CP154" t="inlineStr"/>
       <c r="CQ154" t="inlineStr"/>
       <c r="CR154" t="inlineStr"/>
-      <c r="CS154" t="inlineStr"/>
-      <c r="CT154" t="inlineStr"/>
-      <c r="CU154" t="inlineStr"/>
-      <c r="CV154" t="inlineStr"/>
-      <c r="CW154" t="inlineStr"/>
-      <c r="CX154" t="inlineStr"/>
-      <c r="CY154" t="inlineStr"/>
-      <c r="CZ154" t="inlineStr"/>
-      <c r="DA154" t="inlineStr"/>
-      <c r="DB154" t="inlineStr"/>
-      <c r="DC154" t="inlineStr"/>
-      <c r="DD154" t="inlineStr"/>
-      <c r="DE154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22490,9 +20448,21 @@
       <c r="BY155" t="inlineStr"/>
       <c r="BZ155" t="inlineStr"/>
       <c r="CA155" t="inlineStr"/>
-      <c r="CB155" t="inlineStr"/>
-      <c r="CC155" t="inlineStr"/>
-      <c r="CD155" t="inlineStr"/>
+      <c r="CB155" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC155" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD155" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE155" t="inlineStr"/>
       <c r="CF155" t="inlineStr"/>
       <c r="CG155" t="inlineStr"/>
@@ -22500,38 +20470,13 @@
       <c r="CI155" t="inlineStr"/>
       <c r="CJ155" t="inlineStr"/>
       <c r="CK155" t="inlineStr"/>
-      <c r="CL155" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM155" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN155" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL155" t="inlineStr"/>
+      <c r="CM155" t="inlineStr"/>
+      <c r="CN155" t="inlineStr"/>
       <c r="CO155" t="inlineStr"/>
       <c r="CP155" t="inlineStr"/>
       <c r="CQ155" t="inlineStr"/>
       <c r="CR155" t="inlineStr"/>
-      <c r="CS155" t="inlineStr"/>
-      <c r="CT155" t="inlineStr"/>
-      <c r="CU155" t="inlineStr"/>
-      <c r="CV155" t="inlineStr"/>
-      <c r="CW155" t="inlineStr"/>
-      <c r="CX155" t="inlineStr"/>
-      <c r="CY155" t="inlineStr"/>
-      <c r="CZ155" t="inlineStr"/>
-      <c r="DA155" t="inlineStr"/>
-      <c r="DB155" t="inlineStr"/>
-      <c r="DC155" t="inlineStr"/>
-      <c r="DD155" t="inlineStr"/>
-      <c r="DE155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22637,9 +20582,21 @@
       <c r="BY156" t="inlineStr"/>
       <c r="BZ156" t="inlineStr"/>
       <c r="CA156" t="inlineStr"/>
-      <c r="CB156" t="inlineStr"/>
-      <c r="CC156" t="inlineStr"/>
-      <c r="CD156" t="inlineStr"/>
+      <c r="CB156" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC156" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD156" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE156" t="inlineStr"/>
       <c r="CF156" t="inlineStr"/>
       <c r="CG156" t="inlineStr"/>
@@ -22647,38 +20604,13 @@
       <c r="CI156" t="inlineStr"/>
       <c r="CJ156" t="inlineStr"/>
       <c r="CK156" t="inlineStr"/>
-      <c r="CL156" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM156" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN156" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL156" t="inlineStr"/>
+      <c r="CM156" t="inlineStr"/>
+      <c r="CN156" t="inlineStr"/>
       <c r="CO156" t="inlineStr"/>
       <c r="CP156" t="inlineStr"/>
       <c r="CQ156" t="inlineStr"/>
       <c r="CR156" t="inlineStr"/>
-      <c r="CS156" t="inlineStr"/>
-      <c r="CT156" t="inlineStr"/>
-      <c r="CU156" t="inlineStr"/>
-      <c r="CV156" t="inlineStr"/>
-      <c r="CW156" t="inlineStr"/>
-      <c r="CX156" t="inlineStr"/>
-      <c r="CY156" t="inlineStr"/>
-      <c r="CZ156" t="inlineStr"/>
-      <c r="DA156" t="inlineStr"/>
-      <c r="DB156" t="inlineStr"/>
-      <c r="DC156" t="inlineStr"/>
-      <c r="DD156" t="inlineStr"/>
-      <c r="DE156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22786,9 +20718,21 @@
       <c r="BY157" t="inlineStr"/>
       <c r="BZ157" t="inlineStr"/>
       <c r="CA157" t="inlineStr"/>
-      <c r="CB157" t="inlineStr"/>
-      <c r="CC157" t="inlineStr"/>
-      <c r="CD157" t="inlineStr"/>
+      <c r="CB157" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC157" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD157" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE157" t="inlineStr"/>
       <c r="CF157" t="inlineStr"/>
       <c r="CG157" t="inlineStr"/>
@@ -22796,38 +20740,13 @@
       <c r="CI157" t="inlineStr"/>
       <c r="CJ157" t="inlineStr"/>
       <c r="CK157" t="inlineStr"/>
-      <c r="CL157" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM157" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN157" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL157" t="inlineStr"/>
+      <c r="CM157" t="inlineStr"/>
+      <c r="CN157" t="inlineStr"/>
       <c r="CO157" t="inlineStr"/>
       <c r="CP157" t="inlineStr"/>
       <c r="CQ157" t="inlineStr"/>
       <c r="CR157" t="inlineStr"/>
-      <c r="CS157" t="inlineStr"/>
-      <c r="CT157" t="inlineStr"/>
-      <c r="CU157" t="inlineStr"/>
-      <c r="CV157" t="inlineStr"/>
-      <c r="CW157" t="inlineStr"/>
-      <c r="CX157" t="inlineStr"/>
-      <c r="CY157" t="inlineStr"/>
-      <c r="CZ157" t="inlineStr"/>
-      <c r="DA157" t="inlineStr"/>
-      <c r="DB157" t="inlineStr"/>
-      <c r="DC157" t="inlineStr"/>
-      <c r="DD157" t="inlineStr"/>
-      <c r="DE157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22933,9 +20852,21 @@
       <c r="BY158" t="inlineStr"/>
       <c r="BZ158" t="inlineStr"/>
       <c r="CA158" t="inlineStr"/>
-      <c r="CB158" t="inlineStr"/>
-      <c r="CC158" t="inlineStr"/>
-      <c r="CD158" t="inlineStr"/>
+      <c r="CB158" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC158" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD158" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE158" t="inlineStr"/>
       <c r="CF158" t="inlineStr"/>
       <c r="CG158" t="inlineStr"/>
@@ -22943,38 +20874,13 @@
       <c r="CI158" t="inlineStr"/>
       <c r="CJ158" t="inlineStr"/>
       <c r="CK158" t="inlineStr"/>
-      <c r="CL158" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM158" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN158" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL158" t="inlineStr"/>
+      <c r="CM158" t="inlineStr"/>
+      <c r="CN158" t="inlineStr"/>
       <c r="CO158" t="inlineStr"/>
       <c r="CP158" t="inlineStr"/>
       <c r="CQ158" t="inlineStr"/>
       <c r="CR158" t="inlineStr"/>
-      <c r="CS158" t="inlineStr"/>
-      <c r="CT158" t="inlineStr"/>
-      <c r="CU158" t="inlineStr"/>
-      <c r="CV158" t="inlineStr"/>
-      <c r="CW158" t="inlineStr"/>
-      <c r="CX158" t="inlineStr"/>
-      <c r="CY158" t="inlineStr"/>
-      <c r="CZ158" t="inlineStr"/>
-      <c r="DA158" t="inlineStr"/>
-      <c r="DB158" t="inlineStr"/>
-      <c r="DC158" t="inlineStr"/>
-      <c r="DD158" t="inlineStr"/>
-      <c r="DE158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -23090,9 +20996,21 @@
       <c r="BY159" t="inlineStr"/>
       <c r="BZ159" t="inlineStr"/>
       <c r="CA159" t="inlineStr"/>
-      <c r="CB159" t="inlineStr"/>
-      <c r="CC159" t="inlineStr"/>
-      <c r="CD159" t="inlineStr"/>
+      <c r="CB159" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC159" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD159" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE159" t="inlineStr"/>
       <c r="CF159" t="inlineStr"/>
       <c r="CG159" t="inlineStr"/>
@@ -23100,38 +21018,13 @@
       <c r="CI159" t="inlineStr"/>
       <c r="CJ159" t="inlineStr"/>
       <c r="CK159" t="inlineStr"/>
-      <c r="CL159" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM159" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN159" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL159" t="inlineStr"/>
+      <c r="CM159" t="inlineStr"/>
+      <c r="CN159" t="inlineStr"/>
       <c r="CO159" t="inlineStr"/>
       <c r="CP159" t="inlineStr"/>
       <c r="CQ159" t="inlineStr"/>
       <c r="CR159" t="inlineStr"/>
-      <c r="CS159" t="inlineStr"/>
-      <c r="CT159" t="inlineStr"/>
-      <c r="CU159" t="inlineStr"/>
-      <c r="CV159" t="inlineStr"/>
-      <c r="CW159" t="inlineStr"/>
-      <c r="CX159" t="inlineStr"/>
-      <c r="CY159" t="inlineStr"/>
-      <c r="CZ159" t="inlineStr"/>
-      <c r="DA159" t="inlineStr"/>
-      <c r="DB159" t="inlineStr"/>
-      <c r="DC159" t="inlineStr"/>
-      <c r="DD159" t="inlineStr"/>
-      <c r="DE159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -23237,9 +21130,21 @@
       <c r="BY160" t="inlineStr"/>
       <c r="BZ160" t="inlineStr"/>
       <c r="CA160" t="inlineStr"/>
-      <c r="CB160" t="inlineStr"/>
-      <c r="CC160" t="inlineStr"/>
-      <c r="CD160" t="inlineStr"/>
+      <c r="CB160" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC160" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD160" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE160" t="inlineStr"/>
       <c r="CF160" t="inlineStr"/>
       <c r="CG160" t="inlineStr"/>
@@ -23247,38 +21152,13 @@
       <c r="CI160" t="inlineStr"/>
       <c r="CJ160" t="inlineStr"/>
       <c r="CK160" t="inlineStr"/>
-      <c r="CL160" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM160" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN160" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL160" t="inlineStr"/>
+      <c r="CM160" t="inlineStr"/>
+      <c r="CN160" t="inlineStr"/>
       <c r="CO160" t="inlineStr"/>
       <c r="CP160" t="inlineStr"/>
       <c r="CQ160" t="inlineStr"/>
       <c r="CR160" t="inlineStr"/>
-      <c r="CS160" t="inlineStr"/>
-      <c r="CT160" t="inlineStr"/>
-      <c r="CU160" t="inlineStr"/>
-      <c r="CV160" t="inlineStr"/>
-      <c r="CW160" t="inlineStr"/>
-      <c r="CX160" t="inlineStr"/>
-      <c r="CY160" t="inlineStr"/>
-      <c r="CZ160" t="inlineStr"/>
-      <c r="DA160" t="inlineStr"/>
-      <c r="DB160" t="inlineStr"/>
-      <c r="DC160" t="inlineStr"/>
-      <c r="DD160" t="inlineStr"/>
-      <c r="DE160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -23384,9 +21264,21 @@
       <c r="BY161" t="inlineStr"/>
       <c r="BZ161" t="inlineStr"/>
       <c r="CA161" t="inlineStr"/>
-      <c r="CB161" t="inlineStr"/>
-      <c r="CC161" t="inlineStr"/>
-      <c r="CD161" t="inlineStr"/>
+      <c r="CB161" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC161" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD161" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE161" t="inlineStr"/>
       <c r="CF161" t="inlineStr"/>
       <c r="CG161" t="inlineStr"/>
@@ -23394,38 +21286,13 @@
       <c r="CI161" t="inlineStr"/>
       <c r="CJ161" t="inlineStr"/>
       <c r="CK161" t="inlineStr"/>
-      <c r="CL161" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM161" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN161" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL161" t="inlineStr"/>
+      <c r="CM161" t="inlineStr"/>
+      <c r="CN161" t="inlineStr"/>
       <c r="CO161" t="inlineStr"/>
       <c r="CP161" t="inlineStr"/>
       <c r="CQ161" t="inlineStr"/>
       <c r="CR161" t="inlineStr"/>
-      <c r="CS161" t="inlineStr"/>
-      <c r="CT161" t="inlineStr"/>
-      <c r="CU161" t="inlineStr"/>
-      <c r="CV161" t="inlineStr"/>
-      <c r="CW161" t="inlineStr"/>
-      <c r="CX161" t="inlineStr"/>
-      <c r="CY161" t="inlineStr"/>
-      <c r="CZ161" t="inlineStr"/>
-      <c r="DA161" t="inlineStr"/>
-      <c r="DB161" t="inlineStr"/>
-      <c r="DC161" t="inlineStr"/>
-      <c r="DD161" t="inlineStr"/>
-      <c r="DE161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23532,9 +21399,21 @@
       <c r="BY162" t="inlineStr"/>
       <c r="BZ162" t="inlineStr"/>
       <c r="CA162" t="inlineStr"/>
-      <c r="CB162" t="inlineStr"/>
-      <c r="CC162" t="inlineStr"/>
-      <c r="CD162" t="inlineStr"/>
+      <c r="CB162" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC162" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD162" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE162" t="inlineStr"/>
       <c r="CF162" t="inlineStr"/>
       <c r="CG162" t="inlineStr"/>
@@ -23542,38 +21421,13 @@
       <c r="CI162" t="inlineStr"/>
       <c r="CJ162" t="inlineStr"/>
       <c r="CK162" t="inlineStr"/>
-      <c r="CL162" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM162" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN162" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL162" t="inlineStr"/>
+      <c r="CM162" t="inlineStr"/>
+      <c r="CN162" t="inlineStr"/>
       <c r="CO162" t="inlineStr"/>
       <c r="CP162" t="inlineStr"/>
       <c r="CQ162" t="inlineStr"/>
       <c r="CR162" t="inlineStr"/>
-      <c r="CS162" t="inlineStr"/>
-      <c r="CT162" t="inlineStr"/>
-      <c r="CU162" t="inlineStr"/>
-      <c r="CV162" t="inlineStr"/>
-      <c r="CW162" t="inlineStr"/>
-      <c r="CX162" t="inlineStr"/>
-      <c r="CY162" t="inlineStr"/>
-      <c r="CZ162" t="inlineStr"/>
-      <c r="DA162" t="inlineStr"/>
-      <c r="DB162" t="inlineStr"/>
-      <c r="DC162" t="inlineStr"/>
-      <c r="DD162" t="inlineStr"/>
-      <c r="DE162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23679,9 +21533,21 @@
       <c r="BY163" t="inlineStr"/>
       <c r="BZ163" t="inlineStr"/>
       <c r="CA163" t="inlineStr"/>
-      <c r="CB163" t="inlineStr"/>
-      <c r="CC163" t="inlineStr"/>
-      <c r="CD163" t="inlineStr"/>
+      <c r="CB163" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC163" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD163" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE163" t="inlineStr"/>
       <c r="CF163" t="inlineStr"/>
       <c r="CG163" t="inlineStr"/>
@@ -23689,38 +21555,13 @@
       <c r="CI163" t="inlineStr"/>
       <c r="CJ163" t="inlineStr"/>
       <c r="CK163" t="inlineStr"/>
-      <c r="CL163" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM163" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN163" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL163" t="inlineStr"/>
+      <c r="CM163" t="inlineStr"/>
+      <c r="CN163" t="inlineStr"/>
       <c r="CO163" t="inlineStr"/>
       <c r="CP163" t="inlineStr"/>
       <c r="CQ163" t="inlineStr"/>
       <c r="CR163" t="inlineStr"/>
-      <c r="CS163" t="inlineStr"/>
-      <c r="CT163" t="inlineStr"/>
-      <c r="CU163" t="inlineStr"/>
-      <c r="CV163" t="inlineStr"/>
-      <c r="CW163" t="inlineStr"/>
-      <c r="CX163" t="inlineStr"/>
-      <c r="CY163" t="inlineStr"/>
-      <c r="CZ163" t="inlineStr"/>
-      <c r="DA163" t="inlineStr"/>
-      <c r="DB163" t="inlineStr"/>
-      <c r="DC163" t="inlineStr"/>
-      <c r="DD163" t="inlineStr"/>
-      <c r="DE163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23827,9 +21668,21 @@
       <c r="BY164" t="inlineStr"/>
       <c r="BZ164" t="inlineStr"/>
       <c r="CA164" t="inlineStr"/>
-      <c r="CB164" t="inlineStr"/>
-      <c r="CC164" t="inlineStr"/>
-      <c r="CD164" t="inlineStr"/>
+      <c r="CB164" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC164" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD164" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE164" t="inlineStr"/>
       <c r="CF164" t="inlineStr"/>
       <c r="CG164" t="inlineStr"/>
@@ -23837,38 +21690,13 @@
       <c r="CI164" t="inlineStr"/>
       <c r="CJ164" t="inlineStr"/>
       <c r="CK164" t="inlineStr"/>
-      <c r="CL164" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM164" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN164" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL164" t="inlineStr"/>
+      <c r="CM164" t="inlineStr"/>
+      <c r="CN164" t="inlineStr"/>
       <c r="CO164" t="inlineStr"/>
       <c r="CP164" t="inlineStr"/>
       <c r="CQ164" t="inlineStr"/>
       <c r="CR164" t="inlineStr"/>
-      <c r="CS164" t="inlineStr"/>
-      <c r="CT164" t="inlineStr"/>
-      <c r="CU164" t="inlineStr"/>
-      <c r="CV164" t="inlineStr"/>
-      <c r="CW164" t="inlineStr"/>
-      <c r="CX164" t="inlineStr"/>
-      <c r="CY164" t="inlineStr"/>
-      <c r="CZ164" t="inlineStr"/>
-      <c r="DA164" t="inlineStr"/>
-      <c r="DB164" t="inlineStr"/>
-      <c r="DC164" t="inlineStr"/>
-      <c r="DD164" t="inlineStr"/>
-      <c r="DE164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23970,9 +21798,21 @@
       <c r="BY165" t="inlineStr"/>
       <c r="BZ165" t="inlineStr"/>
       <c r="CA165" t="inlineStr"/>
-      <c r="CB165" t="inlineStr"/>
-      <c r="CC165" t="inlineStr"/>
-      <c r="CD165" t="inlineStr"/>
+      <c r="CB165" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC165" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD165" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
       <c r="CE165" t="inlineStr"/>
       <c r="CF165" t="inlineStr"/>
       <c r="CG165" t="inlineStr"/>
@@ -23980,38 +21820,13 @@
       <c r="CI165" t="inlineStr"/>
       <c r="CJ165" t="inlineStr"/>
       <c r="CK165" t="inlineStr"/>
-      <c r="CL165" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CM165" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CN165" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
+      <c r="CL165" t="inlineStr"/>
+      <c r="CM165" t="inlineStr"/>
+      <c r="CN165" t="inlineStr"/>
       <c r="CO165" t="inlineStr"/>
       <c r="CP165" t="inlineStr"/>
       <c r="CQ165" t="inlineStr"/>
       <c r="CR165" t="inlineStr"/>
-      <c r="CS165" t="inlineStr"/>
-      <c r="CT165" t="inlineStr"/>
-      <c r="CU165" t="inlineStr"/>
-      <c r="CV165" t="inlineStr"/>
-      <c r="CW165" t="inlineStr"/>
-      <c r="CX165" t="inlineStr"/>
-      <c r="CY165" t="inlineStr"/>
-      <c r="CZ165" t="inlineStr"/>
-      <c r="DA165" t="inlineStr"/>
-      <c r="DB165" t="inlineStr"/>
-      <c r="DC165" t="inlineStr"/>
-      <c r="DD165" t="inlineStr"/>
-      <c r="DE165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -5692,7 +5692,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="CD47" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE47" t="inlineStr"/>
@@ -5814,7 +5814,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="CD48" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE48" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>drf:10003</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="CD49" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE49" t="inlineStr"/>
@@ -6058,12 +6058,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>drf:10004</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MpthodExtendedfileds</t>
+          <t>MethodExtendedfileds</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="CD50" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE50" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="CD51" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE51" t="inlineStr"/>
@@ -6302,7 +6302,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="CD52" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE52" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="CD53" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE53" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="CD54" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE54" t="inlineStr"/>
@@ -6668,7 +6668,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="CD55" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE55" t="inlineStr"/>
@@ -6790,7 +6790,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>drf:10010</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="CD56" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE56" t="inlineStr"/>
@@ -6912,7 +6912,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="CD57" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE57" t="inlineStr"/>
@@ -7034,7 +7034,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>drf:10012</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="CD58" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE58" t="inlineStr"/>
@@ -7172,7 +7172,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>drf:10013</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="CD59" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE59" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>drf:10014</t>
+          <t>drf:STYPE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="CD60" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE60" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>drf:10015</t>
+          <t>drf:LAT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="CD61" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE61" t="inlineStr"/>
@@ -7605,7 +7605,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>drf:10016</t>
+          <t>drf:LON</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="CD62" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE62" t="inlineStr"/>
@@ -7756,7 +7756,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>drf:10017</t>
+          <t>drf:ALTITUDE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="CD63" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE63" t="inlineStr"/>
@@ -7903,7 +7903,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>drf:10018</t>
+          <t>drf:PLOTSIZE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="CD64" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE64" t="inlineStr"/>
@@ -8049,7 +8049,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>drf:10019</t>
+          <t>drf:COMMENT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8072,7 +8072,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="CD65" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE65" t="inlineStr"/>
@@ -8183,7 +8183,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>drf:10020</t>
+          <t>drf:GEOSPAT_FEATURE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8206,7 +8206,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>drf:10001</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="CD66" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE66" t="inlineStr"/>
@@ -8317,7 +8317,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>drf:10021</t>
+          <t>drf:SNAME</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="CD67" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE67" t="inlineStr"/>
@@ -8455,7 +8455,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>drf:10022</t>
+          <t>drf:westBoundingCoordinate</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="CD68" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE68" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>drf:10023</t>
+          <t>drf:eastBoundingCoordinate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="CD69" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE69" t="inlineStr"/>
@@ -8747,7 +8747,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>drf:10024</t>
+          <t>drf:northBoundingCoordinate</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="CD70" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE70" t="inlineStr"/>
@@ -8893,7 +8893,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drf:10025</t>
+          <t>drf:southBoundingCoordinate</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="CD71" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE71" t="inlineStr"/>
@@ -9039,7 +9039,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>drf:10026</t>
+          <t>drf:altitudeMin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="CD72" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE72" t="inlineStr"/>
@@ -9185,7 +9185,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>drf:10027</t>
+          <t>drf:altitudeMax</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="CD73" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE73" t="inlineStr"/>
@@ -9331,7 +9331,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>drf:10028</t>
+          <t>drf:Country</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="CD74" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE74" t="inlineStr"/>
@@ -9469,7 +9469,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>drf:10029</t>
+          <t>drf:OperationPeriodSince</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="CD75" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE75" t="inlineStr"/>
@@ -9607,7 +9607,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>drf:10030</t>
+          <t>drf:plotDimension</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="CD76" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE76" t="inlineStr"/>
@@ -9741,7 +9741,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>drf:10031</t>
+          <t>drf:numberOfSampleUnit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9764,7 +9764,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="CD77" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE77" t="inlineStr"/>
@@ -9871,7 +9871,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>drf:10032</t>
+          <t>drf:InstHeight</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="CD78" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE78" t="inlineStr"/>
@@ -10009,7 +10009,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>drf:10033</t>
+          <t>drf:Local_Habitat_Type</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="CD79" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE79" t="inlineStr"/>
@@ -10147,7 +10147,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>drf:10034</t>
+          <t>drf:EUNIS_Habitat_Type</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="CD80" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE80" t="inlineStr"/>
@@ -10281,7 +10281,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>drf:10035</t>
+          <t>drf:Potential_natural_vegetation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>drf:10002</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="CD81" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE81" t="inlineStr"/>
@@ -10415,7 +10415,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>drf:10036</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>drf:10003</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="CD82" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE82" t="inlineStr"/>
@@ -10553,7 +10553,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>drf:10037</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>drf:10003</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="CD83" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE83" t="inlineStr"/>
@@ -10687,7 +10687,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>drf:10038</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>drf:10003</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="CD84" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE84" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>drf:10039</t>
+          <t>drf:SAMPLING_DESIGN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>drf:10004</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="CD85" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE85" t="inlineStr"/>
@@ -10955,7 +10955,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>drf:10040</t>
+          <t>drf:FIELD_METHOD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>drf:10004</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="CD86" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE86" t="inlineStr"/>
@@ -11089,7 +11089,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>drf:10041</t>
+          <t>drf:LAB_METHOD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>drf:10004</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="CD87" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE87" t="inlineStr"/>
@@ -11223,7 +11223,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>drf:10042</t>
+          <t>drf:AGG_METHOD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>drf:10004</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="CD88" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE88" t="inlineStr"/>
@@ -11357,7 +11357,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drf:10043</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="CD89" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE89" t="inlineStr"/>
@@ -11491,7 +11491,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>drf:10044</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="CD90" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE90" t="inlineStr"/>
@@ -11627,7 +11627,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>drf:10045</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="CD91" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE91" t="inlineStr"/>
@@ -11762,7 +11762,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>drf:10046</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="CD92" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE92" t="inlineStr"/>
@@ -11904,7 +11904,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>drf:10047</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -11935,7 +11935,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="CD93" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE93" t="inlineStr"/>
@@ -12046,7 +12046,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>drf:10048</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -12085,7 +12085,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="CD94" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE94" t="inlineStr"/>
@@ -12192,7 +12192,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drf:10049</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="CD95" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE95" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>drf:10050</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="CD96" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE96" t="inlineStr"/>
@@ -12465,7 +12465,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>drf:10051</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -12493,7 +12493,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="CD97" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE97" t="inlineStr"/>
@@ -12600,7 +12600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>drf:10052</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -12628,7 +12628,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="CD98" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE98" t="inlineStr"/>
@@ -12735,7 +12735,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>drf:10053</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="CD99" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE99" t="inlineStr"/>
@@ -12879,7 +12879,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>drf:10054</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="CD100" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE100" t="inlineStr"/>
@@ -13014,7 +13014,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>drf:10055</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>drf:10005</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="CD101" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE101" t="inlineStr"/>
@@ -13149,7 +13149,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drf:10056</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="CD102" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE102" t="inlineStr"/>
@@ -13283,7 +13283,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>drf:10057</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -13312,7 +13312,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="CD103" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE103" t="inlineStr"/>
@@ -13419,7 +13419,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>drf:10058</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="CD104" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE104" t="inlineStr"/>
@@ -13555,7 +13555,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>drf:10059</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="CD105" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE105" t="inlineStr"/>
@@ -13697,7 +13697,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drf:10060</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="CD106" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE106" t="inlineStr"/>
@@ -13839,7 +13839,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>drf:10061</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="CD107" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE107" t="inlineStr"/>
@@ -13974,7 +13974,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>drf:10062</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="CD108" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE108" t="inlineStr"/>
@@ -14115,7 +14115,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drf:10063</t>
+          <t>drf:LAYER</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="CD109" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE109" t="inlineStr"/>
@@ -14258,7 +14258,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>drf:10064</t>
+          <t>drf:TAXA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="CD110" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE110" t="inlineStr"/>
@@ -14393,7 +14393,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>drf:10065</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="CD111" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE111" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>drf:10066</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="CD112" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE112" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>drf:10067</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -14686,7 +14686,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="CD113" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE113" t="inlineStr"/>
@@ -14793,7 +14793,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>drf:10068</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="CD114" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE114" t="inlineStr"/>
@@ -14928,7 +14928,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>drf:10069</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>drf:10006</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="CD115" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE115" t="inlineStr"/>
@@ -15063,7 +15063,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drf:10070</t>
+          <t>drf:ORG_NAME</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="CD116" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE116" t="inlineStr"/>
@@ -15197,7 +15197,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>drf:10071</t>
+          <t>drf:SUBPROG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="CD117" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE117" t="inlineStr"/>
@@ -15336,7 +15336,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>drf:10072</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -15373,7 +15373,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="CD118" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE118" t="inlineStr"/>
@@ -15480,7 +15480,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drf:10073</t>
+          <t>drf:LISTMED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="CD119" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE119" t="inlineStr"/>
@@ -15614,7 +15614,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drf:10074</t>
+          <t>drf:MAX_LEVEL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="CD120" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE120" t="inlineStr"/>
@@ -15756,7 +15756,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>drf:10075</t>
+          <t>drf:MIN_LEVEL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="CD121" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE121" t="inlineStr"/>
@@ -15898,7 +15898,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>drf:10076</t>
+          <t>drf:SIZE</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="CD122" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE122" t="inlineStr"/>
@@ -16040,7 +16040,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>drf:10077</t>
+          <t>drf:YEAR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="CD123" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE123" t="inlineStr"/>
@@ -16179,7 +16179,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>drf:10078</t>
+          <t>drf:MONTH</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="CD124" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE124" t="inlineStr"/>
@@ -16313,7 +16313,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>drf:10079</t>
+          <t>drf:DAY</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="CD125" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE125" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>drf:10080</t>
+          <t>drf:HOUR</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -16474,7 +16474,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="CD126" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE126" t="inlineStr"/>
@@ -16581,7 +16581,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>drf:10081</t>
+          <t>drf:MINUTE</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="CD127" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE127" t="inlineStr"/>
@@ -16715,7 +16715,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>drf:10082</t>
+          <t>drf:SECOND</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -16828,7 +16828,7 @@
       </c>
       <c r="CD128" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE128" t="inlineStr"/>
@@ -16849,7 +16849,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>drf:10083</t>
+          <t>drf:SPOOL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -16963,7 +16963,7 @@
       </c>
       <c r="CD129" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE129" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drf:10084</t>
+          <t>drf:TPOOL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -17098,7 +17098,7 @@
       </c>
       <c r="CD130" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE130" t="inlineStr"/>
@@ -17119,7 +17119,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drf:10085</t>
+          <t>drf:TLEVEL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -17150,7 +17150,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -17236,7 +17236,7 @@
       </c>
       <c r="CD131" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE131" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>drf:10086</t>
+          <t>drf:LISTTAXA</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -17370,7 +17370,7 @@
       </c>
       <c r="CD132" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE132" t="inlineStr"/>
@@ -17391,7 +17391,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>drf:10087</t>
+          <t>drf:LISTSUB</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="CD133" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE133" t="inlineStr"/>
@@ -17525,7 +17525,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>drf:10088</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>drf:10007</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="CD134" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE134" t="inlineStr"/>
@@ -17669,7 +17669,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drf:10089</t>
+          <t>drf:FIELD_NAME</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="CD135" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE135" t="inlineStr"/>
@@ -17803,7 +17803,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>drf:10090</t>
+          <t>drf:CODE</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="CD136" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE136" t="inlineStr"/>
@@ -17937,7 +17937,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drf:10091</t>
+          <t>drf:NAME</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="CD137" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE137" t="inlineStr"/>
@@ -18071,7 +18071,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>drf:10092</t>
+          <t>drf:DEFINITON</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="CD138" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE138" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>drf:10093</t>
+          <t>drf:LIST_CODE</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="CD139" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE139" t="inlineStr"/>
@@ -18339,7 +18339,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>drf:10094</t>
+          <t>drf:CODE_URL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>drf:10008</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="CD140" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE140" t="inlineStr"/>
@@ -18473,7 +18473,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>drf:10095</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="CD141" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE141" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>drf:10096</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -18634,7 +18634,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="CD142" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE142" t="inlineStr"/>
@@ -18741,7 +18741,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>drf:10097</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -18770,7 +18770,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="CD143" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE143" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>drf:10098</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="CD144" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE144" t="inlineStr"/>
@@ -19011,7 +19011,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>drf:10099</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="CD145" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE145" t="inlineStr"/>
@@ -19145,7 +19145,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>drf:10100</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -19259,7 +19259,7 @@
       </c>
       <c r="CD146" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE146" t="inlineStr"/>
@@ -19280,7 +19280,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>drf:10101</t>
+          <t>drf:EVENT_EFFORT</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
       </c>
       <c r="CD147" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE147" t="inlineStr"/>
@@ -19414,7 +19414,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>drf:10102</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="CD148" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE148" t="inlineStr"/>
@@ -19548,7 +19548,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>drf:10103</t>
+          <t>drf:PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="CD149" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE149" t="inlineStr"/>
@@ -19683,7 +19683,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>drf:10104</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -19706,7 +19706,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>drf:10009</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="CD150" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE150" t="inlineStr"/>
@@ -19813,7 +19813,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>drf:10105</t>
+          <t>drf:PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>drf:10010</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="CD151" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE151" t="inlineStr"/>
@@ -19949,7 +19949,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>drf:10106</t>
+          <t>drf:SAMP_EFFORT</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>drf:10010</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
       </c>
       <c r="CD152" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE152" t="inlineStr"/>
@@ -20083,7 +20083,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>drf:10107</t>
+          <t>drf:HABITAT_TYPE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>drf:10010</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="CD153" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE153" t="inlineStr"/>
@@ -20217,7 +20217,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>drf:10108</t>
+          <t>drf:SOIL_TYPE</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -20240,7 +20240,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>drf:10010</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -20326,7 +20326,7 @@
       </c>
       <c r="CD154" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE154" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>drf:10109</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="CD155" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE155" t="inlineStr"/>
@@ -20481,7 +20481,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>drf:10110</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="CD156" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE156" t="inlineStr"/>
@@ -20615,7 +20615,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>drf:10111</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -20644,7 +20644,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="CD157" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE157" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>drf:10112</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="CD158" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE158" t="inlineStr"/>
@@ -20885,7 +20885,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>drf:10113</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -21008,7 +21008,7 @@
       </c>
       <c r="CD159" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE159" t="inlineStr"/>
@@ -21029,7 +21029,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>drf:10114</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="CD160" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE160" t="inlineStr"/>
@@ -21163,7 +21163,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>drf:10115</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="CD161" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE161" t="inlineStr"/>
@@ -21297,7 +21297,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>drf:10116</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -21411,7 +21411,7 @@
       </c>
       <c r="CD162" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE162" t="inlineStr"/>
@@ -21432,7 +21432,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>drf:10117</t>
+          <t>drf:SAMP_SIZE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -21459,7 +21459,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="CD163" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE163" t="inlineStr"/>
@@ -21566,7 +21566,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>drf:10118</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -21594,7 +21594,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -21680,7 +21680,7 @@
       </c>
       <c r="CD164" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE164" t="inlineStr"/>
@@ -21701,7 +21701,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>drf:10119</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -21724,7 +21724,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>drf:10011</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="CD165" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE165" t="inlineStr"/>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -5700,7 +5700,11 @@
           <t>StationCoreFields</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
@@ -5822,7 +5826,11 @@
           <t>StationExtendedFields</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
@@ -5944,7 +5952,11 @@
           <t>MethodCoreFields</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -6066,7 +6078,11 @@
           <t>MethodExtendedfileds</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
@@ -6188,7 +6204,11 @@
           <t>DataMeasurements</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -6310,7 +6330,11 @@
           <t>DataMapping</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
@@ -6432,7 +6456,11 @@
           <t>DataExtendedFields</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -6554,7 +6582,11 @@
           <t>ReferenceCoreFields</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -6676,7 +6708,11 @@
           <t>EventCoreFields</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
@@ -6798,7 +6834,11 @@
           <t>EventExtendedFields</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
@@ -6920,7 +6960,11 @@
           <t>SampleEvent</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR165"/>
+  <dimension ref="A1:CR155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/</t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gen</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/zonmw/generic/</t>
+          <t>http://www.w3.org/2002/07/owl#</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -755,12 +755,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
+          <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -865,12 +865,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t>http://qudt.org/vocab/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -975,12 +975,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>iop</t>
+          <t>omv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/</t>
+          <t>http://omv.ontoware.org/2005/05/ontology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
+          <t>http://schema.org/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>dwc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>http://rs.tdwg.org/dwc/terms/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vaof</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://purl.org/vocommons/voaf#</t>
+          <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1630,19 +1630,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>owl:ontologyIRI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>qudt</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/</t>
-        </is>
-      </c>
+          <t>http://vocabs.lter-europe.net/elter_drf/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1740,19 +1736,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>doap</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>usefulinc.com/ns/doap#</t>
-        </is>
-      </c>
+          <t>dct:identifier</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1850,19 +1838,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>drf</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/elter_drf/</t>
-        </is>
-      </c>
+          <t>eLTER_DRF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1960,19 +1944,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>iop</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
+          <t>eLTER Data Reporting Format</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -2070,19 +2050,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>omv:acronym</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rdf</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-        </is>
-      </c>
+          <t>eLTER_DRF</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2180,19 +2156,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>omv:resourceLocator</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rdfs</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2000/01/rdf-schema#</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/LTER-Europe/eLTER_DRF/main/eLTER_DRF.ttl</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2290,19 +2262,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>omv:keywords</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>omv</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>http://omv.ontoware.org/2005/05/ontology</t>
-        </is>
-      </c>
+          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -2400,19 +2368,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>http://schema.org/</t>
-        </is>
-      </c>
+          <t>dct:publisher</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -2510,19 +2470,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>omv:knownUsage</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dwc</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>http://rs.tdwg.org/dwc/terms/</t>
-        </is>
-      </c>
+          <t>terms for describe eLTER data reporting</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2620,19 +2576,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:audience</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
+          <t>http://schema.org/Researcher</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -2730,12 +2682,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>owl:ontologyIRI</t>
+          <t>doap:repository</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/elter_drf/</t>
+          <t>https://ecoportal.lifewatch.eu/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2836,10 +2788,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:identifier</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>dct:subject</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://semanticscience.org/resource/SIO_001080</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -2938,12 +2894,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>eLTER_DRF</t>
+          <t>eLTER_DRF is...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3044,12 +3000,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>eLTER Data Reporting Format</t>
+          <t>Alessandro Oggioni</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3150,12 +3106,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>omv:acronym</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>eLTER_DRF</t>
+          <t>Johannes Peterseil</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3256,12 +3212,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>omv:resourceLocator</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/LTER-Europe/eLTER_DRF/main/eLTER_DRF.ttl</t>
+          <t>Sarah Venier</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3362,12 +3318,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>omv:keywords</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+          <t>Allan Souza</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3468,10 +3424,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:publisher</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lisa Reiss</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -3570,12 +3530,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>omv:knownUsage</t>
+          <t>omv:usedOntologyEngineeringTool</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>terms for describe eLTER data reporting</t>
+          <t>https://github.com/fair-data-collective/sheet2rdf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -3676,12 +3636,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:audience</t>
+          <t>dct:license</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://schema.org/Researcher</t>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -3782,12 +3742,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>doap:repository</t>
+          <t>dct:language</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://ecoportal.lifewatch.eu/</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -3888,12 +3848,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dct:subject</t>
+          <t>owl:versionInfo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://semanticscience.org/resource/SIO_001080</t>
+          <t>1.3.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -3994,12 +3954,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>eLTER_DRF is...</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4100,12 +4060,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Alessandro Oggioni</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4206,94 +4166,414 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>rdf:type(separtor=",")</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@en(separator=",")</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>schema:unitCode</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>skos:example@en</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>puv:uom</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>skos:changeNote@en</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>skos:scopeNote@en</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>skos:hiddenLabel</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ar</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@bg</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@cs</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@da</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@el</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@es</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@et</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fi</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fr</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hr</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hu</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ja</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lt</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lv</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@no</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pl</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pt</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ro</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sk</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sl</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sv</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@zh</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@de</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@el</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@es</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fi</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fr</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@hu</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@it</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@ja</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@la</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@lt</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@no</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pl</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pt</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sl</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sv</t>
+        </is>
+      </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh-tw</t>
+        </is>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>skos:definition@es</t>
+        </is>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>skos:definition@fi</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>skos:definition@fr</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>skos:definition@ja</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>skos:definition@no</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>skos:definition@pl</t>
+        </is>
+      </c>
+      <c r="BT36" t="inlineStr">
+        <is>
+          <t>skos:definition@pt</t>
+        </is>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>skos:definition@zh</t>
+        </is>
+      </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>skos:definition@sv</t>
+        </is>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="BX36" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
+      <c r="BZ36" t="inlineStr">
+        <is>
+          <t>schema:unitCode</t>
+        </is>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Johannes Peterseil</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
-      <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="inlineStr"/>
-      <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="inlineStr"/>
-      <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="inlineStr"/>
-      <c r="BS36" t="inlineStr"/>
-      <c r="BT36" t="inlineStr"/>
-      <c r="BU36" t="inlineStr"/>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
-      <c r="CB36" t="inlineStr"/>
-      <c r="CC36" t="inlineStr"/>
-      <c r="CD36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
       <c r="CE36" t="inlineStr"/>
       <c r="CF36" t="inlineStr"/>
       <c r="CG36" t="inlineStr"/>
@@ -4312,17 +4592,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sarah Venier</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>StationCoreFields</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The core Fields are part of this class.</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -4397,9 +4685,21 @@
       <c r="BY37" t="inlineStr"/>
       <c r="BZ37" t="inlineStr"/>
       <c r="CA37" t="inlineStr"/>
-      <c r="CB37" t="inlineStr"/>
-      <c r="CC37" t="inlineStr"/>
-      <c r="CD37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC37" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD37" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE37" t="inlineStr"/>
       <c r="CF37" t="inlineStr"/>
       <c r="CG37" t="inlineStr"/>
@@ -4418,17 +4718,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Allan Souza</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>StationExtendedFields</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The Extended Fields are part of this class.</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -4503,9 +4811,21 @@
       <c r="BY38" t="inlineStr"/>
       <c r="BZ38" t="inlineStr"/>
       <c r="CA38" t="inlineStr"/>
-      <c r="CB38" t="inlineStr"/>
-      <c r="CC38" t="inlineStr"/>
-      <c r="CD38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE38" t="inlineStr"/>
       <c r="CF38" t="inlineStr"/>
       <c r="CG38" t="inlineStr"/>
@@ -4524,17 +4844,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lisa Reiss</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>MethodCoreFields</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A Method describes the procedure to generate and manipulate the data.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -4609,9 +4937,21 @@
       <c r="BY39" t="inlineStr"/>
       <c r="BZ39" t="inlineStr"/>
       <c r="CA39" t="inlineStr"/>
-      <c r="CB39" t="inlineStr"/>
-      <c r="CC39" t="inlineStr"/>
-      <c r="CD39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC39" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD39" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE39" t="inlineStr"/>
       <c r="CF39" t="inlineStr"/>
       <c r="CG39" t="inlineStr"/>
@@ -4630,17 +4970,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>omv:usedOntologyEngineeringTool</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://github.com/fair-data-collective/sheet2rdf</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>MethodExtendedfileds</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>In the extended version detailed information on the different method steps and procedures (e.g. sampling, field method, lab methods, data aggregation methods)</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -4715,9 +5063,21 @@
       <c r="BY40" t="inlineStr"/>
       <c r="BZ40" t="inlineStr"/>
       <c r="CA40" t="inlineStr"/>
-      <c r="CB40" t="inlineStr"/>
-      <c r="CC40" t="inlineStr"/>
-      <c r="CD40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC40" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD40" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE40" t="inlineStr"/>
       <c r="CF40" t="inlineStr"/>
       <c r="CG40" t="inlineStr"/>
@@ -4736,17 +5096,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dct:license</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://creativecommons.org/licenses/by/4.0/</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>DataMeasurements</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Environmental observation is defined as any measurement done by sensors or using devices observing a single measurable property of the ecosystem, e.g. temperature or water level. The value normally is expressed as decimal or integer value.</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -4821,9 +5189,21 @@
       <c r="BY41" t="inlineStr"/>
       <c r="BZ41" t="inlineStr"/>
       <c r="CA41" t="inlineStr"/>
-      <c r="CB41" t="inlineStr"/>
-      <c r="CC41" t="inlineStr"/>
-      <c r="CD41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC41" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD41" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE41" t="inlineStr"/>
       <c r="CF41" t="inlineStr"/>
       <c r="CG41" t="inlineStr"/>
@@ -4842,17 +5222,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dct:language</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>DataMapping</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Mapping is defined as any observation done by a human or sensor where the occurrence, share or abundance of an entitiy (e.g. species or habitat type) in a given area is estimated or measured. The observed entity is normally described by a concept (e.g. species or habitat) and uses code lists or taxonomies (e.g. species or habitat lists) to describe them.</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -4927,9 +5315,21 @@
       <c r="BY42" t="inlineStr"/>
       <c r="BZ42" t="inlineStr"/>
       <c r="CA42" t="inlineStr"/>
-      <c r="CB42" t="inlineStr"/>
-      <c r="CC42" t="inlineStr"/>
-      <c r="CD42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC42" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD42" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE42" t="inlineStr"/>
       <c r="CF42" t="inlineStr"/>
       <c r="CG42" t="inlineStr"/>
@@ -4948,17 +5348,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>owl:versionInfo</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.3.0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>DataExtendedFields</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. The Extended Fields are part of this class.</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -5033,9 +5441,21 @@
       <c r="BY43" t="inlineStr"/>
       <c r="BZ43" t="inlineStr"/>
       <c r="CA43" t="inlineStr"/>
-      <c r="CB43" t="inlineStr"/>
-      <c r="CC43" t="inlineStr"/>
-      <c r="CD43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC43" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD43" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE43" t="inlineStr"/>
       <c r="CF43" t="inlineStr"/>
       <c r="CG43" t="inlineStr"/>
@@ -5054,17 +5474,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>ReferenceCoreFields</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>The Reference is the listing and description of additional codes used in the data provision. In order to enhance the re-usability of the data, information on the coding used e.g. for variable names or taxa, is needed. This can either refer to existing vocabularies used (e.g. by referencing to an URL) or by user defined definitions.</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -5139,9 +5567,21 @@
       <c r="BY44" t="inlineStr"/>
       <c r="BZ44" t="inlineStr"/>
       <c r="CA44" t="inlineStr"/>
-      <c r="CB44" t="inlineStr"/>
-      <c r="CC44" t="inlineStr"/>
-      <c r="CD44" t="inlineStr"/>
+      <c r="CB44" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC44" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD44" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE44" t="inlineStr"/>
       <c r="CF44" t="inlineStr"/>
       <c r="CG44" t="inlineStr"/>
@@ -5160,17 +5600,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>EventCoreFields</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Core Fields are part of this class.</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -5245,9 +5693,21 @@
       <c r="BY45" t="inlineStr"/>
       <c r="BZ45" t="inlineStr"/>
       <c r="CA45" t="inlineStr"/>
-      <c r="CB45" t="inlineStr"/>
-      <c r="CC45" t="inlineStr"/>
-      <c r="CD45" t="inlineStr"/>
+      <c r="CB45" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CC45" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CD45" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
       <c r="CE45" t="inlineStr"/>
       <c r="CF45" t="inlineStr"/>
       <c r="CG45" t="inlineStr"/>
@@ -5266,412 +5726,112 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>EventExtendedFields</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>rdf:type(separtor=",")</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@en(separator=",")</t>
-        </is>
-      </c>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>schema:unitCode</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>skos:example@en</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>puv:uom</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>skos:changeNote@en</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>skos:scopeNote@en</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>skos:hiddenLabel</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ar</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@bg</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@cs</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@da</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@el</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@es</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@et</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fi</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fr</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hr</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hu</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ja</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lt</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lv</t>
-        </is>
-      </c>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@nl</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@no</t>
-        </is>
-      </c>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pl</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pt</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ro</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sk</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sl</t>
-        </is>
-      </c>
-      <c r="AS46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sv</t>
-        </is>
-      </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@zh</t>
-        </is>
-      </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@de</t>
-        </is>
-      </c>
-      <c r="AV46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@el</t>
-        </is>
-      </c>
-      <c r="AW46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@es</t>
-        </is>
-      </c>
-      <c r="AX46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fi</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fr</t>
-        </is>
-      </c>
-      <c r="AZ46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@hu</t>
-        </is>
-      </c>
-      <c r="BA46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@it</t>
-        </is>
-      </c>
-      <c r="BB46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@ja</t>
-        </is>
-      </c>
-      <c r="BC46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@la</t>
-        </is>
-      </c>
-      <c r="BD46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@lt</t>
-        </is>
-      </c>
-      <c r="BE46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@no</t>
-        </is>
-      </c>
-      <c r="BF46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pl</t>
-        </is>
-      </c>
-      <c r="BG46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pt</t>
-        </is>
-      </c>
-      <c r="BH46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sl</t>
-        </is>
-      </c>
-      <c r="BI46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sv</t>
-        </is>
-      </c>
-      <c r="BJ46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh</t>
-        </is>
-      </c>
-      <c r="BK46" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh-tw</t>
-        </is>
-      </c>
-      <c r="BL46" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="BM46" t="inlineStr">
-        <is>
-          <t>skos:definition@es</t>
-        </is>
-      </c>
-      <c r="BN46" t="inlineStr">
-        <is>
-          <t>skos:definition@fi</t>
-        </is>
-      </c>
-      <c r="BO46" t="inlineStr">
-        <is>
-          <t>skos:definition@fr</t>
-        </is>
-      </c>
-      <c r="BP46" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="BQ46" t="inlineStr">
-        <is>
-          <t>skos:definition@ja</t>
-        </is>
-      </c>
-      <c r="BR46" t="inlineStr">
-        <is>
-          <t>skos:definition@no</t>
-        </is>
-      </c>
-      <c r="BS46" t="inlineStr">
-        <is>
-          <t>skos:definition@pl</t>
-        </is>
-      </c>
-      <c r="BT46" t="inlineStr">
-        <is>
-          <t>skos:definition@pt</t>
-        </is>
-      </c>
-      <c r="BU46" t="inlineStr">
-        <is>
-          <t>skos:definition@zh</t>
-        </is>
-      </c>
-      <c r="BV46" t="inlineStr">
-        <is>
-          <t>skos:definition@sv</t>
-        </is>
-      </c>
-      <c r="BW46" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="BX46" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="BY46" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="BZ46" t="inlineStr">
-        <is>
-          <t>schema:unitCode</t>
-        </is>
-      </c>
-      <c r="CA46" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
+          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Extended Fields are part of this class.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
+      <c r="BV46" t="inlineStr"/>
+      <c r="BW46" t="inlineStr"/>
+      <c r="BX46" t="inlineStr"/>
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
       <c r="CB46" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="CD46" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="CE46" t="inlineStr"/>
@@ -5692,12 +5852,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>StationCoreFields</t>
+          <t>SampleEvent</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5708,7 +5868,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The core Fields are part of this class.</t>
+          <t>A Sample is the key observational units in environmental sciences, i.e. ecology, geosciences, biogeochemistry, and hydrobiology, and are essential to document and further analyse biological communities in laboratories (e.g., phytoplankton communities in water samples, benthic communities in sediments, etc.). In general, a sample is a limited quantity of something which is intended to be similar to and represent a larger amount of that thing(s). The things could be countable objects such as individual items available as units for sale, or an uncountable material. Even though the word "sample" implies a smaller quantity taken from a larger amount, sometimes full biological or mineralogical specimens are called samples if they are taken for analysis, testing, or investigation like other samples.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -5818,32 +5978,44 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>StationExtendedFields</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The Extended Fields are part of this class.</t>
+          <t>Site code [URL] – reference to LTER site and LTSER Platform on DEIMS-SDR. Please provide the deims.id for the site or platform</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://deims.org/site/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>dwc:institutionID</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -5944,32 +6116,45 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MethodCoreFields</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A Method describes the procedure to generate and manipulate the data.</t>
+          <t>Station code or Station identifier (ID) [UTF-8 character encoding] - Code for the station within the site in UTF-8 character encoding for the text. Special characters should be avoided. 
+ A station is any measuring enitity, such as a sampling point, permanent plot, observation plot or a meteorological station, to name just a few. If the station equals the site, meaning that only one station is used within the site, only the site identifier is provided in the data recording sheet. If external identification systems (e.g. WMO Station ID) are existing, this identifier could be used to reference the station. If a DEIMS-SDR UUID for the station exists, this need to be used. Otherwise use the identification of the station within your site</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>IP2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>dwc:locationID</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -6070,32 +6255,49 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:STYPE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MethodExtendedfileds</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>In the extended version detailed information on the different method steps and procedures (e.g. sampling, field method, lab methods, data aggregation methods)</t>
+          <t>Spatial type [UTF-8 character encoding] of the station/plot according to a fixed list of values: 
+- PT … single or multiple observation point 
+- AREA … areal plot 
+- VLN … vertical transect/profile 
+- HLN … horizontal transect/profile 
+ If additional codes are needed, this is defined by the data provider.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>dwc:footprintWKT</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -6196,35 +6398,60 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:LAT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DataMeasurements</t>
+          <t>LAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Environmental observation is defined as any measurement done by sensors or using devices observing a single measurable property of the ecosystem, e.g. temperature or water level. The value normally is expressed as decimal or integer value.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+          <t>Latitude for the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
+ Note: The definition of the reference point depends on the STYPE: 
+ - PT (single/multiple point): is the location of the point itself; 
+ - AREA (areal plot): is the centroid of the area; 
+ - VLN (vertical profile): is the starting point of the vertical profile 
+ - HLN (horizontal transect): is the starting point of the horizontal transect.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>45.340805</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>dwc:decimalLatitude</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -6322,35 +6549,60 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:LON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DataMapping</t>
+          <t>LON</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Mapping is defined as any observation done by a human or sensor where the occurrence, share or abundance of an entitiy (e.g. species or habitat type) in a given area is estimated or measured. The observed entity is normally described by a concept (e.g. species or habitat) and uses code lists or taxonomies (e.g. species or habitat lists) to describe them.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+          <t>Longitude of the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
+Note: The definition of the reference point depends on the STYPE: 
+- PT (single/multiple point): is the location of the point itself;
+- AREA (areal plot): is the centroid of the area; 
+- VLN (vertical profile): is the starting point of the vertical profile 
+- HLN (horizontal transect): is the starting point of the horizontal transect.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>7.887495</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>dwc:decimalLongitude</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -6448,35 +6700,56 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ALTITUDE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DataExtendedFields</t>
+          <t>ALTITUDE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. The Extended Fields are part of this class.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+          <t>Altitude [decimal number] of the reference point of the STATION in meter above or below sea level [m a.s.l.]. In terrestrial systems it reflects the elevation of the land surface and in aquatic/marine systems the elevation of the water surface. 
+ Note: offsets from the surface (e.g. for sampling or sensor installations) can be provided by the extended field ‘installation height”</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>dwc:verbatimElevation</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -6574,35 +6847,55 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:PLOTSIZE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ReferenceCoreFields</t>
+          <t>PLOTSIZE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The Reference is the listing and description of additional codes used in the data provision. In order to enhance the re-usability of the data, information on the coding used e.g. for variable names or taxa, is needed. This can either refer to existing vocabularies used (e.g. by referencing to an URL) or by user defined definitions.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+          <t>Plot size [integer] is defined as the size surface area covered by the station/plot in [m2]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>dwc:totalAreaSampledValue</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -6700,32 +6993,40 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:COMMENT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EventCoreFields</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Core Fields are part of this class.</t>
+          <t>Comment [UTF-8 character encoding] include any other information related to the location of the station/plot.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>dwc:locationRemarks</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -6826,32 +7127,40 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:GEOSPAT_FEATURE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EventExtendedFields</t>
+          <t>GEOSPAT_FEATURE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Extended Fields are part of this class.</t>
+          <t>Geospatial feature [UTF-8 character encoding or URL/URI] is the (computable) geospatial representation of the "station". It could also be a WKT, a URI pointing to an online resource (WFS feature, GeoJson, …), or at least a textual description identifying the geometry/spatial feature (like in the case of rivers, roads, trails, toponyms, etc.)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>drf:StationCoreFields</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>dwc:footprintWKT</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -6952,32 +7261,44 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>drf:SampleEvent</t>
+          <t>drf:SNAME</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SampleEvent</t>
+          <t>SNAME</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A Sample is the key observational units in environmental sciences, i.e. ecology, geosciences, biogeochemistry, and hydrobiology, and are essential to document and further analyse biological communities in laboratories (e.g., phytoplankton communities in water samples, benthic communities in sediments, etc.). In general, a sample is a limited quantity of something which is intended to be similar to and represent a larger amount of that thing(s). The things could be countable objects such as individual items available as units for sale, or an uncountable material. Even though the word "sample" implies a smaller quantity taken from a larger amount, sometimes full biological or mineralogical specimens are called samples if they are taken for analysis, testing, or investigation like other samples.</t>
+          <t>Station name (UTF-8 character encoding, https://en.wikipedia.org/wiki/UTF-8) provides the name of the station if relevant</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>IP1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>drf:StationExtendedFields</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>dwc:locality</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -7078,12 +7399,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:westBoundingCoordinate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>westBoundingCoordinate</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7094,18 +7415,22 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Site code [URL] – reference to LTER site and LTSER Platform on DEIMS-SDR. Please provide the deims.id for the site or platform</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://deims.org/site/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>7.887490</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7113,12 +7438,16 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>dwc:institutionID</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -7216,12 +7545,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:eastBoundingCoordinate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>eastBoundingCoordinate</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7232,19 +7561,22 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Station code or Station identifier (ID) [UTF-8 character encoding] - Code for the station within the site in UTF-8 character encoding for the text. Special characters should be avoided. 
- A station is any measuring enitity, such as a sampling point, permanent plot, observation plot or a meteorological station, to name just a few. If the station equals the site, meaning that only one station is used within the site, only the site identifier is provided in the data recording sheet. If external identification systems (e.g. WMO Station ID) are existing, this identifier could be used to reference the station. If a DEIMS-SDR UUID for the station exists, this need to be used. Otherwise use the identification of the station within your site</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>7.953720</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7252,12 +7584,16 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>dwc:locationID</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -7355,12 +7691,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>drf:STYPE</t>
+          <t>drf:northBoundingCoordinate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>northBoundingCoordinate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7371,23 +7707,22 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Spatial type [UTF-8 character encoding] of the station/plot according to a fixed list of values: 
-- PT … single or multiple observation point 
-- AREA … areal plot 
-- VLN … vertical transect/profile 
-- HLN … horizontal transect/profile 
- If additional codes are needed, this is defined by the data provider.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>AREA</t>
+          <t>45.340800</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7395,12 +7730,16 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>dwc:footprintWKT</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>unit:DEG</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -7498,12 +7837,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>drf:LAT</t>
+          <t>drf:southBoundingCoordinate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LAT</t>
+          <t>southBoundingCoordinate</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7514,12 +7853,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Latitude for the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
- Note: The definition of the reference point depends on the STYPE: 
- - PT (single/multiple point): is the location of the point itself; 
- - AREA (areal plot): is the centroid of the area; 
- - VLN (vertical profile): is the starting point of the vertical profile 
- - HLN (horizontal transect): is the starting point of the horizontal transect.</t>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7529,12 +7863,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>45.340805</t>
+          <t>45.300560</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7649,12 +7983,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>drf:LON</t>
+          <t>drf:altitudeMin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LON</t>
+          <t>altitudeMin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7665,27 +7999,22 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Longitude of the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
-Note: The definition of the reference point depends on the STYPE: 
-- PT (single/multiple point): is the location of the point itself;
-- AREA (areal plot): is the centroid of the area; 
-- VLN (vertical profile): is the starting point of the vertical profile 
-- HLN (horizontal transect): is the starting point of the horizontal transect.</t>
+          <t>minimum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>unit:DEG</t>
+          <t>unit:M</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7.887495</t>
+          <t>265</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7693,14 +8022,14 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:minimumElevationInMeters</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>unit:DEG</t>
+          <t>unit:M</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -7800,12 +8129,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>drf:ALTITUDE</t>
+          <t>drf:altitudeMax</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ALTITUDE</t>
+          <t>altitudeMax</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7816,8 +8145,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Altitude [decimal number] of the reference point of the STATION in meter above or below sea level [m a.s.l.]. In terrestrial systems it reflects the elevation of the land surface and in aquatic/marine systems the elevation of the water surface. 
- Note: offsets from the surface (e.g. for sampling or sensor installations) can be provided by the extended field ‘installation height”</t>
+          <t>maximum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7827,12 +8155,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>270</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7840,7 +8168,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>dwc:verbatimElevation</t>
+          <t>dwc:maximumElevationInMeters</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -7947,12 +8275,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>drf:PLOTSIZE</t>
+          <t>drf:Country</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PLOTSIZE</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7963,22 +8291,18 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Plot size [integer] is defined as the size surface area covered by the station/plot in [m2]</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+          <t>Country - country code: ISO 3166-1 alpha-2 (https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2), e.g. AT for Austria</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7986,16 +8310,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>dwc:totalAreaSampledValue</t>
+          <t>dwc:countryCode</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -8093,12 +8413,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>drf:COMMENT</t>
+          <t>drf:OperationPeriodSince</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COMMENT</t>
+          <t>OperationPeriodSince</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8109,24 +8429,28 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Comment [UTF-8 character encoding] include any other information related to the location of the station/plot.</t>
+          <t>Operation period since [ISO date] is the time since the station/plot is operated or when the permanent plot first was established, see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset) 
+Combined date and time: 2007-04-05T12:30:00-02:00 
+Any time information 
+- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
+- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1992-06-01T13:00+02:00</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>dwc:locationRemarks</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -8227,12 +8551,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>drf:GEOSPAT_FEATURE</t>
+          <t>drf:plotDimension</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GEOSPAT_FEATURE</t>
+          <t>plotDimension</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8243,24 +8567,24 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Geospatial feature [UTF-8 character encoding or URL/URI] is the (computable) geospatial representation of the "station". It could also be a WKT, a URI pointing to an online resource (WFS feature, GeoJson, …), or at least a textual description identifying the geometry/spatial feature (like in the case of rivers, roads, trails, toponyms, etc.)</t>
+          <t>Plot dimension [UTF-8 character encoding] as the length and width in [m] of the STATION</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5x5</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>dwc:footprintWKT</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -8361,12 +8685,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>drf:SNAME</t>
+          <t>drf:numberOfSampleUnit</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SNAME</t>
+          <t>numberOfSampleUnit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8377,15 +8701,11 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Station name (UTF-8 character encoding, https://en.wikipedia.org/wiki/UTF-8) provides the name of the station if relevant</t>
+          <t>Number of sample units [integer] - number of elements (e.g. sub-plots) into which the plot is divided along the two dimensions (length x width)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>IP1</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>drf:StationExtendedFields</t>
@@ -8394,11 +8714,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>dwc:locality</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -8499,12 +8815,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>drf:westBoundingCoordinate</t>
+          <t>drf:InstHeight</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>westBoundingCoordinate</t>
+          <t>InstHeight</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8515,17 +8831,13 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>Installation height [decimal number] – height of the installation of a sensor or device in [cm] measured from the soil surface. Positive and negative values are possible.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>7.887490</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8538,16 +8850,12 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -8645,12 +8953,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>drf:eastBoundingCoordinate</t>
+          <t>drf:Local_Habitat_Type</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>eastBoundingCoordinate</t>
+          <t>Local_Habitat_Type</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8661,17 +8969,13 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>Local habitat type [UTF-8 character encoding] using local classification (needs to be defined in the method metadata)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7.953720</t>
+          <t>Beech forest</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8684,16 +8988,12 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:habitat</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -8791,12 +9091,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>drf:northBoundingCoordinate</t>
+          <t>drf:EUNIS_Habitat_Type</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>northBoundingCoordinate</t>
+          <t>EUNIS_Habitat_Type</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8807,17 +9107,13 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>EUNIS habitat type [UTF-8 character encoding] using [EUNIS Habitat Classification] identifier</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>45.340800</t>
+          <t>G2.3</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8828,18 +9124,10 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>dwc:decimalLatitude</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -8937,12 +9225,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drf:southBoundingCoordinate</t>
+          <t>drf:Potential_natural_vegetation</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>southBoundingCoordinate</t>
+          <t>Potential_natural_vegetation</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8953,17 +9241,13 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>Potential natural vegetation [UTF-8 character encoding] using local syntaxonomic classification schema (needs to be defined in the method metadata)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>45.300560</t>
+          <t>Fagetum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8974,18 +9258,10 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>dwc:decimalLatitude</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -9083,12 +9359,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>drf:altitudeMin</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>altitudeMin</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9099,39 +9375,31 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>minimum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+          <t>Variable [UTF-8 character encoding] – the observed phenomenon during the observation. The variable/parameter name normally is given as abbreviation e.g. LISTSUB VARIABLE Name 
+- DB ALK Alkalinity 
+- DB BOD Biochemical oxygen demand 
+- DB TC Total carbon
+If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional variable codes can be defined, but need to be documented in the REFERENCE.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>COVE_F</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>dwc:minimumElevationInMeters</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -9229,12 +9497,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>drf:altitudeMax</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>altitudeMax</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9245,39 +9513,27 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>maximum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+          <t>Method description [UTF-8 character encoding] - Reference to published methods (e.g. URL, DOI) OR textual description of method including information on spatial, temporal or thematic (e.g. taxonomic aggregation), code lists and taxonomies applied (e.g. taxonomic reference lists, habitat classification) as well as measurement units</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>Analysis of ammonium concentration (measurement with spectrophotometry (SP)) in aqueous deposition samples (mg/l) …</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>dwc:maximumElevationInMeters</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -9375,12 +9631,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>drf:Country</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9391,28 +9647,24 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Country - country code: ISO 3166-1 alpha-2 (https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2), e.g. AT for Austria</t>
+          <t>Unit of variable observed [UTF-8 character encoding]. This information needs to be provided together with the methods, if not provided together with the DATA. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>dwc:countryCode</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -9513,12 +9765,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>drf:OperationPeriodSince</t>
+          <t>drf:SAMPLING_DESIGN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>OperationPeriodSince</t>
+          <t>SAMPLING_DESIGN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9529,22 +9781,18 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Operation period since [ISO date] is the time since the station/plot is operated or when the permanent plot first was established, see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset) 
-Combined date and time: 2007-04-05T12:30:00-02:00 
-Any time information 
-- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
-- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Short method description [UTF-8 character encoding] on how the plots were selected from the total population (selection of plots, observation points, etc.)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1992-06-01T13:00+02:00</t>
+          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9651,12 +9899,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>drf:plotDimension</t>
+          <t>drf:FIELD_METHOD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>plotDimension</t>
+          <t>FIELD_METHOD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9667,18 +9915,18 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Plot dimension [UTF-8 character encoding] as the length and width in [m] of the STATION</t>
+          <t>Short method description [UTF-8 character encoding] of the method used in the field either to collect the samples or to do the observation</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5x5</t>
+          <t>Volume weighted mixing from 5 bulk sampler, 2 weeks interval of sampling, cooled transportation of the samples</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9785,12 +10033,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>drf:numberOfSampleUnit</t>
+          <t>drf:LAB_METHOD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>numberOfSampleUnit</t>
+          <t>LAB_METHOD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9801,14 +10049,18 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Number of sample units [integer] - number of elements (e.g. sub-plots) into which the plot is divided along the two dimensions (length x width)</t>
+          <t>Short method description [UTF-8 character encoding] on the procedures and methods applied in the lab, e.g. filtering, analysis, etc.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>45μm filtered; ICP-OES</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9915,12 +10167,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>drf:InstHeight</t>
+          <t>drf:AGG_METHOD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>InstHeight</t>
+          <t>AGG_METHOD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9931,28 +10183,24 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Installation height [decimal number] – height of the installation of a sensor or device in [cm] measured from the soil surface. Positive and negative values are possible.</t>
+          <t>Short method description [UTF-8 character encoding] of the procedure how the values have been aggregated from primary values; for primary data the aggregation procedure is “NONE”.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Weighted mean value</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -10053,12 +10301,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>drf:Local_Habitat_Type</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Local_Habitat_Type</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10069,28 +10317,24 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Local habitat type [UTF-8 character encoding] using local classification (needs to be defined in the method metadata)</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Beech forest</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>dwc:habitat</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -10191,12 +10435,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>drf:EUNIS_Habitat_Type</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EUNIS_Habitat_Type</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10207,18 +10451,20 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EUNIS habitat type [UTF-8 character encoding] using [EUNIS Habitat Classification] identifier</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
+- Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
+- Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>G2.3</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10325,12 +10571,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>drf:Potential_natural_vegetation</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Potential_natural_vegetation</t>
+          <t>ABS_POSITION</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10341,18 +10587,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Potential natural vegetation [UTF-8 character encoding] using local syntaxonomic classification schema (needs to be defined in the method metadata)</t>
+          <t xml:space="preserve">Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
+</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fagetum</t>
+          <t>45.234765, 12.783563, 1230</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10459,12 +10706,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>VERT_OFFSET</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10475,22 +10722,22 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Variable [UTF-8 character encoding] – the observed phenomenon during the observation. The variable/parameter name normally is given as abbreviation e.g. LISTSUB VARIABLE Name 
-- DB ALK Alkalinity 
-- DB BOD Biochemical oxygen demand 
-- DB TC Total carbon
-If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional variable codes can be defined, but need to be documented in the REFERENCE.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>COVE_F</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10499,7 +10746,11 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -10597,12 +10848,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>drf:METH_DESCR</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>METH_DESCR</t>
+          <t>HORI_OFFSET</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10613,18 +10864,22 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Method description [UTF-8 character encoding] - Reference to published methods (e.g. URL, DOI) OR textual description of method including information on spatial, temporal or thematic (e.g. taxonomic aggregation), code lists and taxonomies applied (e.g. taxonomic reference lists, habitat classification) as well as measurement units</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Analysis of ammonium concentration (measurement with spectrophotometry (SP)) in aqueous deposition samples (mg/l) …</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10633,7 +10888,11 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -10731,12 +10990,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10747,18 +11006,30 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Unit of variable observed [UTF-8 character encoding]. This information needs to be provided together with the methods, if not provided together with the DATA. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
+          <t>Code for Variable observed [UTF-8 character encoding] for the variable / parameter name as abbreviation 
+- LISTSUB VARIABLE Name 
+- DB ALK Alkalinity 
+- DB BOD Biochemical oxygen demand 
+- DB TC Total carbon 
+- DB DC Dissolved carbon 
+- DB DIC Dissolved inorganic carbon 
+- DB DOC Dissolved organic carbon 
+- DB DOD Direct oxygen demand 
+- DB NH3 Ammonia 
+- DB NH4 Ammonium 
+- DB NH4N Ammonium as nitrogen 
+ If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>NH4N</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10865,12 +11136,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>drf:SAMPLING_DESIGN</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SAMPLING_DESIGN</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10881,18 +11152,23 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] on how the plots were selected from the total population (selection of plots, observation points, etc.)</t>
+          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
+If aggregations are provided the timestamp is provided as the following 
+- annual aggregation – provide only the year as YYYY 
+- monthly aggregations – provide only the month as YYYY-MM 
+- daily aggregations – provide the day as YYYY-MM-DD 
+ Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
+          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10999,12 +11275,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>drf:FIELD_METHOD</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FIELD_METHOD</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -11015,18 +11291,18 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] of the method used in the field either to collect the samples or to do the observation</t>
+          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Volume weighted mixing from 5 bulk sampler, 2 weeks interval of sampling, cooled transportation of the samples</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11133,12 +11409,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>drf:LAB_METHOD</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LAB_METHOD</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11149,18 +11425,19 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] on the procedures and methods applied in the lab, e.g. filtering, analysis, etc.</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>45μm filtered; ICP-OES</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -11267,12 +11544,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>drf:AGG_METHOD</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AGG_METHOD</t>
+          <t>FLAGQUA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11283,18 +11560,19 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] of the procedure how the values have been aggregated from primary values; for primary data the aggregation procedure is “NONE”.</t>
+          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
+Examples:
+- Q quality controlled value 
+- L less than detection limit 
+- E estimated from measured value 
+Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Weighted mean value</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -11401,12 +11679,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>FLAGSTA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11417,13 +11695,23 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
+- A Minimum 
+- Z Maximum 
+- S Sum 
+- X Arithmetic average, mean; e.g. monthly average 
+- W Weighted mean 
+- XA average monthly minimum 
+- XZ average monthly maximum 
+- SZ maximum daily sum 
+- M Mode 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -11535,12 +11823,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11551,15 +11839,14 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-- Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-- Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
+          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
+Condition: only used, if a sampling event is defined</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>P20200912-EA-456</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -11671,12 +11958,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11687,14 +11974,14 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-</t>
+          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
+Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>S0001_2020_A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -11806,12 +12093,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11822,22 +12109,18 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11846,11 +12129,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -11948,12 +12227,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11964,22 +12243,20 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
+Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
+Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>P0094</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11988,11 +12265,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -12090,12 +12363,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>ABS_POSITION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12106,30 +12379,20 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- DB ALK Alkalinity 
-- DB BOD Biochemical oxygen demand 
-- DB TC Total carbon 
-- DB DC Dissolved carbon 
-- DB DIC Dissolved inorganic carbon 
-- DB DOC Dissolved organic carbon 
-- DB DOD Direct oxygen demand 
-- DB NH3 Ammonia 
-- DB NH4 Ammonium 
-- DB NH4N Ammonium as nitrogen 
- If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
+          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
+Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
+Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>45.234765, 12.783563, 1230</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -12236,12 +12499,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>VERT_OFFSET</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12252,23 +12515,22 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-If aggregations are provided the timestamp is provided as the following 
-- annual aggregation – provide only the year as YYYY 
-- monthly aggregations – provide only the month as YYYY-MM 
-- daily aggregations – provide the day as YYYY-MM-DD 
- Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -12277,7 +12539,11 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -12375,12 +12641,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>HORI_OFFSET</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12391,18 +12657,22 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -12411,7 +12681,11 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -12509,12 +12783,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12525,19 +12799,19 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
+Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>42797</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -12644,12 +12918,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12660,19 +12934,25 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Examples:
-- Q quality controlled value 
-- L less than detection limit 
-- E estimated from measured value 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Code for Variable observed [UTF-8 character encoding] described in the METHOD for the variable / parameter name as abbreviation 
+- LISTSUB VARIABLE Name 
+- IM ABUND Abundance of species 
+- IM COVE_T species cover tree layer 
+- IM COVE_S species cover shrub layer 
+- IM COVE_F species cover field layer 
+- IM COVE_B species cover bottom layer COVER cover in % AREA area (e.g. in ha – see unit) 
+If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ABUND</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12779,12 +13059,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:LAYER</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>LAYER</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12795,28 +13075,27 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum 
-- M Mode 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
+- LEVEL Name 
+- T Tree layer 
+- T1 Tree layer 1 
+- T2 Tree layer 2 
+- T3 Tree layer 3 
+- S Shrub layer 
+- F Field layer 
+- B Bottom layer 
+If alternative codings are used, this needs to be specified in the REFERENCE.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12923,12 +13202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:TAXA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -12939,19 +13218,19 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
-Condition: only used, if a sampling event is defined</t>
+          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
+In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>P20200912-EA-456</t>
+          <t>FAG SYLV</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -13058,12 +13337,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13074,19 +13353,18 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
-Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Data value [[UTF-8 character encoding] or [number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -13193,12 +13471,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13209,13 +13487,14 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>dimles</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -13327,12 +13606,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>FLAGQUA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13343,17 +13622,12 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
+          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
+Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>P0094</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>drf:DataMapping</t>
@@ -13463,12 +13737,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13479,15 +13753,14 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
-Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
+          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
+ Condition: only used, if a sampling event is defined</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -13599,12 +13872,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13615,17 +13888,14 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
+ Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>S0001_2020_A</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -13639,11 +13909,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -13741,12 +14007,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:ORG_NAME</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>ORG_NAME</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13757,22 +14023,18 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>EAA</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -13781,11 +14043,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
@@ -13883,12 +14141,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:SUBPROG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>SUBPROG</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -13899,19 +14157,23 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
+          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
+ BIOCHEM biogeochemistry data 
+ STRUCTU Structure and function of ecosystems, communities and populations 
+ HUMANEC human population and economy 
+ SITECHA site characteristics (land use and land cover) 
+ Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>42797</t>
+          <t>BIOCHEM</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -14018,12 +14280,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -14034,25 +14296,28 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] described in the METHOD for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- IM ABUND Abundance of species 
-- IM COVE_T species cover tree layer 
-- IM COVE_S species cover shrub layer 
-- IM COVE_F species cover field layer 
-- IM COVE_B species cover bottom layer COVER cover in % AREA area (e.g. in ha – see unit) 
-If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
+          <t>Medium [UTF-8 character encoding] – as the code for the sampled medium (feature of interest) in the observation procedure, e.g. 
+ AIR air including meteorology 
+ SOIL soil 
+ SOILWAT soil water
+WATER runoff and groundwater
+SEDIMENT sediments in aquatic environments
+LITTER litter fall
+BIOCOM biological communities
+HUMPOP human population
+SITECHAR site characteristics (as habitat or landscape structure)
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ABUND</t>
+          <t>AIR</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -14159,12 +14424,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drf:LAYER</t>
+          <t>drf:LISTMED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LAYER</t>
+          <t>LISTMED</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -14175,27 +14440,18 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
-- LEVEL Name 
-- T Tree layer 
-- T1 Tree layer 1 
-- T2 Tree layer 2 
-- T3 Tree layer 3 
-- S Shrub layer 
-- F Field layer 
-- B Bottom layer 
-If alternative codings are used, this needs to be specified in the REFERENCE.</t>
+          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>ELTER</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -14302,12 +14558,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>drf:TAXA</t>
+          <t>drf:MAX_LEVEL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TAXA</t>
+          <t>MAX_LEVEL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -14318,19 +14574,22 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
-In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FAG SYLV</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -14339,7 +14598,11 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
@@ -14437,12 +14700,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:MIN_LEVEL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>MIN_LEVEL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -14453,18 +14716,22 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -14473,7 +14740,11 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
@@ -14571,12 +14842,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:SIZE</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>SIZE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14587,19 +14858,22 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>dimles</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -14608,7 +14882,11 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
@@ -14706,12 +14984,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:YEAR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>YEAR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -14722,15 +15000,23 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
+Alternative: 
+Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
+Any time information 
+- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
+- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2017 or 2017-03-03T13:00+02:00</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -14837,12 +15123,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:MONTH</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>MONTH</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14853,19 +15139,18 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
- Condition: only used, if a sampling event is defined</t>
+          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>VegRel_45_20200912</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -14972,12 +15257,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:DAY</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -14988,19 +15273,18 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
- Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -15107,12 +15391,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drf:ORG_NAME</t>
+          <t>drf:HOUR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ORG_NAME</t>
+          <t>HOUR</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -15123,13 +15407,13 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
+          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>EAA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -15241,12 +15525,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>drf:SUBPROG</t>
+          <t>drf:MINUTE</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SUBPROG</t>
+          <t>MINUTE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -15257,18 +15541,13 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
- BIOCHEM biogeochemistry data 
- STRUCTU Structure and function of ecosystems, communities and populations 
- HUMANEC human population and economy 
- SITECHA site characteristics (land use and land cover) 
- Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>BIOCHEM</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -15380,12 +15659,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>drf:MEDIUM</t>
+          <t>drf:SECOND</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>SECOND</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -15396,23 +15675,13 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Medium [UTF-8 character encoding] – as the code for the sampled medium (feature of interest) in the observation procedure, e.g. 
- AIR air including meteorology 
- SOIL soil 
- SOILWAT soil water
-WATER runoff and groundwater
-SEDIMENT sediments in aquatic environments
-LITTER litter fall
-BIOCOM biological communities
-HUMPOP human population
-SITECHAR site characteristics (as habitat or landscape structure)
-Additional values need to be defined in the REFERENCE.</t>
+          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>AIR</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -15524,12 +15793,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drf:LISTMED</t>
+          <t>drf:SPOOL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LISTMED</t>
+          <t>SPOOL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -15540,13 +15809,14 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
+          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
+If not relevant or described in METHOD, leave blank.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>ELTER</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -15658,12 +15928,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drf:MAX_LEVEL</t>
+          <t>drf:TPOOL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAX_LEVEL</t>
+          <t>TPOOL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -15674,17 +15944,14 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Temporal pool [number] as the number of observations used to calculate the data value 
+If not relevant or described in METHOD, leave blank.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -15698,11 +15965,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
@@ -15800,12 +16063,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>drf:MIN_LEVEL</t>
+          <t>drf:TLEVEL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MIN_LEVEL</t>
+          <t>TLEVEL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -15816,19 +16079,19 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
+- HOUR hourly values (60 min) 
+- DAY daily values (24 hrs) 
+- WEEK weekly values (7 days) 
+- MONTH monthly values 
+- SEASON seasonly values (e.g. spring) 
+- HYEAR half yearly values (6 month) 6 month 
+- YEAR yearly values (12 month) 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>drf:DataExtendedFields</t>
@@ -15840,11 +16103,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
@@ -15942,12 +16201,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>drf:SIZE</t>
+          <t>drf:LISTTAXA</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIZE</t>
+          <t>LISTTAXA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -15958,17 +16217,13 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Flora of Austria (2005)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -15982,11 +16237,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+      <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
@@ -16084,12 +16335,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>drf:YEAR</t>
+          <t>drf:LISTSUB</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>LISTSUB</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16100,18 +16351,13 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
-Alternative: 
-Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
-Any time information 
-- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
-- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2017 or 2017-03-03T13:00+02:00</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -16223,12 +16469,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>drf:MONTH</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MONTH</t>
+          <t>FLAGSTA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -16239,13 +16485,23 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
+- A Minimum 
+- Z Maximum 
+- S Sum 
+- X Arithmetic average, mean; e.g. monthly average 
+- W Weighted mean 
+- XA average monthly minimum 
+- XZ average monthly maximum 
+- SZ maximum daily sum
+- M Mode
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -16357,12 +16613,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>drf:DAY</t>
+          <t>drf:FIELD_NAME</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>FIELD_NAME</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16373,18 +16629,18 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -16491,12 +16747,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>drf:HOUR</t>
+          <t>drf:CODE</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HOUR</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -16507,18 +16763,18 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>FAG SYLV</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -16625,12 +16881,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>drf:MINUTE</t>
+          <t>drf:NAME</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MINUTE</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -16641,18 +16897,18 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Fagus sylvatica L.</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -16759,12 +17015,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>drf:SECOND</t>
+          <t>drf:DEFINITON</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SECOND</t>
+          <t>DEFINITON</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -16775,18 +17031,18 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -16893,12 +17149,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>drf:SPOOL</t>
+          <t>drf:LIST_CODE</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SPOOL</t>
+          <t>LIST_CODE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -16909,19 +17165,18 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
-If not relevant or described in METHOD, leave blank.</t>
+          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>http://www.catalogueoflife.org/col/</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -17028,12 +17283,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drf:TPOOL</t>
+          <t>drf:CODE_URL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TPOOL</t>
+          <t>CODE_URL</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17044,19 +17299,18 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Temporal pool [number] as the number of observations used to calculate the data value 
-If not relevant or described in METHOD, leave blank.</t>
+          <t>Reference to the URL or persistent identifier</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -17163,12 +17417,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drf:TLEVEL</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TLEVEL</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17179,22 +17433,18 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
-- HOUR hourly values (60 min) 
-- DAY daily values (24 hrs) 
-- WEEK weekly values (7 days) 
-- MONTH monthly values 
-- SEASON seasonly values (e.g. spring) 
-- HYEAR half yearly values (6 month) 6 month 
-- YEAR yearly values (12 month) 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -17301,12 +17551,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>drf:LISTTAXA</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LISTTAXA</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17317,18 +17567,18 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Flora of Austria (2005)</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -17435,12 +17685,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>drf:LISTSUB</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LISTSUB</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17451,18 +17701,20 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
+          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
+ This either can be a sample number or the number of a vegetation relevee. 
+ Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -17569,12 +17821,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>TIME_FROM</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17585,28 +17837,18 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum
-- M Mode
-Additional values need to be defined in the REFERENCE.</t>
+          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -17713,12 +17955,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drf:FIELD_NAME</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FIELD_NAME</t>
+          <t>TIME_TO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17729,18 +17971,18 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
+          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>TAXA</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -17847,12 +18089,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>drf:CODE</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17863,18 +18105,19 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
+          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
+ Condition: Please provide, if not contained in METHOD.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>FAG SYLV</t>
+          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -17981,12 +18224,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drf:NAME</t>
+          <t>drf:EVENT_EFFORT</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>EVENT_EFFORT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17997,18 +18240,18 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
+          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Fagus sylvatica L.</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -18115,12 +18358,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>drf:DEFINITON</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DEFINITON</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -18131,18 +18374,18 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
+          <t>Unit [UTF-8 character encoding] of variable of the sampling effort. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -18249,12 +18492,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>drf:LIST_CODE</t>
+          <t>drf:PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LIST_CODE</t>
+          <t>PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -18265,18 +18508,19 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
+          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
+ Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://www.catalogueoflife.org/col/</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -18383,12 +18627,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>drf:CODE_URL</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CODE_URL</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -18399,18 +18643,14 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Reference to the URL or persistent identifier</t>
+          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -18517,12 +18757,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -18533,18 +18773,20 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
+This either can be a sample number or the number of a vegetation relevee.
+Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -18651,12 +18893,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SAMP_EFFORT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SAMP_EFFORT</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -18667,18 +18909,18 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
+          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -18785,12 +19027,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:HABITAT_TYPE</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>HABITAT_TYPE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -18801,20 +19043,18 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
- This either can be a sample number or the number of a vegetation relevee. 
- Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
+          <t>Beech forest</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -18921,12 +19161,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>drf:TIME_FROM</t>
+          <t>drf:SOIL_TYPE</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TIME_FROM</t>
+          <t>SOIL_TYPE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -18937,18 +19177,14 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -19055,12 +19291,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>drf:TIME_TO</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TIME_TO</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -19071,18 +19307,18 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -19189,12 +19425,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>drf:METH_DESCR</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>METH_DESCR</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -19205,19 +19441,18 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
- Condition: Please provide, if not contained in METHOD.</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
+          <t>IP2_LYS01</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -19324,12 +19559,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>drf:EVENT_EFFORT</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>EVENT_EFFORT</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -19340,18 +19575,20 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
+          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
+This either can be a sample number or the number of a vegetation relevee. 
+Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>SW0045ZOE_20200912</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -19458,12 +19695,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -19474,18 +19711,18 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable of the sampling effort. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
+          <t>Sample identifier [UTF-8 character encoding or PID] as the reference to the sample taken and stored during a sampling campaign</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>Z12A35</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -19592,12 +19829,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>drf:PHYS_SAMPLE</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PHYS_SAMPLE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -19608,19 +19845,28 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
- Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
+          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
+- AIR air including meteorology 
+- SOIL soil 
+- SOILWAT soil water 
+- WATER runoff and groundwater 
+- SEDIMENT sediments in aquatic environments 
+- LITTER litter fall 
+- BIOCOM biological communities 
+- HUMPOP human population 
+- SITECHAR site characteristics (as habitat or landscape structure) 
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>SOILWAT</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -19727,12 +19973,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>drf:NOTES</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NOTES</t>
+          <t>TIME_FROM</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -19743,14 +19989,18 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
+          <t>timestamp start time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2017-03-03T13:00+02:00</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -19857,12 +20107,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>drf:PARENT_EVENT_ID</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PARENT_EVENT_ID</t>
+          <t>TIME_TO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -19873,20 +20123,18 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
-This either can be a sample number or the number of a vegetation relevee.
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+          <t>timestamp end time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -19993,12 +20241,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>drf:SAMP_EFFORT</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SAMP_EFFORT</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -20009,18 +20257,19 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
+          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
+Condition: Please provide, if not contained in METHOD.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
+          <t>Lysimeter station …</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -20127,12 +20376,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>drf:HABITAT_TYPE</t>
+          <t>drf:SAMP_SIZE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HABITAT_TYPE</t>
+          <t>SAMP_SIZE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -20143,18 +20392,18 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
+          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Beech forest</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -20261,12 +20510,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>drf:SOIL_TYPE</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SOIL_TYPE</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -20277,14 +20526,19 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -20391,12 +20645,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -20407,15 +20661,11 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Notes on [UTF-8 character encoding] of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
           <t>drf:SampleEvent</t>
@@ -20522,1356 +20772,6 @@
       <c r="CQ155" t="inlineStr"/>
       <c r="CR155" t="inlineStr"/>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>drf:STATION_CODE</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>STATION_CODE</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>IP2_LYS01</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
-      <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="inlineStr"/>
-      <c r="AJ156" t="inlineStr"/>
-      <c r="AK156" t="inlineStr"/>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
-      <c r="AN156" t="inlineStr"/>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
-      <c r="AT156" t="inlineStr"/>
-      <c r="AU156" t="inlineStr"/>
-      <c r="AV156" t="inlineStr"/>
-      <c r="AW156" t="inlineStr"/>
-      <c r="AX156" t="inlineStr"/>
-      <c r="AY156" t="inlineStr"/>
-      <c r="AZ156" t="inlineStr"/>
-      <c r="BA156" t="inlineStr"/>
-      <c r="BB156" t="inlineStr"/>
-      <c r="BC156" t="inlineStr"/>
-      <c r="BD156" t="inlineStr"/>
-      <c r="BE156" t="inlineStr"/>
-      <c r="BF156" t="inlineStr"/>
-      <c r="BG156" t="inlineStr"/>
-      <c r="BH156" t="inlineStr"/>
-      <c r="BI156" t="inlineStr"/>
-      <c r="BJ156" t="inlineStr"/>
-      <c r="BK156" t="inlineStr"/>
-      <c r="BL156" t="inlineStr"/>
-      <c r="BM156" t="inlineStr"/>
-      <c r="BN156" t="inlineStr"/>
-      <c r="BO156" t="inlineStr"/>
-      <c r="BP156" t="inlineStr"/>
-      <c r="BQ156" t="inlineStr"/>
-      <c r="BR156" t="inlineStr"/>
-      <c r="BS156" t="inlineStr"/>
-      <c r="BT156" t="inlineStr"/>
-      <c r="BU156" t="inlineStr"/>
-      <c r="BV156" t="inlineStr"/>
-      <c r="BW156" t="inlineStr"/>
-      <c r="BX156" t="inlineStr"/>
-      <c r="BY156" t="inlineStr"/>
-      <c r="BZ156" t="inlineStr"/>
-      <c r="CA156" t="inlineStr"/>
-      <c r="CB156" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC156" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD156" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE156" t="inlineStr"/>
-      <c r="CF156" t="inlineStr"/>
-      <c r="CG156" t="inlineStr"/>
-      <c r="CH156" t="inlineStr"/>
-      <c r="CI156" t="inlineStr"/>
-      <c r="CJ156" t="inlineStr"/>
-      <c r="CK156" t="inlineStr"/>
-      <c r="CL156" t="inlineStr"/>
-      <c r="CM156" t="inlineStr"/>
-      <c r="CN156" t="inlineStr"/>
-      <c r="CO156" t="inlineStr"/>
-      <c r="CP156" t="inlineStr"/>
-      <c r="CQ156" t="inlineStr"/>
-      <c r="CR156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>drf:EVENT_ID</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>EVENT_ID</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
-This either can be a sample number or the number of a vegetation relevee. 
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>SW0045ZOE_20200912</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
-      <c r="AF157" t="inlineStr"/>
-      <c r="AG157" t="inlineStr"/>
-      <c r="AH157" t="inlineStr"/>
-      <c r="AI157" t="inlineStr"/>
-      <c r="AJ157" t="inlineStr"/>
-      <c r="AK157" t="inlineStr"/>
-      <c r="AL157" t="inlineStr"/>
-      <c r="AM157" t="inlineStr"/>
-      <c r="AN157" t="inlineStr"/>
-      <c r="AO157" t="inlineStr"/>
-      <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
-      <c r="AT157" t="inlineStr"/>
-      <c r="AU157" t="inlineStr"/>
-      <c r="AV157" t="inlineStr"/>
-      <c r="AW157" t="inlineStr"/>
-      <c r="AX157" t="inlineStr"/>
-      <c r="AY157" t="inlineStr"/>
-      <c r="AZ157" t="inlineStr"/>
-      <c r="BA157" t="inlineStr"/>
-      <c r="BB157" t="inlineStr"/>
-      <c r="BC157" t="inlineStr"/>
-      <c r="BD157" t="inlineStr"/>
-      <c r="BE157" t="inlineStr"/>
-      <c r="BF157" t="inlineStr"/>
-      <c r="BG157" t="inlineStr"/>
-      <c r="BH157" t="inlineStr"/>
-      <c r="BI157" t="inlineStr"/>
-      <c r="BJ157" t="inlineStr"/>
-      <c r="BK157" t="inlineStr"/>
-      <c r="BL157" t="inlineStr"/>
-      <c r="BM157" t="inlineStr"/>
-      <c r="BN157" t="inlineStr"/>
-      <c r="BO157" t="inlineStr"/>
-      <c r="BP157" t="inlineStr"/>
-      <c r="BQ157" t="inlineStr"/>
-      <c r="BR157" t="inlineStr"/>
-      <c r="BS157" t="inlineStr"/>
-      <c r="BT157" t="inlineStr"/>
-      <c r="BU157" t="inlineStr"/>
-      <c r="BV157" t="inlineStr"/>
-      <c r="BW157" t="inlineStr"/>
-      <c r="BX157" t="inlineStr"/>
-      <c r="BY157" t="inlineStr"/>
-      <c r="BZ157" t="inlineStr"/>
-      <c r="CA157" t="inlineStr"/>
-      <c r="CB157" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC157" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD157" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE157" t="inlineStr"/>
-      <c r="CF157" t="inlineStr"/>
-      <c r="CG157" t="inlineStr"/>
-      <c r="CH157" t="inlineStr"/>
-      <c r="CI157" t="inlineStr"/>
-      <c r="CJ157" t="inlineStr"/>
-      <c r="CK157" t="inlineStr"/>
-      <c r="CL157" t="inlineStr"/>
-      <c r="CM157" t="inlineStr"/>
-      <c r="CN157" t="inlineStr"/>
-      <c r="CO157" t="inlineStr"/>
-      <c r="CP157" t="inlineStr"/>
-      <c r="CQ157" t="inlineStr"/>
-      <c r="CR157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>drf:SAMPLE_ID</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SAMPLE_ID</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Sample identifier [UTF-8 character encoding or PID] as the reference to the sample taken and stored during a sampling campaign</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Z12A35</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
-      <c r="AB158" t="inlineStr"/>
-      <c r="AC158" t="inlineStr"/>
-      <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
-      <c r="AF158" t="inlineStr"/>
-      <c r="AG158" t="inlineStr"/>
-      <c r="AH158" t="inlineStr"/>
-      <c r="AI158" t="inlineStr"/>
-      <c r="AJ158" t="inlineStr"/>
-      <c r="AK158" t="inlineStr"/>
-      <c r="AL158" t="inlineStr"/>
-      <c r="AM158" t="inlineStr"/>
-      <c r="AN158" t="inlineStr"/>
-      <c r="AO158" t="inlineStr"/>
-      <c r="AP158" t="inlineStr"/>
-      <c r="AQ158" t="inlineStr"/>
-      <c r="AR158" t="inlineStr"/>
-      <c r="AS158" t="inlineStr"/>
-      <c r="AT158" t="inlineStr"/>
-      <c r="AU158" t="inlineStr"/>
-      <c r="AV158" t="inlineStr"/>
-      <c r="AW158" t="inlineStr"/>
-      <c r="AX158" t="inlineStr"/>
-      <c r="AY158" t="inlineStr"/>
-      <c r="AZ158" t="inlineStr"/>
-      <c r="BA158" t="inlineStr"/>
-      <c r="BB158" t="inlineStr"/>
-      <c r="BC158" t="inlineStr"/>
-      <c r="BD158" t="inlineStr"/>
-      <c r="BE158" t="inlineStr"/>
-      <c r="BF158" t="inlineStr"/>
-      <c r="BG158" t="inlineStr"/>
-      <c r="BH158" t="inlineStr"/>
-      <c r="BI158" t="inlineStr"/>
-      <c r="BJ158" t="inlineStr"/>
-      <c r="BK158" t="inlineStr"/>
-      <c r="BL158" t="inlineStr"/>
-      <c r="BM158" t="inlineStr"/>
-      <c r="BN158" t="inlineStr"/>
-      <c r="BO158" t="inlineStr"/>
-      <c r="BP158" t="inlineStr"/>
-      <c r="BQ158" t="inlineStr"/>
-      <c r="BR158" t="inlineStr"/>
-      <c r="BS158" t="inlineStr"/>
-      <c r="BT158" t="inlineStr"/>
-      <c r="BU158" t="inlineStr"/>
-      <c r="BV158" t="inlineStr"/>
-      <c r="BW158" t="inlineStr"/>
-      <c r="BX158" t="inlineStr"/>
-      <c r="BY158" t="inlineStr"/>
-      <c r="BZ158" t="inlineStr"/>
-      <c r="CA158" t="inlineStr"/>
-      <c r="CB158" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC158" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD158" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE158" t="inlineStr"/>
-      <c r="CF158" t="inlineStr"/>
-      <c r="CG158" t="inlineStr"/>
-      <c r="CH158" t="inlineStr"/>
-      <c r="CI158" t="inlineStr"/>
-      <c r="CJ158" t="inlineStr"/>
-      <c r="CK158" t="inlineStr"/>
-      <c r="CL158" t="inlineStr"/>
-      <c r="CM158" t="inlineStr"/>
-      <c r="CN158" t="inlineStr"/>
-      <c r="CO158" t="inlineStr"/>
-      <c r="CP158" t="inlineStr"/>
-      <c r="CQ158" t="inlineStr"/>
-      <c r="CR158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>drf:MEDIUM</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
-- AIR air including meteorology 
-- SOIL soil 
-- SOILWAT soil water 
-- WATER runoff and groundwater 
-- SEDIMENT sediments in aquatic environments 
-- LITTER litter fall 
-- BIOCOM biological communities 
-- HUMPOP human population 
-- SITECHAR site characteristics (as habitat or landscape structure) 
-Additional values need to be defined in the REFERENCE.</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>SOILWAT</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr"/>
-      <c r="AB159" t="inlineStr"/>
-      <c r="AC159" t="inlineStr"/>
-      <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
-      <c r="AF159" t="inlineStr"/>
-      <c r="AG159" t="inlineStr"/>
-      <c r="AH159" t="inlineStr"/>
-      <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
-      <c r="AK159" t="inlineStr"/>
-      <c r="AL159" t="inlineStr"/>
-      <c r="AM159" t="inlineStr"/>
-      <c r="AN159" t="inlineStr"/>
-      <c r="AO159" t="inlineStr"/>
-      <c r="AP159" t="inlineStr"/>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
-      <c r="AS159" t="inlineStr"/>
-      <c r="AT159" t="inlineStr"/>
-      <c r="AU159" t="inlineStr"/>
-      <c r="AV159" t="inlineStr"/>
-      <c r="AW159" t="inlineStr"/>
-      <c r="AX159" t="inlineStr"/>
-      <c r="AY159" t="inlineStr"/>
-      <c r="AZ159" t="inlineStr"/>
-      <c r="BA159" t="inlineStr"/>
-      <c r="BB159" t="inlineStr"/>
-      <c r="BC159" t="inlineStr"/>
-      <c r="BD159" t="inlineStr"/>
-      <c r="BE159" t="inlineStr"/>
-      <c r="BF159" t="inlineStr"/>
-      <c r="BG159" t="inlineStr"/>
-      <c r="BH159" t="inlineStr"/>
-      <c r="BI159" t="inlineStr"/>
-      <c r="BJ159" t="inlineStr"/>
-      <c r="BK159" t="inlineStr"/>
-      <c r="BL159" t="inlineStr"/>
-      <c r="BM159" t="inlineStr"/>
-      <c r="BN159" t="inlineStr"/>
-      <c r="BO159" t="inlineStr"/>
-      <c r="BP159" t="inlineStr"/>
-      <c r="BQ159" t="inlineStr"/>
-      <c r="BR159" t="inlineStr"/>
-      <c r="BS159" t="inlineStr"/>
-      <c r="BT159" t="inlineStr"/>
-      <c r="BU159" t="inlineStr"/>
-      <c r="BV159" t="inlineStr"/>
-      <c r="BW159" t="inlineStr"/>
-      <c r="BX159" t="inlineStr"/>
-      <c r="BY159" t="inlineStr"/>
-      <c r="BZ159" t="inlineStr"/>
-      <c r="CA159" t="inlineStr"/>
-      <c r="CB159" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC159" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD159" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE159" t="inlineStr"/>
-      <c r="CF159" t="inlineStr"/>
-      <c r="CG159" t="inlineStr"/>
-      <c r="CH159" t="inlineStr"/>
-      <c r="CI159" t="inlineStr"/>
-      <c r="CJ159" t="inlineStr"/>
-      <c r="CK159" t="inlineStr"/>
-      <c r="CL159" t="inlineStr"/>
-      <c r="CM159" t="inlineStr"/>
-      <c r="CN159" t="inlineStr"/>
-      <c r="CO159" t="inlineStr"/>
-      <c r="CP159" t="inlineStr"/>
-      <c r="CQ159" t="inlineStr"/>
-      <c r="CR159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>drf:TIME_FROM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>TIME_FROM</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>timestamp start time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr"/>
-      <c r="AH160" t="inlineStr"/>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr"/>
-      <c r="AK160" t="inlineStr"/>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
-      <c r="AN160" t="inlineStr"/>
-      <c r="AO160" t="inlineStr"/>
-      <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
-      <c r="AS160" t="inlineStr"/>
-      <c r="AT160" t="inlineStr"/>
-      <c r="AU160" t="inlineStr"/>
-      <c r="AV160" t="inlineStr"/>
-      <c r="AW160" t="inlineStr"/>
-      <c r="AX160" t="inlineStr"/>
-      <c r="AY160" t="inlineStr"/>
-      <c r="AZ160" t="inlineStr"/>
-      <c r="BA160" t="inlineStr"/>
-      <c r="BB160" t="inlineStr"/>
-      <c r="BC160" t="inlineStr"/>
-      <c r="BD160" t="inlineStr"/>
-      <c r="BE160" t="inlineStr"/>
-      <c r="BF160" t="inlineStr"/>
-      <c r="BG160" t="inlineStr"/>
-      <c r="BH160" t="inlineStr"/>
-      <c r="BI160" t="inlineStr"/>
-      <c r="BJ160" t="inlineStr"/>
-      <c r="BK160" t="inlineStr"/>
-      <c r="BL160" t="inlineStr"/>
-      <c r="BM160" t="inlineStr"/>
-      <c r="BN160" t="inlineStr"/>
-      <c r="BO160" t="inlineStr"/>
-      <c r="BP160" t="inlineStr"/>
-      <c r="BQ160" t="inlineStr"/>
-      <c r="BR160" t="inlineStr"/>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr"/>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr"/>
-      <c r="BW160" t="inlineStr"/>
-      <c r="BX160" t="inlineStr"/>
-      <c r="BY160" t="inlineStr"/>
-      <c r="BZ160" t="inlineStr"/>
-      <c r="CA160" t="inlineStr"/>
-      <c r="CB160" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC160" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD160" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE160" t="inlineStr"/>
-      <c r="CF160" t="inlineStr"/>
-      <c r="CG160" t="inlineStr"/>
-      <c r="CH160" t="inlineStr"/>
-      <c r="CI160" t="inlineStr"/>
-      <c r="CJ160" t="inlineStr"/>
-      <c r="CK160" t="inlineStr"/>
-      <c r="CL160" t="inlineStr"/>
-      <c r="CM160" t="inlineStr"/>
-      <c r="CN160" t="inlineStr"/>
-      <c r="CO160" t="inlineStr"/>
-      <c r="CP160" t="inlineStr"/>
-      <c r="CQ160" t="inlineStr"/>
-      <c r="CR160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>drf:TIME_TO</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>TIME_TO</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>timestamp end time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
-      <c r="AA161" t="inlineStr"/>
-      <c r="AB161" t="inlineStr"/>
-      <c r="AC161" t="inlineStr"/>
-      <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr"/>
-      <c r="AF161" t="inlineStr"/>
-      <c r="AG161" t="inlineStr"/>
-      <c r="AH161" t="inlineStr"/>
-      <c r="AI161" t="inlineStr"/>
-      <c r="AJ161" t="inlineStr"/>
-      <c r="AK161" t="inlineStr"/>
-      <c r="AL161" t="inlineStr"/>
-      <c r="AM161" t="inlineStr"/>
-      <c r="AN161" t="inlineStr"/>
-      <c r="AO161" t="inlineStr"/>
-      <c r="AP161" t="inlineStr"/>
-      <c r="AQ161" t="inlineStr"/>
-      <c r="AR161" t="inlineStr"/>
-      <c r="AS161" t="inlineStr"/>
-      <c r="AT161" t="inlineStr"/>
-      <c r="AU161" t="inlineStr"/>
-      <c r="AV161" t="inlineStr"/>
-      <c r="AW161" t="inlineStr"/>
-      <c r="AX161" t="inlineStr"/>
-      <c r="AY161" t="inlineStr"/>
-      <c r="AZ161" t="inlineStr"/>
-      <c r="BA161" t="inlineStr"/>
-      <c r="BB161" t="inlineStr"/>
-      <c r="BC161" t="inlineStr"/>
-      <c r="BD161" t="inlineStr"/>
-      <c r="BE161" t="inlineStr"/>
-      <c r="BF161" t="inlineStr"/>
-      <c r="BG161" t="inlineStr"/>
-      <c r="BH161" t="inlineStr"/>
-      <c r="BI161" t="inlineStr"/>
-      <c r="BJ161" t="inlineStr"/>
-      <c r="BK161" t="inlineStr"/>
-      <c r="BL161" t="inlineStr"/>
-      <c r="BM161" t="inlineStr"/>
-      <c r="BN161" t="inlineStr"/>
-      <c r="BO161" t="inlineStr"/>
-      <c r="BP161" t="inlineStr"/>
-      <c r="BQ161" t="inlineStr"/>
-      <c r="BR161" t="inlineStr"/>
-      <c r="BS161" t="inlineStr"/>
-      <c r="BT161" t="inlineStr"/>
-      <c r="BU161" t="inlineStr"/>
-      <c r="BV161" t="inlineStr"/>
-      <c r="BW161" t="inlineStr"/>
-      <c r="BX161" t="inlineStr"/>
-      <c r="BY161" t="inlineStr"/>
-      <c r="BZ161" t="inlineStr"/>
-      <c r="CA161" t="inlineStr"/>
-      <c r="CB161" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC161" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD161" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE161" t="inlineStr"/>
-      <c r="CF161" t="inlineStr"/>
-      <c r="CG161" t="inlineStr"/>
-      <c r="CH161" t="inlineStr"/>
-      <c r="CI161" t="inlineStr"/>
-      <c r="CJ161" t="inlineStr"/>
-      <c r="CK161" t="inlineStr"/>
-      <c r="CL161" t="inlineStr"/>
-      <c r="CM161" t="inlineStr"/>
-      <c r="CN161" t="inlineStr"/>
-      <c r="CO161" t="inlineStr"/>
-      <c r="CP161" t="inlineStr"/>
-      <c r="CQ161" t="inlineStr"/>
-      <c r="CR161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>drf:METH_DESCR</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>METH_DESCR</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
-Condition: Please provide, if not contained in METHOD.</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Lysimeter station …</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr"/>
-      <c r="AB162" t="inlineStr"/>
-      <c r="AC162" t="inlineStr"/>
-      <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr"/>
-      <c r="AF162" t="inlineStr"/>
-      <c r="AG162" t="inlineStr"/>
-      <c r="AH162" t="inlineStr"/>
-      <c r="AI162" t="inlineStr"/>
-      <c r="AJ162" t="inlineStr"/>
-      <c r="AK162" t="inlineStr"/>
-      <c r="AL162" t="inlineStr"/>
-      <c r="AM162" t="inlineStr"/>
-      <c r="AN162" t="inlineStr"/>
-      <c r="AO162" t="inlineStr"/>
-      <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
-      <c r="AR162" t="inlineStr"/>
-      <c r="AS162" t="inlineStr"/>
-      <c r="AT162" t="inlineStr"/>
-      <c r="AU162" t="inlineStr"/>
-      <c r="AV162" t="inlineStr"/>
-      <c r="AW162" t="inlineStr"/>
-      <c r="AX162" t="inlineStr"/>
-      <c r="AY162" t="inlineStr"/>
-      <c r="AZ162" t="inlineStr"/>
-      <c r="BA162" t="inlineStr"/>
-      <c r="BB162" t="inlineStr"/>
-      <c r="BC162" t="inlineStr"/>
-      <c r="BD162" t="inlineStr"/>
-      <c r="BE162" t="inlineStr"/>
-      <c r="BF162" t="inlineStr"/>
-      <c r="BG162" t="inlineStr"/>
-      <c r="BH162" t="inlineStr"/>
-      <c r="BI162" t="inlineStr"/>
-      <c r="BJ162" t="inlineStr"/>
-      <c r="BK162" t="inlineStr"/>
-      <c r="BL162" t="inlineStr"/>
-      <c r="BM162" t="inlineStr"/>
-      <c r="BN162" t="inlineStr"/>
-      <c r="BO162" t="inlineStr"/>
-      <c r="BP162" t="inlineStr"/>
-      <c r="BQ162" t="inlineStr"/>
-      <c r="BR162" t="inlineStr"/>
-      <c r="BS162" t="inlineStr"/>
-      <c r="BT162" t="inlineStr"/>
-      <c r="BU162" t="inlineStr"/>
-      <c r="BV162" t="inlineStr"/>
-      <c r="BW162" t="inlineStr"/>
-      <c r="BX162" t="inlineStr"/>
-      <c r="BY162" t="inlineStr"/>
-      <c r="BZ162" t="inlineStr"/>
-      <c r="CA162" t="inlineStr"/>
-      <c r="CB162" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC162" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD162" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE162" t="inlineStr"/>
-      <c r="CF162" t="inlineStr"/>
-      <c r="CG162" t="inlineStr"/>
-      <c r="CH162" t="inlineStr"/>
-      <c r="CI162" t="inlineStr"/>
-      <c r="CJ162" t="inlineStr"/>
-      <c r="CK162" t="inlineStr"/>
-      <c r="CL162" t="inlineStr"/>
-      <c r="CM162" t="inlineStr"/>
-      <c r="CN162" t="inlineStr"/>
-      <c r="CO162" t="inlineStr"/>
-      <c r="CP162" t="inlineStr"/>
-      <c r="CQ162" t="inlineStr"/>
-      <c r="CR162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>drf:SAMP_SIZE</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SAMP_SIZE</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
-      <c r="AA163" t="inlineStr"/>
-      <c r="AB163" t="inlineStr"/>
-      <c r="AC163" t="inlineStr"/>
-      <c r="AD163" t="inlineStr"/>
-      <c r="AE163" t="inlineStr"/>
-      <c r="AF163" t="inlineStr"/>
-      <c r="AG163" t="inlineStr"/>
-      <c r="AH163" t="inlineStr"/>
-      <c r="AI163" t="inlineStr"/>
-      <c r="AJ163" t="inlineStr"/>
-      <c r="AK163" t="inlineStr"/>
-      <c r="AL163" t="inlineStr"/>
-      <c r="AM163" t="inlineStr"/>
-      <c r="AN163" t="inlineStr"/>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
-      <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="inlineStr"/>
-      <c r="AS163" t="inlineStr"/>
-      <c r="AT163" t="inlineStr"/>
-      <c r="AU163" t="inlineStr"/>
-      <c r="AV163" t="inlineStr"/>
-      <c r="AW163" t="inlineStr"/>
-      <c r="AX163" t="inlineStr"/>
-      <c r="AY163" t="inlineStr"/>
-      <c r="AZ163" t="inlineStr"/>
-      <c r="BA163" t="inlineStr"/>
-      <c r="BB163" t="inlineStr"/>
-      <c r="BC163" t="inlineStr"/>
-      <c r="BD163" t="inlineStr"/>
-      <c r="BE163" t="inlineStr"/>
-      <c r="BF163" t="inlineStr"/>
-      <c r="BG163" t="inlineStr"/>
-      <c r="BH163" t="inlineStr"/>
-      <c r="BI163" t="inlineStr"/>
-      <c r="BJ163" t="inlineStr"/>
-      <c r="BK163" t="inlineStr"/>
-      <c r="BL163" t="inlineStr"/>
-      <c r="BM163" t="inlineStr"/>
-      <c r="BN163" t="inlineStr"/>
-      <c r="BO163" t="inlineStr"/>
-      <c r="BP163" t="inlineStr"/>
-      <c r="BQ163" t="inlineStr"/>
-      <c r="BR163" t="inlineStr"/>
-      <c r="BS163" t="inlineStr"/>
-      <c r="BT163" t="inlineStr"/>
-      <c r="BU163" t="inlineStr"/>
-      <c r="BV163" t="inlineStr"/>
-      <c r="BW163" t="inlineStr"/>
-      <c r="BX163" t="inlineStr"/>
-      <c r="BY163" t="inlineStr"/>
-      <c r="BZ163" t="inlineStr"/>
-      <c r="CA163" t="inlineStr"/>
-      <c r="CB163" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC163" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD163" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE163" t="inlineStr"/>
-      <c r="CF163" t="inlineStr"/>
-      <c r="CG163" t="inlineStr"/>
-      <c r="CH163" t="inlineStr"/>
-      <c r="CI163" t="inlineStr"/>
-      <c r="CJ163" t="inlineStr"/>
-      <c r="CK163" t="inlineStr"/>
-      <c r="CL163" t="inlineStr"/>
-      <c r="CM163" t="inlineStr"/>
-      <c r="CN163" t="inlineStr"/>
-      <c r="CO163" t="inlineStr"/>
-      <c r="CP163" t="inlineStr"/>
-      <c r="CQ163" t="inlineStr"/>
-      <c r="CR163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>drf:UNIT</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr"/>
-      <c r="AB164" t="inlineStr"/>
-      <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
-      <c r="AF164" t="inlineStr"/>
-      <c r="AG164" t="inlineStr"/>
-      <c r="AH164" t="inlineStr"/>
-      <c r="AI164" t="inlineStr"/>
-      <c r="AJ164" t="inlineStr"/>
-      <c r="AK164" t="inlineStr"/>
-      <c r="AL164" t="inlineStr"/>
-      <c r="AM164" t="inlineStr"/>
-      <c r="AN164" t="inlineStr"/>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
-      <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
-      <c r="AS164" t="inlineStr"/>
-      <c r="AT164" t="inlineStr"/>
-      <c r="AU164" t="inlineStr"/>
-      <c r="AV164" t="inlineStr"/>
-      <c r="AW164" t="inlineStr"/>
-      <c r="AX164" t="inlineStr"/>
-      <c r="AY164" t="inlineStr"/>
-      <c r="AZ164" t="inlineStr"/>
-      <c r="BA164" t="inlineStr"/>
-      <c r="BB164" t="inlineStr"/>
-      <c r="BC164" t="inlineStr"/>
-      <c r="BD164" t="inlineStr"/>
-      <c r="BE164" t="inlineStr"/>
-      <c r="BF164" t="inlineStr"/>
-      <c r="BG164" t="inlineStr"/>
-      <c r="BH164" t="inlineStr"/>
-      <c r="BI164" t="inlineStr"/>
-      <c r="BJ164" t="inlineStr"/>
-      <c r="BK164" t="inlineStr"/>
-      <c r="BL164" t="inlineStr"/>
-      <c r="BM164" t="inlineStr"/>
-      <c r="BN164" t="inlineStr"/>
-      <c r="BO164" t="inlineStr"/>
-      <c r="BP164" t="inlineStr"/>
-      <c r="BQ164" t="inlineStr"/>
-      <c r="BR164" t="inlineStr"/>
-      <c r="BS164" t="inlineStr"/>
-      <c r="BT164" t="inlineStr"/>
-      <c r="BU164" t="inlineStr"/>
-      <c r="BV164" t="inlineStr"/>
-      <c r="BW164" t="inlineStr"/>
-      <c r="BX164" t="inlineStr"/>
-      <c r="BY164" t="inlineStr"/>
-      <c r="BZ164" t="inlineStr"/>
-      <c r="CA164" t="inlineStr"/>
-      <c r="CB164" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC164" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD164" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE164" t="inlineStr"/>
-      <c r="CF164" t="inlineStr"/>
-      <c r="CG164" t="inlineStr"/>
-      <c r="CH164" t="inlineStr"/>
-      <c r="CI164" t="inlineStr"/>
-      <c r="CJ164" t="inlineStr"/>
-      <c r="CK164" t="inlineStr"/>
-      <c r="CL164" t="inlineStr"/>
-      <c r="CM164" t="inlineStr"/>
-      <c r="CN164" t="inlineStr"/>
-      <c r="CO164" t="inlineStr"/>
-      <c r="CP164" t="inlineStr"/>
-      <c r="CQ164" t="inlineStr"/>
-      <c r="CR164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>drf:NOTES</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Notes on [UTF-8 character encoding] of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr"/>
-      <c r="AB165" t="inlineStr"/>
-      <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
-      <c r="AF165" t="inlineStr"/>
-      <c r="AG165" t="inlineStr"/>
-      <c r="AH165" t="inlineStr"/>
-      <c r="AI165" t="inlineStr"/>
-      <c r="AJ165" t="inlineStr"/>
-      <c r="AK165" t="inlineStr"/>
-      <c r="AL165" t="inlineStr"/>
-      <c r="AM165" t="inlineStr"/>
-      <c r="AN165" t="inlineStr"/>
-      <c r="AO165" t="inlineStr"/>
-      <c r="AP165" t="inlineStr"/>
-      <c r="AQ165" t="inlineStr"/>
-      <c r="AR165" t="inlineStr"/>
-      <c r="AS165" t="inlineStr"/>
-      <c r="AT165" t="inlineStr"/>
-      <c r="AU165" t="inlineStr"/>
-      <c r="AV165" t="inlineStr"/>
-      <c r="AW165" t="inlineStr"/>
-      <c r="AX165" t="inlineStr"/>
-      <c r="AY165" t="inlineStr"/>
-      <c r="AZ165" t="inlineStr"/>
-      <c r="BA165" t="inlineStr"/>
-      <c r="BB165" t="inlineStr"/>
-      <c r="BC165" t="inlineStr"/>
-      <c r="BD165" t="inlineStr"/>
-      <c r="BE165" t="inlineStr"/>
-      <c r="BF165" t="inlineStr"/>
-      <c r="BG165" t="inlineStr"/>
-      <c r="BH165" t="inlineStr"/>
-      <c r="BI165" t="inlineStr"/>
-      <c r="BJ165" t="inlineStr"/>
-      <c r="BK165" t="inlineStr"/>
-      <c r="BL165" t="inlineStr"/>
-      <c r="BM165" t="inlineStr"/>
-      <c r="BN165" t="inlineStr"/>
-      <c r="BO165" t="inlineStr"/>
-      <c r="BP165" t="inlineStr"/>
-      <c r="BQ165" t="inlineStr"/>
-      <c r="BR165" t="inlineStr"/>
-      <c r="BS165" t="inlineStr"/>
-      <c r="BT165" t="inlineStr"/>
-      <c r="BU165" t="inlineStr"/>
-      <c r="BV165" t="inlineStr"/>
-      <c r="BW165" t="inlineStr"/>
-      <c r="BX165" t="inlineStr"/>
-      <c r="BY165" t="inlineStr"/>
-      <c r="BZ165" t="inlineStr"/>
-      <c r="CA165" t="inlineStr"/>
-      <c r="CB165" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC165" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD165" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE165" t="inlineStr"/>
-      <c r="CF165" t="inlineStr"/>
-      <c r="CG165" t="inlineStr"/>
-      <c r="CH165" t="inlineStr"/>
-      <c r="CI165" t="inlineStr"/>
-      <c r="CJ165" t="inlineStr"/>
-      <c r="CK165" t="inlineStr"/>
-      <c r="CL165" t="inlineStr"/>
-      <c r="CM165" t="inlineStr"/>
-      <c r="CN165" t="inlineStr"/>
-      <c r="CO165" t="inlineStr"/>
-      <c r="CP165" t="inlineStr"/>
-      <c r="CQ165" t="inlineStr"/>
-      <c r="CR165" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ156"/>
+  <dimension ref="A1:CQ157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,12 +534,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -643,12 +643,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -752,12 +752,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
+          <t>http://www.w3.org/2002/07/owl#</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -861,12 +861,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/</t>
+          <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -970,12 +970,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rdf</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+          <t>http://qudt.org/vocab/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rdfs</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2000/01/rdf-schema#</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>omv</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://omv.ontoware.org/2005/05/ontology</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1297,12 +1297,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schema</t>
+          <t>omv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://schema.org/</t>
+          <t>http://omv.ontoware.org/2005/05/ontology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dwc</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://rs.tdwg.org/dwc/terms/</t>
+          <t>http://schema.org/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>dwc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>http://rs.tdwg.org/dwc/terms/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1728,15 +1728,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>owl:ontologyIRI</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/elter_drf/</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>skos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1833,10 +1837,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:identifier</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>owl:ontologyIRI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/elter_drf/</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -1934,14 +1942,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>eLTER_DRF</t>
-        </is>
-      </c>
+          <t>dct:identifier</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -2039,12 +2043,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eLTER Data Reporting Format</t>
+          <t>eLTER_DRF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2144,12 +2148,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>omv:acronym</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>eLTER_DRF</t>
+          <t>eLTER Data Reporting Format</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2249,12 +2253,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>omv:resourceLocator</t>
+          <t>omv:acronym</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/LTER-Europe/eLTER_DRF/main/eLTER_DRF.ttl</t>
+          <t>eLTER_DRF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2354,12 +2358,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>omv:keywords</t>
+          <t>omv:resourceLocator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+          <t>https://raw.githubusercontent.com/LTER-Europe/eLTER_DRF/main/eLTER_DRF.ttl</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2459,10 +2463,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:publisher</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>omv:keywords</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -2560,14 +2568,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>omv:knownUsage</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>terms for describe eLTER data reporting</t>
-        </is>
-      </c>
+          <t>dct:publisher</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -2665,12 +2669,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:audience</t>
+          <t>omv:knownUsage</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://schema.org/Researcher</t>
+          <t>terms for describe eLTER data reporting</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2770,12 +2774,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>doap:repository</t>
+          <t>dct:audience</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://ecoportal.lifewatch.eu/</t>
+          <t>http://schema.org/Researcher</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2875,12 +2879,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:subject</t>
+          <t>doap:repository</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://semanticscience.org/resource/SIO_001080</t>
+          <t>https://ecoportal.lifewatch.eu/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2980,12 +2984,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:subject</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>eLTER_DRF is...</t>
+          <t>http://semanticscience.org/resource/SIO_001080</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3085,12 +3089,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alessandro Oggioni</t>
+          <t>eLTER_DRF is...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3195,7 +3199,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Johannes Peterseil</t>
+          <t>Alessandro Oggioni</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3300,7 +3304,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sarah Venier</t>
+          <t>Johannes Peterseil</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3405,7 +3409,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Allan Souza</t>
+          <t>Sarah Venier</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -3510,7 +3514,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lisa Reiss</t>
+          <t>Allan Souza</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -3610,12 +3614,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>omv:usedOntologyEngineeringTool</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://github.com/fair-data-collective/sheet2rdf</t>
+          <t>Lisa Reiss</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -3715,12 +3719,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dct:license</t>
+          <t>omv:usedOntologyEngineeringTool</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://creativecommons.org/licenses/by/4.0/</t>
+          <t>https://github.com/fair-data-collective/sheet2rdf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -3820,12 +3824,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dct:language</t>
+          <t>dct:license</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -3925,12 +3929,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>owl:versionInfo</t>
+          <t>dct:language</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.3.0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4030,12 +4034,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>owl:versionInfo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>1.3.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4135,7 +4139,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4240,409 +4244,93 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>rdf:type(separtor=",")</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@en(separator=",")</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>schema:unitCode</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>skos:example@en</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>puv:uom</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>skos:changeNote@en</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>skos:scopeNote@en</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>skos:hiddenLabel</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ar</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@bg</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@cs</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@da</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@el</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@es</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@et</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fi</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@fr</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hr</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@hu</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ja</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lt</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@lv</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@nl</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@no</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pl</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@pt</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@ro</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sk</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sl</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@sv</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@zh</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@de</t>
-        </is>
-      </c>
-      <c r="AV37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@el</t>
-        </is>
-      </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@es</t>
-        </is>
-      </c>
-      <c r="AX37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fi</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@fr</t>
-        </is>
-      </c>
-      <c r="AZ37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@hu</t>
-        </is>
-      </c>
-      <c r="BA37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@it</t>
-        </is>
-      </c>
-      <c r="BB37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@ja</t>
-        </is>
-      </c>
-      <c r="BC37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@la</t>
-        </is>
-      </c>
-      <c r="BD37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@lt</t>
-        </is>
-      </c>
-      <c r="BE37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@no</t>
-        </is>
-      </c>
-      <c r="BF37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pl</t>
-        </is>
-      </c>
-      <c r="BG37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@pt</t>
-        </is>
-      </c>
-      <c r="BH37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sl</t>
-        </is>
-      </c>
-      <c r="BI37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@sv</t>
-        </is>
-      </c>
-      <c r="BJ37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh</t>
-        </is>
-      </c>
-      <c r="BK37" t="inlineStr">
-        <is>
-          <t>skos:altLabel@zh-tw</t>
-        </is>
-      </c>
-      <c r="BL37" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="BM37" t="inlineStr">
-        <is>
-          <t>skos:definition@es</t>
-        </is>
-      </c>
-      <c r="BN37" t="inlineStr">
-        <is>
-          <t>skos:definition@fi</t>
-        </is>
-      </c>
-      <c r="BO37" t="inlineStr">
-        <is>
-          <t>skos:definition@fr</t>
-        </is>
-      </c>
-      <c r="BP37" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="BQ37" t="inlineStr">
-        <is>
-          <t>skos:definition@ja</t>
-        </is>
-      </c>
-      <c r="BR37" t="inlineStr">
-        <is>
-          <t>skos:definition@no</t>
-        </is>
-      </c>
-      <c r="BS37" t="inlineStr">
-        <is>
-          <t>skos:definition@pl</t>
-        </is>
-      </c>
-      <c r="BT37" t="inlineStr">
-        <is>
-          <t>skos:definition@pt</t>
-        </is>
-      </c>
-      <c r="BU37" t="inlineStr">
-        <is>
-          <t>skos:definition@zh</t>
-        </is>
-      </c>
-      <c r="BV37" t="inlineStr">
-        <is>
-          <t>skos:definition@sv</t>
-        </is>
-      </c>
-      <c r="BW37" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="BX37" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="BY37" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="BZ37" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="CA37" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="CB37" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="CC37" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
       <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="inlineStr"/>
       <c r="CF37" t="inlineStr"/>
@@ -4661,111 +4349,407 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>StationCoreFields</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>rdf:type(separtor=",")</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@en(separator=",")</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The core Fields are part of this class.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="inlineStr"/>
-      <c r="BE38" t="inlineStr"/>
-      <c r="BF38" t="inlineStr"/>
-      <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
-      <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
-      <c r="BN38" t="inlineStr"/>
-      <c r="BO38" t="inlineStr"/>
-      <c r="BP38" t="inlineStr"/>
-      <c r="BQ38" t="inlineStr"/>
-      <c r="BR38" t="inlineStr"/>
-      <c r="BS38" t="inlineStr"/>
-      <c r="BT38" t="inlineStr"/>
-      <c r="BU38" t="inlineStr"/>
-      <c r="BV38" t="inlineStr"/>
-      <c r="BW38" t="inlineStr"/>
-      <c r="BX38" t="inlineStr"/>
-      <c r="BY38" t="inlineStr"/>
-      <c r="BZ38" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>schema:unitCode</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>skos:example@en</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>puv:uom</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>skos:changeNote@en</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>skos:scopeNote@en</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>skos:hiddenLabel</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ar</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@bg</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@cs</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@da</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@el</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@es</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@et</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fi</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@fr</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hr</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@hu</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ja</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lt</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@lv</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@no</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pl</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@pt</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@ro</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sk</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sl</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@sv</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@zh</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@de</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@el</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@es</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fi</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@fr</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@hu</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@it</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@ja</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@la</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@lt</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@no</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pl</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@pt</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sl</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@sv</t>
+        </is>
+      </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>skos:altLabel@zh-tw</t>
+        </is>
+      </c>
+      <c r="BL38" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
+      <c r="BM38" t="inlineStr">
+        <is>
+          <t>skos:definition@es</t>
+        </is>
+      </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>skos:definition@fi</t>
+        </is>
+      </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>skos:definition@fr</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>skos:definition@ja</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>skos:definition@no</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>skos:definition@pl</t>
+        </is>
+      </c>
+      <c r="BT38" t="inlineStr">
+        <is>
+          <t>skos:definition@pt</t>
+        </is>
+      </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>skos:definition@zh</t>
+        </is>
+      </c>
+      <c r="BV38" t="inlineStr">
+        <is>
+          <t>skos:definition@sv</t>
+        </is>
+      </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="BX38" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
+      <c r="BZ38" t="inlineStr">
+        <is>
+          <t>dct:contributor</t>
+        </is>
+      </c>
       <c r="CA38" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="CB38" t="inlineStr">
         <is>
-          <t>0000-0002-7997-219X</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="CC38" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="CD38" t="inlineStr"/>
@@ -4786,12 +4770,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>StationExtendedFields</t>
+          <t>StationCoreFields</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4802,7 +4786,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The Extended Fields are part of this class.</t>
+          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The core Fields are part of this class.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4911,12 +4895,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MethodCoreFields</t>
+          <t>StationExtendedFields</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4927,7 +4911,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A Method describes the procedure to generate and manipulate the data.</t>
+          <t>A Station is an observation entity within a site or platform. Station in this respect is synonym to plot, observation location, sensor location, etc. and is defined by a location, elevation and installation height (if relevant) which is located within a given LTER site or platform. The Extended Fields are part of this class.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -5036,12 +5020,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MethodExtendedfileds</t>
+          <t>MethodCoreFields</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5052,7 +5036,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>In the extended version detailed information on the different method steps and procedures (e.g. sampling, field method, lab methods, data aggregation methods)</t>
+          <t>A Method describes the procedure to generate and manipulate the data.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -5161,12 +5145,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DataMeasurements</t>
+          <t>MethodExtendedfileds</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5177,7 +5161,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Environmental observation is defined as any measurement done by sensors or using devices observing a single measurable property of the ecosystem, e.g. temperature or water level. The value normally is expressed as decimal or integer value.</t>
+          <t>In the extended version detailed information on the different method steps and procedures (e.g. sampling, field method, lab methods, data aggregation methods)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -5286,12 +5270,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DataMapping</t>
+          <t>DataMeasurements</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5302,7 +5286,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Mapping is defined as any observation done by a human or sensor where the occurrence, share or abundance of an entitiy (e.g. species or habitat type) in a given area is estimated or measured. The observed entity is normally described by a concept (e.g. species or habitat) and uses code lists or taxonomies (e.g. species or habitat lists) to describe them.</t>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Environmental observation is defined as any measurement done by sensors or using devices observing a single measurable property of the ecosystem, e.g. temperature or water level. The value normally is expressed as decimal or integer value.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -5411,12 +5395,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DataExtendedFields</t>
+          <t>DataMapping</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5427,7 +5411,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. The Extended Fields are part of this class.</t>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. Mapping is defined as any observation done by a human or sensor where the occurrence, share or abundance of an entitiy (e.g. species or habitat type) in a given area is estimated or measured. The observed entity is normally described by a concept (e.g. species or habitat) and uses code lists or taxonomies (e.g. species or habitat lists) to describe them.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -5536,12 +5520,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ReferenceCoreFields</t>
+          <t>DataExtendedFields</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5552,7 +5536,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The Reference is the listing and description of additional codes used in the data provision. In order to enhance the re-usability of the data, information on the coding used e.g. for variable names or taxa, is needed. This can either refer to existing vocabularies used (e.g. by referencing to an URL) or by user defined definitions.</t>
+          <t>The Data are defined as the sum of observation values being observed at a station/plot either by sensor, measurement device or human observation. The Extended Fields are part of this class.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -5661,12 +5645,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EventCoreFields</t>
+          <t>ReferenceCoreFields</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5677,7 +5661,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Core Fields are part of this class.</t>
+          <t>The Reference is the listing and description of additional codes used in the data provision. In order to enhance the re-usability of the data, information on the coding used e.g. for variable names or taxa, is needed. This can either refer to existing vocabularies used (e.g. by referencing to an URL) or by user defined definitions.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -5786,12 +5770,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EventExtendedFields</t>
+          <t>EventCoreFields</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5802,7 +5786,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Extended Fields are part of this class.</t>
+          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Core Fields are part of this class.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -5911,12 +5895,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>drf:SampleEvent</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SampleEvent</t>
+          <t>EventExtendedFields</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5927,7 +5911,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A Sample is the key observational units in environmental sciences, i.e. ecology, geosciences, biogeochemistry, and hydrobiology, and are essential to document and further analyse biological communities in laboratories (e.g., phytoplankton communities in water samples, benthic communities in sediments, etc.). In general, a sample is a limited quantity of something which is intended to be similar to and represent a larger amount of that thing(s). The things could be countable objects such as individual items available as units for sale, or an uncountable material. Even though the word "sample" implies a smaller quantity taken from a larger amount, sometimes full biological or mineralogical specimens are called samples if they are taken for analysis, testing, or investigation like other samples.</t>
+          <t>An Event is defined as activity to observe or collect information on the ecosystem characteristic of interest. This can be either e.g. a sampling event (e.g. soil water sample) or the recording of species abundance (e.g. vegetation relevee). Basic information on the event is given. The Extended Fields are part of this class.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -6036,44 +6020,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>SampleEvent</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>skos:Concept</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Site code [URL] – reference to LTER site and LTSER Platform on DEIMS-SDR. Please provide the deims.id for the site or platform</t>
+          <t>A Sample is the key observational units in environmental sciences, i.e. ecology, geosciences, biogeochemistry, and hydrobiology, and are essential to document and further analyse biological communities in laboratories (e.g., phytoplankton communities in water samples, benthic communities in sediments, etc.). In general, a sample is a limited quantity of something which is intended to be similar to and represent a larger amount of that thing(s). The things could be countable objects such as individual items available as units for sale, or an uncountable material. Even though the word "sample" implies a smaller quantity taken from a larger amount, sometimes full biological or mineralogical specimens are called samples if they are taken for analysis, testing, or investigation like other samples.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://deims.org/site/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>drf:StationCoreFields</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>dwc:institutionID</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -6173,12 +6145,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6189,14 +6161,13 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Station code or Station identifier (ID) [UTF-8 character encoding] - Code for the station within the site in UTF-8 character encoding for the text. Special characters should be avoided. 
- A station is any measuring enitity, such as a sampling point, permanent plot, observation plot or a meteorological station, to name just a few. If the station equals the site, meaning that only one station is used within the site, only the site identifier is provided in the data recording sheet. If external identification systems (e.g. WMO Station ID) are existing, this identifier could be used to reference the station. If a DEIMS-SDR UUID for the station exists, this need to be used. Otherwise use the identification of the station within your site</t>
+          <t>Site code [URL] – reference to LTER site and LTSER Platform on DEIMS-SDR. Please provide the deims.id for the site or platform</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>https://deims.org/site/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6209,7 +6180,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>dwc:locationID</t>
+          <t>dwc:institutionID</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -6311,12 +6282,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>drf:STYPE</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6327,18 +6298,14 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Spatial type [UTF-8 character encoding] of the station/plot according to a fixed list of values: 
-- PT … single or multiple observation point 
-- AREA … areal plot 
-- VLN … vertical transect/profile 
-- HLN … horizontal transect/profile 
- If additional codes are needed, this is defined by the data provider.</t>
+          <t>Station code or Station identifier (ID) [UTF-8 character encoding] - Code for the station within the site in UTF-8 character encoding for the text. Special characters should be avoided. 
+ A station is any measuring enitity, such as a sampling point, permanent plot, observation plot or a meteorological station, to name just a few. If the station equals the site, meaning that only one station is used within the site, only the site identifier is provided in the data recording sheet. If external identification systems (e.g. WMO Station ID) are existing, this identifier could be used to reference the station. If a DEIMS-SDR UUID for the station exists, this need to be used. Otherwise use the identification of the station within your site</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>AREA</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6351,7 +6318,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>dwc:footprintWKT</t>
+          <t>dwc:locationID</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -6453,12 +6420,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>drf:LAT</t>
+          <t>drf:STYPE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LAT</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6469,22 +6436,18 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Latitude for the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
- Note: The definition of the reference point depends on the STYPE: 
- - PT (single/multiple point): is the location of the point itself; 
- - AREA (areal plot): is the centroid of the area; 
- - VLN (vertical profile): is the starting point of the vertical profile 
- - HLN (horizontal transect): is the starting point of the horizontal transect.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>Spatial type [UTF-8 character encoding] of the station/plot according to a fixed list of values: 
+- PT … single or multiple observation point 
+- AREA … areal plot 
+- VLN … vertical transect/profile 
+- HLN … horizontal transect/profile 
+ If additional codes are needed, this is defined by the data provider.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>45.340805</t>
+          <t>AREA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -6497,16 +6460,12 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:footprintWKT</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -6603,12 +6562,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>drf:LON</t>
+          <t>drf:LAT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LON</t>
+          <t>LAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6619,12 +6578,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Longitude of the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
-Note: The definition of the reference point depends on the STYPE: 
-- PT (single/multiple point): is the location of the point itself;
-- AREA (areal plot): is the centroid of the area; 
-- VLN (vertical profile): is the starting point of the vertical profile 
-- HLN (horizontal transect): is the starting point of the horizontal transect.</t>
+          <t>Latitude for the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
+ Note: The definition of the reference point depends on the STYPE: 
+ - PT (single/multiple point): is the location of the point itself; 
+ - AREA (areal plot): is the centroid of the area; 
+ - VLN (vertical profile): is the starting point of the vertical profile 
+ - HLN (horizontal transect): is the starting point of the horizontal transect.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6634,7 +6593,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.887495</t>
+          <t>45.340805</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6647,7 +6606,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -6753,12 +6712,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>drf:ALTITUDE</t>
+          <t>drf:LON</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALTITUDE</t>
+          <t>LON</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6769,18 +6728,22 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Altitude [decimal number] of the reference point of the STATION in meter above or below sea level [m a.s.l.]. In terrestrial systems it reflects the elevation of the land surface and in aquatic/marine systems the elevation of the water surface. 
- Note: offsets from the surface (e.g. for sampling or sensor installations) can be provided by the extended field ‘installation height”</t>
+          <t>Longitude of the reference point [decimal number] of the STATION expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator. 
+Note: The definition of the reference point depends on the STYPE: 
+- PT (single/multiple point): is the location of the point itself;
+- AREA (areal plot): is the centroid of the area; 
+- VLN (vertical profile): is the starting point of the vertical profile 
+- HLN (horizontal transect): is the starting point of the horizontal transect.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:DEG</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>7.887495</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6793,14 +6756,14 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>dwc:verbatimElevation</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:DEG</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -6899,12 +6862,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>drf:PLOTSIZE</t>
+          <t>drf:ALTITUDE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PLOTSIZE</t>
+          <t>ALTITUDE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6915,17 +6878,18 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Plot size [integer] is defined as the size surface area covered by the station/plot in [m2]</t>
+          <t>Altitude [decimal number] of the reference point of the STATION in meter above or below sea level [m a.s.l.]. In terrestrial systems it reflects the elevation of the land surface and in aquatic/marine systems the elevation of the water surface. 
+ Note: offsets from the surface (e.g. for sampling or sensor installations) can be provided by the extended field ‘installation height”</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>unit:M2</t>
+          <t>unit:M</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>265</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6938,14 +6902,14 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>dwc:totalAreaSampledValue</t>
+          <t>dwc:verbatimElevation</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>unit:M2</t>
+          <t>unit:M</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -7044,12 +7008,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>drf:COMMENT</t>
+          <t>drf:PLOTSIZE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COMMENT</t>
+          <t>PLOTSIZE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7060,11 +7024,19 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Comment [UTF-8 character encoding] include any other information related to the location of the station/plot.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+          <t>Plot size [integer] is defined as the size surface area covered by the station/plot in [m2]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>drf:StationCoreFields</t>
@@ -7075,12 +7047,16 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>dwc:locationRemarks</t>
+          <t>dwc:totalAreaSampledValue</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -7177,12 +7153,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>drf:GEOSPAT_FEATURE</t>
+          <t>drf:COMMENT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GEOSPAT_FEATURE</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7193,7 +7169,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Geospatial feature [UTF-8 character encoding or URL/URI] is the (computable) geospatial representation of the "station". It could also be a WKT, a URI pointing to an online resource (WFS feature, GeoJson, …), or at least a textual description identifying the geometry/spatial feature (like in the case of rivers, roads, trails, toponyms, etc.)</t>
+          <t>Comment [UTF-8 character encoding] include any other information related to the location of the station/plot.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -7208,7 +7184,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>dwc:footprintWKT</t>
+          <t>dwc:locationRemarks</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -7310,12 +7286,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>drf:SNAME</t>
+          <t>drf:GEOSPAT_FEATURE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SNAME</t>
+          <t>GEOSPAT_FEATURE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7326,18 +7302,14 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Station name (UTF-8 character encoding, https://en.wikipedia.org/wiki/UTF-8) provides the name of the station if relevant</t>
+          <t>Geospatial feature [UTF-8 character encoding or URL/URI] is the (computable) geospatial representation of the "station". It could also be a WKT, a URI pointing to an online resource (WFS feature, GeoJson, …), or at least a textual description identifying the geometry/spatial feature (like in the case of rivers, roads, trails, toponyms, etc.)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>IP1</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>drf:StationExtendedFields</t>
+          <t>drf:StationCoreFields</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7345,7 +7317,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>dwc:locality</t>
+          <t>dwc:footprintWKT</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -7447,12 +7419,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>drf:westBoundingCoordinate</t>
+          <t>drf:SNAME</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>westBoundingCoordinate</t>
+          <t>SNAME</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7463,17 +7435,13 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+          <t>Station name (UTF-8 character encoding, https://en.wikipedia.org/wiki/UTF-8) provides the name of the station if relevant</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7.887490</t>
+          <t>IP1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7486,16 +7454,12 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:locality</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>unit:DEG</t>
-        </is>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -7592,12 +7556,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>drf:eastBoundingCoordinate</t>
+          <t>drf:westBoundingCoordinate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>eastBoundingCoordinate</t>
+          <t>westBoundingCoordinate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7618,7 +7582,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>7.953720</t>
+          <t>7.887490</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7737,12 +7701,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>drf:northBoundingCoordinate</t>
+          <t>drf:eastBoundingCoordinate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>northBoundingCoordinate</t>
+          <t>eastBoundingCoordinate</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7753,7 +7717,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented east and west bounding coordinates are equal; equals to Longitude</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7763,7 +7727,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>45.340800</t>
+          <t>7.953720</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7776,7 +7740,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -7882,12 +7846,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>drf:southBoundingCoordinate</t>
+          <t>drf:northBoundingCoordinate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>southBoundingCoordinate</t>
+          <t>northBoundingCoordinate</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7908,7 +7872,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>45.300560</t>
+          <t>45.340800</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8027,12 +7991,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>drf:altitudeMin</t>
+          <t>drf:southBoundingCoordinate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>altitudeMin</t>
+          <t>southBoundingCoordinate</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8043,17 +8007,17 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>minimum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
+          <t>bounding box [decimal number] for a station in decimal degree [dec °] WGS84; if a point is represented north and south bounding coordinates are equal; equals to Latitude</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:DEG</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>45.300560</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8066,14 +8030,14 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>dwc:minimumElevationInMeters</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:DEG</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -8172,12 +8136,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>drf:altitudeMax</t>
+          <t>drf:altitudeMin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>altitudeMax</t>
+          <t>altitudeMin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8188,7 +8152,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>maximum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
+          <t>minimum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8198,7 +8162,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>265</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8211,7 +8175,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>dwc:maximumElevationInMeters</t>
+          <t>dwc:minimumElevationInMeters</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -8317,12 +8281,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>drf:Country</t>
+          <t>drf:altitudeMax</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>altitudeMax</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8333,13 +8297,17 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Country - country code: ISO 3166-1 alpha-2 (https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2), e.g. AT for Austria</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>maximum altitude [decimal number] in meter above sea level [m a.s.l.] for the observed station, negative if below water level; if a single point is represented minimum and maximum are equal</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>270</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8352,12 +8320,16 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>dwc:countryCode</t>
+          <t>dwc:maximumElevationInMeters</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -8454,12 +8426,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>drf:OperationPeriodSince</t>
+          <t>drf:Country</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OperationPeriodSince</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8470,17 +8442,13 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Operation period since [ISO date] is the time since the station/plot is operated or when the permanent plot first was established, see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset) 
-Combined date and time: 2007-04-05T12:30:00-02:00 
-Any time information 
-- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
-- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Country - country code: ISO 3166-1 alpha-2 (https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2), e.g. AT for Austria</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1992-06-01T13:00+02:00</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8491,7 +8459,11 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>dwc:countryCode</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -8591,12 +8563,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>drf:plotDimension</t>
+          <t>drf:OperationPeriodSince</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>plotDimension</t>
+          <t>OperationPeriodSince</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8607,13 +8579,17 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Plot dimension [UTF-8 character encoding] as the length and width in [m] of the STATION</t>
+          <t>Operation period since [ISO date] is the time since the station/plot is operated or when the permanent plot first was established, see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset) 
+Combined date and time: 2007-04-05T12:30:00-02:00 
+Any time information 
+- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
+- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5x5</t>
+          <t>1992-06-01T13:00+02:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8724,12 +8700,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>drf:numberOfSampleUnit</t>
+          <t>drf:plotDimension</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>numberOfSampleUnit</t>
+          <t>plotDimension</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8740,11 +8716,15 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Number of sample units [integer] - number of elements (e.g. sub-plots) into which the plot is divided along the two dimensions (length x width)</t>
+          <t>Plot dimension [UTF-8 character encoding] as the length and width in [m] of the STATION</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5x5</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>drf:StationExtendedFields</t>
@@ -8853,12 +8833,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>drf:InstHeight</t>
+          <t>drf:numberOfSampleUnit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>InstHeight</t>
+          <t>numberOfSampleUnit</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8869,15 +8849,11 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Installation height [decimal number] – height of the installation of a sensor or device in [cm] measured from the soil surface. Positive and negative values are possible.</t>
+          <t>Number of sample units [integer] - number of elements (e.g. sub-plots) into which the plot is divided along the two dimensions (length x width)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>drf:StationExtendedFields</t>
@@ -8886,11 +8862,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -8990,12 +8962,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>drf:Local_Habitat_Type</t>
+          <t>drf:InstHeight</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Local_Habitat_Type</t>
+          <t>InstHeight</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9006,13 +8978,13 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Local habitat type [UTF-8 character encoding] using local classification (needs to be defined in the method metadata)</t>
+          <t>Installation height [decimal number] – height of the installation of a sensor or device in [cm] measured from the soil surface. Positive and negative values are possible.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Beech forest</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -9025,7 +8997,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>dwc:habitat</t>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -9127,12 +9099,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drf:EUNIS_Habitat_Type</t>
+          <t>drf:Local_Habitat_Type</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EUNIS_Habitat_Type</t>
+          <t>Local_Habitat_Type</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9143,13 +9115,13 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EUNIS habitat type [UTF-8 character encoding] using [EUNIS Habitat Classification] identifier</t>
+          <t>Local habitat type [UTF-8 character encoding] using local classification (needs to be defined in the method metadata)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>G2.3</t>
+          <t>Beech forest</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -9160,7 +9132,11 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>dwc:habitat</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -9260,12 +9236,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>drf:Potential_natural_vegetation</t>
+          <t>drf:EUNIS_Habitat_Type</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Potential_natural_vegetation</t>
+          <t>EUNIS_Habitat_Type</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9276,13 +9252,13 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Potential natural vegetation [UTF-8 character encoding] using local syntaxonomic classification schema (needs to be defined in the method metadata)</t>
+          <t>EUNIS habitat type [UTF-8 character encoding] using [EUNIS Habitat Classification] identifier</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fagetum</t>
+          <t>G2.3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9393,12 +9369,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:Potential_natural_vegetation</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>Potential_natural_vegetation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9409,22 +9385,18 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Variable [UTF-8 character encoding] – the observed phenomenon during the observation. The variable/parameter name normally is given as abbreviation e.g. LISTSUB VARIABLE Name 
-- DB ALK Alkalinity 
-- DB BOD Biochemical oxygen demand 
-- DB TC Total carbon
-If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional variable codes can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Potential natural vegetation [UTF-8 character encoding] using local syntaxonomic classification schema (needs to be defined in the method metadata)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>COVE_F</t>
+          <t>Fagetum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:StationExtendedFields</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9530,12 +9502,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>drf:METH_DESCR</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>METH_DESCR</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9546,13 +9518,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Method description [UTF-8 character encoding] - Reference to published methods (e.g. URL, DOI) OR textual description of method including information on spatial, temporal or thematic (e.g. taxonomic aggregation), code lists and taxonomies applied (e.g. taxonomic reference lists, habitat classification) as well as measurement units</t>
+          <t>Variable [UTF-8 character encoding] – the observed phenomenon during the observation. The variable/parameter name normally is given as abbreviation e.g. LISTSUB VARIABLE Name 
+- DB ALK Alkalinity 
+- DB BOD Biochemical oxygen demand 
+- DB TC Total carbon
+If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional variable codes can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Analysis of ammonium concentration (measurement with spectrophotometry (SP)) in aqueous deposition samples (mg/l) …</t>
+          <t>COVE_F</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -9663,12 +9639,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9679,13 +9655,13 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Unit of variable observed [UTF-8 character encoding]. This information needs to be provided together with the methods, if not provided together with the DATA. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
+          <t>Method description [UTF-8 character encoding] - Reference to published methods (e.g. URL, DOI) OR textual description of method including information on spatial, temporal or thematic (e.g. taxonomic aggregation), code lists and taxonomies applied (e.g. taxonomic reference lists, habitat classification) as well as measurement units</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>Analysis of ammonium concentration (measurement with spectrophotometry (SP)) in aqueous deposition samples (mg/l) …</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -9796,12 +9772,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>drf:SAMPLING_DESIGN</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SAMPLING_DESIGN</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9812,18 +9788,18 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] on how the plots were selected from the total population (selection of plots, observation points, etc.)</t>
+          <t>Unit of variable observed [UTF-8 character encoding]. This information needs to be provided together with the methods, if not provided together with the DATA. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>drf:MethodExtendedfileds</t>
+          <t>drf:MethodCoreFields</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9929,12 +9905,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>drf:FIELD_METHOD</t>
+          <t>drf:SAMPLING_DESIGN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FIELD_METHOD</t>
+          <t>SAMPLING_DESIGN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9945,13 +9921,13 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] of the method used in the field either to collect the samples or to do the observation</t>
+          <t>Short method description [UTF-8 character encoding] on how the plots were selected from the total population (selection of plots, observation points, etc.)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Volume weighted mixing from 5 bulk sampler, 2 weeks interval of sampling, cooled transportation of the samples</t>
+          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10062,12 +10038,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>drf:LAB_METHOD</t>
+          <t>drf:FIELD_METHOD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LAB_METHOD</t>
+          <t>FIELD_METHOD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10078,13 +10054,13 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] on the procedures and methods applied in the lab, e.g. filtering, analysis, etc.</t>
+          <t>Short method description [UTF-8 character encoding] of the method used in the field either to collect the samples or to do the observation</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>45μm filtered; ICP-OES</t>
+          <t>Volume weighted mixing from 5 bulk sampler, 2 weeks interval of sampling, cooled transportation of the samples</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10195,12 +10171,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>drf:AGG_METHOD</t>
+          <t>drf:LAB_METHOD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AGG_METHOD</t>
+          <t>LAB_METHOD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10211,13 +10187,13 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Short method description [UTF-8 character encoding] of the procedure how the values have been aggregated from primary values; for primary data the aggregation procedure is “NONE”.</t>
+          <t>Short method description [UTF-8 character encoding] on the procedures and methods applied in the lab, e.g. filtering, analysis, etc.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Weighted mean value</t>
+          <t>45μm filtered; ICP-OES</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -10328,12 +10304,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:AGG_METHOD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>AGG_METHOD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10344,18 +10320,18 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Short method description [UTF-8 character encoding] of the procedure how the values have been aggregated from primary values; for primary data the aggregation procedure is “NONE”.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>Weighted mean value</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:MethodExtendedfileds</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10461,12 +10437,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10477,15 +10453,13 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-- Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-- Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -10596,12 +10570,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10612,14 +10586,15 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
+- Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
+- Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -10730,12 +10705,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>ABS_POSITION</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10746,17 +10721,14 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
+</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>45.234765, 12.783563, 1230</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -10770,11 +10742,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -10871,12 +10839,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>VERT_OFFSET</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10887,17 +10855,17 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -10913,7 +10881,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -11012,12 +10980,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>HORI_OFFSET</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11028,25 +10996,17 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- DB ALK Alkalinity 
-- DB BOD Biochemical oxygen demand 
-- DB TC Total carbon 
-- DB DC Dissolved carbon 
-- DB DIC Dissolved inorganic carbon 
-- DB DOC Dissolved organic carbon 
-- DB DOD Direct oxygen demand 
-- DB NH3 Ammonia 
-- DB NH4 Ammonium 
-- DB NH4N Ammonium as nitrogen 
- If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -11060,7 +11020,11 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -11157,12 +11121,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -11173,18 +11137,25 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-If aggregations are provided the timestamp is provided as the following 
-- annual aggregation – provide only the year as YYYY 
-- monthly aggregations – provide only the month as YYYY-MM 
-- daily aggregations – provide the day as YYYY-MM-DD 
- Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
+          <t>Code for Variable observed [UTF-8 character encoding] for the variable / parameter name as abbreviation 
+- LISTSUB VARIABLE Name 
+- DB ALK Alkalinity 
+- DB BOD Biochemical oxygen demand 
+- DB TC Total carbon 
+- DB DC Dissolved carbon 
+- DB DIC Dissolved inorganic carbon 
+- DB DOC Dissolved organic carbon 
+- DB DOD Direct oxygen demand 
+- DB NH3 Ammonia 
+- DB NH4 Ammonium 
+- DB NH4N Ammonium as nitrogen 
+ If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
+          <t>NH4N</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -11295,12 +11266,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11311,13 +11282,18 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
+          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
+If aggregations are provided the timestamp is provided as the following 
+- annual aggregation – provide only the year as YYYY 
+- monthly aggregations – provide only the month as YYYY-MM 
+- daily aggregations – provide the day as YYYY-MM-DD 
+ Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -11428,12 +11404,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11444,14 +11420,13 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -11562,12 +11537,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11578,16 +11553,16 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Examples:
-- Q quality controlled value 
-- L less than detection limit 
-- E estimated from measured value 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>mg/l</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>drf:DataMeasurements</t>
@@ -11696,12 +11671,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>FLAGQUA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11712,25 +11687,16 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum 
-- M Mode 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
+Examples:
+- Q quality controlled value 
+- L less than detection limit 
+- E estimated from measured value 
+Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>drf:DataMeasurements</t>
@@ -11839,12 +11805,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>FLAGSTA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11855,14 +11821,23 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
-Condition: only used, if a sampling event is defined</t>
+          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
+- A Minimum 
+- Z Maximum 
+- S Sum 
+- X Arithmetic average, mean; e.g. monthly average 
+- W Weighted mean 
+- XA average monthly minimum 
+- XZ average monthly maximum 
+- SZ maximum daily sum 
+- M Mode 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>P20200912-EA-456</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -11973,12 +11948,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11989,14 +11964,14 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
-Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
+Condition: only used, if a sampling event is defined</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>P20200912-EA-456</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -12107,12 +12082,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -12123,18 +12098,19 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
+Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>S0001_2020_A</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataMeasurements</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12240,12 +12216,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12256,15 +12232,13 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>P0094</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -12375,12 +12349,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12391,15 +12365,15 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
-Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
+Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
+Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>P0094</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -12510,12 +12484,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>ABS_POSITION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12526,17 +12500,15 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
+Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
+Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>45.234765, 12.783563, 1230</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12550,11 +12522,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -12651,12 +12619,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>VERT_OFFSET</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12667,17 +12635,17 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -12693,7 +12661,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>unit:M</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
@@ -12792,12 +12760,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>HORI_OFFSET</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12808,14 +12776,17 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>42797</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -12829,7 +12800,11 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
@@ -12926,12 +12901,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12942,20 +12917,14 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] described in the METHOD for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- IM ABUND Abundance of species 
-- IM COVE_T species cover tree layer 
-- IM COVE_S species cover shrub layer 
-- IM COVE_F species cover field layer 
-- IM COVE_B species cover bottom layer COVER cover in % AREA area (e.g. in ha – see unit) 
-If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
+          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
+Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ABUND</t>
+          <t>42797</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -13066,12 +13035,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>drf:LAYER</t>
+          <t>drf:VARIABLE</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LAYER</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -13082,22 +13051,20 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
-- LEVEL Name 
-- T Tree layer 
-- T1 Tree layer 1 
-- T2 Tree layer 2 
-- T3 Tree layer 3 
-- S Shrub layer 
-- F Field layer 
-- B Bottom layer 
-If alternative codings are used, this needs to be specified in the REFERENCE.</t>
+          <t>Code for Variable observed [UTF-8 character encoding] described in the METHOD for the variable / parameter name as abbreviation 
+- LISTSUB VARIABLE Name 
+- IM ABUND Abundance of species 
+- IM COVE_T species cover tree layer 
+- IM COVE_S species cover shrub layer 
+- IM COVE_F species cover field layer 
+- IM COVE_B species cover bottom layer COVER cover in % AREA area (e.g. in ha – see unit) 
+If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>ABUND</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -13208,12 +13175,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>drf:TAXA</t>
+          <t>drf:LAYER</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TAXA</t>
+          <t>LAYER</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13224,14 +13191,22 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
-In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
+          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
+- LEVEL Name 
+- T Tree layer 
+- T1 Tree layer 1 
+- T2 Tree layer 2 
+- T3 Tree layer 3 
+- S Shrub layer 
+- F Field layer 
+- B Bottom layer 
+If alternative codings are used, this needs to be specified in the REFERENCE.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FAG SYLV</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -13342,12 +13317,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:TAXA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13358,13 +13333,14 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
+          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
+In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>FAG SYLV</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -13475,12 +13451,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13491,14 +13467,13 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>Data value [[UTF-8 character encoding] or [number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>dimles</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -13609,12 +13584,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13625,12 +13600,16 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>dimles</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>drf:DataMapping</t>
@@ -13739,12 +13718,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>FLAGQUA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13755,16 +13734,12 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
- Condition: only used, if a sampling event is defined</t>
+          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
+Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>VegRel_45_20200912</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>drf:DataMapping</t>
@@ -13873,12 +13848,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13889,14 +13864,14 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
- Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
+ Condition: only used, if a sampling event is defined</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -14007,12 +13982,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>drf:ORG_NAME</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ORG_NAME</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -14023,18 +13998,19 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
+          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
+ Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>EAA</t>
+          <t>S0001_2020_A</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -14140,12 +14116,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>drf:SUBPROG</t>
+          <t>drf:ORG_NAME</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SUBPROG</t>
+          <t>ORG_NAME</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -14156,18 +14132,13 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
- BIOCHEM biogeochemistry data 
- STRUCTU Structure and function of ecosystems, communities and populations 
- HUMANEC human population and economy 
- SITECHA site characteristics (land use and land cover) 
- Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BIOCHEM</t>
+          <t>EAA</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -14278,12 +14249,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drf:MEDIUM</t>
+          <t>drf:SUBPROG</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>SUBPROG</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -14294,23 +14265,18 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Medium [UTF-8 character encoding] – as the code for the sampled medium (feature of interest) in the observation procedure, e.g. 
- AIR air including meteorology 
- SOIL soil 
- SOILWAT soil water
-WATER runoff and groundwater
-SEDIMENT sediments in aquatic environments
-LITTER litter fall
-BIOCOM biological communities
-HUMPOP human population
-SITECHAR site characteristics (as habitat or landscape structure)
-Additional values need to be defined in the REFERENCE.</t>
+          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
+ BIOCHEM biogeochemistry data 
+ STRUCTU Structure and function of ecosystems, communities and populations 
+ HUMANEC human population and economy 
+ SITECHA site characteristics (land use and land cover) 
+ Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>AIR</t>
+          <t>BIOCHEM</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -14421,12 +14387,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>drf:LISTMED</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LISTMED</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -14437,13 +14403,23 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
+          <t>Medium [UTF-8 character encoding] – as the code for the sampled medium (feature of interest) in the observation procedure, e.g. 
+ AIR air including meteorology 
+ SOIL soil 
+ SOILWAT soil water
+WATER runoff and groundwater
+SEDIMENT sediments in aquatic environments
+LITTER litter fall
+BIOCOM biological communities
+HUMPOP human population
+SITECHAR site characteristics (as habitat or landscape structure)
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ELTER</t>
+          <t>AIR</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -14554,12 +14530,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>drf:MAX_LEVEL</t>
+          <t>drf:LISTMED</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MAX_LEVEL</t>
+          <t>LISTMED</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -14570,17 +14546,13 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>ELTER</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -14594,11 +14566,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
@@ -14695,12 +14663,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>drf:MIN_LEVEL</t>
+          <t>drf:MAX_LEVEL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MIN_LEVEL</t>
+          <t>MAX_LEVEL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14711,7 +14679,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
+          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -14721,7 +14689,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -14836,12 +14804,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>drf:SIZE</t>
+          <t>drf:MIN_LEVEL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SIZE</t>
+          <t>MIN_LEVEL</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -14852,17 +14820,17 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
+          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>unit:M2</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -14878,7 +14846,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>unit:M2</t>
+          <t>unit:CentiM</t>
         </is>
       </c>
       <c r="P113" t="inlineStr"/>
@@ -14977,12 +14945,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>drf:YEAR</t>
+          <t>drf:SIZE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>SIZE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14993,18 +14961,17 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
-Alternative: 
-Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
-Any time information 
-- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
-- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2017 or 2017-03-03T13:00+02:00</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -15018,7 +14985,11 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
@@ -15115,12 +15086,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>drf:MONTH</t>
+          <t>drf:YEAR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MONTH</t>
+          <t>YEAR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -15131,13 +15102,18 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
+Alternative: 
+Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
+Any time information 
+- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
+- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2017 or 2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -15248,12 +15224,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drf:DAY</t>
+          <t>drf:MONTH</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>MONTH</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -15264,13 +15240,13 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -15381,12 +15357,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>drf:HOUR</t>
+          <t>drf:DAY</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HOUR</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -15397,13 +15373,13 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -15514,12 +15490,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>drf:MINUTE</t>
+          <t>drf:HOUR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MINUTE</t>
+          <t>HOUR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -15530,13 +15506,13 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -15647,12 +15623,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drf:SECOND</t>
+          <t>drf:MINUTE</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SECOND</t>
+          <t>MINUTE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -15663,13 +15639,13 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -15780,12 +15756,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drf:SPOOL</t>
+          <t>drf:SECOND</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SPOOL</t>
+          <t>SECOND</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -15796,8 +15772,7 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
-If not relevant or described in METHOD, leave blank.</t>
+          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -15914,12 +15889,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>drf:TPOOL</t>
+          <t>drf:SPOOL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TPOOL</t>
+          <t>SPOOL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -15930,14 +15905,14 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Temporal pool [number] as the number of observations used to calculate the data value 
+          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
 If not relevant or described in METHOD, leave blank.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -16048,12 +16023,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>drf:TLEVEL</t>
+          <t>drf:TPOOL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TLEVEL</t>
+          <t>TPOOL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -16064,19 +16039,16 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
-- HOUR hourly values (60 min) 
-- DAY daily values (24 hrs) 
-- WEEK weekly values (7 days) 
-- MONTH monthly values 
-- SEASON seasonly values (e.g. spring) 
-- HYEAR half yearly values (6 month) 6 month 
-- YEAR yearly values (12 month) 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Temporal pool [number] as the number of observations used to calculate the data value 
+If not relevant or described in METHOD, leave blank.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t>drf:DataExtendedFields</t>
@@ -16185,12 +16157,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>drf:LISTTAXA</t>
+          <t>drf:TLEVEL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LISTTAXA</t>
+          <t>TLEVEL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16201,15 +16173,19 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
+          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
+- HOUR hourly values (60 min) 
+- DAY daily values (24 hrs) 
+- WEEK weekly values (7 days) 
+- MONTH monthly values 
+- SEASON seasonly values (e.g. spring) 
+- HYEAR half yearly values (6 month) 6 month 
+- YEAR yearly values (12 month) 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Flora of Austria (2005)</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>drf:DataExtendedFields</t>
@@ -16318,12 +16294,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>drf:LISTSUB</t>
+          <t>drf:LISTTAXA</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LISTSUB</t>
+          <t>LISTTAXA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -16334,13 +16310,13 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
+          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Flora of Austria (2005)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -16451,12 +16427,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:LISTSUB</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>LISTSUB</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16467,23 +16443,13 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum
-- M Mode
-Additional values need to be defined in the REFERENCE.</t>
+          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -16594,12 +16560,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>drf:FIELD_NAME</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FIELD_NAME</t>
+          <t>FLAGSTA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -16610,18 +16576,28 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
+          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
+- A Minimum 
+- Z Maximum 
+- S Sum 
+- X Arithmetic average, mean; e.g. monthly average 
+- W Weighted mean 
+- XA average monthly minimum 
+- XZ average monthly maximum 
+- SZ maximum daily sum
+- M Mode
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>TAXA</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>drf:ReferenceCoreFields</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -16727,12 +16703,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>drf:CODE</t>
+          <t>drf:FIELD_NAME</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>FIELD_NAME</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -16743,13 +16719,13 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
+          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>FAG SYLV</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -16860,12 +16836,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>drf:NAME</t>
+          <t>drf:CODE</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -16876,13 +16852,13 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
+          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Fagus sylvatica L.</t>
+          <t>FAG SYLV</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -16993,12 +16969,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>drf:DEFINITON</t>
+          <t>drf:NAME</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DEFINITON</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -17009,13 +16985,13 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
+          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>Fagus sylvatica L.</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -17126,12 +17102,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drf:LIST_CODE</t>
+          <t>drf:DEFINITON</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LIST_CODE</t>
+          <t>DEFINITON</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17142,13 +17118,13 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
+          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://www.catalogueoflife.org/col/</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -17259,12 +17235,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drf:CODE_URL</t>
+          <t>drf:LIST_CODE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CODE_URL</t>
+          <t>LIST_CODE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17275,13 +17251,13 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Reference to the URL or persistent identifier</t>
+          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
+          <t>http://www.catalogueoflife.org/col/</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -17392,12 +17368,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:CODE_URL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>CODE_URL</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17408,18 +17384,18 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Reference to the URL or persistent identifier</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>drf:EventCoreFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -17525,12 +17501,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17541,13 +17517,13 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -17658,12 +17634,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17674,15 +17650,13 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
- This either can be a sample number or the number of a vegetation relevee. 
- Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -17793,12 +17767,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drf:TIME_FROM</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TIME_FROM</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17809,13 +17783,15 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
+ This either can be a sample number or the number of a vegetation relevee. 
+ Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -17926,12 +17902,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>drf:TIME_TO</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TIME_TO</t>
+          <t>TIME_FROM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17942,7 +17918,7 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -18059,12 +18035,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drf:METH_DESCR</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>METH_DESCR</t>
+          <t>TIME_TO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -18075,14 +18051,13 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
- Condition: Please provide, if not contained in METHOD.</t>
+          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -18193,12 +18168,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>drf:EVENT_EFFORT</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>EVENT_EFFORT</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -18209,13 +18184,14 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
+          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
+ Condition: Please provide, if not contained in METHOD.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -18326,12 +18302,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:EVENT_EFFORT</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>EVENT_EFFORT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -18342,13 +18318,13 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable of the sampling effort. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
+          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -18459,12 +18435,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>drf:PHYS_SAMPLE</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PHYS_SAMPLE</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -18475,14 +18451,13 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
- Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
+          <t>Unit [UTF-8 character encoding] of variable of the sampling effort. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -18593,12 +18568,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>drf:NOTES</t>
+          <t>drf:PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NOTES</t>
+          <t>PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -18609,11 +18584,16 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
+          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
+ Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
           <t>drf:EventCoreFields</t>
@@ -18722,12 +18702,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>drf:PARENT_EVENT_ID</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PARENT_EVENT_ID</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -18738,20 +18718,14 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
-This either can be a sample number or the number of a vegetation relevee.
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>drf:EventExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -18857,12 +18831,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>drf:SAMP_EFFORT</t>
+          <t>drf:PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SAMP_EFFORT</t>
+          <t>PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -18873,13 +18847,15 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
+          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
+This either can be a sample number or the number of a vegetation relevee.
+Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -18990,12 +18966,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>drf:HABITAT_TYPE</t>
+          <t>drf:SAMP_EFFORT</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HABITAT_TYPE</t>
+          <t>SAMP_EFFORT</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -19006,13 +18982,13 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
+          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Beech forest</t>
+          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -19123,12 +19099,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>drf:SOIL_TYPE</t>
+          <t>drf:HABITAT_TYPE</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SOIL_TYPE</t>
+          <t>HABITAT_TYPE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -19139,11 +19115,15 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
+          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Beech forest</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>drf:EventExtendedFields</t>
@@ -19252,12 +19232,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:SOIL_TYPE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>SOIL_TYPE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -19268,18 +19248,14 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
+          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>drf:SampleEvent</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -19385,12 +19361,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:SITE_CODE</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>SITE_CODE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -19401,13 +19377,13 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
+          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>IP2_LYS01</t>
+          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -19518,12 +19494,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:STATION_CODE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>STATION_CODE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -19534,15 +19510,13 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
-This either can be a sample number or the number of a vegetation relevee. 
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>SW0045ZOE_20200912</t>
+          <t>IP2_LYS01</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -19653,12 +19627,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -19669,13 +19643,15 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sample identifier [UTF-8 character encoding or PID] as the reference to the sample taken and stored during a sampling campaign</t>
+          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
+This either can be a sample number or the number of a vegetation relevee. 
+Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Z12A35</t>
+          <t>SW0045ZOE_20200912</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -19786,12 +19762,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>drf:MEDIUM</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -19802,23 +19778,13 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
-- AIR air including meteorology 
-- SOIL soil 
-- SOILWAT soil water 
-- WATER runoff and groundwater 
-- SEDIMENT sediments in aquatic environments 
-- LITTER litter fall 
-- BIOCOM biological communities 
-- HUMPOP human population 
-- SITECHAR site characteristics (as habitat or landscape structure) 
-Additional values need to be defined in the REFERENCE.</t>
+          <t>Sample identifier [UTF-8 character encoding or PID] as the reference to the sample taken and stored during a sampling campaign</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>SOILWAT</t>
+          <t>Z12A35</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -19929,12 +19895,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>drf:TIME_FROM</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TIME_FROM</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -19945,13 +19911,23 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>timestamp start time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
+- AIR air including meteorology 
+- SOIL soil 
+- SOILWAT soil water 
+- WATER runoff and groundwater 
+- SEDIMENT sediments in aquatic environments 
+- LITTER litter fall 
+- BIOCOM biological communities 
+- HUMPOP human population 
+- SITECHAR site characteristics (as habitat or landscape structure) 
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00</t>
+          <t>SOILWAT</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -20062,12 +20038,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>drf:TIME_TO</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TIME_TO</t>
+          <t>TIME_FROM</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -20078,7 +20054,7 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>timestamp end time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>timestamp start time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -20195,12 +20171,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>drf:METH_DESCR</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>METH_DESCR</t>
+          <t>TIME_TO</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -20211,14 +20187,13 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
-Condition: Please provide, if not contained in METHOD.</t>
+          <t>timestamp end time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lysimeter station …</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -20329,12 +20304,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>drf:SAMP_SIZE</t>
+          <t>drf:METH_DESCR</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SAMP_SIZE</t>
+          <t>METH_DESCR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -20345,13 +20320,14 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
+          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
+Condition: Please provide, if not contained in METHOD.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Lysimeter station …</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -20462,12 +20438,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:SAMP_SIZE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>SAMP_SIZE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -20478,14 +20454,13 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -20596,12 +20571,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>drf:NOTES</t>
+          <t>drf:UNIT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NOTES</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -20612,11 +20587,16 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Notes on [UTF-8 character encoding] of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
+          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
+For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t>drf:SampleEvent</t>
@@ -20722,6 +20702,135 @@
       <c r="CP156" t="inlineStr"/>
       <c r="CQ156" t="inlineStr"/>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>drf:NOTES</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>skos:Concept</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Notes on [UTF-8 character encoding] of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>drf:SampleEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
+      <c r="AO157" t="inlineStr"/>
+      <c r="AP157" t="inlineStr"/>
+      <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
+      <c r="AS157" t="inlineStr"/>
+      <c r="AT157" t="inlineStr"/>
+      <c r="AU157" t="inlineStr"/>
+      <c r="AV157" t="inlineStr"/>
+      <c r="AW157" t="inlineStr"/>
+      <c r="AX157" t="inlineStr"/>
+      <c r="AY157" t="inlineStr"/>
+      <c r="AZ157" t="inlineStr"/>
+      <c r="BA157" t="inlineStr"/>
+      <c r="BB157" t="inlineStr"/>
+      <c r="BC157" t="inlineStr"/>
+      <c r="BD157" t="inlineStr"/>
+      <c r="BE157" t="inlineStr"/>
+      <c r="BF157" t="inlineStr"/>
+      <c r="BG157" t="inlineStr"/>
+      <c r="BH157" t="inlineStr"/>
+      <c r="BI157" t="inlineStr"/>
+      <c r="BJ157" t="inlineStr"/>
+      <c r="BK157" t="inlineStr"/>
+      <c r="BL157" t="inlineStr"/>
+      <c r="BM157" t="inlineStr"/>
+      <c r="BN157" t="inlineStr"/>
+      <c r="BO157" t="inlineStr"/>
+      <c r="BP157" t="inlineStr"/>
+      <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
+      <c r="BS157" t="inlineStr"/>
+      <c r="BT157" t="inlineStr"/>
+      <c r="BU157" t="inlineStr"/>
+      <c r="BV157" t="inlineStr"/>
+      <c r="BW157" t="inlineStr"/>
+      <c r="BX157" t="inlineStr"/>
+      <c r="BY157" t="inlineStr"/>
+      <c r="BZ157" t="inlineStr"/>
+      <c r="CA157" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="CB157" t="inlineStr">
+        <is>
+          <t>0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="CC157" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="CD157" t="inlineStr"/>
+      <c r="CE157" t="inlineStr"/>
+      <c r="CF157" t="inlineStr"/>
+      <c r="CG157" t="inlineStr"/>
+      <c r="CH157" t="inlineStr"/>
+      <c r="CI157" t="inlineStr"/>
+      <c r="CJ157" t="inlineStr"/>
+      <c r="CK157" t="inlineStr"/>
+      <c r="CL157" t="inlineStr"/>
+      <c r="CM157" t="inlineStr"/>
+      <c r="CN157" t="inlineStr"/>
+      <c r="CO157" t="inlineStr"/>
+      <c r="CP157" t="inlineStr"/>
+      <c r="CQ157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR165"/>
+  <dimension ref="A1:CR134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,7 +5717,11 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>dwc:institutionID</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -5843,7 +5847,11 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>dwc:locationID</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -5969,7 +5977,11 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>dwc:footprintWKT</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -6095,7 +6107,11 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>dwc:decimalLatitude</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -6221,7 +6237,11 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>dwc:decimalLongitude</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -6347,7 +6367,11 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>dwc:verbatimElevation</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -6473,7 +6497,11 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>dwc:totalAreaSampledValue</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -6599,7 +6627,11 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>dwc:locationRemarks</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -6725,7 +6757,11 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>dwc:footprintWKT</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -6851,7 +6887,11 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>dwc:locality</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -6977,7 +7017,11 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>dwc:decimalLongitude</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -7105,7 +7149,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationCoreFields,drf:DataMeasurements,drf:DataMapping,drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7113,7 +7157,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>dwc:institutionID</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -7244,7 +7288,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>drf:StationCoreFields</t>
+          <t>drf:StationCoreFields,drf:DataMeasurements,drf:DataMapping,drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7252,7 +7296,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>dwc:locationID</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -7395,7 +7439,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>dwc:footprintWKT</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -7542,7 +7586,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:minimumElevationInMeters</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -7693,7 +7737,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:maximumElevationInMeters</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -7840,7 +7884,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>dwc:verbatimElevation</t>
+          <t>dwc:countryCode</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -7984,11 +8028,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>dwc:totalAreaSampledValue</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
@@ -8122,11 +8162,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>dwc:locationRemarks</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -8256,11 +8292,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>dwc:footprintWKT</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -8396,7 +8428,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>dwc:locality</t>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -8538,7 +8570,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:habitat</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -8682,11 +8714,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>dwc:decimalLongitude</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
@@ -8828,11 +8856,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>dwc:decimalLatitude</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
@@ -8976,7 +9000,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:measurementType</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -9122,7 +9146,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>dwc:minimumElevationInMeters</t>
+          <t>dwc:measurementMethod</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -9268,7 +9292,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>dwc:maximumElevationInMeters</t>
+          <t>dwc:measurementUnit</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -9410,7 +9434,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>dwc:countryCode</t>
+          <t>dwc:samplingProtocol</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -9550,7 +9574,11 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>dwc:measurementMethod</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -9684,7 +9712,11 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>dwc:measurementMethod</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -9814,7 +9846,11 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>dwc:dataGeneralizations</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -10086,11 +10122,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>dwc:habitat</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -10224,7 +10256,11 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>dwc:eventDate</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -10490,7 +10526,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:MethodCoreFields,drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10758,13 +10794,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>drf:MethodCoreFields</t>
+          <t>drf:MethodCoreFields,drf:DataMeasurements,drf:DataMapping,drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>dwc:materialSampleID</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -10898,7 +10938,11 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>dwc:verbatimCoordinates</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -11166,7 +11210,11 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>dwc:scientificName</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -11300,7 +11348,11 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>dwc:ownerInstitutionCode</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -11401,12 +11453,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:VERT_OFFSET</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>VERT_OFFSET</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11417,18 +11469,22 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -11437,7 +11493,11 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -11535,12 +11595,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:HORI_OFFSET</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>HORI_OFFSET</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11551,20 +11611,22 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-- Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-- Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>IP2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11573,7 +11635,11 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>unit:M</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
@@ -11671,12 +11737,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:TIME</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11687,25 +11753,33 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-</t>
+          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
+If aggregations are provided the timestamp is provided as the following 
+- annual aggregation – provide only the year as YYYY 
+- monthly aggregations – provide only the month as YYYY-MM 
+- daily aggregations – provide the day as YYYY-MM-DD 
+ Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>dwc:maximumDistanceAboveSurfaceInMeters</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -11806,12 +11880,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:VALUE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11822,35 +11896,31 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -11948,12 +12018,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:FLAGQUA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>FLAGQUA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11964,22 +12034,19 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
+Examples:
+- Q quality controlled value 
+- L less than detection limit 
+- E estimated from measured value 
+Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11988,11 +12055,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -12090,12 +12153,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:FLAGSTA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>FLAGSTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12106,36 +12169,38 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- DB ALK Alkalinity 
-- DB BOD Biochemical oxygen demand 
-- DB TC Total carbon 
-- DB DC Dissolved carbon 
-- DB DIC Dissolved inorganic carbon 
-- DB DOC Dissolved organic carbon 
-- DB DOD Direct oxygen demand 
-- DB NH3 Ammonia 
-- DB NH4 Ammonium 
-- DB NH4N Ammonium as nitrogen 
- If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
+          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
+- A Minimum 
+- Z Maximum 
+- S Sum 
+- X Arithmetic average, mean; e.g. monthly average 
+- W Weighted mean 
+- XA average monthly minimum 
+- XZ average monthly maximum 
+- SZ maximum daily sum 
+- M Mode 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>dwc:year</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -12236,12 +12301,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:SAMPLE_ID</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>SAMPLE_ID</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12252,29 +12317,29 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-If aggregations are provided the timestamp is provided as the following 
-- annual aggregation – provide only the year as YYYY 
-- monthly aggregations – provide only the month as YYYY-MM 
-- daily aggregations – provide the day as YYYY-MM-DD 
- Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
+          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
+Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2017-03-03T13:00+02:00 or 2017 or 2017-03 or 2017-03-03</t>
+          <t>S0001_2020_A</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>dwc:month</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -12375,12 +12440,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:ABS_POSITION</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>ABS_POSITION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12391,24 +12456,30 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [decimal number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
+          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
+Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
+Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45.234765, 12.783563, 1230</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMeasurements,drf:DataMapping</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>dwc:day</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -12509,12 +12580,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:LAYER</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>LAYER</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12525,19 +12596,27 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
+- LEVEL Name 
+- T Tree layer 
+- T1 Tree layer 1 
+- T2 Tree layer 2 
+- T3 Tree layer 3 
+- S Shrub layer 
+- F Field layer 
+- B Bottom layer 
+If alternative codings are used, this needs to be specified in the REFERENCE.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -12644,12 +12723,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:TAXA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12660,19 +12739,19 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Examples:
-- Q quality controlled value 
-- L less than detection limit 
-- E estimated from measured value 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
+In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>FAG SYLV</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataMapping</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12779,12 +12858,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:ORG_NAME</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>ORG_NAME</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12795,28 +12874,18 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum 
-- M Mode 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>EAA</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12923,12 +12992,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:SUBPROG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>SUBPROG</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -12939,19 +13008,23 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
-Condition: only used, if a sampling event is defined</t>
+          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
+ BIOCHEM biogeochemistry data 
+ STRUCTU Structure and function of ecosystems, communities and populations 
+ HUMANEC human population and economy 
+ SITECHA site characteristics (land use and land cover) 
+ Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>P20200912-EA-456</t>
+          <t>BIOCHEM</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -13058,12 +13131,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:LISTMED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>LISTMED</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13074,19 +13147,18 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
-Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>ELTER</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>drf:DataMeasurements</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -13193,12 +13265,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drf:SITE_CODE</t>
+          <t>drf:MAX_LEVEL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SITE_CODE</t>
+          <t>MAX_LEVEL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13209,18 +13281,22 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -13229,7 +13305,11 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
@@ -13327,12 +13407,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>drf:STATION_CODE</t>
+          <t>drf:MIN_LEVEL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>STATION_CODE</t>
+          <t>MIN_LEVEL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13343,20 +13423,22 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION. In case of nested plots, the identification of the subplot is provided separated by a dash, e.g. IP2_01. 
-Condition 1: in case the data refer to the whole area of the SITE and no STATION is identified, the field STATION_CODE is left blank. 
-Condition 2: in case no permanent plots are installed to be revisited and absolute location (e.g. by GPS device) is provided (see ABS_POSITION), the field STATION_CODE is left blank.</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>P0094</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -13365,7 +13447,11 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>unit:CentiM</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
@@ -13463,12 +13549,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>drf:ABS_POSITION</t>
+          <t>drf:SIZE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ABS_POSITION</t>
+          <t>SIZE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13479,20 +13565,22 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Absolute 3D coordinates [decimal number] expressed in decimal degree [dec °] WGS84 using at least 6-digits after the decimal separator of a single observation within the site or station. When a specific location is available in the dataset record (e.g. if the STATION is an area and many observations/records are available within that area, the absolute position is that of the single record). 
-Condition 1: if a ABSOLUTE_POSITION is provided the STATION normally is left empty. 
-Condition 2: if an ABSOLUTE POSITION is provided the HORIZONTAL OFFSET is left blank.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>45.234765, 12.783563, 1230</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -13501,7 +13589,11 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>unit:M2</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
@@ -13599,12 +13691,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>drf:VERT_OFFSET</t>
+          <t>drf:YEAR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VERT_OFFSET</t>
+          <t>YEAR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13615,22 +13707,23 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Height of measurement [decimal number] in [cm] as vertical offset from the surface level. For terrestrial ecosystems this is above the land surface. For aquatic or marine ecosystems this is the water surface. Values can be positive (offset above surface) or negative (offset below surface).</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
+Alternative: 
+Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
+Any time information 
+- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
+- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>2017 or 2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13639,11 +13732,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -13741,12 +13830,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drf:HORI_OFFSET</t>
+          <t>drf:MONTH</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HORI_OFFSET</t>
+          <t>MONTH</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13757,35 +13846,31 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Horizontal offset [number] from the reference point of a transect in meter [m].</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>dwc:nomenclaturalCode</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>unit:M</t>
-        </is>
-      </c>
+      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
@@ -13883,12 +13968,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>drf:TIME</t>
+          <t>drf:DAY</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -13899,25 +13984,28 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>timestamp of measurement [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00) 
-Condition: if the field TIME is used, the columns YEAR, MONTH, DAY, HOUR, MINUTE, SECOND are omitted</t>
+          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>42797</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>dwc:scientificName</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -14018,12 +14106,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>drf:VARIABLE</t>
+          <t>drf:HOUR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VARIABLE</t>
+          <t>HOUR</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -14034,25 +14122,18 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Code for Variable observed [UTF-8 character encoding] described in the METHOD for the variable / parameter name as abbreviation 
-- LISTSUB VARIABLE Name 
-- IM ABUND Abundance of species 
-- IM COVE_T species cover tree layer 
-- IM COVE_S species cover shrub layer 
-- IM COVE_F species cover field layer 
-- IM COVE_B species cover bottom layer COVER cover in % AREA area (e.g. in ha – see unit) 
-If possible, use standard encodings for the variable names (e.g. ICP Integrated Monitoring). Additional values can be defined, but need to be documented in the REFERENCE</t>
+          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ABUND</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -14159,12 +14240,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drf:LAYER</t>
+          <t>drf:MINUTE</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LAYER</t>
+          <t>MINUTE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -14175,27 +14256,18 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Code for the ecosystem layer addressed [UTF-8 character encoding] as letter code. 
-- LEVEL Name 
-- T Tree layer 
-- T1 Tree layer 1 
-- T2 Tree layer 2 
-- T3 Tree layer 3 
-- S Shrub layer 
-- F Field layer 
-- B Bottom layer 
-If alternative codings are used, this needs to be specified in the REFERENCE.</t>
+          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -14302,12 +14374,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>drf:TAXA</t>
+          <t>drf:SECOND</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TAXA</t>
+          <t>SECOND</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -14318,19 +14390,18 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Name of entity observed [UTF-8 character encoding] (e.g. species name or habitat type) either defined by a letter code (e.g. genus &amp; species or abbreviation), a number code or the full name. 
-In case of using letter codes or number codes the definition needs to be provided in the REFERENCE.</t>
+          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FAG SYLV</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -14437,12 +14508,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>drf:VALUE</t>
+          <t>drf:SPOOL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>SPOOL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -14453,7 +14524,8 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Data value [[UTF-8 character encoding] or [number]] of the observation. The comma separator needs to be consistently used in the data file either being ‘,’ or ‘.’</t>
+          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
+If not relevant or described in METHOD, leave blank.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -14464,13 +14536,17 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>dwc:eventID</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -14571,12 +14647,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>drf:UNIT</t>
+          <t>drf:TPOOL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>TPOOL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14587,25 +14663,29 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
+          <t>Temporal pool [number] as the number of observations used to calculate the data value 
+If not relevant or described in METHOD, leave blank.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>dimles</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>dwc:eventDate / eventTime</t>
+        </is>
+      </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -14706,12 +14786,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>drf:FLAGQUA</t>
+          <t>drf:TLEVEL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FLAGQUA</t>
+          <t>TLEVEL</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -14722,21 +14802,32 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Quality flag [UTF-8 character encoding] for the data values based on the applied data quality control procedure as provided by the local system. 
-Additional values can be defined or quality measures according to the local procedure (e.g. % of valid values for aggregation) can be used, but need to be documented in the REFERENCE.</t>
+          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
+- HOUR hourly values (60 min) 
+- DAY daily values (24 hrs) 
+- WEEK weekly values (7 days) 
+- MONTH monthly values 
+- SEASON seasonly values (e.g. spring) 
+- HYEAR half yearly values (6 month) 6 month 
+- YEAR yearly values (12 month) 
+Additional values can be defined, but need to be documented in the REFERENCE.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>dwc:eventDate / eventTime</t>
+        </is>
+      </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -14837,12 +14928,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>drf:EVENT_ID</t>
+          <t>drf:LISTTAXA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>EVENT_ID</t>
+          <t>LISTTAXA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14853,19 +14944,18 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Reference to the Sampling event [UTF-8 character encoding] as defined in EVENT 
- Condition: only used, if a sampling event is defined</t>
+          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>VegRel_45_20200912</t>
+          <t>Flora of Austria (2005)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -14972,12 +15062,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>drf:SAMPLE_ID</t>
+          <t>drf:LISTSUB</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SAMPLE_ID</t>
+          <t>LISTSUB</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -14988,25 +15078,28 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Reference to the Sample-ID [UTF-8 character encoding] as defined in SAMPLE 
- Condition: only used, if a sample is taken and analysed and information on the sample is relevant and provided</t>
+          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>S0001_2020_A</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>drf:DataMapping</t>
+          <t>drf:DataExtendedFields</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>dwc:samplingEffort</t>
+        </is>
+      </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -15107,12 +15200,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drf:ORG_NAME</t>
+          <t>drf:FIELD_NAME</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ORG_NAME</t>
+          <t>FIELD_NAME</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -15123,24 +15216,28 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Abbreviation or name of the organisation [UTF-8 character encoding] providing the data</t>
+          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>EAA</t>
+          <t>TAXA</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>dwc:materialSampleID</t>
+        </is>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -15241,12 +15338,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>drf:SUBPROG</t>
+          <t>drf:CODE</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SUBPROG</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -15257,29 +15354,28 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Code for the sub programme [UTF-8 character encoding] for which the data are reported, e.g. BIOCHEM for “biogeochemical data” within the site. This refers to the parameter groups or thematic grouping of data. 
- BIOCHEM biogeochemistry data 
- STRUCTU Structure and function of ecosystems, communities and populations 
- HUMANEC human population and economy 
- SITECHA site characteristics (land use and land cover) 
- Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>BIOCHEM</t>
+          <t>FAG SYLV</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>dwc:fieldNotes</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -15380,12 +15476,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>drf:MEDIUM</t>
+          <t>drf:NAME</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -15396,34 +15492,28 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Medium [UTF-8 character encoding] – as the code for the sampled medium (feature of interest) in the observation procedure, e.g. 
- AIR air including meteorology 
- SOIL soil 
- SOILWAT soil water
-WATER runoff and groundwater
-SEDIMENT sediments in aquatic environments
-LITTER litter fall
-BIOCOM biological communities
-HUMPOP human population
-SITECHAR site characteristics (as habitat or landscape structure)
-Additional values need to be defined in the REFERENCE.</t>
+          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>AIR</t>
+          <t>Fagus sylvatica L.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>dwc:eventID</t>
+        </is>
+      </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -15524,12 +15614,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drf:LISTMED</t>
+          <t>drf:DEFINITON</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LISTMED</t>
+          <t>DEFINITON</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -15540,24 +15630,28 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Reference list medium [UTF-8 character encoding] – as reference to the list used. Use the code ‘ADD’ if the code is defined by the user. Otherwise use reference to the reference list.</t>
+          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>ELTER</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>dwc:samplingEffort</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -15658,12 +15752,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drf:MAX_LEVEL</t>
+          <t>drf:LIST_CODE</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAX_LEVEL</t>
+          <t>LIST_CODE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -15674,35 +15768,31 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Upper measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20).</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>http://www.catalogueoflife.org/col/</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>dwc:habitat</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
@@ -15800,12 +15890,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>drf:MIN_LEVEL</t>
+          <t>drf:CODE_URL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MIN_LEVEL</t>
+          <t>CODE_URL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -15816,22 +15906,18 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Lower measurement level [number] in [cm] if a range for the observation is provided; the land/water surface is the zero level; values below the surface are provided as negative values (e.g. -20), values above the surface are provided as positive values (e.g. 20)</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+          <t>Reference to the URL or persistent identifier</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:ReferenceCoreFields</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -15840,11 +15926,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>unit:CentiM</t>
-        </is>
-      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
@@ -15942,12 +16024,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>drf:SIZE</t>
+          <t>drf:EVENT_ID</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIZE</t>
+          <t>EVENT_ID</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -15958,35 +16040,33 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Size of the sampling plot [number] in [m²] where the observation takes place or the size of the area for which the aggregated values are representative (e.g. the site or part of the site such as the forested area)</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
+ This either can be a sample number or the number of a vegetation relevee. 
+ Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields,drf:DataMeasurements,drf:DataMapping,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>dwc:materialSample</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>unit:M2</t>
-        </is>
-      </c>
+      <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
@@ -16084,12 +16164,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>drf:YEAR</t>
+          <t>drf:TIME_FROM</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>TIME_FROM</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16100,29 +16180,29 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Year [YYYY] of the measurement or the year for which the measurements were aggregated the year of an observation (e.g. plants) 
-Alternative: 
-Time stamp as [ISO date], see ISO 8601: calendar dates as YYYY-MM-DD, time as HH:MM:SS plus a time zone designator (as UTC plus offset), e.g. 2007-04-05T12:30:00-02:00 
-Any time information 
-- in UTC (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z), 
-- or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
+          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2017 or 2017-03-03T13:00+02:00</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dwc:sampleSizeValue
+</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -16223,12 +16303,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>drf:MONTH</t>
+          <t>drf:TIME_TO</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MONTH</t>
+          <t>TIME_TO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -16239,18 +16319,18 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Month [MM] of the measurement or aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2017-03-03T13:00+02:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -16357,12 +16437,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>drf:DAY</t>
+          <t>drf:METH_DESCR_Event</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>METH_DESCR_Event</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16373,18 +16453,19 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Day [DD] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
+ Condition: Please provide, if not contained in METHOD.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -16491,12 +16572,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>drf:HOUR</t>
+          <t>drf:EVENT_EFFORT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HOUR</t>
+          <t>EVENT_EFFORT</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -16507,18 +16588,18 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hour [HH] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -16625,12 +16706,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>drf:MINUTE</t>
+          <t>drf:PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MINUTE</t>
+          <t>PHYS_SAMPLE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -16641,18 +16722,19 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Minute [mm] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
+ Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -16759,12 +16841,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>drf:SECOND</t>
+          <t>drf:NOTES</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SECOND</t>
+          <t>NOTES</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -16775,18 +16857,14 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Second [ss] of the measurement or the aggregation. Leave blank if not relevant -&gt; see notes Year for aggregated time information</t>
+          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventCoreFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -16893,12 +16971,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>drf:SPOOL</t>
+          <t>drf:PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SPOOL</t>
+          <t>PARENT_EVENT_ID</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -16909,19 +16987,20 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Spatial pool [number] as the number of spatial entities (e.g. sensors, plots) used to calculate the data value 
-If not relevant or described in METHOD, leave blank.</t>
+          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
+This either can be a sample number or the number of a vegetation relevee.
+Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -17028,12 +17107,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drf:TPOOL</t>
+          <t>drf:SAMP_EFFORT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TPOOL</t>
+          <t>SAMP_EFFORT</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17044,19 +17123,18 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Temporal pool [number] as the number of observations used to calculate the data value 
-If not relevant or described in METHOD, leave blank.</t>
+          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -17163,12 +17241,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drf:TLEVEL</t>
+          <t>drf:HABITAT_TYPE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TLEVEL</t>
+          <t>HABITAT_TYPE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17179,22 +17257,18 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Temporal level of aggregation or observation [UTF-8 character encoding] 
-- HOUR hourly values (60 min) 
-- DAY daily values (24 hrs) 
-- WEEK weekly values (7 days) 
-- MONTH monthly values 
-- SEASON seasonly values (e.g. spring) 
-- HYEAR half yearly values (6 month) 6 month 
-- YEAR yearly values (12 month) 
-Additional values can be defined, but need to be documented in the REFERENCE.</t>
+          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Beech forest</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -17301,12 +17375,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>drf:LISTTAXA</t>
+          <t>drf:SOIL_TYPE</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LISTTAXA</t>
+          <t>SOIL_TYPE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17317,18 +17391,14 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Reference to the taxonomic list [UTF-8 character encoding] used for the observations</t>
+          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Flora of Austria (2005)</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:EventExtendedFields</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -17435,12 +17505,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>drf:LISTSUB</t>
+          <t>drf:MEDIUM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LISTSUB</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17451,18 +17521,28 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Reference to the code [UTF-8 character encoding] list of substances and parameter names, e.g. EnvThes or other vocabularies. Use ADD if defined by the user.</t>
+          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
+- AIR air including meteorology 
+- SOIL soil 
+- SOILWAT soil water 
+- WATER runoff and groundwater 
+- SEDIMENT sediments in aquatic environments 
+- LITTER litter fall 
+- BIOCOM biological communities 
+- HUMPOP human population 
+- SITECHAR site characteristics (as habitat or landscape structure) 
+Additional values need to be defined in the REFERENCE.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>SOILWAT</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:DataExtendedFields,drf:SampleEvent</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -17569,12 +17649,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>drf:FLAGSTA</t>
+          <t>drf:SAMP_SIZE</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FLAGSTA</t>
+          <t>SAMP_SIZE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17585,28 +17665,18 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Status flag [UTF-8 character encoding] for the data defining the level of aggregation of the data value according to the attached list of possible values. If not relevant leave blank. 
-- A Minimum 
-- Z Maximum 
-- S Sum 
-- X Arithmetic average, mean; e.g. monthly average 
-- W Weighted mean 
-- XA average monthly minimum 
-- XZ average monthly maximum 
-- SZ maximum daily sum
-- M Mode
-Additional values need to be defined in the REFERENCE.</t>
+          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>drf:DataExtendedFields</t>
+          <t>drf:SampleEvent</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -17710,4168 +17780,6 @@
       <c r="CQ134" t="inlineStr"/>
       <c r="CR134" t="inlineStr"/>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>drf:FIELD_NAME</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>FIELD_NAME</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Name of the field [UTF-8 character encoding] in the data reporting documents as reference</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>TAXA</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
-      <c r="AC135" t="inlineStr"/>
-      <c r="AD135" t="inlineStr"/>
-      <c r="AE135" t="inlineStr"/>
-      <c r="AF135" t="inlineStr"/>
-      <c r="AG135" t="inlineStr"/>
-      <c r="AH135" t="inlineStr"/>
-      <c r="AI135" t="inlineStr"/>
-      <c r="AJ135" t="inlineStr"/>
-      <c r="AK135" t="inlineStr"/>
-      <c r="AL135" t="inlineStr"/>
-      <c r="AM135" t="inlineStr"/>
-      <c r="AN135" t="inlineStr"/>
-      <c r="AO135" t="inlineStr"/>
-      <c r="AP135" t="inlineStr"/>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
-      <c r="AT135" t="inlineStr"/>
-      <c r="AU135" t="inlineStr"/>
-      <c r="AV135" t="inlineStr"/>
-      <c r="AW135" t="inlineStr"/>
-      <c r="AX135" t="inlineStr"/>
-      <c r="AY135" t="inlineStr"/>
-      <c r="AZ135" t="inlineStr"/>
-      <c r="BA135" t="inlineStr"/>
-      <c r="BB135" t="inlineStr"/>
-      <c r="BC135" t="inlineStr"/>
-      <c r="BD135" t="inlineStr"/>
-      <c r="BE135" t="inlineStr"/>
-      <c r="BF135" t="inlineStr"/>
-      <c r="BG135" t="inlineStr"/>
-      <c r="BH135" t="inlineStr"/>
-      <c r="BI135" t="inlineStr"/>
-      <c r="BJ135" t="inlineStr"/>
-      <c r="BK135" t="inlineStr"/>
-      <c r="BL135" t="inlineStr"/>
-      <c r="BM135" t="inlineStr"/>
-      <c r="BN135" t="inlineStr"/>
-      <c r="BO135" t="inlineStr"/>
-      <c r="BP135" t="inlineStr"/>
-      <c r="BQ135" t="inlineStr"/>
-      <c r="BR135" t="inlineStr"/>
-      <c r="BS135" t="inlineStr"/>
-      <c r="BT135" t="inlineStr"/>
-      <c r="BU135" t="inlineStr"/>
-      <c r="BV135" t="inlineStr"/>
-      <c r="BW135" t="inlineStr"/>
-      <c r="BX135" t="inlineStr"/>
-      <c r="BY135" t="inlineStr"/>
-      <c r="BZ135" t="inlineStr"/>
-      <c r="CA135" t="inlineStr"/>
-      <c r="CB135" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC135" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD135" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE135" t="inlineStr"/>
-      <c r="CF135" t="inlineStr"/>
-      <c r="CG135" t="inlineStr"/>
-      <c r="CH135" t="inlineStr"/>
-      <c r="CI135" t="inlineStr"/>
-      <c r="CJ135" t="inlineStr"/>
-      <c r="CK135" t="inlineStr"/>
-      <c r="CL135" t="inlineStr"/>
-      <c r="CM135" t="inlineStr"/>
-      <c r="CN135" t="inlineStr"/>
-      <c r="CO135" t="inlineStr"/>
-      <c r="CP135" t="inlineStr"/>
-      <c r="CQ135" t="inlineStr"/>
-      <c r="CR135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>drf:CODE</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CODE</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Code of the entry [UTF-8 character encoding] defined as abbreviation of the term, e.g. parameter name</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>FAG SYLV</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
-      <c r="AF136" t="inlineStr"/>
-      <c r="AG136" t="inlineStr"/>
-      <c r="AH136" t="inlineStr"/>
-      <c r="AI136" t="inlineStr"/>
-      <c r="AJ136" t="inlineStr"/>
-      <c r="AK136" t="inlineStr"/>
-      <c r="AL136" t="inlineStr"/>
-      <c r="AM136" t="inlineStr"/>
-      <c r="AN136" t="inlineStr"/>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
-      <c r="AT136" t="inlineStr"/>
-      <c r="AU136" t="inlineStr"/>
-      <c r="AV136" t="inlineStr"/>
-      <c r="AW136" t="inlineStr"/>
-      <c r="AX136" t="inlineStr"/>
-      <c r="AY136" t="inlineStr"/>
-      <c r="AZ136" t="inlineStr"/>
-      <c r="BA136" t="inlineStr"/>
-      <c r="BB136" t="inlineStr"/>
-      <c r="BC136" t="inlineStr"/>
-      <c r="BD136" t="inlineStr"/>
-      <c r="BE136" t="inlineStr"/>
-      <c r="BF136" t="inlineStr"/>
-      <c r="BG136" t="inlineStr"/>
-      <c r="BH136" t="inlineStr"/>
-      <c r="BI136" t="inlineStr"/>
-      <c r="BJ136" t="inlineStr"/>
-      <c r="BK136" t="inlineStr"/>
-      <c r="BL136" t="inlineStr"/>
-      <c r="BM136" t="inlineStr"/>
-      <c r="BN136" t="inlineStr"/>
-      <c r="BO136" t="inlineStr"/>
-      <c r="BP136" t="inlineStr"/>
-      <c r="BQ136" t="inlineStr"/>
-      <c r="BR136" t="inlineStr"/>
-      <c r="BS136" t="inlineStr"/>
-      <c r="BT136" t="inlineStr"/>
-      <c r="BU136" t="inlineStr"/>
-      <c r="BV136" t="inlineStr"/>
-      <c r="BW136" t="inlineStr"/>
-      <c r="BX136" t="inlineStr"/>
-      <c r="BY136" t="inlineStr"/>
-      <c r="BZ136" t="inlineStr"/>
-      <c r="CA136" t="inlineStr"/>
-      <c r="CB136" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC136" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD136" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE136" t="inlineStr"/>
-      <c r="CF136" t="inlineStr"/>
-      <c r="CG136" t="inlineStr"/>
-      <c r="CH136" t="inlineStr"/>
-      <c r="CI136" t="inlineStr"/>
-      <c r="CJ136" t="inlineStr"/>
-      <c r="CK136" t="inlineStr"/>
-      <c r="CL136" t="inlineStr"/>
-      <c r="CM136" t="inlineStr"/>
-      <c r="CN136" t="inlineStr"/>
-      <c r="CO136" t="inlineStr"/>
-      <c r="CP136" t="inlineStr"/>
-      <c r="CQ136" t="inlineStr"/>
-      <c r="CR136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>drf:NAME</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Full name [UTF-8 character encoding] defined as the full name of the term,e.g. full species name</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Fagus sylvatica L.</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
-      <c r="AF137" t="inlineStr"/>
-      <c r="AG137" t="inlineStr"/>
-      <c r="AH137" t="inlineStr"/>
-      <c r="AI137" t="inlineStr"/>
-      <c r="AJ137" t="inlineStr"/>
-      <c r="AK137" t="inlineStr"/>
-      <c r="AL137" t="inlineStr"/>
-      <c r="AM137" t="inlineStr"/>
-      <c r="AN137" t="inlineStr"/>
-      <c r="AO137" t="inlineStr"/>
-      <c r="AP137" t="inlineStr"/>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
-      <c r="AS137" t="inlineStr"/>
-      <c r="AT137" t="inlineStr"/>
-      <c r="AU137" t="inlineStr"/>
-      <c r="AV137" t="inlineStr"/>
-      <c r="AW137" t="inlineStr"/>
-      <c r="AX137" t="inlineStr"/>
-      <c r="AY137" t="inlineStr"/>
-      <c r="AZ137" t="inlineStr"/>
-      <c r="BA137" t="inlineStr"/>
-      <c r="BB137" t="inlineStr"/>
-      <c r="BC137" t="inlineStr"/>
-      <c r="BD137" t="inlineStr"/>
-      <c r="BE137" t="inlineStr"/>
-      <c r="BF137" t="inlineStr"/>
-      <c r="BG137" t="inlineStr"/>
-      <c r="BH137" t="inlineStr"/>
-      <c r="BI137" t="inlineStr"/>
-      <c r="BJ137" t="inlineStr"/>
-      <c r="BK137" t="inlineStr"/>
-      <c r="BL137" t="inlineStr"/>
-      <c r="BM137" t="inlineStr"/>
-      <c r="BN137" t="inlineStr"/>
-      <c r="BO137" t="inlineStr"/>
-      <c r="BP137" t="inlineStr"/>
-      <c r="BQ137" t="inlineStr"/>
-      <c r="BR137" t="inlineStr"/>
-      <c r="BS137" t="inlineStr"/>
-      <c r="BT137" t="inlineStr"/>
-      <c r="BU137" t="inlineStr"/>
-      <c r="BV137" t="inlineStr"/>
-      <c r="BW137" t="inlineStr"/>
-      <c r="BX137" t="inlineStr"/>
-      <c r="BY137" t="inlineStr"/>
-      <c r="BZ137" t="inlineStr"/>
-      <c r="CA137" t="inlineStr"/>
-      <c r="CB137" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC137" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD137" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE137" t="inlineStr"/>
-      <c r="CF137" t="inlineStr"/>
-      <c r="CG137" t="inlineStr"/>
-      <c r="CH137" t="inlineStr"/>
-      <c r="CI137" t="inlineStr"/>
-      <c r="CJ137" t="inlineStr"/>
-      <c r="CK137" t="inlineStr"/>
-      <c r="CL137" t="inlineStr"/>
-      <c r="CM137" t="inlineStr"/>
-      <c r="CN137" t="inlineStr"/>
-      <c r="CO137" t="inlineStr"/>
-      <c r="CP137" t="inlineStr"/>
-      <c r="CQ137" t="inlineStr"/>
-      <c r="CR137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>drf:DEFINITON</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>DEFINITON</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Definition [UTF-8 character encoding] of the term used, in order to allow the user to understand the data.</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
-      <c r="AG138" t="inlineStr"/>
-      <c r="AH138" t="inlineStr"/>
-      <c r="AI138" t="inlineStr"/>
-      <c r="AJ138" t="inlineStr"/>
-      <c r="AK138" t="inlineStr"/>
-      <c r="AL138" t="inlineStr"/>
-      <c r="AM138" t="inlineStr"/>
-      <c r="AN138" t="inlineStr"/>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
-      <c r="AS138" t="inlineStr"/>
-      <c r="AT138" t="inlineStr"/>
-      <c r="AU138" t="inlineStr"/>
-      <c r="AV138" t="inlineStr"/>
-      <c r="AW138" t="inlineStr"/>
-      <c r="AX138" t="inlineStr"/>
-      <c r="AY138" t="inlineStr"/>
-      <c r="AZ138" t="inlineStr"/>
-      <c r="BA138" t="inlineStr"/>
-      <c r="BB138" t="inlineStr"/>
-      <c r="BC138" t="inlineStr"/>
-      <c r="BD138" t="inlineStr"/>
-      <c r="BE138" t="inlineStr"/>
-      <c r="BF138" t="inlineStr"/>
-      <c r="BG138" t="inlineStr"/>
-      <c r="BH138" t="inlineStr"/>
-      <c r="BI138" t="inlineStr"/>
-      <c r="BJ138" t="inlineStr"/>
-      <c r="BK138" t="inlineStr"/>
-      <c r="BL138" t="inlineStr"/>
-      <c r="BM138" t="inlineStr"/>
-      <c r="BN138" t="inlineStr"/>
-      <c r="BO138" t="inlineStr"/>
-      <c r="BP138" t="inlineStr"/>
-      <c r="BQ138" t="inlineStr"/>
-      <c r="BR138" t="inlineStr"/>
-      <c r="BS138" t="inlineStr"/>
-      <c r="BT138" t="inlineStr"/>
-      <c r="BU138" t="inlineStr"/>
-      <c r="BV138" t="inlineStr"/>
-      <c r="BW138" t="inlineStr"/>
-      <c r="BX138" t="inlineStr"/>
-      <c r="BY138" t="inlineStr"/>
-      <c r="BZ138" t="inlineStr"/>
-      <c r="CA138" t="inlineStr"/>
-      <c r="CB138" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC138" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD138" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE138" t="inlineStr"/>
-      <c r="CF138" t="inlineStr"/>
-      <c r="CG138" t="inlineStr"/>
-      <c r="CH138" t="inlineStr"/>
-      <c r="CI138" t="inlineStr"/>
-      <c r="CJ138" t="inlineStr"/>
-      <c r="CK138" t="inlineStr"/>
-      <c r="CL138" t="inlineStr"/>
-      <c r="CM138" t="inlineStr"/>
-      <c r="CN138" t="inlineStr"/>
-      <c r="CO138" t="inlineStr"/>
-      <c r="CP138" t="inlineStr"/>
-      <c r="CQ138" t="inlineStr"/>
-      <c r="CR138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>drf:LIST_CODE</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>LIST_CODE</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Name or reference [URL] of the code list; if referring to an existing code list the name of the code list is provided (e.g. DB, EnvThes). If the code is defined by the user, use ‘ADD’ as identification</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>http://www.catalogueoflife.org/col/</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
-      <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr"/>
-      <c r="AH139" t="inlineStr"/>
-      <c r="AI139" t="inlineStr"/>
-      <c r="AJ139" t="inlineStr"/>
-      <c r="AK139" t="inlineStr"/>
-      <c r="AL139" t="inlineStr"/>
-      <c r="AM139" t="inlineStr"/>
-      <c r="AN139" t="inlineStr"/>
-      <c r="AO139" t="inlineStr"/>
-      <c r="AP139" t="inlineStr"/>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
-      <c r="AS139" t="inlineStr"/>
-      <c r="AT139" t="inlineStr"/>
-      <c r="AU139" t="inlineStr"/>
-      <c r="AV139" t="inlineStr"/>
-      <c r="AW139" t="inlineStr"/>
-      <c r="AX139" t="inlineStr"/>
-      <c r="AY139" t="inlineStr"/>
-      <c r="AZ139" t="inlineStr"/>
-      <c r="BA139" t="inlineStr"/>
-      <c r="BB139" t="inlineStr"/>
-      <c r="BC139" t="inlineStr"/>
-      <c r="BD139" t="inlineStr"/>
-      <c r="BE139" t="inlineStr"/>
-      <c r="BF139" t="inlineStr"/>
-      <c r="BG139" t="inlineStr"/>
-      <c r="BH139" t="inlineStr"/>
-      <c r="BI139" t="inlineStr"/>
-      <c r="BJ139" t="inlineStr"/>
-      <c r="BK139" t="inlineStr"/>
-      <c r="BL139" t="inlineStr"/>
-      <c r="BM139" t="inlineStr"/>
-      <c r="BN139" t="inlineStr"/>
-      <c r="BO139" t="inlineStr"/>
-      <c r="BP139" t="inlineStr"/>
-      <c r="BQ139" t="inlineStr"/>
-      <c r="BR139" t="inlineStr"/>
-      <c r="BS139" t="inlineStr"/>
-      <c r="BT139" t="inlineStr"/>
-      <c r="BU139" t="inlineStr"/>
-      <c r="BV139" t="inlineStr"/>
-      <c r="BW139" t="inlineStr"/>
-      <c r="BX139" t="inlineStr"/>
-      <c r="BY139" t="inlineStr"/>
-      <c r="BZ139" t="inlineStr"/>
-      <c r="CA139" t="inlineStr"/>
-      <c r="CB139" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC139" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD139" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE139" t="inlineStr"/>
-      <c r="CF139" t="inlineStr"/>
-      <c r="CG139" t="inlineStr"/>
-      <c r="CH139" t="inlineStr"/>
-      <c r="CI139" t="inlineStr"/>
-      <c r="CJ139" t="inlineStr"/>
-      <c r="CK139" t="inlineStr"/>
-      <c r="CL139" t="inlineStr"/>
-      <c r="CM139" t="inlineStr"/>
-      <c r="CN139" t="inlineStr"/>
-      <c r="CO139" t="inlineStr"/>
-      <c r="CP139" t="inlineStr"/>
-      <c r="CQ139" t="inlineStr"/>
-      <c r="CR139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>drf:CODE_URL</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>CODE_URL</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Reference to the URL or persistent identifier</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>http://www.catalogueoflife.org/ col/details/species/id/ 1f4cac67d34e7473fb5092f2fa66f4d2</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>drf:ReferenceCoreFields</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
-      <c r="AC140" t="inlineStr"/>
-      <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr"/>
-      <c r="AF140" t="inlineStr"/>
-      <c r="AG140" t="inlineStr"/>
-      <c r="AH140" t="inlineStr"/>
-      <c r="AI140" t="inlineStr"/>
-      <c r="AJ140" t="inlineStr"/>
-      <c r="AK140" t="inlineStr"/>
-      <c r="AL140" t="inlineStr"/>
-      <c r="AM140" t="inlineStr"/>
-      <c r="AN140" t="inlineStr"/>
-      <c r="AO140" t="inlineStr"/>
-      <c r="AP140" t="inlineStr"/>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
-      <c r="AS140" t="inlineStr"/>
-      <c r="AT140" t="inlineStr"/>
-      <c r="AU140" t="inlineStr"/>
-      <c r="AV140" t="inlineStr"/>
-      <c r="AW140" t="inlineStr"/>
-      <c r="AX140" t="inlineStr"/>
-      <c r="AY140" t="inlineStr"/>
-      <c r="AZ140" t="inlineStr"/>
-      <c r="BA140" t="inlineStr"/>
-      <c r="BB140" t="inlineStr"/>
-      <c r="BC140" t="inlineStr"/>
-      <c r="BD140" t="inlineStr"/>
-      <c r="BE140" t="inlineStr"/>
-      <c r="BF140" t="inlineStr"/>
-      <c r="BG140" t="inlineStr"/>
-      <c r="BH140" t="inlineStr"/>
-      <c r="BI140" t="inlineStr"/>
-      <c r="BJ140" t="inlineStr"/>
-      <c r="BK140" t="inlineStr"/>
-      <c r="BL140" t="inlineStr"/>
-      <c r="BM140" t="inlineStr"/>
-      <c r="BN140" t="inlineStr"/>
-      <c r="BO140" t="inlineStr"/>
-      <c r="BP140" t="inlineStr"/>
-      <c r="BQ140" t="inlineStr"/>
-      <c r="BR140" t="inlineStr"/>
-      <c r="BS140" t="inlineStr"/>
-      <c r="BT140" t="inlineStr"/>
-      <c r="BU140" t="inlineStr"/>
-      <c r="BV140" t="inlineStr"/>
-      <c r="BW140" t="inlineStr"/>
-      <c r="BX140" t="inlineStr"/>
-      <c r="BY140" t="inlineStr"/>
-      <c r="BZ140" t="inlineStr"/>
-      <c r="CA140" t="inlineStr"/>
-      <c r="CB140" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC140" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD140" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE140" t="inlineStr"/>
-      <c r="CF140" t="inlineStr"/>
-      <c r="CG140" t="inlineStr"/>
-      <c r="CH140" t="inlineStr"/>
-      <c r="CI140" t="inlineStr"/>
-      <c r="CJ140" t="inlineStr"/>
-      <c r="CK140" t="inlineStr"/>
-      <c r="CL140" t="inlineStr"/>
-      <c r="CM140" t="inlineStr"/>
-      <c r="CN140" t="inlineStr"/>
-      <c r="CO140" t="inlineStr"/>
-      <c r="CP140" t="inlineStr"/>
-      <c r="CQ140" t="inlineStr"/>
-      <c r="CR140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>drf:SITE_CODE</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>SITE_CODE</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
-      <c r="AB141" t="inlineStr"/>
-      <c r="AC141" t="inlineStr"/>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
-      <c r="AF141" t="inlineStr"/>
-      <c r="AG141" t="inlineStr"/>
-      <c r="AH141" t="inlineStr"/>
-      <c r="AI141" t="inlineStr"/>
-      <c r="AJ141" t="inlineStr"/>
-      <c r="AK141" t="inlineStr"/>
-      <c r="AL141" t="inlineStr"/>
-      <c r="AM141" t="inlineStr"/>
-      <c r="AN141" t="inlineStr"/>
-      <c r="AO141" t="inlineStr"/>
-      <c r="AP141" t="inlineStr"/>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
-      <c r="AS141" t="inlineStr"/>
-      <c r="AT141" t="inlineStr"/>
-      <c r="AU141" t="inlineStr"/>
-      <c r="AV141" t="inlineStr"/>
-      <c r="AW141" t="inlineStr"/>
-      <c r="AX141" t="inlineStr"/>
-      <c r="AY141" t="inlineStr"/>
-      <c r="AZ141" t="inlineStr"/>
-      <c r="BA141" t="inlineStr"/>
-      <c r="BB141" t="inlineStr"/>
-      <c r="BC141" t="inlineStr"/>
-      <c r="BD141" t="inlineStr"/>
-      <c r="BE141" t="inlineStr"/>
-      <c r="BF141" t="inlineStr"/>
-      <c r="BG141" t="inlineStr"/>
-      <c r="BH141" t="inlineStr"/>
-      <c r="BI141" t="inlineStr"/>
-      <c r="BJ141" t="inlineStr"/>
-      <c r="BK141" t="inlineStr"/>
-      <c r="BL141" t="inlineStr"/>
-      <c r="BM141" t="inlineStr"/>
-      <c r="BN141" t="inlineStr"/>
-      <c r="BO141" t="inlineStr"/>
-      <c r="BP141" t="inlineStr"/>
-      <c r="BQ141" t="inlineStr"/>
-      <c r="BR141" t="inlineStr"/>
-      <c r="BS141" t="inlineStr"/>
-      <c r="BT141" t="inlineStr"/>
-      <c r="BU141" t="inlineStr"/>
-      <c r="BV141" t="inlineStr"/>
-      <c r="BW141" t="inlineStr"/>
-      <c r="BX141" t="inlineStr"/>
-      <c r="BY141" t="inlineStr"/>
-      <c r="BZ141" t="inlineStr"/>
-      <c r="CA141" t="inlineStr"/>
-      <c r="CB141" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC141" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD141" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE141" t="inlineStr"/>
-      <c r="CF141" t="inlineStr"/>
-      <c r="CG141" t="inlineStr"/>
-      <c r="CH141" t="inlineStr"/>
-      <c r="CI141" t="inlineStr"/>
-      <c r="CJ141" t="inlineStr"/>
-      <c r="CK141" t="inlineStr"/>
-      <c r="CL141" t="inlineStr"/>
-      <c r="CM141" t="inlineStr"/>
-      <c r="CN141" t="inlineStr"/>
-      <c r="CO141" t="inlineStr"/>
-      <c r="CP141" t="inlineStr"/>
-      <c r="CQ141" t="inlineStr"/>
-      <c r="CR141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>drf:STATION_CODE</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>STATION_CODE</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>IP2</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
-      <c r="AK142" t="inlineStr"/>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
-      <c r="AN142" t="inlineStr"/>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
-      <c r="AU142" t="inlineStr"/>
-      <c r="AV142" t="inlineStr"/>
-      <c r="AW142" t="inlineStr"/>
-      <c r="AX142" t="inlineStr"/>
-      <c r="AY142" t="inlineStr"/>
-      <c r="AZ142" t="inlineStr"/>
-      <c r="BA142" t="inlineStr"/>
-      <c r="BB142" t="inlineStr"/>
-      <c r="BC142" t="inlineStr"/>
-      <c r="BD142" t="inlineStr"/>
-      <c r="BE142" t="inlineStr"/>
-      <c r="BF142" t="inlineStr"/>
-      <c r="BG142" t="inlineStr"/>
-      <c r="BH142" t="inlineStr"/>
-      <c r="BI142" t="inlineStr"/>
-      <c r="BJ142" t="inlineStr"/>
-      <c r="BK142" t="inlineStr"/>
-      <c r="BL142" t="inlineStr"/>
-      <c r="BM142" t="inlineStr"/>
-      <c r="BN142" t="inlineStr"/>
-      <c r="BO142" t="inlineStr"/>
-      <c r="BP142" t="inlineStr"/>
-      <c r="BQ142" t="inlineStr"/>
-      <c r="BR142" t="inlineStr"/>
-      <c r="BS142" t="inlineStr"/>
-      <c r="BT142" t="inlineStr"/>
-      <c r="BU142" t="inlineStr"/>
-      <c r="BV142" t="inlineStr"/>
-      <c r="BW142" t="inlineStr"/>
-      <c r="BX142" t="inlineStr"/>
-      <c r="BY142" t="inlineStr"/>
-      <c r="BZ142" t="inlineStr"/>
-      <c r="CA142" t="inlineStr"/>
-      <c r="CB142" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC142" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD142" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE142" t="inlineStr"/>
-      <c r="CF142" t="inlineStr"/>
-      <c r="CG142" t="inlineStr"/>
-      <c r="CH142" t="inlineStr"/>
-      <c r="CI142" t="inlineStr"/>
-      <c r="CJ142" t="inlineStr"/>
-      <c r="CK142" t="inlineStr"/>
-      <c r="CL142" t="inlineStr"/>
-      <c r="CM142" t="inlineStr"/>
-      <c r="CN142" t="inlineStr"/>
-      <c r="CO142" t="inlineStr"/>
-      <c r="CP142" t="inlineStr"/>
-      <c r="CQ142" t="inlineStr"/>
-      <c r="CR142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>drf:EVENT_ID</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>EVENT_ID</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
- This either can be a sample number or the number of a vegetation relevee. 
- Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
-      <c r="AF143" t="inlineStr"/>
-      <c r="AG143" t="inlineStr"/>
-      <c r="AH143" t="inlineStr"/>
-      <c r="AI143" t="inlineStr"/>
-      <c r="AJ143" t="inlineStr"/>
-      <c r="AK143" t="inlineStr"/>
-      <c r="AL143" t="inlineStr"/>
-      <c r="AM143" t="inlineStr"/>
-      <c r="AN143" t="inlineStr"/>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
-      <c r="AT143" t="inlineStr"/>
-      <c r="AU143" t="inlineStr"/>
-      <c r="AV143" t="inlineStr"/>
-      <c r="AW143" t="inlineStr"/>
-      <c r="AX143" t="inlineStr"/>
-      <c r="AY143" t="inlineStr"/>
-      <c r="AZ143" t="inlineStr"/>
-      <c r="BA143" t="inlineStr"/>
-      <c r="BB143" t="inlineStr"/>
-      <c r="BC143" t="inlineStr"/>
-      <c r="BD143" t="inlineStr"/>
-      <c r="BE143" t="inlineStr"/>
-      <c r="BF143" t="inlineStr"/>
-      <c r="BG143" t="inlineStr"/>
-      <c r="BH143" t="inlineStr"/>
-      <c r="BI143" t="inlineStr"/>
-      <c r="BJ143" t="inlineStr"/>
-      <c r="BK143" t="inlineStr"/>
-      <c r="BL143" t="inlineStr"/>
-      <c r="BM143" t="inlineStr"/>
-      <c r="BN143" t="inlineStr"/>
-      <c r="BO143" t="inlineStr"/>
-      <c r="BP143" t="inlineStr"/>
-      <c r="BQ143" t="inlineStr"/>
-      <c r="BR143" t="inlineStr"/>
-      <c r="BS143" t="inlineStr"/>
-      <c r="BT143" t="inlineStr"/>
-      <c r="BU143" t="inlineStr"/>
-      <c r="BV143" t="inlineStr"/>
-      <c r="BW143" t="inlineStr"/>
-      <c r="BX143" t="inlineStr"/>
-      <c r="BY143" t="inlineStr"/>
-      <c r="BZ143" t="inlineStr"/>
-      <c r="CA143" t="inlineStr"/>
-      <c r="CB143" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC143" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD143" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE143" t="inlineStr"/>
-      <c r="CF143" t="inlineStr"/>
-      <c r="CG143" t="inlineStr"/>
-      <c r="CH143" t="inlineStr"/>
-      <c r="CI143" t="inlineStr"/>
-      <c r="CJ143" t="inlineStr"/>
-      <c r="CK143" t="inlineStr"/>
-      <c r="CL143" t="inlineStr"/>
-      <c r="CM143" t="inlineStr"/>
-      <c r="CN143" t="inlineStr"/>
-      <c r="CO143" t="inlineStr"/>
-      <c r="CP143" t="inlineStr"/>
-      <c r="CQ143" t="inlineStr"/>
-      <c r="CR143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>drf:TIME_FROM</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>TIME_FROM</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>timestamp of starting the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
-      <c r="AC144" t="inlineStr"/>
-      <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr"/>
-      <c r="AF144" t="inlineStr"/>
-      <c r="AG144" t="inlineStr"/>
-      <c r="AH144" t="inlineStr"/>
-      <c r="AI144" t="inlineStr"/>
-      <c r="AJ144" t="inlineStr"/>
-      <c r="AK144" t="inlineStr"/>
-      <c r="AL144" t="inlineStr"/>
-      <c r="AM144" t="inlineStr"/>
-      <c r="AN144" t="inlineStr"/>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="inlineStr"/>
-      <c r="AT144" t="inlineStr"/>
-      <c r="AU144" t="inlineStr"/>
-      <c r="AV144" t="inlineStr"/>
-      <c r="AW144" t="inlineStr"/>
-      <c r="AX144" t="inlineStr"/>
-      <c r="AY144" t="inlineStr"/>
-      <c r="AZ144" t="inlineStr"/>
-      <c r="BA144" t="inlineStr"/>
-      <c r="BB144" t="inlineStr"/>
-      <c r="BC144" t="inlineStr"/>
-      <c r="BD144" t="inlineStr"/>
-      <c r="BE144" t="inlineStr"/>
-      <c r="BF144" t="inlineStr"/>
-      <c r="BG144" t="inlineStr"/>
-      <c r="BH144" t="inlineStr"/>
-      <c r="BI144" t="inlineStr"/>
-      <c r="BJ144" t="inlineStr"/>
-      <c r="BK144" t="inlineStr"/>
-      <c r="BL144" t="inlineStr"/>
-      <c r="BM144" t="inlineStr"/>
-      <c r="BN144" t="inlineStr"/>
-      <c r="BO144" t="inlineStr"/>
-      <c r="BP144" t="inlineStr"/>
-      <c r="BQ144" t="inlineStr"/>
-      <c r="BR144" t="inlineStr"/>
-      <c r="BS144" t="inlineStr"/>
-      <c r="BT144" t="inlineStr"/>
-      <c r="BU144" t="inlineStr"/>
-      <c r="BV144" t="inlineStr"/>
-      <c r="BW144" t="inlineStr"/>
-      <c r="BX144" t="inlineStr"/>
-      <c r="BY144" t="inlineStr"/>
-      <c r="BZ144" t="inlineStr"/>
-      <c r="CA144" t="inlineStr"/>
-      <c r="CB144" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC144" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD144" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE144" t="inlineStr"/>
-      <c r="CF144" t="inlineStr"/>
-      <c r="CG144" t="inlineStr"/>
-      <c r="CH144" t="inlineStr"/>
-      <c r="CI144" t="inlineStr"/>
-      <c r="CJ144" t="inlineStr"/>
-      <c r="CK144" t="inlineStr"/>
-      <c r="CL144" t="inlineStr"/>
-      <c r="CM144" t="inlineStr"/>
-      <c r="CN144" t="inlineStr"/>
-      <c r="CO144" t="inlineStr"/>
-      <c r="CP144" t="inlineStr"/>
-      <c r="CQ144" t="inlineStr"/>
-      <c r="CR144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>drf:TIME_TO</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>TIME_TO</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>timestamp of ending the event [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="inlineStr"/>
-      <c r="AC145" t="inlineStr"/>
-      <c r="AD145" t="inlineStr"/>
-      <c r="AE145" t="inlineStr"/>
-      <c r="AF145" t="inlineStr"/>
-      <c r="AG145" t="inlineStr"/>
-      <c r="AH145" t="inlineStr"/>
-      <c r="AI145" t="inlineStr"/>
-      <c r="AJ145" t="inlineStr"/>
-      <c r="AK145" t="inlineStr"/>
-      <c r="AL145" t="inlineStr"/>
-      <c r="AM145" t="inlineStr"/>
-      <c r="AN145" t="inlineStr"/>
-      <c r="AO145" t="inlineStr"/>
-      <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
-      <c r="AS145" t="inlineStr"/>
-      <c r="AT145" t="inlineStr"/>
-      <c r="AU145" t="inlineStr"/>
-      <c r="AV145" t="inlineStr"/>
-      <c r="AW145" t="inlineStr"/>
-      <c r="AX145" t="inlineStr"/>
-      <c r="AY145" t="inlineStr"/>
-      <c r="AZ145" t="inlineStr"/>
-      <c r="BA145" t="inlineStr"/>
-      <c r="BB145" t="inlineStr"/>
-      <c r="BC145" t="inlineStr"/>
-      <c r="BD145" t="inlineStr"/>
-      <c r="BE145" t="inlineStr"/>
-      <c r="BF145" t="inlineStr"/>
-      <c r="BG145" t="inlineStr"/>
-      <c r="BH145" t="inlineStr"/>
-      <c r="BI145" t="inlineStr"/>
-      <c r="BJ145" t="inlineStr"/>
-      <c r="BK145" t="inlineStr"/>
-      <c r="BL145" t="inlineStr"/>
-      <c r="BM145" t="inlineStr"/>
-      <c r="BN145" t="inlineStr"/>
-      <c r="BO145" t="inlineStr"/>
-      <c r="BP145" t="inlineStr"/>
-      <c r="BQ145" t="inlineStr"/>
-      <c r="BR145" t="inlineStr"/>
-      <c r="BS145" t="inlineStr"/>
-      <c r="BT145" t="inlineStr"/>
-      <c r="BU145" t="inlineStr"/>
-      <c r="BV145" t="inlineStr"/>
-      <c r="BW145" t="inlineStr"/>
-      <c r="BX145" t="inlineStr"/>
-      <c r="BY145" t="inlineStr"/>
-      <c r="BZ145" t="inlineStr"/>
-      <c r="CA145" t="inlineStr"/>
-      <c r="CB145" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC145" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD145" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE145" t="inlineStr"/>
-      <c r="CF145" t="inlineStr"/>
-      <c r="CG145" t="inlineStr"/>
-      <c r="CH145" t="inlineStr"/>
-      <c r="CI145" t="inlineStr"/>
-      <c r="CJ145" t="inlineStr"/>
-      <c r="CK145" t="inlineStr"/>
-      <c r="CL145" t="inlineStr"/>
-      <c r="CM145" t="inlineStr"/>
-      <c r="CN145" t="inlineStr"/>
-      <c r="CO145" t="inlineStr"/>
-      <c r="CP145" t="inlineStr"/>
-      <c r="CQ145" t="inlineStr"/>
-      <c r="CR145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>drf:METH_DESCR</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>METH_DESCR</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
- Condition: Please provide, if not contained in METHOD.</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Random sampling of spruce stands in the entire area of the site; 5 regularly spaced (10 m) positions on a transect; etc.</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="inlineStr"/>
-      <c r="AC146" t="inlineStr"/>
-      <c r="AD146" t="inlineStr"/>
-      <c r="AE146" t="inlineStr"/>
-      <c r="AF146" t="inlineStr"/>
-      <c r="AG146" t="inlineStr"/>
-      <c r="AH146" t="inlineStr"/>
-      <c r="AI146" t="inlineStr"/>
-      <c r="AJ146" t="inlineStr"/>
-      <c r="AK146" t="inlineStr"/>
-      <c r="AL146" t="inlineStr"/>
-      <c r="AM146" t="inlineStr"/>
-      <c r="AN146" t="inlineStr"/>
-      <c r="AO146" t="inlineStr"/>
-      <c r="AP146" t="inlineStr"/>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
-      <c r="AS146" t="inlineStr"/>
-      <c r="AT146" t="inlineStr"/>
-      <c r="AU146" t="inlineStr"/>
-      <c r="AV146" t="inlineStr"/>
-      <c r="AW146" t="inlineStr"/>
-      <c r="AX146" t="inlineStr"/>
-      <c r="AY146" t="inlineStr"/>
-      <c r="AZ146" t="inlineStr"/>
-      <c r="BA146" t="inlineStr"/>
-      <c r="BB146" t="inlineStr"/>
-      <c r="BC146" t="inlineStr"/>
-      <c r="BD146" t="inlineStr"/>
-      <c r="BE146" t="inlineStr"/>
-      <c r="BF146" t="inlineStr"/>
-      <c r="BG146" t="inlineStr"/>
-      <c r="BH146" t="inlineStr"/>
-      <c r="BI146" t="inlineStr"/>
-      <c r="BJ146" t="inlineStr"/>
-      <c r="BK146" t="inlineStr"/>
-      <c r="BL146" t="inlineStr"/>
-      <c r="BM146" t="inlineStr"/>
-      <c r="BN146" t="inlineStr"/>
-      <c r="BO146" t="inlineStr"/>
-      <c r="BP146" t="inlineStr"/>
-      <c r="BQ146" t="inlineStr"/>
-      <c r="BR146" t="inlineStr"/>
-      <c r="BS146" t="inlineStr"/>
-      <c r="BT146" t="inlineStr"/>
-      <c r="BU146" t="inlineStr"/>
-      <c r="BV146" t="inlineStr"/>
-      <c r="BW146" t="inlineStr"/>
-      <c r="BX146" t="inlineStr"/>
-      <c r="BY146" t="inlineStr"/>
-      <c r="BZ146" t="inlineStr"/>
-      <c r="CA146" t="inlineStr"/>
-      <c r="CB146" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC146" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD146" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE146" t="inlineStr"/>
-      <c r="CF146" t="inlineStr"/>
-      <c r="CG146" t="inlineStr"/>
-      <c r="CH146" t="inlineStr"/>
-      <c r="CI146" t="inlineStr"/>
-      <c r="CJ146" t="inlineStr"/>
-      <c r="CK146" t="inlineStr"/>
-      <c r="CL146" t="inlineStr"/>
-      <c r="CM146" t="inlineStr"/>
-      <c r="CN146" t="inlineStr"/>
-      <c r="CO146" t="inlineStr"/>
-      <c r="CP146" t="inlineStr"/>
-      <c r="CQ146" t="inlineStr"/>
-      <c r="CR146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>drf:EVENT_EFFORT</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>EVENT_EFFORT</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>A numeric value [number] for a measurement of the effort taken (time duration, length, area, or volume) in a sampling event.</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
-      <c r="AB147" t="inlineStr"/>
-      <c r="AC147" t="inlineStr"/>
-      <c r="AD147" t="inlineStr"/>
-      <c r="AE147" t="inlineStr"/>
-      <c r="AF147" t="inlineStr"/>
-      <c r="AG147" t="inlineStr"/>
-      <c r="AH147" t="inlineStr"/>
-      <c r="AI147" t="inlineStr"/>
-      <c r="AJ147" t="inlineStr"/>
-      <c r="AK147" t="inlineStr"/>
-      <c r="AL147" t="inlineStr"/>
-      <c r="AM147" t="inlineStr"/>
-      <c r="AN147" t="inlineStr"/>
-      <c r="AO147" t="inlineStr"/>
-      <c r="AP147" t="inlineStr"/>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
-      <c r="AS147" t="inlineStr"/>
-      <c r="AT147" t="inlineStr"/>
-      <c r="AU147" t="inlineStr"/>
-      <c r="AV147" t="inlineStr"/>
-      <c r="AW147" t="inlineStr"/>
-      <c r="AX147" t="inlineStr"/>
-      <c r="AY147" t="inlineStr"/>
-      <c r="AZ147" t="inlineStr"/>
-      <c r="BA147" t="inlineStr"/>
-      <c r="BB147" t="inlineStr"/>
-      <c r="BC147" t="inlineStr"/>
-      <c r="BD147" t="inlineStr"/>
-      <c r="BE147" t="inlineStr"/>
-      <c r="BF147" t="inlineStr"/>
-      <c r="BG147" t="inlineStr"/>
-      <c r="BH147" t="inlineStr"/>
-      <c r="BI147" t="inlineStr"/>
-      <c r="BJ147" t="inlineStr"/>
-      <c r="BK147" t="inlineStr"/>
-      <c r="BL147" t="inlineStr"/>
-      <c r="BM147" t="inlineStr"/>
-      <c r="BN147" t="inlineStr"/>
-      <c r="BO147" t="inlineStr"/>
-      <c r="BP147" t="inlineStr"/>
-      <c r="BQ147" t="inlineStr"/>
-      <c r="BR147" t="inlineStr"/>
-      <c r="BS147" t="inlineStr"/>
-      <c r="BT147" t="inlineStr"/>
-      <c r="BU147" t="inlineStr"/>
-      <c r="BV147" t="inlineStr"/>
-      <c r="BW147" t="inlineStr"/>
-      <c r="BX147" t="inlineStr"/>
-      <c r="BY147" t="inlineStr"/>
-      <c r="BZ147" t="inlineStr"/>
-      <c r="CA147" t="inlineStr"/>
-      <c r="CB147" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC147" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD147" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE147" t="inlineStr"/>
-      <c r="CF147" t="inlineStr"/>
-      <c r="CG147" t="inlineStr"/>
-      <c r="CH147" t="inlineStr"/>
-      <c r="CI147" t="inlineStr"/>
-      <c r="CJ147" t="inlineStr"/>
-      <c r="CK147" t="inlineStr"/>
-      <c r="CL147" t="inlineStr"/>
-      <c r="CM147" t="inlineStr"/>
-      <c r="CN147" t="inlineStr"/>
-      <c r="CO147" t="inlineStr"/>
-      <c r="CP147" t="inlineStr"/>
-      <c r="CQ147" t="inlineStr"/>
-      <c r="CR147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>drf:UNIT</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Unit [UTF-8 character encoding] of variable of the sampling effort. For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used.</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
-      <c r="AA148" t="inlineStr"/>
-      <c r="AB148" t="inlineStr"/>
-      <c r="AC148" t="inlineStr"/>
-      <c r="AD148" t="inlineStr"/>
-      <c r="AE148" t="inlineStr"/>
-      <c r="AF148" t="inlineStr"/>
-      <c r="AG148" t="inlineStr"/>
-      <c r="AH148" t="inlineStr"/>
-      <c r="AI148" t="inlineStr"/>
-      <c r="AJ148" t="inlineStr"/>
-      <c r="AK148" t="inlineStr"/>
-      <c r="AL148" t="inlineStr"/>
-      <c r="AM148" t="inlineStr"/>
-      <c r="AN148" t="inlineStr"/>
-      <c r="AO148" t="inlineStr"/>
-      <c r="AP148" t="inlineStr"/>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
-      <c r="AS148" t="inlineStr"/>
-      <c r="AT148" t="inlineStr"/>
-      <c r="AU148" t="inlineStr"/>
-      <c r="AV148" t="inlineStr"/>
-      <c r="AW148" t="inlineStr"/>
-      <c r="AX148" t="inlineStr"/>
-      <c r="AY148" t="inlineStr"/>
-      <c r="AZ148" t="inlineStr"/>
-      <c r="BA148" t="inlineStr"/>
-      <c r="BB148" t="inlineStr"/>
-      <c r="BC148" t="inlineStr"/>
-      <c r="BD148" t="inlineStr"/>
-      <c r="BE148" t="inlineStr"/>
-      <c r="BF148" t="inlineStr"/>
-      <c r="BG148" t="inlineStr"/>
-      <c r="BH148" t="inlineStr"/>
-      <c r="BI148" t="inlineStr"/>
-      <c r="BJ148" t="inlineStr"/>
-      <c r="BK148" t="inlineStr"/>
-      <c r="BL148" t="inlineStr"/>
-      <c r="BM148" t="inlineStr"/>
-      <c r="BN148" t="inlineStr"/>
-      <c r="BO148" t="inlineStr"/>
-      <c r="BP148" t="inlineStr"/>
-      <c r="BQ148" t="inlineStr"/>
-      <c r="BR148" t="inlineStr"/>
-      <c r="BS148" t="inlineStr"/>
-      <c r="BT148" t="inlineStr"/>
-      <c r="BU148" t="inlineStr"/>
-      <c r="BV148" t="inlineStr"/>
-      <c r="BW148" t="inlineStr"/>
-      <c r="BX148" t="inlineStr"/>
-      <c r="BY148" t="inlineStr"/>
-      <c r="BZ148" t="inlineStr"/>
-      <c r="CA148" t="inlineStr"/>
-      <c r="CB148" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC148" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD148" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE148" t="inlineStr"/>
-      <c r="CF148" t="inlineStr"/>
-      <c r="CG148" t="inlineStr"/>
-      <c r="CH148" t="inlineStr"/>
-      <c r="CI148" t="inlineStr"/>
-      <c r="CJ148" t="inlineStr"/>
-      <c r="CK148" t="inlineStr"/>
-      <c r="CL148" t="inlineStr"/>
-      <c r="CM148" t="inlineStr"/>
-      <c r="CN148" t="inlineStr"/>
-      <c r="CO148" t="inlineStr"/>
-      <c r="CP148" t="inlineStr"/>
-      <c r="CQ148" t="inlineStr"/>
-      <c r="CR148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>drf:PHYS_SAMPLE</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>PHYS_SAMPLE</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Physical sample [Boolean; 0/-1] taken and stored. A SAMPLE is the representative part or a single item from a larger whole or group. Please, provide a information if you have taken and stored a physical sample and you can provide details on 
- Condition: if yes [-1] a description in SAMPLE needs to be provided.</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
-      <c r="AB149" t="inlineStr"/>
-      <c r="AC149" t="inlineStr"/>
-      <c r="AD149" t="inlineStr"/>
-      <c r="AE149" t="inlineStr"/>
-      <c r="AF149" t="inlineStr"/>
-      <c r="AG149" t="inlineStr"/>
-      <c r="AH149" t="inlineStr"/>
-      <c r="AI149" t="inlineStr"/>
-      <c r="AJ149" t="inlineStr"/>
-      <c r="AK149" t="inlineStr"/>
-      <c r="AL149" t="inlineStr"/>
-      <c r="AM149" t="inlineStr"/>
-      <c r="AN149" t="inlineStr"/>
-      <c r="AO149" t="inlineStr"/>
-      <c r="AP149" t="inlineStr"/>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
-      <c r="AS149" t="inlineStr"/>
-      <c r="AT149" t="inlineStr"/>
-      <c r="AU149" t="inlineStr"/>
-      <c r="AV149" t="inlineStr"/>
-      <c r="AW149" t="inlineStr"/>
-      <c r="AX149" t="inlineStr"/>
-      <c r="AY149" t="inlineStr"/>
-      <c r="AZ149" t="inlineStr"/>
-      <c r="BA149" t="inlineStr"/>
-      <c r="BB149" t="inlineStr"/>
-      <c r="BC149" t="inlineStr"/>
-      <c r="BD149" t="inlineStr"/>
-      <c r="BE149" t="inlineStr"/>
-      <c r="BF149" t="inlineStr"/>
-      <c r="BG149" t="inlineStr"/>
-      <c r="BH149" t="inlineStr"/>
-      <c r="BI149" t="inlineStr"/>
-      <c r="BJ149" t="inlineStr"/>
-      <c r="BK149" t="inlineStr"/>
-      <c r="BL149" t="inlineStr"/>
-      <c r="BM149" t="inlineStr"/>
-      <c r="BN149" t="inlineStr"/>
-      <c r="BO149" t="inlineStr"/>
-      <c r="BP149" t="inlineStr"/>
-      <c r="BQ149" t="inlineStr"/>
-      <c r="BR149" t="inlineStr"/>
-      <c r="BS149" t="inlineStr"/>
-      <c r="BT149" t="inlineStr"/>
-      <c r="BU149" t="inlineStr"/>
-      <c r="BV149" t="inlineStr"/>
-      <c r="BW149" t="inlineStr"/>
-      <c r="BX149" t="inlineStr"/>
-      <c r="BY149" t="inlineStr"/>
-      <c r="BZ149" t="inlineStr"/>
-      <c r="CA149" t="inlineStr"/>
-      <c r="CB149" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC149" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD149" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE149" t="inlineStr"/>
-      <c r="CF149" t="inlineStr"/>
-      <c r="CG149" t="inlineStr"/>
-      <c r="CH149" t="inlineStr"/>
-      <c r="CI149" t="inlineStr"/>
-      <c r="CJ149" t="inlineStr"/>
-      <c r="CK149" t="inlineStr"/>
-      <c r="CL149" t="inlineStr"/>
-      <c r="CM149" t="inlineStr"/>
-      <c r="CN149" t="inlineStr"/>
-      <c r="CO149" t="inlineStr"/>
-      <c r="CP149" t="inlineStr"/>
-      <c r="CQ149" t="inlineStr"/>
-      <c r="CR149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>drf:NOTES</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Notes [UTF-8 character encoding] on of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>drf:EventCoreFields</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr"/>
-      <c r="AB150" t="inlineStr"/>
-      <c r="AC150" t="inlineStr"/>
-      <c r="AD150" t="inlineStr"/>
-      <c r="AE150" t="inlineStr"/>
-      <c r="AF150" t="inlineStr"/>
-      <c r="AG150" t="inlineStr"/>
-      <c r="AH150" t="inlineStr"/>
-      <c r="AI150" t="inlineStr"/>
-      <c r="AJ150" t="inlineStr"/>
-      <c r="AK150" t="inlineStr"/>
-      <c r="AL150" t="inlineStr"/>
-      <c r="AM150" t="inlineStr"/>
-      <c r="AN150" t="inlineStr"/>
-      <c r="AO150" t="inlineStr"/>
-      <c r="AP150" t="inlineStr"/>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
-      <c r="AS150" t="inlineStr"/>
-      <c r="AT150" t="inlineStr"/>
-      <c r="AU150" t="inlineStr"/>
-      <c r="AV150" t="inlineStr"/>
-      <c r="AW150" t="inlineStr"/>
-      <c r="AX150" t="inlineStr"/>
-      <c r="AY150" t="inlineStr"/>
-      <c r="AZ150" t="inlineStr"/>
-      <c r="BA150" t="inlineStr"/>
-      <c r="BB150" t="inlineStr"/>
-      <c r="BC150" t="inlineStr"/>
-      <c r="BD150" t="inlineStr"/>
-      <c r="BE150" t="inlineStr"/>
-      <c r="BF150" t="inlineStr"/>
-      <c r="BG150" t="inlineStr"/>
-      <c r="BH150" t="inlineStr"/>
-      <c r="BI150" t="inlineStr"/>
-      <c r="BJ150" t="inlineStr"/>
-      <c r="BK150" t="inlineStr"/>
-      <c r="BL150" t="inlineStr"/>
-      <c r="BM150" t="inlineStr"/>
-      <c r="BN150" t="inlineStr"/>
-      <c r="BO150" t="inlineStr"/>
-      <c r="BP150" t="inlineStr"/>
-      <c r="BQ150" t="inlineStr"/>
-      <c r="BR150" t="inlineStr"/>
-      <c r="BS150" t="inlineStr"/>
-      <c r="BT150" t="inlineStr"/>
-      <c r="BU150" t="inlineStr"/>
-      <c r="BV150" t="inlineStr"/>
-      <c r="BW150" t="inlineStr"/>
-      <c r="BX150" t="inlineStr"/>
-      <c r="BY150" t="inlineStr"/>
-      <c r="BZ150" t="inlineStr"/>
-      <c r="CA150" t="inlineStr"/>
-      <c r="CB150" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC150" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD150" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE150" t="inlineStr"/>
-      <c r="CF150" t="inlineStr"/>
-      <c r="CG150" t="inlineStr"/>
-      <c r="CH150" t="inlineStr"/>
-      <c r="CI150" t="inlineStr"/>
-      <c r="CJ150" t="inlineStr"/>
-      <c r="CK150" t="inlineStr"/>
-      <c r="CL150" t="inlineStr"/>
-      <c r="CM150" t="inlineStr"/>
-      <c r="CN150" t="inlineStr"/>
-      <c r="CO150" t="inlineStr"/>
-      <c r="CP150" t="inlineStr"/>
-      <c r="CQ150" t="inlineStr"/>
-      <c r="CR150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>drf:PARENT_EVENT_ID</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>PARENT_EVENT_ID</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>An event identifier [UTF-8 character encoding] for the super event which is composed of one or more sub-sampling events. The value must refer to an existing EVENT_ID. If the identifier is local it must exist within the given dataset. May be a globally unique identifier or an identifier specific to the data set.
-This either can be a sample number or the number of a vegetation relevee.
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>SW0045ZOE_20200912 or VegRel_45_20200912</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>drf:EventExtendedFields</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
-      <c r="AB151" t="inlineStr"/>
-      <c r="AC151" t="inlineStr"/>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
-      <c r="AF151" t="inlineStr"/>
-      <c r="AG151" t="inlineStr"/>
-      <c r="AH151" t="inlineStr"/>
-      <c r="AI151" t="inlineStr"/>
-      <c r="AJ151" t="inlineStr"/>
-      <c r="AK151" t="inlineStr"/>
-      <c r="AL151" t="inlineStr"/>
-      <c r="AM151" t="inlineStr"/>
-      <c r="AN151" t="inlineStr"/>
-      <c r="AO151" t="inlineStr"/>
-      <c r="AP151" t="inlineStr"/>
-      <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
-      <c r="AS151" t="inlineStr"/>
-      <c r="AT151" t="inlineStr"/>
-      <c r="AU151" t="inlineStr"/>
-      <c r="AV151" t="inlineStr"/>
-      <c r="AW151" t="inlineStr"/>
-      <c r="AX151" t="inlineStr"/>
-      <c r="AY151" t="inlineStr"/>
-      <c r="AZ151" t="inlineStr"/>
-      <c r="BA151" t="inlineStr"/>
-      <c r="BB151" t="inlineStr"/>
-      <c r="BC151" t="inlineStr"/>
-      <c r="BD151" t="inlineStr"/>
-      <c r="BE151" t="inlineStr"/>
-      <c r="BF151" t="inlineStr"/>
-      <c r="BG151" t="inlineStr"/>
-      <c r="BH151" t="inlineStr"/>
-      <c r="BI151" t="inlineStr"/>
-      <c r="BJ151" t="inlineStr"/>
-      <c r="BK151" t="inlineStr"/>
-      <c r="BL151" t="inlineStr"/>
-      <c r="BM151" t="inlineStr"/>
-      <c r="BN151" t="inlineStr"/>
-      <c r="BO151" t="inlineStr"/>
-      <c r="BP151" t="inlineStr"/>
-      <c r="BQ151" t="inlineStr"/>
-      <c r="BR151" t="inlineStr"/>
-      <c r="BS151" t="inlineStr"/>
-      <c r="BT151" t="inlineStr"/>
-      <c r="BU151" t="inlineStr"/>
-      <c r="BV151" t="inlineStr"/>
-      <c r="BW151" t="inlineStr"/>
-      <c r="BX151" t="inlineStr"/>
-      <c r="BY151" t="inlineStr"/>
-      <c r="BZ151" t="inlineStr"/>
-      <c r="CA151" t="inlineStr"/>
-      <c r="CB151" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC151" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD151" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE151" t="inlineStr"/>
-      <c r="CF151" t="inlineStr"/>
-      <c r="CG151" t="inlineStr"/>
-      <c r="CH151" t="inlineStr"/>
-      <c r="CI151" t="inlineStr"/>
-      <c r="CJ151" t="inlineStr"/>
-      <c r="CK151" t="inlineStr"/>
-      <c r="CL151" t="inlineStr"/>
-      <c r="CM151" t="inlineStr"/>
-      <c r="CN151" t="inlineStr"/>
-      <c r="CO151" t="inlineStr"/>
-      <c r="CP151" t="inlineStr"/>
-      <c r="CQ151" t="inlineStr"/>
-      <c r="CR151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>drf:SAMP_EFFORT</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SAMP_EFFORT</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>The amount of effort [UTF-8 character encoding] expended during an Event.</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>"40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car"</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>drf:EventExtendedFields</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr"/>
-      <c r="AB152" t="inlineStr"/>
-      <c r="AC152" t="inlineStr"/>
-      <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr"/>
-      <c r="AF152" t="inlineStr"/>
-      <c r="AG152" t="inlineStr"/>
-      <c r="AH152" t="inlineStr"/>
-      <c r="AI152" t="inlineStr"/>
-      <c r="AJ152" t="inlineStr"/>
-      <c r="AK152" t="inlineStr"/>
-      <c r="AL152" t="inlineStr"/>
-      <c r="AM152" t="inlineStr"/>
-      <c r="AN152" t="inlineStr"/>
-      <c r="AO152" t="inlineStr"/>
-      <c r="AP152" t="inlineStr"/>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
-      <c r="AS152" t="inlineStr"/>
-      <c r="AT152" t="inlineStr"/>
-      <c r="AU152" t="inlineStr"/>
-      <c r="AV152" t="inlineStr"/>
-      <c r="AW152" t="inlineStr"/>
-      <c r="AX152" t="inlineStr"/>
-      <c r="AY152" t="inlineStr"/>
-      <c r="AZ152" t="inlineStr"/>
-      <c r="BA152" t="inlineStr"/>
-      <c r="BB152" t="inlineStr"/>
-      <c r="BC152" t="inlineStr"/>
-      <c r="BD152" t="inlineStr"/>
-      <c r="BE152" t="inlineStr"/>
-      <c r="BF152" t="inlineStr"/>
-      <c r="BG152" t="inlineStr"/>
-      <c r="BH152" t="inlineStr"/>
-      <c r="BI152" t="inlineStr"/>
-      <c r="BJ152" t="inlineStr"/>
-      <c r="BK152" t="inlineStr"/>
-      <c r="BL152" t="inlineStr"/>
-      <c r="BM152" t="inlineStr"/>
-      <c r="BN152" t="inlineStr"/>
-      <c r="BO152" t="inlineStr"/>
-      <c r="BP152" t="inlineStr"/>
-      <c r="BQ152" t="inlineStr"/>
-      <c r="BR152" t="inlineStr"/>
-      <c r="BS152" t="inlineStr"/>
-      <c r="BT152" t="inlineStr"/>
-      <c r="BU152" t="inlineStr"/>
-      <c r="BV152" t="inlineStr"/>
-      <c r="BW152" t="inlineStr"/>
-      <c r="BX152" t="inlineStr"/>
-      <c r="BY152" t="inlineStr"/>
-      <c r="BZ152" t="inlineStr"/>
-      <c r="CA152" t="inlineStr"/>
-      <c r="CB152" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC152" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD152" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE152" t="inlineStr"/>
-      <c r="CF152" t="inlineStr"/>
-      <c r="CG152" t="inlineStr"/>
-      <c r="CH152" t="inlineStr"/>
-      <c r="CI152" t="inlineStr"/>
-      <c r="CJ152" t="inlineStr"/>
-      <c r="CK152" t="inlineStr"/>
-      <c r="CL152" t="inlineStr"/>
-      <c r="CM152" t="inlineStr"/>
-      <c r="CN152" t="inlineStr"/>
-      <c r="CO152" t="inlineStr"/>
-      <c r="CP152" t="inlineStr"/>
-      <c r="CQ152" t="inlineStr"/>
-      <c r="CR152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>drf:HABITAT_TYPE</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>HABITAT_TYPE</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Habitat type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Beech forest</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>drf:EventExtendedFields</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr"/>
-      <c r="AB153" t="inlineStr"/>
-      <c r="AC153" t="inlineStr"/>
-      <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr"/>
-      <c r="AF153" t="inlineStr"/>
-      <c r="AG153" t="inlineStr"/>
-      <c r="AH153" t="inlineStr"/>
-      <c r="AI153" t="inlineStr"/>
-      <c r="AJ153" t="inlineStr"/>
-      <c r="AK153" t="inlineStr"/>
-      <c r="AL153" t="inlineStr"/>
-      <c r="AM153" t="inlineStr"/>
-      <c r="AN153" t="inlineStr"/>
-      <c r="AO153" t="inlineStr"/>
-      <c r="AP153" t="inlineStr"/>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="inlineStr"/>
-      <c r="AT153" t="inlineStr"/>
-      <c r="AU153" t="inlineStr"/>
-      <c r="AV153" t="inlineStr"/>
-      <c r="AW153" t="inlineStr"/>
-      <c r="AX153" t="inlineStr"/>
-      <c r="AY153" t="inlineStr"/>
-      <c r="AZ153" t="inlineStr"/>
-      <c r="BA153" t="inlineStr"/>
-      <c r="BB153" t="inlineStr"/>
-      <c r="BC153" t="inlineStr"/>
-      <c r="BD153" t="inlineStr"/>
-      <c r="BE153" t="inlineStr"/>
-      <c r="BF153" t="inlineStr"/>
-      <c r="BG153" t="inlineStr"/>
-      <c r="BH153" t="inlineStr"/>
-      <c r="BI153" t="inlineStr"/>
-      <c r="BJ153" t="inlineStr"/>
-      <c r="BK153" t="inlineStr"/>
-      <c r="BL153" t="inlineStr"/>
-      <c r="BM153" t="inlineStr"/>
-      <c r="BN153" t="inlineStr"/>
-      <c r="BO153" t="inlineStr"/>
-      <c r="BP153" t="inlineStr"/>
-      <c r="BQ153" t="inlineStr"/>
-      <c r="BR153" t="inlineStr"/>
-      <c r="BS153" t="inlineStr"/>
-      <c r="BT153" t="inlineStr"/>
-      <c r="BU153" t="inlineStr"/>
-      <c r="BV153" t="inlineStr"/>
-      <c r="BW153" t="inlineStr"/>
-      <c r="BX153" t="inlineStr"/>
-      <c r="BY153" t="inlineStr"/>
-      <c r="BZ153" t="inlineStr"/>
-      <c r="CA153" t="inlineStr"/>
-      <c r="CB153" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC153" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD153" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE153" t="inlineStr"/>
-      <c r="CF153" t="inlineStr"/>
-      <c r="CG153" t="inlineStr"/>
-      <c r="CH153" t="inlineStr"/>
-      <c r="CI153" t="inlineStr"/>
-      <c r="CJ153" t="inlineStr"/>
-      <c r="CK153" t="inlineStr"/>
-      <c r="CL153" t="inlineStr"/>
-      <c r="CM153" t="inlineStr"/>
-      <c r="CN153" t="inlineStr"/>
-      <c r="CO153" t="inlineStr"/>
-      <c r="CP153" t="inlineStr"/>
-      <c r="CQ153" t="inlineStr"/>
-      <c r="CR153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>drf:SOIL_TYPE</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>SOIL_TYPE</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Soil type [UTF-8 character encoding] in which the Event occurred using local or existing classification or reference to a code list (as defined in REFERENCE).</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>drf:EventExtendedFields</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr"/>
-      <c r="AB154" t="inlineStr"/>
-      <c r="AC154" t="inlineStr"/>
-      <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr"/>
-      <c r="AF154" t="inlineStr"/>
-      <c r="AG154" t="inlineStr"/>
-      <c r="AH154" t="inlineStr"/>
-      <c r="AI154" t="inlineStr"/>
-      <c r="AJ154" t="inlineStr"/>
-      <c r="AK154" t="inlineStr"/>
-      <c r="AL154" t="inlineStr"/>
-      <c r="AM154" t="inlineStr"/>
-      <c r="AN154" t="inlineStr"/>
-      <c r="AO154" t="inlineStr"/>
-      <c r="AP154" t="inlineStr"/>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
-      <c r="AS154" t="inlineStr"/>
-      <c r="AT154" t="inlineStr"/>
-      <c r="AU154" t="inlineStr"/>
-      <c r="AV154" t="inlineStr"/>
-      <c r="AW154" t="inlineStr"/>
-      <c r="AX154" t="inlineStr"/>
-      <c r="AY154" t="inlineStr"/>
-      <c r="AZ154" t="inlineStr"/>
-      <c r="BA154" t="inlineStr"/>
-      <c r="BB154" t="inlineStr"/>
-      <c r="BC154" t="inlineStr"/>
-      <c r="BD154" t="inlineStr"/>
-      <c r="BE154" t="inlineStr"/>
-      <c r="BF154" t="inlineStr"/>
-      <c r="BG154" t="inlineStr"/>
-      <c r="BH154" t="inlineStr"/>
-      <c r="BI154" t="inlineStr"/>
-      <c r="BJ154" t="inlineStr"/>
-      <c r="BK154" t="inlineStr"/>
-      <c r="BL154" t="inlineStr"/>
-      <c r="BM154" t="inlineStr"/>
-      <c r="BN154" t="inlineStr"/>
-      <c r="BO154" t="inlineStr"/>
-      <c r="BP154" t="inlineStr"/>
-      <c r="BQ154" t="inlineStr"/>
-      <c r="BR154" t="inlineStr"/>
-      <c r="BS154" t="inlineStr"/>
-      <c r="BT154" t="inlineStr"/>
-      <c r="BU154" t="inlineStr"/>
-      <c r="BV154" t="inlineStr"/>
-      <c r="BW154" t="inlineStr"/>
-      <c r="BX154" t="inlineStr"/>
-      <c r="BY154" t="inlineStr"/>
-      <c r="BZ154" t="inlineStr"/>
-      <c r="CA154" t="inlineStr"/>
-      <c r="CB154" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC154" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD154" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE154" t="inlineStr"/>
-      <c r="CF154" t="inlineStr"/>
-      <c r="CG154" t="inlineStr"/>
-      <c r="CH154" t="inlineStr"/>
-      <c r="CI154" t="inlineStr"/>
-      <c r="CJ154" t="inlineStr"/>
-      <c r="CK154" t="inlineStr"/>
-      <c r="CL154" t="inlineStr"/>
-      <c r="CM154" t="inlineStr"/>
-      <c r="CN154" t="inlineStr"/>
-      <c r="CO154" t="inlineStr"/>
-      <c r="CP154" t="inlineStr"/>
-      <c r="CQ154" t="inlineStr"/>
-      <c r="CR154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>drf:SITE_CODE</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>SITE_CODE</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Site code [URL] –reference the LTER site or LTSER Platform in DEIMS-SDR. Please provide the deims.id issued by DEIMS-SDR (https://deims.org).</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://deims.org/0ce0d289-9ef9-4232-a981-8f34869db76d</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
-      <c r="AB155" t="inlineStr"/>
-      <c r="AC155" t="inlineStr"/>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
-      <c r="AF155" t="inlineStr"/>
-      <c r="AG155" t="inlineStr"/>
-      <c r="AH155" t="inlineStr"/>
-      <c r="AI155" t="inlineStr"/>
-      <c r="AJ155" t="inlineStr"/>
-      <c r="AK155" t="inlineStr"/>
-      <c r="AL155" t="inlineStr"/>
-      <c r="AM155" t="inlineStr"/>
-      <c r="AN155" t="inlineStr"/>
-      <c r="AO155" t="inlineStr"/>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
-      <c r="AS155" t="inlineStr"/>
-      <c r="AT155" t="inlineStr"/>
-      <c r="AU155" t="inlineStr"/>
-      <c r="AV155" t="inlineStr"/>
-      <c r="AW155" t="inlineStr"/>
-      <c r="AX155" t="inlineStr"/>
-      <c r="AY155" t="inlineStr"/>
-      <c r="AZ155" t="inlineStr"/>
-      <c r="BA155" t="inlineStr"/>
-      <c r="BB155" t="inlineStr"/>
-      <c r="BC155" t="inlineStr"/>
-      <c r="BD155" t="inlineStr"/>
-      <c r="BE155" t="inlineStr"/>
-      <c r="BF155" t="inlineStr"/>
-      <c r="BG155" t="inlineStr"/>
-      <c r="BH155" t="inlineStr"/>
-      <c r="BI155" t="inlineStr"/>
-      <c r="BJ155" t="inlineStr"/>
-      <c r="BK155" t="inlineStr"/>
-      <c r="BL155" t="inlineStr"/>
-      <c r="BM155" t="inlineStr"/>
-      <c r="BN155" t="inlineStr"/>
-      <c r="BO155" t="inlineStr"/>
-      <c r="BP155" t="inlineStr"/>
-      <c r="BQ155" t="inlineStr"/>
-      <c r="BR155" t="inlineStr"/>
-      <c r="BS155" t="inlineStr"/>
-      <c r="BT155" t="inlineStr"/>
-      <c r="BU155" t="inlineStr"/>
-      <c r="BV155" t="inlineStr"/>
-      <c r="BW155" t="inlineStr"/>
-      <c r="BX155" t="inlineStr"/>
-      <c r="BY155" t="inlineStr"/>
-      <c r="BZ155" t="inlineStr"/>
-      <c r="CA155" t="inlineStr"/>
-      <c r="CB155" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC155" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD155" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE155" t="inlineStr"/>
-      <c r="CF155" t="inlineStr"/>
-      <c r="CG155" t="inlineStr"/>
-      <c r="CH155" t="inlineStr"/>
-      <c r="CI155" t="inlineStr"/>
-      <c r="CJ155" t="inlineStr"/>
-      <c r="CK155" t="inlineStr"/>
-      <c r="CL155" t="inlineStr"/>
-      <c r="CM155" t="inlineStr"/>
-      <c r="CN155" t="inlineStr"/>
-      <c r="CO155" t="inlineStr"/>
-      <c r="CP155" t="inlineStr"/>
-      <c r="CQ155" t="inlineStr"/>
-      <c r="CR155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>drf:STATION_CODE</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>STATION_CODE</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Station code [UTF-8 character encoding] – as reference to the observation location (=station) defined in the table STATION</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>IP2_LYS01</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
-      <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="inlineStr"/>
-      <c r="AJ156" t="inlineStr"/>
-      <c r="AK156" t="inlineStr"/>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
-      <c r="AN156" t="inlineStr"/>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
-      <c r="AT156" t="inlineStr"/>
-      <c r="AU156" t="inlineStr"/>
-      <c r="AV156" t="inlineStr"/>
-      <c r="AW156" t="inlineStr"/>
-      <c r="AX156" t="inlineStr"/>
-      <c r="AY156" t="inlineStr"/>
-      <c r="AZ156" t="inlineStr"/>
-      <c r="BA156" t="inlineStr"/>
-      <c r="BB156" t="inlineStr"/>
-      <c r="BC156" t="inlineStr"/>
-      <c r="BD156" t="inlineStr"/>
-      <c r="BE156" t="inlineStr"/>
-      <c r="BF156" t="inlineStr"/>
-      <c r="BG156" t="inlineStr"/>
-      <c r="BH156" t="inlineStr"/>
-      <c r="BI156" t="inlineStr"/>
-      <c r="BJ156" t="inlineStr"/>
-      <c r="BK156" t="inlineStr"/>
-      <c r="BL156" t="inlineStr"/>
-      <c r="BM156" t="inlineStr"/>
-      <c r="BN156" t="inlineStr"/>
-      <c r="BO156" t="inlineStr"/>
-      <c r="BP156" t="inlineStr"/>
-      <c r="BQ156" t="inlineStr"/>
-      <c r="BR156" t="inlineStr"/>
-      <c r="BS156" t="inlineStr"/>
-      <c r="BT156" t="inlineStr"/>
-      <c r="BU156" t="inlineStr"/>
-      <c r="BV156" t="inlineStr"/>
-      <c r="BW156" t="inlineStr"/>
-      <c r="BX156" t="inlineStr"/>
-      <c r="BY156" t="inlineStr"/>
-      <c r="BZ156" t="inlineStr"/>
-      <c r="CA156" t="inlineStr"/>
-      <c r="CB156" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC156" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD156" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE156" t="inlineStr"/>
-      <c r="CF156" t="inlineStr"/>
-      <c r="CG156" t="inlineStr"/>
-      <c r="CH156" t="inlineStr"/>
-      <c r="CI156" t="inlineStr"/>
-      <c r="CJ156" t="inlineStr"/>
-      <c r="CK156" t="inlineStr"/>
-      <c r="CL156" t="inlineStr"/>
-      <c r="CM156" t="inlineStr"/>
-      <c r="CN156" t="inlineStr"/>
-      <c r="CO156" t="inlineStr"/>
-      <c r="CP156" t="inlineStr"/>
-      <c r="CQ156" t="inlineStr"/>
-      <c r="CR156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>drf:EVENT_ID</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>EVENT_ID</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>An identifier [UTF-8 character encoding] for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set. 
-This either can be a sample number or the number of a vegetation relevee. 
-Note: reference to the location (STATION_CODE) is given in the data and is not repeated in the EVENT.</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>SW0045ZOE_20200912</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
-      <c r="AF157" t="inlineStr"/>
-      <c r="AG157" t="inlineStr"/>
-      <c r="AH157" t="inlineStr"/>
-      <c r="AI157" t="inlineStr"/>
-      <c r="AJ157" t="inlineStr"/>
-      <c r="AK157" t="inlineStr"/>
-      <c r="AL157" t="inlineStr"/>
-      <c r="AM157" t="inlineStr"/>
-      <c r="AN157" t="inlineStr"/>
-      <c r="AO157" t="inlineStr"/>
-      <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
-      <c r="AT157" t="inlineStr"/>
-      <c r="AU157" t="inlineStr"/>
-      <c r="AV157" t="inlineStr"/>
-      <c r="AW157" t="inlineStr"/>
-      <c r="AX157" t="inlineStr"/>
-      <c r="AY157" t="inlineStr"/>
-      <c r="AZ157" t="inlineStr"/>
-      <c r="BA157" t="inlineStr"/>
-      <c r="BB157" t="inlineStr"/>
-      <c r="BC157" t="inlineStr"/>
-      <c r="BD157" t="inlineStr"/>
-      <c r="BE157" t="inlineStr"/>
-      <c r="BF157" t="inlineStr"/>
-      <c r="BG157" t="inlineStr"/>
-      <c r="BH157" t="inlineStr"/>
-      <c r="BI157" t="inlineStr"/>
-      <c r="BJ157" t="inlineStr"/>
-      <c r="BK157" t="inlineStr"/>
-      <c r="BL157" t="inlineStr"/>
-      <c r="BM157" t="inlineStr"/>
-      <c r="BN157" t="inlineStr"/>
-      <c r="BO157" t="inlineStr"/>
-      <c r="BP157" t="inlineStr"/>
-      <c r="BQ157" t="inlineStr"/>
-      <c r="BR157" t="inlineStr"/>
-      <c r="BS157" t="inlineStr"/>
-      <c r="BT157" t="inlineStr"/>
-      <c r="BU157" t="inlineStr"/>
-      <c r="BV157" t="inlineStr"/>
-      <c r="BW157" t="inlineStr"/>
-      <c r="BX157" t="inlineStr"/>
-      <c r="BY157" t="inlineStr"/>
-      <c r="BZ157" t="inlineStr"/>
-      <c r="CA157" t="inlineStr"/>
-      <c r="CB157" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC157" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD157" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE157" t="inlineStr"/>
-      <c r="CF157" t="inlineStr"/>
-      <c r="CG157" t="inlineStr"/>
-      <c r="CH157" t="inlineStr"/>
-      <c r="CI157" t="inlineStr"/>
-      <c r="CJ157" t="inlineStr"/>
-      <c r="CK157" t="inlineStr"/>
-      <c r="CL157" t="inlineStr"/>
-      <c r="CM157" t="inlineStr"/>
-      <c r="CN157" t="inlineStr"/>
-      <c r="CO157" t="inlineStr"/>
-      <c r="CP157" t="inlineStr"/>
-      <c r="CQ157" t="inlineStr"/>
-      <c r="CR157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>drf:SAMPLE_ID</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SAMPLE_ID</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Sample identifier [UTF-8 character encoding or PID] as the reference to the sample taken and stored during a sampling campaign</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Z12A35</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
-      <c r="AB158" t="inlineStr"/>
-      <c r="AC158" t="inlineStr"/>
-      <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
-      <c r="AF158" t="inlineStr"/>
-      <c r="AG158" t="inlineStr"/>
-      <c r="AH158" t="inlineStr"/>
-      <c r="AI158" t="inlineStr"/>
-      <c r="AJ158" t="inlineStr"/>
-      <c r="AK158" t="inlineStr"/>
-      <c r="AL158" t="inlineStr"/>
-      <c r="AM158" t="inlineStr"/>
-      <c r="AN158" t="inlineStr"/>
-      <c r="AO158" t="inlineStr"/>
-      <c r="AP158" t="inlineStr"/>
-      <c r="AQ158" t="inlineStr"/>
-      <c r="AR158" t="inlineStr"/>
-      <c r="AS158" t="inlineStr"/>
-      <c r="AT158" t="inlineStr"/>
-      <c r="AU158" t="inlineStr"/>
-      <c r="AV158" t="inlineStr"/>
-      <c r="AW158" t="inlineStr"/>
-      <c r="AX158" t="inlineStr"/>
-      <c r="AY158" t="inlineStr"/>
-      <c r="AZ158" t="inlineStr"/>
-      <c r="BA158" t="inlineStr"/>
-      <c r="BB158" t="inlineStr"/>
-      <c r="BC158" t="inlineStr"/>
-      <c r="BD158" t="inlineStr"/>
-      <c r="BE158" t="inlineStr"/>
-      <c r="BF158" t="inlineStr"/>
-      <c r="BG158" t="inlineStr"/>
-      <c r="BH158" t="inlineStr"/>
-      <c r="BI158" t="inlineStr"/>
-      <c r="BJ158" t="inlineStr"/>
-      <c r="BK158" t="inlineStr"/>
-      <c r="BL158" t="inlineStr"/>
-      <c r="BM158" t="inlineStr"/>
-      <c r="BN158" t="inlineStr"/>
-      <c r="BO158" t="inlineStr"/>
-      <c r="BP158" t="inlineStr"/>
-      <c r="BQ158" t="inlineStr"/>
-      <c r="BR158" t="inlineStr"/>
-      <c r="BS158" t="inlineStr"/>
-      <c r="BT158" t="inlineStr"/>
-      <c r="BU158" t="inlineStr"/>
-      <c r="BV158" t="inlineStr"/>
-      <c r="BW158" t="inlineStr"/>
-      <c r="BX158" t="inlineStr"/>
-      <c r="BY158" t="inlineStr"/>
-      <c r="BZ158" t="inlineStr"/>
-      <c r="CA158" t="inlineStr"/>
-      <c r="CB158" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC158" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD158" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE158" t="inlineStr"/>
-      <c r="CF158" t="inlineStr"/>
-      <c r="CG158" t="inlineStr"/>
-      <c r="CH158" t="inlineStr"/>
-      <c r="CI158" t="inlineStr"/>
-      <c r="CJ158" t="inlineStr"/>
-      <c r="CK158" t="inlineStr"/>
-      <c r="CL158" t="inlineStr"/>
-      <c r="CM158" t="inlineStr"/>
-      <c r="CN158" t="inlineStr"/>
-      <c r="CO158" t="inlineStr"/>
-      <c r="CP158" t="inlineStr"/>
-      <c r="CQ158" t="inlineStr"/>
-      <c r="CR158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>drf:MEDIUM</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Sampled medium [UTF-8 character encoding] – as the code for the sampled medium in the observation procedure 
-- AIR air including meteorology 
-- SOIL soil 
-- SOILWAT soil water 
-- WATER runoff and groundwater 
-- SEDIMENT sediments in aquatic environments 
-- LITTER litter fall 
-- BIOCOM biological communities 
-- HUMPOP human population 
-- SITECHAR site characteristics (as habitat or landscape structure) 
-Additional values need to be defined in the REFERENCE.</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>SOILWAT</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr"/>
-      <c r="AB159" t="inlineStr"/>
-      <c r="AC159" t="inlineStr"/>
-      <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
-      <c r="AF159" t="inlineStr"/>
-      <c r="AG159" t="inlineStr"/>
-      <c r="AH159" t="inlineStr"/>
-      <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
-      <c r="AK159" t="inlineStr"/>
-      <c r="AL159" t="inlineStr"/>
-      <c r="AM159" t="inlineStr"/>
-      <c r="AN159" t="inlineStr"/>
-      <c r="AO159" t="inlineStr"/>
-      <c r="AP159" t="inlineStr"/>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
-      <c r="AS159" t="inlineStr"/>
-      <c r="AT159" t="inlineStr"/>
-      <c r="AU159" t="inlineStr"/>
-      <c r="AV159" t="inlineStr"/>
-      <c r="AW159" t="inlineStr"/>
-      <c r="AX159" t="inlineStr"/>
-      <c r="AY159" t="inlineStr"/>
-      <c r="AZ159" t="inlineStr"/>
-      <c r="BA159" t="inlineStr"/>
-      <c r="BB159" t="inlineStr"/>
-      <c r="BC159" t="inlineStr"/>
-      <c r="BD159" t="inlineStr"/>
-      <c r="BE159" t="inlineStr"/>
-      <c r="BF159" t="inlineStr"/>
-      <c r="BG159" t="inlineStr"/>
-      <c r="BH159" t="inlineStr"/>
-      <c r="BI159" t="inlineStr"/>
-      <c r="BJ159" t="inlineStr"/>
-      <c r="BK159" t="inlineStr"/>
-      <c r="BL159" t="inlineStr"/>
-      <c r="BM159" t="inlineStr"/>
-      <c r="BN159" t="inlineStr"/>
-      <c r="BO159" t="inlineStr"/>
-      <c r="BP159" t="inlineStr"/>
-      <c r="BQ159" t="inlineStr"/>
-      <c r="BR159" t="inlineStr"/>
-      <c r="BS159" t="inlineStr"/>
-      <c r="BT159" t="inlineStr"/>
-      <c r="BU159" t="inlineStr"/>
-      <c r="BV159" t="inlineStr"/>
-      <c r="BW159" t="inlineStr"/>
-      <c r="BX159" t="inlineStr"/>
-      <c r="BY159" t="inlineStr"/>
-      <c r="BZ159" t="inlineStr"/>
-      <c r="CA159" t="inlineStr"/>
-      <c r="CB159" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC159" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD159" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE159" t="inlineStr"/>
-      <c r="CF159" t="inlineStr"/>
-      <c r="CG159" t="inlineStr"/>
-      <c r="CH159" t="inlineStr"/>
-      <c r="CI159" t="inlineStr"/>
-      <c r="CJ159" t="inlineStr"/>
-      <c r="CK159" t="inlineStr"/>
-      <c r="CL159" t="inlineStr"/>
-      <c r="CM159" t="inlineStr"/>
-      <c r="CN159" t="inlineStr"/>
-      <c r="CO159" t="inlineStr"/>
-      <c r="CP159" t="inlineStr"/>
-      <c r="CQ159" t="inlineStr"/>
-      <c r="CR159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>drf:TIME_FROM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>TIME_FROM</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>timestamp start time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr"/>
-      <c r="AH160" t="inlineStr"/>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr"/>
-      <c r="AK160" t="inlineStr"/>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
-      <c r="AN160" t="inlineStr"/>
-      <c r="AO160" t="inlineStr"/>
-      <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
-      <c r="AS160" t="inlineStr"/>
-      <c r="AT160" t="inlineStr"/>
-      <c r="AU160" t="inlineStr"/>
-      <c r="AV160" t="inlineStr"/>
-      <c r="AW160" t="inlineStr"/>
-      <c r="AX160" t="inlineStr"/>
-      <c r="AY160" t="inlineStr"/>
-      <c r="AZ160" t="inlineStr"/>
-      <c r="BA160" t="inlineStr"/>
-      <c r="BB160" t="inlineStr"/>
-      <c r="BC160" t="inlineStr"/>
-      <c r="BD160" t="inlineStr"/>
-      <c r="BE160" t="inlineStr"/>
-      <c r="BF160" t="inlineStr"/>
-      <c r="BG160" t="inlineStr"/>
-      <c r="BH160" t="inlineStr"/>
-      <c r="BI160" t="inlineStr"/>
-      <c r="BJ160" t="inlineStr"/>
-      <c r="BK160" t="inlineStr"/>
-      <c r="BL160" t="inlineStr"/>
-      <c r="BM160" t="inlineStr"/>
-      <c r="BN160" t="inlineStr"/>
-      <c r="BO160" t="inlineStr"/>
-      <c r="BP160" t="inlineStr"/>
-      <c r="BQ160" t="inlineStr"/>
-      <c r="BR160" t="inlineStr"/>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr"/>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr"/>
-      <c r="BW160" t="inlineStr"/>
-      <c r="BX160" t="inlineStr"/>
-      <c r="BY160" t="inlineStr"/>
-      <c r="BZ160" t="inlineStr"/>
-      <c r="CA160" t="inlineStr"/>
-      <c r="CB160" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC160" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD160" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE160" t="inlineStr"/>
-      <c r="CF160" t="inlineStr"/>
-      <c r="CG160" t="inlineStr"/>
-      <c r="CH160" t="inlineStr"/>
-      <c r="CI160" t="inlineStr"/>
-      <c r="CJ160" t="inlineStr"/>
-      <c r="CK160" t="inlineStr"/>
-      <c r="CL160" t="inlineStr"/>
-      <c r="CM160" t="inlineStr"/>
-      <c r="CN160" t="inlineStr"/>
-      <c r="CO160" t="inlineStr"/>
-      <c r="CP160" t="inlineStr"/>
-      <c r="CQ160" t="inlineStr"/>
-      <c r="CR160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>drf:TIME_TO</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>TIME_TO</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>timestamp end time when sample was taken [ISO date] (according to ISO 8601): calendar dates as YYYY-MM-DD, time as HH:MM:SS in UTC plus offset; combined date and time as YYYY-MM-DDTHH:MMOffset, e.g. 2007-04-05T12:30:00-02:00 Any time information in converted to UTC time (e.g. 2017-03-03T11:00+00:00 or 2017-03-03T11:00UTC or 2017-03-03T11:00Z) or local times, if the UTC offset is provided (e.g. 2017-03-03T13:00+02:00)</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2017-03-03T13:00+02:00</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
-      <c r="AA161" t="inlineStr"/>
-      <c r="AB161" t="inlineStr"/>
-      <c r="AC161" t="inlineStr"/>
-      <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr"/>
-      <c r="AF161" t="inlineStr"/>
-      <c r="AG161" t="inlineStr"/>
-      <c r="AH161" t="inlineStr"/>
-      <c r="AI161" t="inlineStr"/>
-      <c r="AJ161" t="inlineStr"/>
-      <c r="AK161" t="inlineStr"/>
-      <c r="AL161" t="inlineStr"/>
-      <c r="AM161" t="inlineStr"/>
-      <c r="AN161" t="inlineStr"/>
-      <c r="AO161" t="inlineStr"/>
-      <c r="AP161" t="inlineStr"/>
-      <c r="AQ161" t="inlineStr"/>
-      <c r="AR161" t="inlineStr"/>
-      <c r="AS161" t="inlineStr"/>
-      <c r="AT161" t="inlineStr"/>
-      <c r="AU161" t="inlineStr"/>
-      <c r="AV161" t="inlineStr"/>
-      <c r="AW161" t="inlineStr"/>
-      <c r="AX161" t="inlineStr"/>
-      <c r="AY161" t="inlineStr"/>
-      <c r="AZ161" t="inlineStr"/>
-      <c r="BA161" t="inlineStr"/>
-      <c r="BB161" t="inlineStr"/>
-      <c r="BC161" t="inlineStr"/>
-      <c r="BD161" t="inlineStr"/>
-      <c r="BE161" t="inlineStr"/>
-      <c r="BF161" t="inlineStr"/>
-      <c r="BG161" t="inlineStr"/>
-      <c r="BH161" t="inlineStr"/>
-      <c r="BI161" t="inlineStr"/>
-      <c r="BJ161" t="inlineStr"/>
-      <c r="BK161" t="inlineStr"/>
-      <c r="BL161" t="inlineStr"/>
-      <c r="BM161" t="inlineStr"/>
-      <c r="BN161" t="inlineStr"/>
-      <c r="BO161" t="inlineStr"/>
-      <c r="BP161" t="inlineStr"/>
-      <c r="BQ161" t="inlineStr"/>
-      <c r="BR161" t="inlineStr"/>
-      <c r="BS161" t="inlineStr"/>
-      <c r="BT161" t="inlineStr"/>
-      <c r="BU161" t="inlineStr"/>
-      <c r="BV161" t="inlineStr"/>
-      <c r="BW161" t="inlineStr"/>
-      <c r="BX161" t="inlineStr"/>
-      <c r="BY161" t="inlineStr"/>
-      <c r="BZ161" t="inlineStr"/>
-      <c r="CA161" t="inlineStr"/>
-      <c r="CB161" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC161" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD161" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE161" t="inlineStr"/>
-      <c r="CF161" t="inlineStr"/>
-      <c r="CG161" t="inlineStr"/>
-      <c r="CH161" t="inlineStr"/>
-      <c r="CI161" t="inlineStr"/>
-      <c r="CJ161" t="inlineStr"/>
-      <c r="CK161" t="inlineStr"/>
-      <c r="CL161" t="inlineStr"/>
-      <c r="CM161" t="inlineStr"/>
-      <c r="CN161" t="inlineStr"/>
-      <c r="CO161" t="inlineStr"/>
-      <c r="CP161" t="inlineStr"/>
-      <c r="CQ161" t="inlineStr"/>
-      <c r="CR161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>drf:METH_DESCR</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>METH_DESCR</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Short description of the method [UTF-8 character encoding] applied in the sampling campaign, e.g. on how the plots were selected from the total population (selection of plots, observation points, etc.) and the observation was done 
-Condition: Please provide, if not contained in METHOD.</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Lysimeter station …</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr"/>
-      <c r="AB162" t="inlineStr"/>
-      <c r="AC162" t="inlineStr"/>
-      <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr"/>
-      <c r="AF162" t="inlineStr"/>
-      <c r="AG162" t="inlineStr"/>
-      <c r="AH162" t="inlineStr"/>
-      <c r="AI162" t="inlineStr"/>
-      <c r="AJ162" t="inlineStr"/>
-      <c r="AK162" t="inlineStr"/>
-      <c r="AL162" t="inlineStr"/>
-      <c r="AM162" t="inlineStr"/>
-      <c r="AN162" t="inlineStr"/>
-      <c r="AO162" t="inlineStr"/>
-      <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
-      <c r="AR162" t="inlineStr"/>
-      <c r="AS162" t="inlineStr"/>
-      <c r="AT162" t="inlineStr"/>
-      <c r="AU162" t="inlineStr"/>
-      <c r="AV162" t="inlineStr"/>
-      <c r="AW162" t="inlineStr"/>
-      <c r="AX162" t="inlineStr"/>
-      <c r="AY162" t="inlineStr"/>
-      <c r="AZ162" t="inlineStr"/>
-      <c r="BA162" t="inlineStr"/>
-      <c r="BB162" t="inlineStr"/>
-      <c r="BC162" t="inlineStr"/>
-      <c r="BD162" t="inlineStr"/>
-      <c r="BE162" t="inlineStr"/>
-      <c r="BF162" t="inlineStr"/>
-      <c r="BG162" t="inlineStr"/>
-      <c r="BH162" t="inlineStr"/>
-      <c r="BI162" t="inlineStr"/>
-      <c r="BJ162" t="inlineStr"/>
-      <c r="BK162" t="inlineStr"/>
-      <c r="BL162" t="inlineStr"/>
-      <c r="BM162" t="inlineStr"/>
-      <c r="BN162" t="inlineStr"/>
-      <c r="BO162" t="inlineStr"/>
-      <c r="BP162" t="inlineStr"/>
-      <c r="BQ162" t="inlineStr"/>
-      <c r="BR162" t="inlineStr"/>
-      <c r="BS162" t="inlineStr"/>
-      <c r="BT162" t="inlineStr"/>
-      <c r="BU162" t="inlineStr"/>
-      <c r="BV162" t="inlineStr"/>
-      <c r="BW162" t="inlineStr"/>
-      <c r="BX162" t="inlineStr"/>
-      <c r="BY162" t="inlineStr"/>
-      <c r="BZ162" t="inlineStr"/>
-      <c r="CA162" t="inlineStr"/>
-      <c r="CB162" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC162" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD162" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE162" t="inlineStr"/>
-      <c r="CF162" t="inlineStr"/>
-      <c r="CG162" t="inlineStr"/>
-      <c r="CH162" t="inlineStr"/>
-      <c r="CI162" t="inlineStr"/>
-      <c r="CJ162" t="inlineStr"/>
-      <c r="CK162" t="inlineStr"/>
-      <c r="CL162" t="inlineStr"/>
-      <c r="CM162" t="inlineStr"/>
-      <c r="CN162" t="inlineStr"/>
-      <c r="CO162" t="inlineStr"/>
-      <c r="CP162" t="inlineStr"/>
-      <c r="CQ162" t="inlineStr"/>
-      <c r="CR162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>drf:SAMP_SIZE</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SAMP_SIZE</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>A numeric value [number] for a measurement of the size (e.g. length, area, or volume) of a sample in a sampling event.</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
-      <c r="AA163" t="inlineStr"/>
-      <c r="AB163" t="inlineStr"/>
-      <c r="AC163" t="inlineStr"/>
-      <c r="AD163" t="inlineStr"/>
-      <c r="AE163" t="inlineStr"/>
-      <c r="AF163" t="inlineStr"/>
-      <c r="AG163" t="inlineStr"/>
-      <c r="AH163" t="inlineStr"/>
-      <c r="AI163" t="inlineStr"/>
-      <c r="AJ163" t="inlineStr"/>
-      <c r="AK163" t="inlineStr"/>
-      <c r="AL163" t="inlineStr"/>
-      <c r="AM163" t="inlineStr"/>
-      <c r="AN163" t="inlineStr"/>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
-      <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="inlineStr"/>
-      <c r="AS163" t="inlineStr"/>
-      <c r="AT163" t="inlineStr"/>
-      <c r="AU163" t="inlineStr"/>
-      <c r="AV163" t="inlineStr"/>
-      <c r="AW163" t="inlineStr"/>
-      <c r="AX163" t="inlineStr"/>
-      <c r="AY163" t="inlineStr"/>
-      <c r="AZ163" t="inlineStr"/>
-      <c r="BA163" t="inlineStr"/>
-      <c r="BB163" t="inlineStr"/>
-      <c r="BC163" t="inlineStr"/>
-      <c r="BD163" t="inlineStr"/>
-      <c r="BE163" t="inlineStr"/>
-      <c r="BF163" t="inlineStr"/>
-      <c r="BG163" t="inlineStr"/>
-      <c r="BH163" t="inlineStr"/>
-      <c r="BI163" t="inlineStr"/>
-      <c r="BJ163" t="inlineStr"/>
-      <c r="BK163" t="inlineStr"/>
-      <c r="BL163" t="inlineStr"/>
-      <c r="BM163" t="inlineStr"/>
-      <c r="BN163" t="inlineStr"/>
-      <c r="BO163" t="inlineStr"/>
-      <c r="BP163" t="inlineStr"/>
-      <c r="BQ163" t="inlineStr"/>
-      <c r="BR163" t="inlineStr"/>
-      <c r="BS163" t="inlineStr"/>
-      <c r="BT163" t="inlineStr"/>
-      <c r="BU163" t="inlineStr"/>
-      <c r="BV163" t="inlineStr"/>
-      <c r="BW163" t="inlineStr"/>
-      <c r="BX163" t="inlineStr"/>
-      <c r="BY163" t="inlineStr"/>
-      <c r="BZ163" t="inlineStr"/>
-      <c r="CA163" t="inlineStr"/>
-      <c r="CB163" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC163" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD163" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE163" t="inlineStr"/>
-      <c r="CF163" t="inlineStr"/>
-      <c r="CG163" t="inlineStr"/>
-      <c r="CH163" t="inlineStr"/>
-      <c r="CI163" t="inlineStr"/>
-      <c r="CJ163" t="inlineStr"/>
-      <c r="CK163" t="inlineStr"/>
-      <c r="CL163" t="inlineStr"/>
-      <c r="CM163" t="inlineStr"/>
-      <c r="CN163" t="inlineStr"/>
-      <c r="CO163" t="inlineStr"/>
-      <c r="CP163" t="inlineStr"/>
-      <c r="CQ163" t="inlineStr"/>
-      <c r="CR163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>drf:UNIT</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Unit [UTF-8 character encoding] of variable or parameter observed. This information can be provided together with the METHOD or with the DATA. 
-For the units the SI units (https://physics.nist.gov/cuu/Units/units.html) are used. Condition: provided if relevant</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr"/>
-      <c r="AB164" t="inlineStr"/>
-      <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
-      <c r="AF164" t="inlineStr"/>
-      <c r="AG164" t="inlineStr"/>
-      <c r="AH164" t="inlineStr"/>
-      <c r="AI164" t="inlineStr"/>
-      <c r="AJ164" t="inlineStr"/>
-      <c r="AK164" t="inlineStr"/>
-      <c r="AL164" t="inlineStr"/>
-      <c r="AM164" t="inlineStr"/>
-      <c r="AN164" t="inlineStr"/>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
-      <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
-      <c r="AS164" t="inlineStr"/>
-      <c r="AT164" t="inlineStr"/>
-      <c r="AU164" t="inlineStr"/>
-      <c r="AV164" t="inlineStr"/>
-      <c r="AW164" t="inlineStr"/>
-      <c r="AX164" t="inlineStr"/>
-      <c r="AY164" t="inlineStr"/>
-      <c r="AZ164" t="inlineStr"/>
-      <c r="BA164" t="inlineStr"/>
-      <c r="BB164" t="inlineStr"/>
-      <c r="BC164" t="inlineStr"/>
-      <c r="BD164" t="inlineStr"/>
-      <c r="BE164" t="inlineStr"/>
-      <c r="BF164" t="inlineStr"/>
-      <c r="BG164" t="inlineStr"/>
-      <c r="BH164" t="inlineStr"/>
-      <c r="BI164" t="inlineStr"/>
-      <c r="BJ164" t="inlineStr"/>
-      <c r="BK164" t="inlineStr"/>
-      <c r="BL164" t="inlineStr"/>
-      <c r="BM164" t="inlineStr"/>
-      <c r="BN164" t="inlineStr"/>
-      <c r="BO164" t="inlineStr"/>
-      <c r="BP164" t="inlineStr"/>
-      <c r="BQ164" t="inlineStr"/>
-      <c r="BR164" t="inlineStr"/>
-      <c r="BS164" t="inlineStr"/>
-      <c r="BT164" t="inlineStr"/>
-      <c r="BU164" t="inlineStr"/>
-      <c r="BV164" t="inlineStr"/>
-      <c r="BW164" t="inlineStr"/>
-      <c r="BX164" t="inlineStr"/>
-      <c r="BY164" t="inlineStr"/>
-      <c r="BZ164" t="inlineStr"/>
-      <c r="CA164" t="inlineStr"/>
-      <c r="CB164" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC164" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD164" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE164" t="inlineStr"/>
-      <c r="CF164" t="inlineStr"/>
-      <c r="CG164" t="inlineStr"/>
-      <c r="CH164" t="inlineStr"/>
-      <c r="CI164" t="inlineStr"/>
-      <c r="CJ164" t="inlineStr"/>
-      <c r="CK164" t="inlineStr"/>
-      <c r="CL164" t="inlineStr"/>
-      <c r="CM164" t="inlineStr"/>
-      <c r="CN164" t="inlineStr"/>
-      <c r="CO164" t="inlineStr"/>
-      <c r="CP164" t="inlineStr"/>
-      <c r="CQ164" t="inlineStr"/>
-      <c r="CR164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>drf:NOTES</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>skos:Concept</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Notes on [UTF-8 character encoding] of a) an indicator of the existence of, b) a reference to (publication, URI), or c) the text of notes taken in the field about the Event.</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>drf:SampleEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr"/>
-      <c r="AB165" t="inlineStr"/>
-      <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
-      <c r="AF165" t="inlineStr"/>
-      <c r="AG165" t="inlineStr"/>
-      <c r="AH165" t="inlineStr"/>
-      <c r="AI165" t="inlineStr"/>
-      <c r="AJ165" t="inlineStr"/>
-      <c r="AK165" t="inlineStr"/>
-      <c r="AL165" t="inlineStr"/>
-      <c r="AM165" t="inlineStr"/>
-      <c r="AN165" t="inlineStr"/>
-      <c r="AO165" t="inlineStr"/>
-      <c r="AP165" t="inlineStr"/>
-      <c r="AQ165" t="inlineStr"/>
-      <c r="AR165" t="inlineStr"/>
-      <c r="AS165" t="inlineStr"/>
-      <c r="AT165" t="inlineStr"/>
-      <c r="AU165" t="inlineStr"/>
-      <c r="AV165" t="inlineStr"/>
-      <c r="AW165" t="inlineStr"/>
-      <c r="AX165" t="inlineStr"/>
-      <c r="AY165" t="inlineStr"/>
-      <c r="AZ165" t="inlineStr"/>
-      <c r="BA165" t="inlineStr"/>
-      <c r="BB165" t="inlineStr"/>
-      <c r="BC165" t="inlineStr"/>
-      <c r="BD165" t="inlineStr"/>
-      <c r="BE165" t="inlineStr"/>
-      <c r="BF165" t="inlineStr"/>
-      <c r="BG165" t="inlineStr"/>
-      <c r="BH165" t="inlineStr"/>
-      <c r="BI165" t="inlineStr"/>
-      <c r="BJ165" t="inlineStr"/>
-      <c r="BK165" t="inlineStr"/>
-      <c r="BL165" t="inlineStr"/>
-      <c r="BM165" t="inlineStr"/>
-      <c r="BN165" t="inlineStr"/>
-      <c r="BO165" t="inlineStr"/>
-      <c r="BP165" t="inlineStr"/>
-      <c r="BQ165" t="inlineStr"/>
-      <c r="BR165" t="inlineStr"/>
-      <c r="BS165" t="inlineStr"/>
-      <c r="BT165" t="inlineStr"/>
-      <c r="BU165" t="inlineStr"/>
-      <c r="BV165" t="inlineStr"/>
-      <c r="BW165" t="inlineStr"/>
-      <c r="BX165" t="inlineStr"/>
-      <c r="BY165" t="inlineStr"/>
-      <c r="BZ165" t="inlineStr"/>
-      <c r="CA165" t="inlineStr"/>
-      <c r="CB165" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="CC165" t="inlineStr">
-        <is>
-          <t>0000-0002-7997-219X</t>
-        </is>
-      </c>
-      <c r="CD165" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="CE165" t="inlineStr"/>
-      <c r="CF165" t="inlineStr"/>
-      <c r="CG165" t="inlineStr"/>
-      <c r="CH165" t="inlineStr"/>
-      <c r="CI165" t="inlineStr"/>
-      <c r="CJ165" t="inlineStr"/>
-      <c r="CK165" t="inlineStr"/>
-      <c r="CL165" t="inlineStr"/>
-      <c r="CM165" t="inlineStr"/>
-      <c r="CN165" t="inlineStr"/>
-      <c r="CO165" t="inlineStr"/>
-      <c r="CP165" t="inlineStr"/>
-      <c r="CQ165" t="inlineStr"/>
-      <c r="CR165" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/eLTER_DRF.xlsx
+++ b/eLTER_DRF.xlsx
@@ -5717,11 +5717,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>dwc:institutionID</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -5847,11 +5843,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>dwc:locationID</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -5977,11 +5969,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>dwc:footprintWKT</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -6107,11 +6095,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>dwc:decimalLatitude</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -6237,11 +6221,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>dwc:decimalLongitude</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -6367,11 +6347,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>dwc:verbatimElevation</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -6497,11 +6473,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>dwc:totalAreaSampledValue</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -6627,11 +6599,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>dwc:locationRemarks</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -6757,11 +6725,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>dwc:footprintWKT</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -6887,11 +6851,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>dwc:locality</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -7017,11 +6977,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>dwc:decimalLongitude</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -7157,7 +7113,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>dwc:decimalLongitude</t>
+          <t>dwc:institutionID</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -7296,7 +7252,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:locationID</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -7439,7 +7395,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>dwc:decimalLatitude</t>
+          <t>dwc:footprintWKT</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -7586,7 +7542,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>dwc:minimumElevationInMeters</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -7737,7 +7693,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>dwc:maximumElevationInMeters</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -7884,7 +7840,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>dwc:countryCode</t>
+          <t>dwc:verbatimElevation</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -8028,7 +7984,11 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>dwc:totalAreaSampledValue</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
@@ -8162,7 +8122,11 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>dwc:locationRemarks</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -8292,7 +8256,11 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>dwc:footprintWKT</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -8428,7 +8396,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
+          <t>dwc:locality</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -8570,7 +8538,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>dwc:habitat</t>
+          <t>dwc:decimalLongitude</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -8714,7 +8682,11 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>dwc:decimalLongitude</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
@@ -8856,7 +8828,11 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>dwc:decimalLatitude</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
@@ -9000,7 +8976,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>dwc:measurementType</t>
+          <t>dwc:decimalLatitude</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -9146,7 +9122,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>dwc:measurementMethod</t>
+          <t>dwc:minimumElevationInMeters</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -9292,7 +9268,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>dwc:measurementUnit</t>
+          <t>dwc:maximumElevationInMeters</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -9434,7 +9410,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>dwc:samplingProtocol</t>
+          <t>dwc:countryCode</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -9574,11 +9550,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>dwc:measurementMethod</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -9712,11 +9684,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>dwc:measurementMethod</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -9846,11 +9814,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>dwc:dataGeneralizations</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -10122,7 +10086,11 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>dwc:habitat</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -10256,11 +10224,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>dwc:eventDate</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -10532,7 +10496,11 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>dwc:measurementType</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -10666,7 +10634,11 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>dwc:measurementMethod</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -10802,7 +10774,7 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>dwc:materialSampleID</t>
+          <t>dwc:measurementUnit</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -10940,7 +10912,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>dwc:verbatimCoordinates</t>
+          <t>dwc:samplingProtocol</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -11076,7 +11048,11 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>dwc:measurementMethod</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -11212,7 +11188,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>dwc:scientificName</t>
+          <t>dwc:measurementMethod</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -11350,7 +11326,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>dwc:ownerInstitutionCode</t>
+          <t>dwc:dataGeneralizations</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -11490,7 +11466,11 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
@@ -11777,7 +11757,7 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>dwc:maximumDistanceAboveSurfaceInMeters</t>
+          <t>dwc:eventDate</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -11913,11 +11893,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -12196,11 +12172,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>dwc:year</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -12337,7 +12309,7 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>dwc:month</t>
+          <t>dwc:materialSampleID</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -12477,7 +12449,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>dwc:day</t>
+          <t>dwc:verbatimCoordinates</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -12757,7 +12729,11 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>dwc:scientificName</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -12891,7 +12867,11 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>dwc:ownerInstitutionCode</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -13302,7 +13282,11 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>dwc:maximumDistanceAboveSurfaceInMeters</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
@@ -13444,7 +13428,11 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>dwc:minimumDistanceAboveSurfaceInMeters</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
@@ -13729,7 +13717,11 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>dwc:year</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -13865,7 +13857,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>dwc:nomenclaturalCode</t>
+          <t>dwc:month</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -14003,7 +13995,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>dwc:scientificName</t>
+          <t>dwc:day</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -14542,11 +14534,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>dwc:eventID</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -14681,11 +14669,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>dwc:eventDate / eventTime</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -14823,11 +14807,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>dwc:eventDate / eventTime</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -15095,11 +15075,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>dwc:samplingEffort</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -15233,11 +15209,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>dwc:materialSampleID</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -15373,7 +15345,7 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>dwc:fieldNotes</t>
+          <t>dwc:nomenclaturalCode</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -15511,7 +15483,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>dwc:eventID</t>
+          <t>dwc:scientificName</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -15647,11 +15619,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>dwc:samplingEffort</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -15785,11 +15753,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>dwc:habitat</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -16061,7 +16025,7 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>dwc:materialSample</t>
+          <t>dwc:eventID</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -16199,8 +16163,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve">dwc:sampleSizeValue
-</t>
+          <t>dwc:eventDate / eventTime</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -16336,7 +16299,11 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>dwc:eventDate / eventTime</t>
+        </is>
+      </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -16605,7 +16572,11 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>dwc:samplingEffort</t>
+        </is>
+      </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -16740,7 +16711,11 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>dwc:materialSampleID</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -16870,7 +16845,11 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>dwc:fieldNotes</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -17006,7 +16985,11 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>dwc:eventID</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -17140,7 +17123,11 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>dwc:samplingEffort</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -17274,7 +17261,11 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>dwc:habitat</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -17548,7 +17539,11 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>dwc:materialSample</t>
+        </is>
+      </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -17682,7 +17677,12 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dwc:sampleSizeValue
+</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
